--- a/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
@@ -1000,13 +1000,55 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1018,20 +1060,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1057,6 +1102,30 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1065,75 +1134,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1438,11 +1438,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="PE2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="QN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="SX10" sqref="SX10"/>
+      <selection pane="bottomRight" activeCell="RR11" sqref="RR11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1455,31 +1455,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="C1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="40"/>
-      <c r="Q1" s="40"/>
-      <c r="R1" s="41"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="56"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
@@ -1638,13 +1638,17 @@
       <c r="EZ3" s="3"/>
       <c r="FA3" s="3"/>
       <c r="FB3" s="3"/>
-      <c r="FC3" s="3"/>
-      <c r="FD3" s="3"/>
+      <c r="FC3" s="26">
+        <v>16</v>
+      </c>
+      <c r="FD3" s="26">
+        <v>16</v>
+      </c>
       <c r="FE3" s="3"/>
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="51"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="18"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1666,8 +1670,12 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="3"/>
-      <c r="Y4" s="3"/>
+      <c r="X4" s="26">
+        <v>13</v>
+      </c>
+      <c r="Y4" s="26">
+        <v>13</v>
+      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -1733,10 +1741,12 @@
       <c r="CJ4" s="3"/>
       <c r="CK4" s="3"/>
       <c r="CL4" s="3"/>
-      <c r="CM4" s="64">
+      <c r="CM4" s="26">
         <v>16</v>
       </c>
-      <c r="CN4" s="3"/>
+      <c r="CN4" s="26">
+        <v>16</v>
+      </c>
       <c r="CO4" s="3"/>
       <c r="CP4" s="3"/>
       <c r="CQ4" s="3"/>
@@ -1753,8 +1763,12 @@
       <c r="DB4" s="3"/>
       <c r="DC4" s="3"/>
       <c r="DD4" s="3"/>
-      <c r="DE4" s="3"/>
-      <c r="DF4" s="3"/>
+      <c r="DE4" s="26">
+        <v>15</v>
+      </c>
+      <c r="DF4" s="26">
+        <v>15</v>
+      </c>
       <c r="DG4" s="3"/>
       <c r="DH4" s="3"/>
       <c r="DI4" s="3"/>
@@ -1803,15 +1817,35 @@
       <c r="EZ4" s="3"/>
       <c r="FA4" s="3"/>
       <c r="FB4" s="3"/>
-      <c r="FC4" s="64">
+      <c r="FC4" s="26">
         <v>16</v>
       </c>
-      <c r="FD4" s="3"/>
+      <c r="FD4" s="26">
+        <v>16</v>
+      </c>
       <c r="FE4" s="3"/>
+      <c r="HD4" s="26">
+        <v>12</v>
+      </c>
+      <c r="HE4" s="26">
+        <v>12</v>
+      </c>
+      <c r="II4" s="26">
+        <v>6</v>
+      </c>
+      <c r="IJ4" s="26">
+        <v>6</v>
+      </c>
+      <c r="OQ4" s="26">
+        <v>6</v>
+      </c>
+      <c r="OR4" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="51"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -1824,16 +1858,16 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="67">
-        <v>0</v>
-      </c>
-      <c r="P5" s="67">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="67">
-        <v>0</v>
-      </c>
-      <c r="R5" s="67">
+      <c r="O5" s="29">
+        <v>0</v>
+      </c>
+      <c r="P5" s="29">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="29">
+        <v>0</v>
+      </c>
+      <c r="R5" s="29">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
@@ -1841,10 +1875,12 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="64">
+      <c r="X5" s="26">
         <v>13</v>
       </c>
-      <c r="Y5" s="3"/>
+      <c r="Y5" s="26">
+        <v>13</v>
+      </c>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -1863,10 +1899,12 @@
       <c r="AO5" s="3"/>
       <c r="AP5" s="3"/>
       <c r="AQ5" s="3"/>
-      <c r="AR5" s="64">
+      <c r="AR5" s="26">
         <v>12</v>
       </c>
-      <c r="AS5" s="3"/>
+      <c r="AS5" s="26">
+        <v>12</v>
+      </c>
       <c r="AT5" s="3"/>
       <c r="AU5" s="3"/>
       <c r="AV5" s="3"/>
@@ -1892,8 +1930,12 @@
       <c r="BP5" s="3"/>
       <c r="BQ5" s="3"/>
       <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
+      <c r="BS5" s="26">
+        <v>15</v>
+      </c>
+      <c r="BT5" s="26">
+        <v>15</v>
+      </c>
       <c r="BU5" s="3"/>
       <c r="BV5" s="3"/>
       <c r="BW5" s="3"/>
@@ -1912,8 +1954,12 @@
       <c r="CJ5" s="3"/>
       <c r="CK5" s="3"/>
       <c r="CL5" s="3"/>
-      <c r="CM5" s="3"/>
-      <c r="CN5" s="3"/>
+      <c r="CM5" s="26">
+        <v>16</v>
+      </c>
+      <c r="CN5" s="26">
+        <v>16</v>
+      </c>
       <c r="CO5" s="3"/>
       <c r="CP5" s="3"/>
       <c r="CQ5" s="3"/>
@@ -1930,10 +1976,12 @@
       <c r="DB5" s="3"/>
       <c r="DC5" s="3"/>
       <c r="DD5" s="3"/>
-      <c r="DE5" s="64">
+      <c r="DE5" s="26">
         <v>15</v>
       </c>
-      <c r="DF5" s="3"/>
+      <c r="DF5" s="26">
+        <v>15</v>
+      </c>
       <c r="DG5" s="3"/>
       <c r="DH5" s="3"/>
       <c r="DI5" s="3"/>
@@ -1956,12 +2004,24 @@
       <c r="DZ5" s="3"/>
       <c r="EA5" s="3"/>
       <c r="EB5" s="3"/>
-      <c r="EC5" s="3"/>
-      <c r="ED5" s="3"/>
-      <c r="EE5" s="3"/>
-      <c r="EF5" s="3"/>
-      <c r="EG5" s="3"/>
-      <c r="EH5" s="3"/>
+      <c r="EC5" s="26">
+        <v>2</v>
+      </c>
+      <c r="ED5" s="26">
+        <v>2</v>
+      </c>
+      <c r="EE5" s="26">
+        <v>3</v>
+      </c>
+      <c r="EF5" s="26">
+        <v>3</v>
+      </c>
+      <c r="EG5" s="26">
+        <v>4</v>
+      </c>
+      <c r="EH5" s="26">
+        <v>4</v>
+      </c>
       <c r="EI5" s="3"/>
       <c r="EJ5" s="3"/>
       <c r="EK5" s="3"/>
@@ -1985,41 +2045,68 @@
       <c r="FC5" s="3"/>
       <c r="FD5" s="3"/>
       <c r="FE5" s="3"/>
-      <c r="HD5" s="64">
+      <c r="HD5" s="26">
         <v>12</v>
       </c>
-      <c r="II5" s="64">
+      <c r="HE5" s="26">
+        <v>12</v>
+      </c>
+      <c r="II5" s="26">
         <v>6</v>
       </c>
-      <c r="OP5" s="64">
+      <c r="IJ5" s="26">
+        <v>6</v>
+      </c>
+      <c r="JP5" s="26">
+        <v>6</v>
+      </c>
+      <c r="JQ5" s="26">
+        <v>6</v>
+      </c>
+      <c r="ME5" s="26">
+        <v>6</v>
+      </c>
+      <c r="MF5" s="26">
+        <v>6</v>
+      </c>
+      <c r="NS5" s="26">
+        <v>15</v>
+      </c>
+      <c r="NT5" s="26">
+        <v>15</v>
+      </c>
+      <c r="OQ5" s="26">
+        <v>6</v>
+      </c>
+      <c r="OR5" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="51"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="67">
-        <v>0</v>
-      </c>
-      <c r="J6" s="67">
-        <v>0</v>
-      </c>
-      <c r="K6" s="67">
-        <v>0</v>
-      </c>
-      <c r="L6" s="67">
-        <v>0</v>
-      </c>
-      <c r="M6" s="67">
-        <v>0</v>
-      </c>
-      <c r="N6" s="67">
+      <c r="I6" s="29">
+        <v>0</v>
+      </c>
+      <c r="J6" s="29">
+        <v>0</v>
+      </c>
+      <c r="K6" s="29">
+        <v>0</v>
+      </c>
+      <c r="L6" s="29">
+        <v>0</v>
+      </c>
+      <c r="M6" s="29">
+        <v>0</v>
+      </c>
+      <c r="N6" s="29">
         <v>0</v>
       </c>
       <c r="O6" s="3"/>
@@ -2051,8 +2138,12 @@
       <c r="AO6" s="3"/>
       <c r="AP6" s="3"/>
       <c r="AQ6" s="3"/>
-      <c r="AR6" s="3"/>
-      <c r="AS6" s="3"/>
+      <c r="AR6" s="26">
+        <v>12</v>
+      </c>
+      <c r="AS6" s="26">
+        <v>12</v>
+      </c>
       <c r="AT6" s="3"/>
       <c r="AU6" s="3"/>
       <c r="AV6" s="3"/>
@@ -2078,10 +2169,12 @@
       <c r="BP6" s="3"/>
       <c r="BQ6" s="3"/>
       <c r="BR6" s="3"/>
-      <c r="BS6" s="64">
+      <c r="BS6" s="26">
         <v>15</v>
       </c>
-      <c r="BT6" s="3"/>
+      <c r="BT6" s="26">
+        <v>15</v>
+      </c>
       <c r="BU6" s="3"/>
       <c r="BV6" s="3"/>
       <c r="BW6" s="3"/>
@@ -2091,8 +2184,12 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="3"/>
       <c r="CC6" s="3"/>
-      <c r="CD6" s="3"/>
-      <c r="CE6" s="3"/>
+      <c r="CD6" s="26">
+        <v>15</v>
+      </c>
+      <c r="CE6" s="26">
+        <v>15</v>
+      </c>
       <c r="CF6" s="3"/>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
@@ -2142,18 +2239,24 @@
       <c r="DZ6" s="3"/>
       <c r="EA6" s="3"/>
       <c r="EB6" s="3"/>
-      <c r="EC6" s="3"/>
-      <c r="ED6" s="64">
+      <c r="EC6" s="26">
         <v>2</v>
       </c>
-      <c r="EE6" s="64">
+      <c r="ED6" s="26">
+        <v>2</v>
+      </c>
+      <c r="EE6" s="26">
         <v>3</v>
       </c>
-      <c r="EF6" s="64">
+      <c r="EF6" s="26">
+        <v>3</v>
+      </c>
+      <c r="EG6" s="26">
         <v>4</v>
       </c>
-      <c r="EG6" s="3"/>
-      <c r="EH6" s="3"/>
+      <c r="EH6" s="26">
+        <v>4</v>
+      </c>
       <c r="EI6" s="3"/>
       <c r="EJ6" s="3"/>
       <c r="EK6" s="3"/>
@@ -2177,43 +2280,64 @@
       <c r="FC6" s="3"/>
       <c r="FD6" s="3"/>
       <c r="FE6" s="3"/>
-      <c r="GN6" s="67">
-        <v>0</v>
-      </c>
-      <c r="GO6" s="67">
-        <v>0</v>
-      </c>
-      <c r="GP6" s="67">
-        <v>0</v>
-      </c>
-      <c r="GQ6" s="67">
-        <v>0</v>
-      </c>
-      <c r="GR6" s="67">
-        <v>0</v>
-      </c>
-      <c r="GS6" s="67">
-        <v>0</v>
-      </c>
-      <c r="GT6" s="67">
-        <v>0</v>
-      </c>
-      <c r="GU6" s="67">
-        <v>0</v>
-      </c>
-      <c r="JP6" s="64">
+      <c r="GN6" s="29">
+        <v>0</v>
+      </c>
+      <c r="GO6" s="29">
+        <v>0</v>
+      </c>
+      <c r="GP6" s="29">
+        <v>0</v>
+      </c>
+      <c r="GQ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="GR6" s="29">
+        <v>0</v>
+      </c>
+      <c r="GS6" s="29">
+        <v>0</v>
+      </c>
+      <c r="GT6" s="29">
+        <v>0</v>
+      </c>
+      <c r="GU6" s="29">
+        <v>0</v>
+      </c>
+      <c r="IC6" s="26">
+        <v>13</v>
+      </c>
+      <c r="ID6" s="26">
+        <v>13</v>
+      </c>
+      <c r="JP6" s="26">
         <v>6</v>
       </c>
-      <c r="ME6" s="64">
+      <c r="JQ6" s="26">
         <v>6</v>
       </c>
-      <c r="NS6" s="64">
+      <c r="ME6" s="26">
+        <v>6</v>
+      </c>
+      <c r="MF6" s="26">
+        <v>6</v>
+      </c>
+      <c r="NS6" s="26">
         <v>15</v>
+      </c>
+      <c r="NT6" s="26">
+        <v>15</v>
+      </c>
+      <c r="QA6" s="26">
+        <v>6</v>
+      </c>
+      <c r="QB6" s="26">
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="51"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2232,58 +2356,58 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="67">
-        <v>0</v>
-      </c>
-      <c r="V7" s="67">
-        <v>0</v>
-      </c>
-      <c r="W7" s="67">
-        <v>0</v>
-      </c>
-      <c r="X7" s="67">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="67">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="67">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="67">
+      <c r="U7" s="29">
+        <v>0</v>
+      </c>
+      <c r="V7" s="29">
+        <v>0</v>
+      </c>
+      <c r="W7" s="29">
+        <v>0</v>
+      </c>
+      <c r="X7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="29">
         <v>0</v>
       </c>
       <c r="AM7" s="3"/>
@@ -2329,10 +2453,12 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="3"/>
       <c r="CC7" s="3"/>
-      <c r="CD7" s="64">
+      <c r="CD7" s="26">
         <v>15</v>
       </c>
-      <c r="CE7" s="3"/>
+      <c r="CE7" s="26">
+        <v>15</v>
+      </c>
       <c r="CF7" s="3"/>
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
@@ -2373,88 +2499,88 @@
       <c r="DQ7" s="3"/>
       <c r="DR7" s="3"/>
       <c r="DS7" s="3"/>
-      <c r="DT7" s="67">
-        <v>0</v>
-      </c>
-      <c r="DU7" s="67">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="67">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="67">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="67">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="67">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="67">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EE7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EL7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EO7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="67">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="67">
-        <v>0</v>
-      </c>
-      <c r="ES7" s="67">
-        <v>0</v>
-      </c>
-      <c r="ET7" s="67">
-        <v>0</v>
-      </c>
-      <c r="EU7" s="67">
+      <c r="DT7" s="29">
+        <v>0</v>
+      </c>
+      <c r="DU7" s="29">
+        <v>0</v>
+      </c>
+      <c r="DV7" s="29">
+        <v>0</v>
+      </c>
+      <c r="DW7" s="29">
+        <v>0</v>
+      </c>
+      <c r="DX7" s="29">
+        <v>0</v>
+      </c>
+      <c r="DY7" s="29">
+        <v>0</v>
+      </c>
+      <c r="DZ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EA7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EB7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EC7" s="29">
+        <v>0</v>
+      </c>
+      <c r="ED7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EE7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EF7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EG7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EH7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EI7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EJ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EK7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EL7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EM7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EN7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EO7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EP7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EQ7" s="29">
+        <v>0</v>
+      </c>
+      <c r="ER7" s="29">
+        <v>0</v>
+      </c>
+      <c r="ES7" s="29">
+        <v>0</v>
+      </c>
+      <c r="ET7" s="29">
+        <v>0</v>
+      </c>
+      <c r="EU7" s="29">
         <v>0</v>
       </c>
       <c r="EV7" s="3"/>
@@ -2467,13 +2593,28 @@
       <c r="FC7" s="3"/>
       <c r="FD7" s="3"/>
       <c r="FE7" s="3"/>
-      <c r="IC7" s="64">
+      <c r="IC7" s="26">
         <v>13</v>
+      </c>
+      <c r="ID7" s="26">
+        <v>13</v>
+      </c>
+      <c r="OJ7" s="26">
+        <v>6</v>
+      </c>
+      <c r="OK7" s="26">
+        <v>6</v>
+      </c>
+      <c r="QA7" s="26">
+        <v>6</v>
+      </c>
+      <c r="QB7" s="26">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="51"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="18"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2510,9 +2651,9 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="67"/>
-      <c r="AN8" s="67"/>
-      <c r="AO8" s="67"/>
+      <c r="AM8" s="29"/>
+      <c r="AN8" s="29"/>
+      <c r="AO8" s="29"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
@@ -2633,73 +2774,124 @@
       <c r="FC8" s="3"/>
       <c r="FD8" s="3"/>
       <c r="FE8" s="3"/>
-      <c r="GD8" s="67">
-        <v>0</v>
-      </c>
-      <c r="GE8" s="67">
-        <v>0</v>
-      </c>
-      <c r="GF8" s="67">
-        <v>0</v>
-      </c>
-      <c r="GG8" s="67">
-        <v>0</v>
-      </c>
-      <c r="GH8" s="67">
-        <v>0</v>
-      </c>
-      <c r="GI8" s="67">
-        <v>0</v>
-      </c>
-      <c r="KI8" s="67">
-        <v>0</v>
-      </c>
-      <c r="KJ8" s="67">
-        <v>0</v>
-      </c>
-      <c r="KK8" s="67">
-        <v>0</v>
-      </c>
-      <c r="KL8" s="67">
-        <v>0</v>
-      </c>
-      <c r="KM8" s="67">
-        <v>0</v>
-      </c>
-      <c r="KN8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OA8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OB8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OC8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OD8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OE8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OF8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OG8" s="67">
-        <v>0</v>
-      </c>
-      <c r="OJ8" s="64">
+      <c r="GD8" s="29">
+        <v>0</v>
+      </c>
+      <c r="GE8" s="29">
+        <v>0</v>
+      </c>
+      <c r="GF8" s="29">
+        <v>0</v>
+      </c>
+      <c r="GG8" s="29">
+        <v>0</v>
+      </c>
+      <c r="GH8" s="29">
+        <v>0</v>
+      </c>
+      <c r="GI8" s="29">
+        <v>0</v>
+      </c>
+      <c r="IV8" s="26">
+        <v>15</v>
+      </c>
+      <c r="IW8" s="26">
+        <v>15</v>
+      </c>
+      <c r="KI8" s="29">
+        <v>0</v>
+      </c>
+      <c r="KJ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="KK8" s="29">
+        <v>0</v>
+      </c>
+      <c r="KL8" s="29">
+        <v>0</v>
+      </c>
+      <c r="KM8" s="29">
+        <v>0</v>
+      </c>
+      <c r="KN8" s="29">
+        <v>0</v>
+      </c>
+      <c r="KR8" s="26">
+        <v>13</v>
+      </c>
+      <c r="KS8" s="26">
+        <v>13</v>
+      </c>
+      <c r="NA8" s="26">
         <v>6</v>
       </c>
-      <c r="QB8" s="64">
+      <c r="NB8" s="26">
+        <v>6</v>
+      </c>
+      <c r="OA8" s="29">
+        <v>0</v>
+      </c>
+      <c r="OB8" s="29">
+        <v>0</v>
+      </c>
+      <c r="OC8" s="29">
+        <v>0</v>
+      </c>
+      <c r="OD8" s="29">
+        <v>0</v>
+      </c>
+      <c r="OE8" s="29">
+        <v>0</v>
+      </c>
+      <c r="OF8" s="29">
+        <v>0</v>
+      </c>
+      <c r="OG8" s="29">
+        <v>0</v>
+      </c>
+      <c r="OJ8" s="26">
+        <v>6</v>
+      </c>
+      <c r="OK8" s="26">
+        <v>6</v>
+      </c>
+      <c r="QG8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QH8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QI8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QJ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QK8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QL8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QM8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QN8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QO8" s="29">
+        <v>0</v>
+      </c>
+      <c r="QX8" s="26">
+        <v>6</v>
+      </c>
+      <c r="QY8" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="51"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="18"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2731,13 +2923,13 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-      <c r="AH9" s="64">
-        <v>15</v>
-      </c>
-      <c r="AI9" s="64">
+      <c r="AH9" s="3"/>
+      <c r="AI9" s="26">
         <v>16</v>
       </c>
-      <c r="AJ9" s="3"/>
+      <c r="AJ9" s="26">
+        <v>16</v>
+      </c>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -2816,19 +3008,19 @@
       <c r="DH9" s="3"/>
       <c r="DI9" s="3"/>
       <c r="DJ9" s="3"/>
-      <c r="DK9" s="67">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="67">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="67">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="67">
-        <v>0</v>
-      </c>
-      <c r="DO9" s="67">
+      <c r="DK9" s="29">
+        <v>0</v>
+      </c>
+      <c r="DL9" s="29">
+        <v>0</v>
+      </c>
+      <c r="DM9" s="29">
+        <v>0</v>
+      </c>
+      <c r="DN9" s="29">
+        <v>0</v>
+      </c>
+      <c r="DO9" s="29">
         <v>0</v>
       </c>
       <c r="DP9" s="3"/>
@@ -2866,131 +3058,155 @@
       <c r="EV9" s="3"/>
       <c r="EW9" s="3"/>
       <c r="EX9" s="3"/>
-      <c r="EY9" s="67">
-        <v>0</v>
-      </c>
-      <c r="EZ9" s="67">
+      <c r="EY9" s="29">
+        <v>0</v>
+      </c>
+      <c r="EZ9" s="29">
         <v>0</v>
       </c>
       <c r="FA9" s="3"/>
       <c r="FB9" s="3"/>
       <c r="FC9" s="3"/>
       <c r="FD9" s="3"/>
-      <c r="FE9" s="67">
-        <v>0</v>
-      </c>
-      <c r="FF9" s="67">
-        <v>0</v>
-      </c>
-      <c r="FO9" s="67">
-        <v>0</v>
-      </c>
-      <c r="FP9" s="67">
-        <v>0</v>
-      </c>
-      <c r="FQ9" s="67">
-        <v>0</v>
-      </c>
-      <c r="FR9" s="67">
-        <v>0</v>
-      </c>
-      <c r="IV9" s="64">
+      <c r="FE9" s="29">
+        <v>0</v>
+      </c>
+      <c r="FF9" s="29">
+        <v>0</v>
+      </c>
+      <c r="FO9" s="29">
+        <v>0</v>
+      </c>
+      <c r="FP9" s="29">
+        <v>0</v>
+      </c>
+      <c r="FQ9" s="29">
+        <v>0</v>
+      </c>
+      <c r="FR9" s="29">
+        <v>0</v>
+      </c>
+      <c r="FX9" s="26">
         <v>15</v>
       </c>
-      <c r="JL9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KF9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KG9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KH9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KI9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KJ9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KK9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KL9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KM9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KN9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KO9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KP9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KS9" s="64">
+      <c r="FY9" s="26">
+        <v>15</v>
+      </c>
+      <c r="FZ9" s="26">
+        <v>16</v>
+      </c>
+      <c r="GA9" s="26">
+        <v>16</v>
+      </c>
+      <c r="IV9" s="26">
+        <v>15</v>
+      </c>
+      <c r="IW9" s="26">
+        <v>15</v>
+      </c>
+      <c r="JL9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KA9" s="26">
+        <v>12</v>
+      </c>
+      <c r="KB9" s="26">
+        <v>12</v>
+      </c>
+      <c r="KF9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KG9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KH9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KI9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KJ9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KK9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KL9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KM9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KN9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KO9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KP9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KR9" s="26">
         <v>13</v>
       </c>
-      <c r="KU9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KV9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KW9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KX9" s="67">
-        <v>0</v>
-      </c>
-      <c r="KY9" s="67">
-        <v>0</v>
-      </c>
-      <c r="NA9" s="64">
+      <c r="KS9" s="26">
+        <v>13</v>
+      </c>
+      <c r="KU9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KV9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KW9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KX9" s="29">
+        <v>0</v>
+      </c>
+      <c r="KY9" s="29">
+        <v>0</v>
+      </c>
+      <c r="NA9" s="26">
         <v>6</v>
       </c>
-      <c r="NX9" s="67">
-        <v>0</v>
-      </c>
-      <c r="NY9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QG9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QH9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QI9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QJ9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QK9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QL9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QM9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QN9" s="67">
-        <v>0</v>
-      </c>
-      <c r="QO9" s="67">
-        <v>0</v>
+      <c r="NB9" s="26">
+        <v>6</v>
+      </c>
+      <c r="NV9" s="26">
+        <v>16</v>
+      </c>
+      <c r="NW9" s="26">
+        <v>16</v>
+      </c>
+      <c r="NX9" s="29">
+        <v>0</v>
+      </c>
+      <c r="NY9" s="29">
+        <v>0</v>
+      </c>
+      <c r="PT9" s="26">
+        <v>15</v>
+      </c>
+      <c r="PU9" s="26">
+        <v>15</v>
+      </c>
+      <c r="QT9" s="26">
+        <v>15</v>
+      </c>
+      <c r="QU9" s="26">
+        <v>15</v>
+      </c>
+      <c r="QX9" s="26">
+        <v>6</v>
+      </c>
+      <c r="QY9" s="26">
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="51"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3023,8 +3239,12 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="3"/>
-      <c r="AJ10" s="3"/>
+      <c r="AI10" s="26">
+        <v>16</v>
+      </c>
+      <c r="AJ10" s="26">
+        <v>16</v>
+      </c>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -3033,50 +3253,50 @@
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
       <c r="AR10" s="3"/>
-      <c r="AS10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="67">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="67">
+      <c r="AS10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX10" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY10" s="29">
         <v>0</v>
       </c>
       <c r="AZ10" s="3"/>
       <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
-      <c r="BD10" s="67">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="67">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="67">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="67">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="67">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="67">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="67">
+      <c r="BD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="BE10" s="29">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="29">
+        <v>0</v>
+      </c>
+      <c r="BG10" s="29">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="29">
         <v>0</v>
       </c>
       <c r="BK10" s="3"/>
@@ -3114,12 +3334,24 @@
       <c r="CQ10" s="3"/>
       <c r="CR10" s="3"/>
       <c r="CS10" s="3"/>
-      <c r="CT10" s="3"/>
-      <c r="CU10" s="3"/>
-      <c r="CV10" s="3"/>
-      <c r="CW10" s="3"/>
-      <c r="CX10" s="3"/>
-      <c r="CY10" s="3"/>
+      <c r="CT10" s="26">
+        <v>2</v>
+      </c>
+      <c r="CU10" s="26">
+        <v>2</v>
+      </c>
+      <c r="CV10" s="26">
+        <v>3</v>
+      </c>
+      <c r="CW10" s="26">
+        <v>3</v>
+      </c>
+      <c r="CX10" s="26">
+        <v>4</v>
+      </c>
+      <c r="CY10" s="26">
+        <v>4</v>
+      </c>
       <c r="CZ10" s="3"/>
       <c r="DA10" s="3"/>
       <c r="DB10" s="3"/>
@@ -3178,88 +3410,103 @@
       <c r="FC10" s="3"/>
       <c r="FD10" s="3"/>
       <c r="FE10" s="3"/>
-      <c r="FY10" s="64">
+      <c r="FX10" s="26">
         <v>15</v>
       </c>
-      <c r="FZ10" s="64">
+      <c r="FY10" s="26">
+        <v>15</v>
+      </c>
+      <c r="FZ10" s="26">
         <v>16</v>
       </c>
-      <c r="JK10" s="67">
-        <v>0</v>
-      </c>
-      <c r="JL10" s="67">
-        <v>0</v>
-      </c>
-      <c r="JT10" s="67">
-        <v>0</v>
-      </c>
-      <c r="JU10" s="67">
-        <v>0</v>
-      </c>
-      <c r="JV10" s="67">
-        <v>0</v>
-      </c>
-      <c r="JW10" s="67">
-        <v>0</v>
-      </c>
-      <c r="JX10" s="67">
-        <v>0</v>
-      </c>
-      <c r="JY10" s="67">
-        <v>0</v>
-      </c>
-      <c r="KA10" s="64">
+      <c r="GA10" s="26">
+        <v>16</v>
+      </c>
+      <c r="JK10" s="29">
+        <v>0</v>
+      </c>
+      <c r="JL10" s="29">
+        <v>0</v>
+      </c>
+      <c r="JT10" s="29">
+        <v>0</v>
+      </c>
+      <c r="JU10" s="29">
+        <v>0</v>
+      </c>
+      <c r="JV10" s="29">
+        <v>0</v>
+      </c>
+      <c r="JW10" s="29">
+        <v>0</v>
+      </c>
+      <c r="JX10" s="29">
+        <v>0</v>
+      </c>
+      <c r="JY10" s="29">
+        <v>0</v>
+      </c>
+      <c r="KA10" s="26">
         <v>12</v>
       </c>
-      <c r="LF10" s="67">
-        <v>0</v>
-      </c>
-      <c r="LG10" s="67">
-        <v>0</v>
-      </c>
-      <c r="LH10" s="67">
-        <v>0</v>
-      </c>
-      <c r="LI10" s="67">
-        <v>0</v>
-      </c>
-      <c r="NT10" s="67">
-        <v>0</v>
-      </c>
-      <c r="NU10" s="67">
-        <v>0</v>
-      </c>
-      <c r="NW10" s="64">
+      <c r="KB10" s="26">
+        <v>12</v>
+      </c>
+      <c r="LF10" s="29">
+        <v>0</v>
+      </c>
+      <c r="LG10" s="29">
+        <v>0</v>
+      </c>
+      <c r="LH10" s="29">
+        <v>0</v>
+      </c>
+      <c r="LI10" s="29">
+        <v>0</v>
+      </c>
+      <c r="NT10" s="29">
+        <v>0</v>
+      </c>
+      <c r="NU10" s="29">
+        <v>0</v>
+      </c>
+      <c r="NV10" s="26">
         <v>16</v>
       </c>
-      <c r="PT10" s="64">
+      <c r="NW10" s="26">
+        <v>16</v>
+      </c>
+      <c r="PT10" s="26">
         <v>15</v>
       </c>
-      <c r="PZ10" s="67">
-        <v>0</v>
-      </c>
-      <c r="QA10" s="67">
-        <v>0</v>
-      </c>
-      <c r="QB10" s="67">
-        <v>0</v>
-      </c>
-      <c r="QC10" s="67">
-        <v>0</v>
-      </c>
-      <c r="QD10" s="67">
-        <v>0</v>
-      </c>
-      <c r="QU10" s="64">
+      <c r="PU10" s="26">
         <v>15</v>
       </c>
-      <c r="QW10" s="64">
-        <v>6</v>
+      <c r="PZ10" s="29">
+        <v>0</v>
+      </c>
+      <c r="QA10" s="29">
+        <v>0</v>
+      </c>
+      <c r="QB10" s="29">
+        <v>0</v>
+      </c>
+      <c r="QC10" s="29">
+        <v>0</v>
+      </c>
+      <c r="QD10" s="29">
+        <v>0</v>
+      </c>
+      <c r="QT10" s="26">
+        <v>15</v>
+      </c>
+      <c r="QU10" s="26">
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="51"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3274,8 +3521,12 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="19"/>
-      <c r="Q11" s="19"/>
-      <c r="R11" s="3"/>
+      <c r="Q11" s="32">
+        <v>0</v>
+      </c>
+      <c r="R11" s="32">
+        <v>0</v>
+      </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
@@ -3344,63 +3595,69 @@
       <c r="CF11" s="3"/>
       <c r="CG11" s="3"/>
       <c r="CH11" s="3"/>
-      <c r="CI11" s="67">
-        <v>0</v>
-      </c>
-      <c r="CJ11" s="67">
-        <v>0</v>
-      </c>
-      <c r="CK11" s="67">
-        <v>0</v>
-      </c>
-      <c r="CL11" s="67">
-        <v>0</v>
-      </c>
-      <c r="CM11" s="67">
-        <v>0</v>
-      </c>
-      <c r="CN11" s="67">
-        <v>0</v>
-      </c>
-      <c r="CO11" s="67">
-        <v>0</v>
-      </c>
-      <c r="CP11" s="67">
+      <c r="CI11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CJ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CK11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CL11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CM11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CN11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CO11" s="29">
+        <v>0</v>
+      </c>
+      <c r="CP11" s="29">
         <v>0</v>
       </c>
       <c r="CQ11" s="3"/>
       <c r="CR11" s="3"/>
       <c r="CS11" s="3"/>
-      <c r="CT11" s="3"/>
-      <c r="CU11" s="3"/>
-      <c r="CV11" s="64">
+      <c r="CT11" s="26">
         <v>2</v>
       </c>
-      <c r="CW11" s="64">
+      <c r="CU11" s="26">
+        <v>2</v>
+      </c>
+      <c r="CV11" s="26">
         <v>3</v>
       </c>
-      <c r="CX11" s="64">
+      <c r="CW11" s="26">
+        <v>3</v>
+      </c>
+      <c r="CX11" s="26">
         <v>4</v>
       </c>
-      <c r="CY11" s="3"/>
+      <c r="CY11" s="26">
+        <v>4</v>
+      </c>
       <c r="CZ11" s="3"/>
       <c r="DA11" s="3"/>
-      <c r="DB11" s="67">
-        <v>0</v>
-      </c>
-      <c r="DC11" s="67">
-        <v>0</v>
-      </c>
-      <c r="DD11" s="67">
-        <v>0</v>
-      </c>
-      <c r="DE11" s="67">
-        <v>0</v>
-      </c>
-      <c r="DF11" s="67">
-        <v>0</v>
-      </c>
-      <c r="DG11" s="67">
+      <c r="DB11" s="29">
+        <v>0</v>
+      </c>
+      <c r="DC11" s="29">
+        <v>0</v>
+      </c>
+      <c r="DD11" s="29">
+        <v>0</v>
+      </c>
+      <c r="DE11" s="29">
+        <v>0</v>
+      </c>
+      <c r="DF11" s="29">
+        <v>0</v>
+      </c>
+      <c r="DG11" s="29">
         <v>0</v>
       </c>
       <c r="DH11" s="3"/>
@@ -3453,58 +3710,120 @@
       <c r="FC11" s="3"/>
       <c r="FD11" s="3"/>
       <c r="FE11" s="3"/>
-      <c r="FJ11" s="67">
-        <v>0</v>
-      </c>
-      <c r="FK11" s="67">
-        <v>0</v>
-      </c>
-      <c r="HI11" s="67">
-        <v>0</v>
-      </c>
-      <c r="HJ11" s="67">
-        <v>0</v>
-      </c>
-      <c r="HK11" s="67">
-        <v>0</v>
-      </c>
-      <c r="HL11" s="67">
-        <v>0</v>
-      </c>
-      <c r="HM11" s="67">
-        <v>0</v>
-      </c>
-      <c r="JJ11" s="67">
-        <v>0</v>
-      </c>
-      <c r="JK11" s="67">
-        <v>0</v>
-      </c>
-      <c r="JL11" s="67">
-        <v>0</v>
-      </c>
-      <c r="OQ11" s="67">
-        <v>0</v>
-      </c>
-      <c r="OR11" s="67">
-        <v>0</v>
-      </c>
-      <c r="OS11" s="67">
-        <v>0</v>
-      </c>
-      <c r="OT11" s="67">
-        <v>0</v>
-      </c>
-      <c r="OU11" s="67">
-        <v>0</v>
-      </c>
-      <c r="PY11" s="67">
-        <v>0</v>
-      </c>
+      <c r="FJ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="FK11" s="29">
+        <v>0</v>
+      </c>
+      <c r="GG11" s="26">
+        <v>0</v>
+      </c>
+      <c r="GH11" s="26">
+        <v>0</v>
+      </c>
+      <c r="GR11" s="26">
+        <v>1</v>
+      </c>
+      <c r="GS11" s="26">
+        <v>1</v>
+      </c>
+      <c r="HI11" s="29">
+        <v>0</v>
+      </c>
+      <c r="HJ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="HK11" s="29">
+        <v>0</v>
+      </c>
+      <c r="HL11" s="29">
+        <v>0</v>
+      </c>
+      <c r="HM11" s="29">
+        <v>0</v>
+      </c>
+      <c r="HP11" s="26">
+        <v>16</v>
+      </c>
+      <c r="HQ11" s="26">
+        <v>16</v>
+      </c>
+      <c r="IR11" s="26">
+        <v>7</v>
+      </c>
+      <c r="IS11" s="26">
+        <v>7</v>
+      </c>
+      <c r="IZ11" s="26">
+        <v>8</v>
+      </c>
+      <c r="JA11" s="26">
+        <v>8</v>
+      </c>
+      <c r="JJ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="JK11" s="29">
+        <v>0</v>
+      </c>
+      <c r="JL11" s="29">
+        <v>0</v>
+      </c>
+      <c r="LS11" s="26">
+        <v>7</v>
+      </c>
+      <c r="LT11" s="26">
+        <v>7</v>
+      </c>
+      <c r="MN11" s="26">
+        <v>16</v>
+      </c>
+      <c r="MO11" s="26">
+        <v>16</v>
+      </c>
+      <c r="OQ11" s="29">
+        <v>0</v>
+      </c>
+      <c r="OR11" s="29">
+        <v>0</v>
+      </c>
+      <c r="OS11" s="29">
+        <v>0</v>
+      </c>
+      <c r="OT11" s="29">
+        <v>0</v>
+      </c>
+      <c r="OU11" s="29">
+        <v>0</v>
+      </c>
+      <c r="PA11" s="26">
+        <v>7</v>
+      </c>
+      <c r="PB11" s="26">
+        <v>7</v>
+      </c>
+      <c r="PY11" s="29">
+        <v>0</v>
+      </c>
+      <c r="QK11" s="26">
+        <v>7</v>
+      </c>
+      <c r="QL11" s="26">
+        <v>7</v>
+      </c>
+      <c r="RE11" s="26">
+        <v>0</v>
+      </c>
+      <c r="RF11" s="26">
+        <v>0</v>
+      </c>
+      <c r="RO11" s="31"/>
+      <c r="RP11" s="31"/>
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="51"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3519,10 +3838,12 @@
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="19"/>
-      <c r="Q12" s="70">
-        <v>0</v>
-      </c>
-      <c r="R12" s="3"/>
+      <c r="Q12" s="32">
+        <v>0</v>
+      </c>
+      <c r="R12" s="32">
+        <v>0</v>
+      </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
@@ -3542,22 +3863,22 @@
       <c r="AI12" s="3"/>
       <c r="AJ12" s="3"/>
       <c r="AK12" s="3"/>
-      <c r="AL12" s="67">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="67">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="67">
-        <v>0</v>
-      </c>
-      <c r="AO12" s="67">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="67">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="67"/>
+      <c r="AL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="29">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="29"/>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
@@ -3592,112 +3913,112 @@
       <c r="BW12" s="3"/>
       <c r="BX12" s="3"/>
       <c r="BY12" s="3"/>
-      <c r="BZ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CA12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CB12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CC12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CD12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CE12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CF12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CG12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CI12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CJ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CK12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CL12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CM12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CN12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CO12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CP12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CQ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CR12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CS12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CT12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CU12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CV12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CW12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CX12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CY12" s="67">
-        <v>0</v>
-      </c>
-      <c r="CZ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DA12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DB12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DC12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DD12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DE12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DF12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DG12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="DI12" s="67">
+      <c r="BZ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CA12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CB12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CC12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CD12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CE12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CN12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CO12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CP12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CQ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CR12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CS12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CT12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CU12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CV12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CW12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CX12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CY12" s="29">
+        <v>0</v>
+      </c>
+      <c r="CZ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DA12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DB12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DC12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DD12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DE12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="DI12" s="29">
         <v>0</v>
       </c>
       <c r="DJ12" s="3"/>
@@ -3748,1743 +4069,1768 @@
       <c r="FC12" s="3"/>
       <c r="FD12" s="3"/>
       <c r="FE12" s="3"/>
-      <c r="GG12" s="64">
-        <v>0</v>
-      </c>
-      <c r="GR12" s="64">
+      <c r="GG12" s="26">
+        <v>0</v>
+      </c>
+      <c r="GH12" s="26">
+        <v>0</v>
+      </c>
+      <c r="GR12" s="26">
         <v>1</v>
       </c>
-      <c r="HH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HI12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HJ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HK12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HL12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HM12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HN12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HP12" s="64">
+      <c r="GS12" s="26">
+        <v>1</v>
+      </c>
+      <c r="HH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HN12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HP12" s="26">
         <v>16</v>
       </c>
-      <c r="HX12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HY12" s="67">
-        <v>0</v>
-      </c>
-      <c r="HZ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IA12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IB12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IC12" s="67">
-        <v>0</v>
-      </c>
-      <c r="ID12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IE12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IF12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IG12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="II12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IJ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IK12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IL12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IM12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IN12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IO12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IP12" s="67">
-        <v>0</v>
-      </c>
-      <c r="IR12" s="64">
+      <c r="HQ12" s="26">
+        <v>16</v>
+      </c>
+      <c r="HX12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HY12" s="29">
+        <v>0</v>
+      </c>
+      <c r="HZ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IA12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IB12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IC12" s="29">
+        <v>0</v>
+      </c>
+      <c r="ID12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IE12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="II12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IN12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IO12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IP12" s="29">
+        <v>0</v>
+      </c>
+      <c r="IR12" s="26">
         <v>7</v>
       </c>
-      <c r="IZ12" s="64">
+      <c r="IS12" s="26">
+        <v>7</v>
+      </c>
+      <c r="IZ12" s="26">
         <v>8</v>
       </c>
-      <c r="JH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="JI12" s="67">
-        <v>0</v>
-      </c>
-      <c r="JJ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="JK12" s="67">
-        <v>0</v>
-      </c>
-      <c r="JL12" s="67">
-        <v>0</v>
-      </c>
-      <c r="LH12" s="64">
+      <c r="JA12" s="26">
         <v>8</v>
       </c>
-      <c r="LS12" s="64">
+      <c r="JH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="JI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="JJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="JK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="JL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="LH12" s="3"/>
+      <c r="LS12" s="26">
         <v>7</v>
       </c>
-      <c r="LZ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MA12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MB12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MC12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MD12" s="67">
-        <v>0</v>
-      </c>
-      <c r="ME12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MF12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MG12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MI12" s="67">
-        <v>0</v>
-      </c>
-      <c r="MN12" s="64">
+      <c r="LT12" s="26">
+        <v>7</v>
+      </c>
+      <c r="LZ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MA12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MB12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MC12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MD12" s="29">
+        <v>0</v>
+      </c>
+      <c r="ME12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="MN12" s="26">
         <v>16</v>
       </c>
-      <c r="NE12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NF12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NG12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NI12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NJ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NK12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NL12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NM12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NN12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NO12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NP12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NQ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="NR12" s="67">
-        <v>0</v>
-      </c>
-      <c r="ON12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OO12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OP12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OQ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OR12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OS12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OT12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OU12" s="67">
-        <v>0</v>
-      </c>
-      <c r="OV12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PB12" s="64">
+      <c r="MO12" s="26">
+        <v>16</v>
+      </c>
+      <c r="NE12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NN12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NO12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NP12" s="29">
+        <v>0</v>
+      </c>
+      <c r="NQ12" s="3"/>
+      <c r="NR12" s="3"/>
+      <c r="ON12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OO12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OP12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OQ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OR12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OS12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OT12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OU12" s="29">
+        <v>0</v>
+      </c>
+      <c r="OV12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PA12" s="26">
         <v>7</v>
       </c>
-      <c r="PF12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PG12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PH12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PI12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PJ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PK12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PL12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PM12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PN12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PO12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PP12" s="67">
-        <v>0</v>
-      </c>
-      <c r="PQ12" s="67">
-        <v>0</v>
-      </c>
-      <c r="QK12" s="64">
+      <c r="PB12" s="26">
         <v>7</v>
       </c>
-      <c r="RE12" s="64">
-        <v>0</v>
-      </c>
-      <c r="RO12" s="69"/>
+      <c r="PF12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PG12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PH12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PI12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PJ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PK12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PN12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PO12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PP12" s="29">
+        <v>0</v>
+      </c>
+      <c r="PQ12" s="29">
+        <v>0</v>
+      </c>
+      <c r="QK12" s="26">
+        <v>7</v>
+      </c>
+      <c r="QL12" s="26">
+        <v>7</v>
+      </c>
+      <c r="RE12" s="26">
+        <v>0</v>
+      </c>
+      <c r="RF12" s="26">
+        <v>0</v>
+      </c>
+      <c r="RO12" s="31"/>
+      <c r="RP12" s="31"/>
     </row>
     <row r="13" spans="1:1082" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="65">
-        <v>0</v>
-      </c>
-      <c r="D13" s="65">
-        <v>0</v>
-      </c>
-      <c r="E13" s="65">
-        <v>0</v>
-      </c>
-      <c r="F13" s="65">
-        <v>0</v>
-      </c>
-      <c r="G13" s="65">
-        <v>0</v>
-      </c>
-      <c r="H13" s="65">
-        <v>0</v>
-      </c>
-      <c r="I13" s="65">
-        <v>0</v>
-      </c>
-      <c r="J13" s="65">
-        <v>0</v>
-      </c>
-      <c r="K13" s="65">
-        <v>0</v>
-      </c>
-      <c r="L13" s="65">
-        <v>0</v>
-      </c>
-      <c r="M13" s="65">
-        <v>0</v>
-      </c>
-      <c r="N13" s="65">
-        <v>0</v>
-      </c>
-      <c r="O13" s="65">
-        <v>0</v>
-      </c>
-      <c r="P13" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="65">
-        <v>0</v>
-      </c>
-      <c r="R13" s="65">
-        <v>0</v>
-      </c>
-      <c r="S13" s="65">
-        <v>0</v>
-      </c>
-      <c r="T13" s="65">
-        <v>0</v>
-      </c>
-      <c r="U13" s="65">
-        <v>0</v>
-      </c>
-      <c r="V13" s="65">
-        <v>0</v>
-      </c>
-      <c r="W13" s="65">
-        <v>0</v>
-      </c>
-      <c r="X13" s="65">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="65">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AB13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AC13" s="65">
-        <v>0</v>
-      </c>
-      <c r="AD13" s="65">
+      <c r="B13" s="51"/>
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0</v>
+      </c>
+      <c r="E13" s="27">
+        <v>0</v>
+      </c>
+      <c r="F13" s="27">
+        <v>0</v>
+      </c>
+      <c r="G13" s="27">
+        <v>0</v>
+      </c>
+      <c r="H13" s="27">
+        <v>0</v>
+      </c>
+      <c r="I13" s="27">
+        <v>0</v>
+      </c>
+      <c r="J13" s="27">
+        <v>0</v>
+      </c>
+      <c r="K13" s="27">
+        <v>0</v>
+      </c>
+      <c r="L13" s="27">
+        <v>0</v>
+      </c>
+      <c r="M13" s="27">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27">
+        <v>0</v>
+      </c>
+      <c r="O13" s="27">
+        <v>0</v>
+      </c>
+      <c r="P13" s="27">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="27">
+        <v>0</v>
+      </c>
+      <c r="R13" s="27">
+        <v>0</v>
+      </c>
+      <c r="S13" s="27">
+        <v>0</v>
+      </c>
+      <c r="T13" s="27">
+        <v>0</v>
+      </c>
+      <c r="U13" s="27">
+        <v>0</v>
+      </c>
+      <c r="V13" s="27">
+        <v>0</v>
+      </c>
+      <c r="W13" s="27">
+        <v>0</v>
+      </c>
+      <c r="X13" s="27">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="27">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="27">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="27">
         <v>0</v>
       </c>
       <c r="AE13" s="8"/>
       <c r="AF13" s="8"/>
-      <c r="AG13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AH13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AI13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AJ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AK13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AO13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AR13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AS13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AT13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AU13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AV13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AW13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AX13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AY13" s="66">
-        <v>0</v>
-      </c>
-      <c r="AZ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BA13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BB13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BC13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BD13" s="66">
+      <c r="AG13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AY13" s="28">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BA13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BB13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BD13" s="28">
         <v>0</v>
       </c>
       <c r="BE13" s="8"/>
-      <c r="BF13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BG13" s="66">
+      <c r="BF13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BG13" s="28">
         <v>0</v>
       </c>
       <c r="BH13" s="8"/>
-      <c r="BI13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BJ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BK13" s="66">
+      <c r="BI13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BJ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BK13" s="28">
         <v>0</v>
       </c>
       <c r="BL13" s="8"/>
       <c r="BM13" s="8"/>
       <c r="BN13" s="8"/>
-      <c r="BO13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BP13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BQ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BR13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BS13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BT13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BU13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BV13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BW13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BX13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BY13" s="66">
-        <v>0</v>
-      </c>
-      <c r="BZ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CA13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CB13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CC13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CD13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CE13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CF13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CG13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CH13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CI13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CJ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CK13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CL13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CM13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CN13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CO13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CP13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CQ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CR13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CS13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CT13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CU13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CV13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CW13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CX13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CY13" s="66">
-        <v>0</v>
-      </c>
-      <c r="CZ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DA13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DB13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DC13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DD13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DE13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DF13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DG13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DH13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DI13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DJ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DK13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DL13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DM13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DN13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DO13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DP13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DQ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DR13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DS13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DT13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DU13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DV13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DW13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DX13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DY13" s="66">
-        <v>0</v>
-      </c>
-      <c r="DZ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EA13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EB13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EC13" s="66">
-        <v>0</v>
-      </c>
-      <c r="ED13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EE13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EF13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EG13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EH13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EI13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EJ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EK13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EL13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EM13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EN13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EO13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EP13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EQ13" s="66">
-        <v>0</v>
-      </c>
-      <c r="ER13" s="66">
-        <v>0</v>
-      </c>
-      <c r="ES13" s="66">
-        <v>0</v>
-      </c>
-      <c r="ET13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EU13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EV13" s="66">
-        <v>0</v>
-      </c>
-      <c r="EW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="EX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="EY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="EZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="FZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="GZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="HZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="ID13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="II13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="IZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="JZ13" s="68">
+      <c r="BO13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BP13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BQ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BR13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BS13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BT13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BU13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BV13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BW13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BX13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BY13" s="28">
+        <v>0</v>
+      </c>
+      <c r="BZ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CA13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CB13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CC13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CD13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CE13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CF13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CG13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CH13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CI13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CJ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CK13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CL13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CM13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CN13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CO13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CP13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CQ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CR13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CS13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CT13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CU13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CV13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CW13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CX13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CY13" s="28">
+        <v>0</v>
+      </c>
+      <c r="CZ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DA13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DB13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DC13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DD13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DE13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DF13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DG13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DH13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DI13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DJ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DK13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DL13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DM13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DN13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DO13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DP13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DQ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DR13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DS13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DT13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DU13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DV13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DW13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DX13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DY13" s="28">
+        <v>0</v>
+      </c>
+      <c r="DZ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EA13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EB13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EC13" s="28">
+        <v>0</v>
+      </c>
+      <c r="ED13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EE13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EF13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EG13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EH13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EI13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EJ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EK13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EL13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EM13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EN13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EO13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EP13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EQ13" s="28">
+        <v>0</v>
+      </c>
+      <c r="ER13" s="28">
+        <v>0</v>
+      </c>
+      <c r="ES13" s="28">
+        <v>0</v>
+      </c>
+      <c r="ET13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EU13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EV13" s="28">
+        <v>0</v>
+      </c>
+      <c r="EW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="EX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="EY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="EZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="FZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="GZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="HZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="ID13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="II13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="IZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="JZ13" s="30">
         <v>0</v>
       </c>
       <c r="KA13" s="10"/>
       <c r="KB13" s="10"/>
-      <c r="KC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="KZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LL13" s="68">
+      <c r="KC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="KZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LL13" s="30">
         <v>0</v>
       </c>
       <c r="LM13" s="10"/>
       <c r="LN13" s="10"/>
       <c r="LO13" s="10"/>
-      <c r="LP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="LZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="ME13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="ML13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MS13" s="68">
+      <c r="LP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="LZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="ME13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="ML13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MS13" s="30">
         <v>0</v>
       </c>
       <c r="MT13" s="10"/>
       <c r="MU13" s="10"/>
       <c r="MV13" s="10"/>
-      <c r="MW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="MZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="ND13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="NZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="ON13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="OZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="PZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="QZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RI13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RJ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RK13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RL13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RM13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RN13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RO13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RP13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RQ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RR13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RS13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RT13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RU13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RV13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RW13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RX13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RY13" s="68">
-        <v>0</v>
-      </c>
-      <c r="RZ13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SA13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SB13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SC13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SD13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SE13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SF13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SG13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SH13" s="68">
-        <v>0</v>
-      </c>
-      <c r="SI13" s="68">
+      <c r="MW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="MZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="ND13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="NZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="ON13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="OZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="PZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="QZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RI13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RJ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RK13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RL13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RM13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RN13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RO13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RP13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RQ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RR13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RS13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RT13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RU13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RV13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RW13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RX13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RY13" s="30">
+        <v>0</v>
+      </c>
+      <c r="RZ13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SA13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SB13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SC13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SD13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SE13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SF13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SG13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SH13" s="30">
+        <v>0</v>
+      </c>
+      <c r="SI13" s="30">
         <v>0</v>
       </c>
     </row>
@@ -8498,1138 +8844,1138 @@
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="30"/>
-      <c r="K15" s="30"/>
-      <c r="L15" s="30"/>
-      <c r="M15" s="30"/>
-      <c r="N15" s="30"/>
-      <c r="O15" s="30"/>
-      <c r="P15" s="30"/>
-      <c r="Q15" s="30"/>
-      <c r="R15" s="30"/>
-      <c r="S15" s="30"/>
-      <c r="T15" s="30"/>
-      <c r="U15" s="30"/>
-      <c r="V15" s="31"/>
-      <c r="W15" s="29" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="30"/>
-      <c r="Y15" s="30"/>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="30"/>
-      <c r="AB15" s="30"/>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="30"/>
-      <c r="AE15" s="30"/>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="30"/>
-      <c r="AH15" s="30"/>
-      <c r="AI15" s="30"/>
-      <c r="AJ15" s="30"/>
-      <c r="AK15" s="30"/>
-      <c r="AL15" s="30"/>
-      <c r="AM15" s="30"/>
-      <c r="AN15" s="30"/>
-      <c r="AO15" s="30"/>
-      <c r="AP15" s="31"/>
-      <c r="AQ15" s="30" t="s">
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AR15" s="30"/>
-      <c r="AS15" s="30"/>
-      <c r="AT15" s="30"/>
-      <c r="AU15" s="30"/>
-      <c r="AV15" s="30"/>
-      <c r="AW15" s="30"/>
-      <c r="AX15" s="30"/>
-      <c r="AY15" s="30"/>
-      <c r="AZ15" s="30"/>
-      <c r="BA15" s="30"/>
-      <c r="BB15" s="30"/>
-      <c r="BC15" s="30"/>
-      <c r="BD15" s="30"/>
-      <c r="BE15" s="30"/>
-      <c r="BF15" s="30"/>
-      <c r="BG15" s="30"/>
-      <c r="BH15" s="30"/>
-      <c r="BI15" s="30"/>
-      <c r="BJ15" s="31"/>
-      <c r="BK15" s="29" t="s">
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="44"/>
+      <c r="BC15" s="44"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="45"/>
+      <c r="BK15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BL15" s="30"/>
-      <c r="BM15" s="30"/>
-      <c r="BN15" s="30"/>
-      <c r="BO15" s="30"/>
-      <c r="BP15" s="30"/>
-      <c r="BQ15" s="30"/>
-      <c r="BR15" s="30"/>
-      <c r="BS15" s="30"/>
-      <c r="BT15" s="30"/>
-      <c r="BU15" s="30"/>
-      <c r="BV15" s="30"/>
-      <c r="BW15" s="30"/>
-      <c r="BX15" s="30"/>
-      <c r="BY15" s="30"/>
-      <c r="BZ15" s="30"/>
-      <c r="CA15" s="30"/>
-      <c r="CB15" s="30"/>
-      <c r="CC15" s="30"/>
-      <c r="CD15" s="31"/>
-      <c r="CE15" s="30" t="s">
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="44"/>
+      <c r="BU15" s="44"/>
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="45"/>
+      <c r="CE15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="CF15" s="30"/>
-      <c r="CG15" s="30"/>
-      <c r="CH15" s="30"/>
-      <c r="CI15" s="30"/>
-      <c r="CJ15" s="30"/>
-      <c r="CK15" s="30"/>
-      <c r="CL15" s="30"/>
-      <c r="CM15" s="30"/>
-      <c r="CN15" s="30"/>
-      <c r="CO15" s="30"/>
-      <c r="CP15" s="30"/>
-      <c r="CQ15" s="30"/>
-      <c r="CR15" s="30"/>
-      <c r="CS15" s="30"/>
-      <c r="CT15" s="30"/>
-      <c r="CU15" s="30"/>
-      <c r="CV15" s="30"/>
-      <c r="CW15" s="30"/>
-      <c r="CX15" s="31"/>
-      <c r="CY15" s="29" t="s">
+      <c r="CF15" s="44"/>
+      <c r="CG15" s="44"/>
+      <c r="CH15" s="44"/>
+      <c r="CI15" s="44"/>
+      <c r="CJ15" s="44"/>
+      <c r="CK15" s="44"/>
+      <c r="CL15" s="44"/>
+      <c r="CM15" s="44"/>
+      <c r="CN15" s="44"/>
+      <c r="CO15" s="44"/>
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44"/>
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="45"/>
+      <c r="CY15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="CZ15" s="30"/>
-      <c r="DA15" s="30"/>
-      <c r="DB15" s="30"/>
-      <c r="DC15" s="30"/>
-      <c r="DD15" s="30"/>
-      <c r="DE15" s="30"/>
-      <c r="DF15" s="30"/>
-      <c r="DG15" s="30"/>
-      <c r="DH15" s="30"/>
-      <c r="DI15" s="30"/>
-      <c r="DJ15" s="30"/>
-      <c r="DK15" s="30"/>
-      <c r="DL15" s="30"/>
-      <c r="DM15" s="30"/>
-      <c r="DN15" s="30"/>
-      <c r="DO15" s="30"/>
-      <c r="DP15" s="30"/>
-      <c r="DQ15" s="30"/>
-      <c r="DR15" s="31"/>
-      <c r="DS15" s="30" t="s">
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+      <c r="DC15" s="44"/>
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44"/>
+      <c r="DF15" s="44"/>
+      <c r="DG15" s="44"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
+      <c r="DJ15" s="44"/>
+      <c r="DK15" s="44"/>
+      <c r="DL15" s="44"/>
+      <c r="DM15" s="44"/>
+      <c r="DN15" s="44"/>
+      <c r="DO15" s="44"/>
+      <c r="DP15" s="44"/>
+      <c r="DQ15" s="44"/>
+      <c r="DR15" s="45"/>
+      <c r="DS15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="DT15" s="30"/>
-      <c r="DU15" s="30"/>
-      <c r="DV15" s="30"/>
-      <c r="DW15" s="30"/>
-      <c r="DX15" s="30"/>
-      <c r="DY15" s="30"/>
-      <c r="DZ15" s="30"/>
-      <c r="EA15" s="30"/>
-      <c r="EB15" s="30"/>
-      <c r="EC15" s="30"/>
-      <c r="ED15" s="30"/>
-      <c r="EE15" s="30"/>
-      <c r="EF15" s="30"/>
-      <c r="EG15" s="30"/>
-      <c r="EH15" s="30"/>
-      <c r="EI15" s="30"/>
-      <c r="EJ15" s="30"/>
-      <c r="EK15" s="30"/>
-      <c r="EL15" s="31"/>
-      <c r="EM15" s="29" t="s">
+      <c r="DT15" s="44"/>
+      <c r="DU15" s="44"/>
+      <c r="DV15" s="44"/>
+      <c r="DW15" s="44"/>
+      <c r="DX15" s="44"/>
+      <c r="DY15" s="44"/>
+      <c r="DZ15" s="44"/>
+      <c r="EA15" s="44"/>
+      <c r="EB15" s="44"/>
+      <c r="EC15" s="44"/>
+      <c r="ED15" s="44"/>
+      <c r="EE15" s="44"/>
+      <c r="EF15" s="44"/>
+      <c r="EG15" s="44"/>
+      <c r="EH15" s="44"/>
+      <c r="EI15" s="44"/>
+      <c r="EJ15" s="44"/>
+      <c r="EK15" s="44"/>
+      <c r="EL15" s="45"/>
+      <c r="EM15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="EN15" s="30"/>
-      <c r="EO15" s="30"/>
-      <c r="EP15" s="30"/>
-      <c r="EQ15" s="30"/>
-      <c r="ER15" s="30"/>
-      <c r="ES15" s="30"/>
-      <c r="ET15" s="30"/>
-      <c r="EU15" s="30"/>
-      <c r="EV15" s="30"/>
-      <c r="EW15" s="30"/>
-      <c r="EX15" s="30"/>
-      <c r="EY15" s="30"/>
-      <c r="EZ15" s="30"/>
-      <c r="FA15" s="30"/>
-      <c r="FB15" s="30"/>
-      <c r="FC15" s="30"/>
-      <c r="FD15" s="30"/>
-      <c r="FE15" s="30"/>
-      <c r="FF15" s="31"/>
-      <c r="FG15" s="30" t="s">
+      <c r="EN15" s="44"/>
+      <c r="EO15" s="44"/>
+      <c r="EP15" s="44"/>
+      <c r="EQ15" s="44"/>
+      <c r="ER15" s="44"/>
+      <c r="ES15" s="44"/>
+      <c r="ET15" s="44"/>
+      <c r="EU15" s="44"/>
+      <c r="EV15" s="44"/>
+      <c r="EW15" s="44"/>
+      <c r="EX15" s="44"/>
+      <c r="EY15" s="44"/>
+      <c r="EZ15" s="44"/>
+      <c r="FA15" s="44"/>
+      <c r="FB15" s="44"/>
+      <c r="FC15" s="44"/>
+      <c r="FD15" s="44"/>
+      <c r="FE15" s="44"/>
+      <c r="FF15" s="45"/>
+      <c r="FG15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="FH15" s="30"/>
-      <c r="FI15" s="30"/>
-      <c r="FJ15" s="30"/>
-      <c r="FK15" s="30"/>
-      <c r="FL15" s="30"/>
-      <c r="FM15" s="30"/>
-      <c r="FN15" s="30"/>
-      <c r="FO15" s="30"/>
-      <c r="FP15" s="30"/>
-      <c r="FQ15" s="30"/>
-      <c r="FR15" s="30"/>
-      <c r="FS15" s="30"/>
-      <c r="FT15" s="30"/>
-      <c r="FU15" s="30"/>
-      <c r="FV15" s="30"/>
-      <c r="FW15" s="30"/>
-      <c r="FX15" s="30"/>
-      <c r="FY15" s="30"/>
-      <c r="FZ15" s="31"/>
-      <c r="GA15" s="29" t="s">
+      <c r="FH15" s="44"/>
+      <c r="FI15" s="44"/>
+      <c r="FJ15" s="44"/>
+      <c r="FK15" s="44"/>
+      <c r="FL15" s="44"/>
+      <c r="FM15" s="44"/>
+      <c r="FN15" s="44"/>
+      <c r="FO15" s="44"/>
+      <c r="FP15" s="44"/>
+      <c r="FQ15" s="44"/>
+      <c r="FR15" s="44"/>
+      <c r="FS15" s="44"/>
+      <c r="FT15" s="44"/>
+      <c r="FU15" s="44"/>
+      <c r="FV15" s="44"/>
+      <c r="FW15" s="44"/>
+      <c r="FX15" s="44"/>
+      <c r="FY15" s="44"/>
+      <c r="FZ15" s="45"/>
+      <c r="GA15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="GB15" s="30"/>
-      <c r="GC15" s="30"/>
-      <c r="GD15" s="30"/>
-      <c r="GE15" s="30"/>
-      <c r="GF15" s="30"/>
-      <c r="GG15" s="30"/>
-      <c r="GH15" s="30"/>
-      <c r="GI15" s="30"/>
-      <c r="GJ15" s="30"/>
-      <c r="GK15" s="30"/>
-      <c r="GL15" s="30"/>
-      <c r="GM15" s="30"/>
-      <c r="GN15" s="30"/>
-      <c r="GO15" s="30"/>
-      <c r="GP15" s="30"/>
-      <c r="GQ15" s="30"/>
-      <c r="GR15" s="30"/>
-      <c r="GS15" s="30"/>
-      <c r="GT15" s="31"/>
-      <c r="GU15" s="30" t="s">
+      <c r="GB15" s="44"/>
+      <c r="GC15" s="44"/>
+      <c r="GD15" s="44"/>
+      <c r="GE15" s="44"/>
+      <c r="GF15" s="44"/>
+      <c r="GG15" s="44"/>
+      <c r="GH15" s="44"/>
+      <c r="GI15" s="44"/>
+      <c r="GJ15" s="44"/>
+      <c r="GK15" s="44"/>
+      <c r="GL15" s="44"/>
+      <c r="GM15" s="44"/>
+      <c r="GN15" s="44"/>
+      <c r="GO15" s="44"/>
+      <c r="GP15" s="44"/>
+      <c r="GQ15" s="44"/>
+      <c r="GR15" s="44"/>
+      <c r="GS15" s="44"/>
+      <c r="GT15" s="45"/>
+      <c r="GU15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="GV15" s="30"/>
-      <c r="GW15" s="30"/>
-      <c r="GX15" s="30"/>
-      <c r="GY15" s="30"/>
-      <c r="GZ15" s="30"/>
-      <c r="HA15" s="30"/>
-      <c r="HB15" s="30"/>
-      <c r="HC15" s="30"/>
-      <c r="HD15" s="30"/>
-      <c r="HE15" s="30"/>
-      <c r="HF15" s="30"/>
-      <c r="HG15" s="30"/>
-      <c r="HH15" s="30"/>
-      <c r="HI15" s="30"/>
-      <c r="HJ15" s="30"/>
-      <c r="HK15" s="30"/>
-      <c r="HL15" s="30"/>
-      <c r="HM15" s="30"/>
-      <c r="HN15" s="31"/>
-      <c r="HO15" s="29" t="s">
+      <c r="GV15" s="44"/>
+      <c r="GW15" s="44"/>
+      <c r="GX15" s="44"/>
+      <c r="GY15" s="44"/>
+      <c r="GZ15" s="44"/>
+      <c r="HA15" s="44"/>
+      <c r="HB15" s="44"/>
+      <c r="HC15" s="44"/>
+      <c r="HD15" s="44"/>
+      <c r="HE15" s="44"/>
+      <c r="HF15" s="44"/>
+      <c r="HG15" s="44"/>
+      <c r="HH15" s="44"/>
+      <c r="HI15" s="44"/>
+      <c r="HJ15" s="44"/>
+      <c r="HK15" s="44"/>
+      <c r="HL15" s="44"/>
+      <c r="HM15" s="44"/>
+      <c r="HN15" s="45"/>
+      <c r="HO15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="HP15" s="30"/>
-      <c r="HQ15" s="30"/>
-      <c r="HR15" s="30"/>
-      <c r="HS15" s="30"/>
-      <c r="HT15" s="30"/>
-      <c r="HU15" s="30"/>
-      <c r="HV15" s="30"/>
-      <c r="HW15" s="30"/>
-      <c r="HX15" s="30"/>
-      <c r="HY15" s="30"/>
-      <c r="HZ15" s="30"/>
-      <c r="IA15" s="30"/>
-      <c r="IB15" s="30"/>
-      <c r="IC15" s="30"/>
-      <c r="ID15" s="30"/>
-      <c r="IE15" s="30"/>
-      <c r="IF15" s="30"/>
-      <c r="IG15" s="30"/>
-      <c r="IH15" s="31"/>
-      <c r="II15" s="30" t="s">
+      <c r="HP15" s="44"/>
+      <c r="HQ15" s="44"/>
+      <c r="HR15" s="44"/>
+      <c r="HS15" s="44"/>
+      <c r="HT15" s="44"/>
+      <c r="HU15" s="44"/>
+      <c r="HV15" s="44"/>
+      <c r="HW15" s="44"/>
+      <c r="HX15" s="44"/>
+      <c r="HY15" s="44"/>
+      <c r="HZ15" s="44"/>
+      <c r="IA15" s="44"/>
+      <c r="IB15" s="44"/>
+      <c r="IC15" s="44"/>
+      <c r="ID15" s="44"/>
+      <c r="IE15" s="44"/>
+      <c r="IF15" s="44"/>
+      <c r="IG15" s="44"/>
+      <c r="IH15" s="45"/>
+      <c r="II15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="IJ15" s="30"/>
-      <c r="IK15" s="30"/>
-      <c r="IL15" s="30"/>
-      <c r="IM15" s="30"/>
-      <c r="IN15" s="30"/>
-      <c r="IO15" s="30"/>
-      <c r="IP15" s="30"/>
-      <c r="IQ15" s="30"/>
-      <c r="IR15" s="30"/>
-      <c r="IS15" s="30"/>
-      <c r="IT15" s="30"/>
-      <c r="IU15" s="30"/>
-      <c r="IV15" s="30"/>
-      <c r="IW15" s="30"/>
-      <c r="IX15" s="30"/>
-      <c r="IY15" s="30"/>
-      <c r="IZ15" s="30"/>
-      <c r="JA15" s="30"/>
-      <c r="JB15" s="31"/>
-      <c r="JC15" s="29" t="s">
+      <c r="IJ15" s="44"/>
+      <c r="IK15" s="44"/>
+      <c r="IL15" s="44"/>
+      <c r="IM15" s="44"/>
+      <c r="IN15" s="44"/>
+      <c r="IO15" s="44"/>
+      <c r="IP15" s="44"/>
+      <c r="IQ15" s="44"/>
+      <c r="IR15" s="44"/>
+      <c r="IS15" s="44"/>
+      <c r="IT15" s="44"/>
+      <c r="IU15" s="44"/>
+      <c r="IV15" s="44"/>
+      <c r="IW15" s="44"/>
+      <c r="IX15" s="44"/>
+      <c r="IY15" s="44"/>
+      <c r="IZ15" s="44"/>
+      <c r="JA15" s="44"/>
+      <c r="JB15" s="45"/>
+      <c r="JC15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="JD15" s="30"/>
-      <c r="JE15" s="30"/>
-      <c r="JF15" s="30"/>
-      <c r="JG15" s="30"/>
-      <c r="JH15" s="30"/>
-      <c r="JI15" s="30"/>
-      <c r="JJ15" s="30"/>
-      <c r="JK15" s="30"/>
-      <c r="JL15" s="30"/>
-      <c r="JM15" s="30"/>
-      <c r="JN15" s="30"/>
-      <c r="JO15" s="30"/>
-      <c r="JP15" s="30"/>
-      <c r="JQ15" s="30"/>
-      <c r="JR15" s="30"/>
-      <c r="JS15" s="30"/>
-      <c r="JT15" s="30"/>
-      <c r="JU15" s="30"/>
-      <c r="JV15" s="31"/>
-      <c r="JW15" s="30" t="s">
+      <c r="JD15" s="44"/>
+      <c r="JE15" s="44"/>
+      <c r="JF15" s="44"/>
+      <c r="JG15" s="44"/>
+      <c r="JH15" s="44"/>
+      <c r="JI15" s="44"/>
+      <c r="JJ15" s="44"/>
+      <c r="JK15" s="44"/>
+      <c r="JL15" s="44"/>
+      <c r="JM15" s="44"/>
+      <c r="JN15" s="44"/>
+      <c r="JO15" s="44"/>
+      <c r="JP15" s="44"/>
+      <c r="JQ15" s="44"/>
+      <c r="JR15" s="44"/>
+      <c r="JS15" s="44"/>
+      <c r="JT15" s="44"/>
+      <c r="JU15" s="44"/>
+      <c r="JV15" s="45"/>
+      <c r="JW15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="JX15" s="30"/>
-      <c r="JY15" s="30"/>
-      <c r="JZ15" s="30"/>
-      <c r="KA15" s="30"/>
-      <c r="KB15" s="30"/>
-      <c r="KC15" s="30"/>
-      <c r="KD15" s="30"/>
-      <c r="KE15" s="30"/>
-      <c r="KF15" s="30"/>
-      <c r="KG15" s="30"/>
-      <c r="KH15" s="30"/>
-      <c r="KI15" s="30"/>
-      <c r="KJ15" s="30"/>
-      <c r="KK15" s="30"/>
-      <c r="KL15" s="30"/>
-      <c r="KM15" s="30"/>
-      <c r="KN15" s="30"/>
-      <c r="KO15" s="30"/>
-      <c r="KP15" s="31"/>
-      <c r="KQ15" s="29" t="s">
+      <c r="JX15" s="44"/>
+      <c r="JY15" s="44"/>
+      <c r="JZ15" s="44"/>
+      <c r="KA15" s="44"/>
+      <c r="KB15" s="44"/>
+      <c r="KC15" s="44"/>
+      <c r="KD15" s="44"/>
+      <c r="KE15" s="44"/>
+      <c r="KF15" s="44"/>
+      <c r="KG15" s="44"/>
+      <c r="KH15" s="44"/>
+      <c r="KI15" s="44"/>
+      <c r="KJ15" s="44"/>
+      <c r="KK15" s="44"/>
+      <c r="KL15" s="44"/>
+      <c r="KM15" s="44"/>
+      <c r="KN15" s="44"/>
+      <c r="KO15" s="44"/>
+      <c r="KP15" s="45"/>
+      <c r="KQ15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="KR15" s="30"/>
-      <c r="KS15" s="30"/>
-      <c r="KT15" s="30"/>
-      <c r="KU15" s="30"/>
-      <c r="KV15" s="30"/>
-      <c r="KW15" s="30"/>
-      <c r="KX15" s="30"/>
-      <c r="KY15" s="30"/>
-      <c r="KZ15" s="30"/>
-      <c r="LA15" s="30"/>
-      <c r="LB15" s="30"/>
-      <c r="LC15" s="30"/>
-      <c r="LD15" s="30"/>
-      <c r="LE15" s="30"/>
-      <c r="LF15" s="30"/>
-      <c r="LG15" s="30"/>
-      <c r="LH15" s="30"/>
-      <c r="LI15" s="30"/>
-      <c r="LJ15" s="31"/>
-      <c r="LK15" s="30" t="s">
+      <c r="KR15" s="44"/>
+      <c r="KS15" s="44"/>
+      <c r="KT15" s="44"/>
+      <c r="KU15" s="44"/>
+      <c r="KV15" s="44"/>
+      <c r="KW15" s="44"/>
+      <c r="KX15" s="44"/>
+      <c r="KY15" s="44"/>
+      <c r="KZ15" s="44"/>
+      <c r="LA15" s="44"/>
+      <c r="LB15" s="44"/>
+      <c r="LC15" s="44"/>
+      <c r="LD15" s="44"/>
+      <c r="LE15" s="44"/>
+      <c r="LF15" s="44"/>
+      <c r="LG15" s="44"/>
+      <c r="LH15" s="44"/>
+      <c r="LI15" s="44"/>
+      <c r="LJ15" s="45"/>
+      <c r="LK15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="LL15" s="30"/>
-      <c r="LM15" s="30"/>
-      <c r="LN15" s="30"/>
-      <c r="LO15" s="30"/>
-      <c r="LP15" s="30"/>
-      <c r="LQ15" s="30"/>
-      <c r="LR15" s="30"/>
-      <c r="LS15" s="30"/>
-      <c r="LT15" s="30"/>
-      <c r="LU15" s="30"/>
-      <c r="LV15" s="30"/>
-      <c r="LW15" s="30"/>
-      <c r="LX15" s="30"/>
-      <c r="LY15" s="30"/>
-      <c r="LZ15" s="30"/>
-      <c r="MA15" s="30"/>
-      <c r="MB15" s="30"/>
-      <c r="MC15" s="30"/>
-      <c r="MD15" s="31"/>
-      <c r="ME15" s="29" t="s">
+      <c r="LL15" s="44"/>
+      <c r="LM15" s="44"/>
+      <c r="LN15" s="44"/>
+      <c r="LO15" s="44"/>
+      <c r="LP15" s="44"/>
+      <c r="LQ15" s="44"/>
+      <c r="LR15" s="44"/>
+      <c r="LS15" s="44"/>
+      <c r="LT15" s="44"/>
+      <c r="LU15" s="44"/>
+      <c r="LV15" s="44"/>
+      <c r="LW15" s="44"/>
+      <c r="LX15" s="44"/>
+      <c r="LY15" s="44"/>
+      <c r="LZ15" s="44"/>
+      <c r="MA15" s="44"/>
+      <c r="MB15" s="44"/>
+      <c r="MC15" s="44"/>
+      <c r="MD15" s="45"/>
+      <c r="ME15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="MF15" s="30"/>
-      <c r="MG15" s="30"/>
-      <c r="MH15" s="30"/>
-      <c r="MI15" s="30"/>
-      <c r="MJ15" s="30"/>
-      <c r="MK15" s="30"/>
-      <c r="ML15" s="30"/>
-      <c r="MM15" s="30"/>
-      <c r="MN15" s="30"/>
-      <c r="MO15" s="30"/>
-      <c r="MP15" s="30"/>
-      <c r="MQ15" s="30"/>
-      <c r="MR15" s="30"/>
-      <c r="MS15" s="30"/>
-      <c r="MT15" s="30"/>
-      <c r="MU15" s="30"/>
-      <c r="MV15" s="30"/>
-      <c r="MW15" s="30"/>
-      <c r="MX15" s="31"/>
-      <c r="MY15" s="30" t="s">
+      <c r="MF15" s="44"/>
+      <c r="MG15" s="44"/>
+      <c r="MH15" s="44"/>
+      <c r="MI15" s="44"/>
+      <c r="MJ15" s="44"/>
+      <c r="MK15" s="44"/>
+      <c r="ML15" s="44"/>
+      <c r="MM15" s="44"/>
+      <c r="MN15" s="44"/>
+      <c r="MO15" s="44"/>
+      <c r="MP15" s="44"/>
+      <c r="MQ15" s="44"/>
+      <c r="MR15" s="44"/>
+      <c r="MS15" s="44"/>
+      <c r="MT15" s="44"/>
+      <c r="MU15" s="44"/>
+      <c r="MV15" s="44"/>
+      <c r="MW15" s="44"/>
+      <c r="MX15" s="45"/>
+      <c r="MY15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="MZ15" s="30"/>
-      <c r="NA15" s="30"/>
-      <c r="NB15" s="30"/>
-      <c r="NC15" s="30"/>
-      <c r="ND15" s="30"/>
-      <c r="NE15" s="30"/>
-      <c r="NF15" s="30"/>
-      <c r="NG15" s="30"/>
-      <c r="NH15" s="30"/>
-      <c r="NI15" s="30"/>
-      <c r="NJ15" s="30"/>
-      <c r="NK15" s="30"/>
-      <c r="NL15" s="30"/>
-      <c r="NM15" s="30"/>
-      <c r="NN15" s="30"/>
-      <c r="NO15" s="30"/>
-      <c r="NP15" s="30"/>
-      <c r="NQ15" s="30"/>
-      <c r="NR15" s="31"/>
-      <c r="NS15" s="29" t="s">
+      <c r="MZ15" s="44"/>
+      <c r="NA15" s="44"/>
+      <c r="NB15" s="44"/>
+      <c r="NC15" s="44"/>
+      <c r="ND15" s="44"/>
+      <c r="NE15" s="44"/>
+      <c r="NF15" s="44"/>
+      <c r="NG15" s="44"/>
+      <c r="NH15" s="44"/>
+      <c r="NI15" s="44"/>
+      <c r="NJ15" s="44"/>
+      <c r="NK15" s="44"/>
+      <c r="NL15" s="44"/>
+      <c r="NM15" s="44"/>
+      <c r="NN15" s="44"/>
+      <c r="NO15" s="44"/>
+      <c r="NP15" s="44"/>
+      <c r="NQ15" s="44"/>
+      <c r="NR15" s="45"/>
+      <c r="NS15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="NT15" s="30"/>
-      <c r="NU15" s="30"/>
-      <c r="NV15" s="30"/>
-      <c r="NW15" s="30"/>
-      <c r="NX15" s="30"/>
-      <c r="NY15" s="30"/>
-      <c r="NZ15" s="30"/>
-      <c r="OA15" s="30"/>
-      <c r="OB15" s="30"/>
-      <c r="OC15" s="30"/>
-      <c r="OD15" s="30"/>
-      <c r="OE15" s="30"/>
-      <c r="OF15" s="30"/>
-      <c r="OG15" s="30"/>
-      <c r="OH15" s="30"/>
-      <c r="OI15" s="30"/>
-      <c r="OJ15" s="30"/>
-      <c r="OK15" s="30"/>
-      <c r="OL15" s="31"/>
-      <c r="OM15" s="30" t="s">
+      <c r="NT15" s="44"/>
+      <c r="NU15" s="44"/>
+      <c r="NV15" s="44"/>
+      <c r="NW15" s="44"/>
+      <c r="NX15" s="44"/>
+      <c r="NY15" s="44"/>
+      <c r="NZ15" s="44"/>
+      <c r="OA15" s="44"/>
+      <c r="OB15" s="44"/>
+      <c r="OC15" s="44"/>
+      <c r="OD15" s="44"/>
+      <c r="OE15" s="44"/>
+      <c r="OF15" s="44"/>
+      <c r="OG15" s="44"/>
+      <c r="OH15" s="44"/>
+      <c r="OI15" s="44"/>
+      <c r="OJ15" s="44"/>
+      <c r="OK15" s="44"/>
+      <c r="OL15" s="45"/>
+      <c r="OM15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="ON15" s="30"/>
-      <c r="OO15" s="30"/>
-      <c r="OP15" s="30"/>
-      <c r="OQ15" s="30"/>
-      <c r="OR15" s="30"/>
-      <c r="OS15" s="30"/>
-      <c r="OT15" s="30"/>
-      <c r="OU15" s="30"/>
-      <c r="OV15" s="30"/>
-      <c r="OW15" s="30"/>
-      <c r="OX15" s="30"/>
-      <c r="OY15" s="30"/>
-      <c r="OZ15" s="30"/>
-      <c r="PA15" s="30"/>
-      <c r="PB15" s="30"/>
-      <c r="PC15" s="30"/>
-      <c r="PD15" s="30"/>
-      <c r="PE15" s="30"/>
-      <c r="PF15" s="31"/>
-      <c r="PG15" s="29" t="s">
+      <c r="ON15" s="44"/>
+      <c r="OO15" s="44"/>
+      <c r="OP15" s="44"/>
+      <c r="OQ15" s="44"/>
+      <c r="OR15" s="44"/>
+      <c r="OS15" s="44"/>
+      <c r="OT15" s="44"/>
+      <c r="OU15" s="44"/>
+      <c r="OV15" s="44"/>
+      <c r="OW15" s="44"/>
+      <c r="OX15" s="44"/>
+      <c r="OY15" s="44"/>
+      <c r="OZ15" s="44"/>
+      <c r="PA15" s="44"/>
+      <c r="PB15" s="44"/>
+      <c r="PC15" s="44"/>
+      <c r="PD15" s="44"/>
+      <c r="PE15" s="44"/>
+      <c r="PF15" s="45"/>
+      <c r="PG15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="PH15" s="30"/>
-      <c r="PI15" s="30"/>
-      <c r="PJ15" s="30"/>
-      <c r="PK15" s="30"/>
-      <c r="PL15" s="30"/>
-      <c r="PM15" s="30"/>
-      <c r="PN15" s="30"/>
-      <c r="PO15" s="30"/>
-      <c r="PP15" s="30"/>
-      <c r="PQ15" s="30"/>
-      <c r="PR15" s="30"/>
-      <c r="PS15" s="30"/>
-      <c r="PT15" s="30"/>
-      <c r="PU15" s="30"/>
-      <c r="PV15" s="30"/>
-      <c r="PW15" s="30"/>
-      <c r="PX15" s="30"/>
-      <c r="PY15" s="30"/>
-      <c r="PZ15" s="31"/>
-      <c r="QA15" s="30" t="s">
+      <c r="PH15" s="44"/>
+      <c r="PI15" s="44"/>
+      <c r="PJ15" s="44"/>
+      <c r="PK15" s="44"/>
+      <c r="PL15" s="44"/>
+      <c r="PM15" s="44"/>
+      <c r="PN15" s="44"/>
+      <c r="PO15" s="44"/>
+      <c r="PP15" s="44"/>
+      <c r="PQ15" s="44"/>
+      <c r="PR15" s="44"/>
+      <c r="PS15" s="44"/>
+      <c r="PT15" s="44"/>
+      <c r="PU15" s="44"/>
+      <c r="PV15" s="44"/>
+      <c r="PW15" s="44"/>
+      <c r="PX15" s="44"/>
+      <c r="PY15" s="44"/>
+      <c r="PZ15" s="45"/>
+      <c r="QA15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="QB15" s="30"/>
-      <c r="QC15" s="30"/>
-      <c r="QD15" s="30"/>
-      <c r="QE15" s="30"/>
-      <c r="QF15" s="30"/>
-      <c r="QG15" s="30"/>
-      <c r="QH15" s="30"/>
-      <c r="QI15" s="30"/>
-      <c r="QJ15" s="30"/>
-      <c r="QK15" s="30"/>
-      <c r="QL15" s="30"/>
-      <c r="QM15" s="30"/>
-      <c r="QN15" s="30"/>
-      <c r="QO15" s="30"/>
-      <c r="QP15" s="30"/>
-      <c r="QQ15" s="30"/>
-      <c r="QR15" s="30"/>
-      <c r="QS15" s="30"/>
-      <c r="QT15" s="31"/>
-      <c r="QU15" s="29" t="s">
+      <c r="QB15" s="44"/>
+      <c r="QC15" s="44"/>
+      <c r="QD15" s="44"/>
+      <c r="QE15" s="44"/>
+      <c r="QF15" s="44"/>
+      <c r="QG15" s="44"/>
+      <c r="QH15" s="44"/>
+      <c r="QI15" s="44"/>
+      <c r="QJ15" s="44"/>
+      <c r="QK15" s="44"/>
+      <c r="QL15" s="44"/>
+      <c r="QM15" s="44"/>
+      <c r="QN15" s="44"/>
+      <c r="QO15" s="44"/>
+      <c r="QP15" s="44"/>
+      <c r="QQ15" s="44"/>
+      <c r="QR15" s="44"/>
+      <c r="QS15" s="44"/>
+      <c r="QT15" s="45"/>
+      <c r="QU15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="QV15" s="30"/>
-      <c r="QW15" s="30"/>
-      <c r="QX15" s="30"/>
-      <c r="QY15" s="30"/>
-      <c r="QZ15" s="30"/>
-      <c r="RA15" s="30"/>
-      <c r="RB15" s="30"/>
-      <c r="RC15" s="30"/>
-      <c r="RD15" s="30"/>
-      <c r="RE15" s="30"/>
-      <c r="RF15" s="30"/>
-      <c r="RG15" s="30"/>
-      <c r="RH15" s="30"/>
-      <c r="RI15" s="30"/>
-      <c r="RJ15" s="30"/>
-      <c r="RK15" s="30"/>
-      <c r="RL15" s="30"/>
-      <c r="RM15" s="30"/>
-      <c r="RN15" s="31"/>
-      <c r="RO15" s="30" t="s">
+      <c r="QV15" s="44"/>
+      <c r="QW15" s="44"/>
+      <c r="QX15" s="44"/>
+      <c r="QY15" s="44"/>
+      <c r="QZ15" s="44"/>
+      <c r="RA15" s="44"/>
+      <c r="RB15" s="44"/>
+      <c r="RC15" s="44"/>
+      <c r="RD15" s="44"/>
+      <c r="RE15" s="44"/>
+      <c r="RF15" s="44"/>
+      <c r="RG15" s="44"/>
+      <c r="RH15" s="44"/>
+      <c r="RI15" s="44"/>
+      <c r="RJ15" s="44"/>
+      <c r="RK15" s="44"/>
+      <c r="RL15" s="44"/>
+      <c r="RM15" s="44"/>
+      <c r="RN15" s="45"/>
+      <c r="RO15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="RP15" s="30"/>
-      <c r="RQ15" s="30"/>
-      <c r="RR15" s="30"/>
-      <c r="RS15" s="30"/>
-      <c r="RT15" s="30"/>
-      <c r="RU15" s="30"/>
-      <c r="RV15" s="30"/>
-      <c r="RW15" s="30"/>
-      <c r="RX15" s="30"/>
-      <c r="RY15" s="30"/>
-      <c r="RZ15" s="30"/>
-      <c r="SA15" s="30"/>
-      <c r="SB15" s="30"/>
-      <c r="SC15" s="30"/>
-      <c r="SD15" s="30"/>
-      <c r="SE15" s="30"/>
-      <c r="SF15" s="30"/>
-      <c r="SG15" s="30"/>
-      <c r="SH15" s="31"/>
-      <c r="SI15" s="29" t="s">
+      <c r="RP15" s="44"/>
+      <c r="RQ15" s="44"/>
+      <c r="RR15" s="44"/>
+      <c r="RS15" s="44"/>
+      <c r="RT15" s="44"/>
+      <c r="RU15" s="44"/>
+      <c r="RV15" s="44"/>
+      <c r="RW15" s="44"/>
+      <c r="RX15" s="44"/>
+      <c r="RY15" s="44"/>
+      <c r="RZ15" s="44"/>
+      <c r="SA15" s="44"/>
+      <c r="SB15" s="44"/>
+      <c r="SC15" s="44"/>
+      <c r="SD15" s="44"/>
+      <c r="SE15" s="44"/>
+      <c r="SF15" s="44"/>
+      <c r="SG15" s="44"/>
+      <c r="SH15" s="45"/>
+      <c r="SI15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="SJ15" s="30"/>
-      <c r="SK15" s="30"/>
-      <c r="SL15" s="30"/>
-      <c r="SM15" s="30"/>
-      <c r="SN15" s="30"/>
-      <c r="SO15" s="30"/>
-      <c r="SP15" s="30"/>
-      <c r="SQ15" s="30"/>
-      <c r="SR15" s="30"/>
-      <c r="SS15" s="30"/>
-      <c r="ST15" s="30"/>
-      <c r="SU15" s="30"/>
-      <c r="SV15" s="30"/>
-      <c r="SW15" s="30"/>
-      <c r="SX15" s="30"/>
-      <c r="SY15" s="30"/>
-      <c r="SZ15" s="30"/>
-      <c r="TA15" s="30"/>
-      <c r="TB15" s="31"/>
-      <c r="TC15" s="29"/>
-      <c r="TD15" s="30"/>
-      <c r="TE15" s="30"/>
-      <c r="TF15" s="30"/>
-      <c r="TG15" s="30"/>
-      <c r="TH15" s="30"/>
-      <c r="TI15" s="30"/>
-      <c r="TJ15" s="30"/>
-      <c r="TK15" s="30"/>
-      <c r="TL15" s="30"/>
-      <c r="TM15" s="30"/>
-      <c r="TN15" s="30"/>
-      <c r="TO15" s="30"/>
-      <c r="TP15" s="30"/>
-      <c r="TQ15" s="30"/>
-      <c r="TR15" s="30"/>
-      <c r="TS15" s="30"/>
-      <c r="TT15" s="30"/>
-      <c r="TU15" s="30"/>
-      <c r="TV15" s="31"/>
-      <c r="TW15" s="29"/>
-      <c r="TX15" s="30"/>
-      <c r="TY15" s="30"/>
-      <c r="TZ15" s="30"/>
-      <c r="UA15" s="30"/>
-      <c r="UB15" s="30"/>
-      <c r="UC15" s="30"/>
-      <c r="UD15" s="30"/>
-      <c r="UE15" s="30"/>
-      <c r="UF15" s="30"/>
-      <c r="UG15" s="30"/>
-      <c r="UH15" s="30"/>
-      <c r="UI15" s="30"/>
-      <c r="UJ15" s="30"/>
-      <c r="UK15" s="30"/>
-      <c r="UL15" s="30"/>
-      <c r="UM15" s="30"/>
-      <c r="UN15" s="30"/>
-      <c r="UO15" s="30"/>
-      <c r="UP15" s="31"/>
-      <c r="UQ15" s="29"/>
-      <c r="UR15" s="30"/>
-      <c r="US15" s="30"/>
-      <c r="UT15" s="30"/>
-      <c r="UU15" s="30"/>
-      <c r="UV15" s="30"/>
-      <c r="UW15" s="30"/>
-      <c r="UX15" s="30"/>
-      <c r="UY15" s="30"/>
-      <c r="UZ15" s="30"/>
-      <c r="VA15" s="30"/>
-      <c r="VB15" s="30"/>
-      <c r="VC15" s="30"/>
-      <c r="VD15" s="30"/>
-      <c r="VE15" s="30"/>
-      <c r="VF15" s="30"/>
-      <c r="VG15" s="30"/>
-      <c r="VH15" s="30"/>
-      <c r="VI15" s="30"/>
-      <c r="VJ15" s="31"/>
-      <c r="VK15" s="29"/>
-      <c r="VL15" s="30"/>
-      <c r="VM15" s="30"/>
-      <c r="VN15" s="30"/>
-      <c r="VO15" s="30"/>
-      <c r="VP15" s="30"/>
-      <c r="VQ15" s="30"/>
-      <c r="VR15" s="30"/>
-      <c r="VS15" s="30"/>
-      <c r="VT15" s="30"/>
-      <c r="VU15" s="30"/>
-      <c r="VV15" s="30"/>
-      <c r="VW15" s="30"/>
-      <c r="VX15" s="30"/>
-      <c r="VY15" s="30"/>
-      <c r="VZ15" s="30"/>
-      <c r="WA15" s="30"/>
-      <c r="WB15" s="30"/>
-      <c r="WC15" s="30"/>
-      <c r="WD15" s="31"/>
-      <c r="WE15" s="29"/>
-      <c r="WF15" s="30"/>
-      <c r="WG15" s="30"/>
-      <c r="WH15" s="30"/>
-      <c r="WI15" s="30"/>
-      <c r="WJ15" s="30"/>
-      <c r="WK15" s="30"/>
-      <c r="WL15" s="30"/>
-      <c r="WM15" s="30"/>
-      <c r="WN15" s="30"/>
-      <c r="WO15" s="30"/>
-      <c r="WP15" s="30"/>
-      <c r="WQ15" s="30"/>
-      <c r="WR15" s="30"/>
-      <c r="WS15" s="30"/>
-      <c r="WT15" s="30"/>
-      <c r="WU15" s="30"/>
-      <c r="WV15" s="30"/>
-      <c r="WW15" s="30"/>
-      <c r="WX15" s="31"/>
-      <c r="WY15" s="29"/>
-      <c r="WZ15" s="30"/>
-      <c r="XA15" s="30"/>
-      <c r="XB15" s="30"/>
-      <c r="XC15" s="30"/>
-      <c r="XD15" s="30"/>
-      <c r="XE15" s="30"/>
-      <c r="XF15" s="30"/>
-      <c r="XG15" s="30"/>
-      <c r="XH15" s="30"/>
-      <c r="XI15" s="30"/>
-      <c r="XJ15" s="30"/>
-      <c r="XK15" s="30"/>
-      <c r="XL15" s="30"/>
-      <c r="XM15" s="30"/>
-      <c r="XN15" s="30"/>
-      <c r="XO15" s="30"/>
-      <c r="XP15" s="30"/>
-      <c r="XQ15" s="30"/>
-      <c r="XR15" s="31"/>
-      <c r="XS15" s="29"/>
-      <c r="XT15" s="30"/>
-      <c r="XU15" s="30"/>
-      <c r="XV15" s="30"/>
-      <c r="XW15" s="30"/>
-      <c r="XX15" s="30"/>
-      <c r="XY15" s="30"/>
-      <c r="XZ15" s="30"/>
-      <c r="YA15" s="30"/>
-      <c r="YB15" s="30"/>
-      <c r="YC15" s="30"/>
-      <c r="YD15" s="30"/>
-      <c r="YE15" s="30"/>
-      <c r="YF15" s="30"/>
-      <c r="YG15" s="30"/>
-      <c r="YH15" s="30"/>
-      <c r="YI15" s="30"/>
-      <c r="YJ15" s="30"/>
-      <c r="YK15" s="30"/>
-      <c r="YL15" s="31"/>
-      <c r="YM15" s="29"/>
-      <c r="YN15" s="30"/>
-      <c r="YO15" s="30"/>
-      <c r="YP15" s="30"/>
-      <c r="YQ15" s="30"/>
-      <c r="YR15" s="30"/>
-      <c r="YS15" s="30"/>
-      <c r="YT15" s="30"/>
-      <c r="YU15" s="30"/>
-      <c r="YV15" s="30"/>
-      <c r="YW15" s="30"/>
-      <c r="YX15" s="30"/>
-      <c r="YY15" s="30"/>
-      <c r="YZ15" s="30"/>
-      <c r="ZA15" s="30"/>
-      <c r="ZB15" s="30"/>
-      <c r="ZC15" s="30"/>
-      <c r="ZD15" s="30"/>
-      <c r="ZE15" s="30"/>
-      <c r="ZF15" s="31"/>
-      <c r="ZG15" s="29"/>
-      <c r="ZH15" s="30"/>
-      <c r="ZI15" s="30"/>
-      <c r="ZJ15" s="30"/>
-      <c r="ZK15" s="30"/>
-      <c r="ZL15" s="30"/>
-      <c r="ZM15" s="30"/>
-      <c r="ZN15" s="30"/>
-      <c r="ZO15" s="30"/>
-      <c r="ZP15" s="30"/>
-      <c r="ZQ15" s="30"/>
-      <c r="ZR15" s="30"/>
-      <c r="ZS15" s="30"/>
-      <c r="ZT15" s="30"/>
-      <c r="ZU15" s="30"/>
-      <c r="ZV15" s="30"/>
-      <c r="ZW15" s="30"/>
-      <c r="ZX15" s="30"/>
-      <c r="ZY15" s="30"/>
-      <c r="ZZ15" s="31"/>
-      <c r="AAA15" s="29"/>
-      <c r="AAB15" s="30"/>
-      <c r="AAC15" s="30"/>
-      <c r="AAD15" s="30"/>
-      <c r="AAE15" s="30"/>
-      <c r="AAF15" s="30"/>
-      <c r="AAG15" s="30"/>
-      <c r="AAH15" s="30"/>
-      <c r="AAI15" s="30"/>
-      <c r="AAJ15" s="30"/>
-      <c r="AAK15" s="30"/>
-      <c r="AAL15" s="30"/>
-      <c r="AAM15" s="30"/>
-      <c r="AAN15" s="30"/>
-      <c r="AAO15" s="30"/>
-      <c r="AAP15" s="30"/>
-      <c r="AAQ15" s="30"/>
-      <c r="AAR15" s="30"/>
-      <c r="AAS15" s="30"/>
-      <c r="AAT15" s="31"/>
-      <c r="AAU15" s="29"/>
-      <c r="AAV15" s="30"/>
-      <c r="AAW15" s="30"/>
-      <c r="AAX15" s="30"/>
-      <c r="AAY15" s="30"/>
-      <c r="AAZ15" s="30"/>
-      <c r="ABA15" s="30"/>
-      <c r="ABB15" s="30"/>
-      <c r="ABC15" s="30"/>
-      <c r="ABD15" s="30"/>
-      <c r="ABE15" s="30"/>
-      <c r="ABF15" s="30"/>
-      <c r="ABG15" s="30"/>
-      <c r="ABH15" s="30"/>
-      <c r="ABI15" s="30"/>
-      <c r="ABJ15" s="30"/>
-      <c r="ABK15" s="30"/>
-      <c r="ABL15" s="30"/>
-      <c r="ABM15" s="30"/>
-      <c r="ABN15" s="31"/>
-      <c r="ABO15" s="29"/>
-      <c r="ABP15" s="30"/>
-      <c r="ABQ15" s="30"/>
-      <c r="ABR15" s="30"/>
-      <c r="ABS15" s="30"/>
-      <c r="ABT15" s="30"/>
-      <c r="ABU15" s="30"/>
-      <c r="ABV15" s="30"/>
-      <c r="ABW15" s="30"/>
-      <c r="ABX15" s="30"/>
-      <c r="ABY15" s="30"/>
-      <c r="ABZ15" s="30"/>
-      <c r="ACA15" s="30"/>
-      <c r="ACB15" s="30"/>
-      <c r="ACC15" s="30"/>
-      <c r="ACD15" s="30"/>
-      <c r="ACE15" s="30"/>
-      <c r="ACF15" s="30"/>
-      <c r="ACG15" s="30"/>
-      <c r="ACH15" s="31"/>
-      <c r="ACI15" s="29"/>
-      <c r="ACJ15" s="30"/>
-      <c r="ACK15" s="30"/>
-      <c r="ACL15" s="30"/>
-      <c r="ACM15" s="30"/>
-      <c r="ACN15" s="30"/>
-      <c r="ACO15" s="30"/>
-      <c r="ACP15" s="30"/>
-      <c r="ACQ15" s="30"/>
-      <c r="ACR15" s="30"/>
-      <c r="ACS15" s="30"/>
-      <c r="ACT15" s="30"/>
-      <c r="ACU15" s="30"/>
-      <c r="ACV15" s="30"/>
-      <c r="ACW15" s="30"/>
-      <c r="ACX15" s="30"/>
-      <c r="ACY15" s="30"/>
-      <c r="ACZ15" s="30"/>
-      <c r="ADA15" s="30"/>
-      <c r="ADB15" s="31"/>
-      <c r="ADC15" s="29"/>
-      <c r="ADD15" s="30"/>
-      <c r="ADE15" s="30"/>
-      <c r="ADF15" s="30"/>
-      <c r="ADG15" s="30"/>
-      <c r="ADH15" s="30"/>
-      <c r="ADI15" s="30"/>
-      <c r="ADJ15" s="30"/>
-      <c r="ADK15" s="30"/>
-      <c r="ADL15" s="30"/>
-      <c r="ADM15" s="30"/>
-      <c r="ADN15" s="30"/>
-      <c r="ADO15" s="30"/>
-      <c r="ADP15" s="30"/>
-      <c r="ADQ15" s="30"/>
-      <c r="ADR15" s="30"/>
-      <c r="ADS15" s="30"/>
-      <c r="ADT15" s="30"/>
-      <c r="ADU15" s="30"/>
-      <c r="ADV15" s="31"/>
-      <c r="ADW15" s="29"/>
-      <c r="ADX15" s="30"/>
-      <c r="ADY15" s="30"/>
-      <c r="ADZ15" s="30"/>
-      <c r="AEA15" s="30"/>
-      <c r="AEB15" s="30"/>
-      <c r="AEC15" s="30"/>
-      <c r="AED15" s="30"/>
-      <c r="AEE15" s="30"/>
-      <c r="AEF15" s="30"/>
-      <c r="AEG15" s="30"/>
-      <c r="AEH15" s="30"/>
-      <c r="AEI15" s="30"/>
-      <c r="AEJ15" s="30"/>
-      <c r="AEK15" s="30"/>
-      <c r="AEL15" s="30"/>
-      <c r="AEM15" s="30"/>
-      <c r="AEN15" s="30"/>
-      <c r="AEO15" s="30"/>
-      <c r="AEP15" s="31"/>
-      <c r="AEQ15" s="29"/>
-      <c r="AER15" s="30"/>
-      <c r="AES15" s="30"/>
-      <c r="AET15" s="30"/>
-      <c r="AEU15" s="30"/>
-      <c r="AEV15" s="30"/>
-      <c r="AEW15" s="30"/>
-      <c r="AEX15" s="30"/>
-      <c r="AEY15" s="30"/>
-      <c r="AEZ15" s="30"/>
-      <c r="AFA15" s="30"/>
-      <c r="AFB15" s="30"/>
-      <c r="AFC15" s="30"/>
-      <c r="AFD15" s="30"/>
-      <c r="AFE15" s="30"/>
-      <c r="AFF15" s="30"/>
-      <c r="AFG15" s="30"/>
-      <c r="AFH15" s="30"/>
-      <c r="AFI15" s="30"/>
-      <c r="AFJ15" s="31"/>
-      <c r="AFK15" s="29"/>
-      <c r="AFL15" s="30"/>
-      <c r="AFM15" s="30"/>
-      <c r="AFN15" s="30"/>
-      <c r="AFO15" s="30"/>
-      <c r="AFP15" s="30"/>
-      <c r="AFQ15" s="30"/>
-      <c r="AFR15" s="30"/>
-      <c r="AFS15" s="30"/>
-      <c r="AFT15" s="30"/>
-      <c r="AFU15" s="30"/>
-      <c r="AFV15" s="30"/>
-      <c r="AFW15" s="30"/>
-      <c r="AFX15" s="30"/>
-      <c r="AFY15" s="30"/>
-      <c r="AFZ15" s="30"/>
-      <c r="AGA15" s="30"/>
-      <c r="AGB15" s="30"/>
-      <c r="AGC15" s="30"/>
-      <c r="AGD15" s="31"/>
-      <c r="AGE15" s="29"/>
-      <c r="AGF15" s="30"/>
-      <c r="AGG15" s="30"/>
-      <c r="AGH15" s="30"/>
-      <c r="AGI15" s="30"/>
-      <c r="AGJ15" s="30"/>
-      <c r="AGK15" s="30"/>
-      <c r="AGL15" s="30"/>
-      <c r="AGM15" s="30"/>
-      <c r="AGN15" s="30"/>
-      <c r="AGO15" s="30"/>
-      <c r="AGP15" s="30"/>
-      <c r="AGQ15" s="30"/>
-      <c r="AGR15" s="30"/>
-      <c r="AGS15" s="30"/>
-      <c r="AGT15" s="30"/>
-      <c r="AGU15" s="30"/>
-      <c r="AGV15" s="30"/>
-      <c r="AGW15" s="30"/>
-      <c r="AGX15" s="31"/>
-      <c r="AGY15" s="29"/>
-      <c r="AGZ15" s="30"/>
-      <c r="AHA15" s="30"/>
-      <c r="AHB15" s="30"/>
-      <c r="AHC15" s="30"/>
-      <c r="AHD15" s="30"/>
-      <c r="AHE15" s="30"/>
-      <c r="AHF15" s="30"/>
-      <c r="AHG15" s="30"/>
-      <c r="AHH15" s="30"/>
-      <c r="AHI15" s="30"/>
-      <c r="AHJ15" s="30"/>
-      <c r="AHK15" s="30"/>
-      <c r="AHL15" s="30"/>
-      <c r="AHM15" s="30"/>
-      <c r="AHN15" s="30"/>
-      <c r="AHO15" s="30"/>
-      <c r="AHP15" s="30"/>
-      <c r="AHQ15" s="30"/>
-      <c r="AHR15" s="31"/>
-      <c r="AHS15" s="29"/>
-      <c r="AHT15" s="30"/>
-      <c r="AHU15" s="30"/>
-      <c r="AHV15" s="30"/>
-      <c r="AHW15" s="30"/>
-      <c r="AHX15" s="30"/>
-      <c r="AHY15" s="30"/>
-      <c r="AHZ15" s="30"/>
-      <c r="AIA15" s="30"/>
-      <c r="AIB15" s="30"/>
-      <c r="AIC15" s="30"/>
-      <c r="AID15" s="30"/>
-      <c r="AIE15" s="30"/>
-      <c r="AIF15" s="30"/>
-      <c r="AIG15" s="30"/>
-      <c r="AIH15" s="30"/>
-      <c r="AII15" s="30"/>
-      <c r="AIJ15" s="30"/>
-      <c r="AIK15" s="30"/>
-      <c r="AIL15" s="31"/>
-      <c r="AIM15" s="29"/>
-      <c r="AIN15" s="30"/>
-      <c r="AIO15" s="30"/>
-      <c r="AIP15" s="30"/>
-      <c r="AIQ15" s="30"/>
-      <c r="AIR15" s="30"/>
-      <c r="AIS15" s="30"/>
-      <c r="AIT15" s="30"/>
-      <c r="AIU15" s="30"/>
-      <c r="AIV15" s="30"/>
-      <c r="AIW15" s="30"/>
-      <c r="AIX15" s="30"/>
-      <c r="AIY15" s="30"/>
-      <c r="AIZ15" s="30"/>
-      <c r="AJA15" s="30"/>
-      <c r="AJB15" s="30"/>
-      <c r="AJC15" s="30"/>
-      <c r="AJD15" s="30"/>
-      <c r="AJE15" s="30"/>
-      <c r="AJF15" s="31"/>
-      <c r="AJG15" s="29"/>
-      <c r="AJH15" s="30"/>
-      <c r="AJI15" s="30"/>
-      <c r="AJJ15" s="30"/>
-      <c r="AJK15" s="30"/>
-      <c r="AJL15" s="30"/>
-      <c r="AJM15" s="30"/>
-      <c r="AJN15" s="30"/>
-      <c r="AJO15" s="30"/>
-      <c r="AJP15" s="30"/>
-      <c r="AJQ15" s="30"/>
-      <c r="AJR15" s="30"/>
-      <c r="AJS15" s="30"/>
-      <c r="AJT15" s="30"/>
-      <c r="AJU15" s="30"/>
-      <c r="AJV15" s="30"/>
-      <c r="AJW15" s="30"/>
-      <c r="AJX15" s="30"/>
-      <c r="AJY15" s="30"/>
-      <c r="AJZ15" s="31"/>
-      <c r="AKA15" s="29"/>
-      <c r="AKB15" s="30"/>
-      <c r="AKC15" s="30"/>
-      <c r="AKD15" s="30"/>
-      <c r="AKE15" s="30"/>
-      <c r="AKF15" s="30"/>
-      <c r="AKG15" s="30"/>
-      <c r="AKH15" s="30"/>
-      <c r="AKI15" s="30"/>
-      <c r="AKJ15" s="30"/>
-      <c r="AKK15" s="30"/>
-      <c r="AKL15" s="30"/>
-      <c r="AKM15" s="30"/>
-      <c r="AKN15" s="30"/>
-      <c r="AKO15" s="30"/>
-      <c r="AKP15" s="30"/>
-      <c r="AKQ15" s="30"/>
-      <c r="AKR15" s="30"/>
-      <c r="AKS15" s="30"/>
-      <c r="AKT15" s="31"/>
-      <c r="AKU15" s="29"/>
-      <c r="AKV15" s="30"/>
-      <c r="AKW15" s="30"/>
-      <c r="AKX15" s="30"/>
-      <c r="AKY15" s="30"/>
-      <c r="AKZ15" s="30"/>
-      <c r="ALA15" s="30"/>
-      <c r="ALB15" s="30"/>
-      <c r="ALC15" s="30"/>
-      <c r="ALD15" s="30"/>
-      <c r="ALE15" s="30"/>
-      <c r="ALF15" s="30"/>
-      <c r="ALG15" s="30"/>
-      <c r="ALH15" s="30"/>
-      <c r="ALI15" s="30"/>
-      <c r="ALJ15" s="30"/>
-      <c r="ALK15" s="30"/>
-      <c r="ALL15" s="30"/>
-      <c r="ALM15" s="30"/>
-      <c r="ALN15" s="31"/>
-      <c r="ALO15" s="29"/>
-      <c r="ALP15" s="30"/>
-      <c r="ALQ15" s="30"/>
-      <c r="ALR15" s="30"/>
-      <c r="ALS15" s="30"/>
-      <c r="ALT15" s="30"/>
-      <c r="ALU15" s="30"/>
-      <c r="ALV15" s="30"/>
-      <c r="ALW15" s="30"/>
-      <c r="ALX15" s="30"/>
-      <c r="ALY15" s="30"/>
-      <c r="ALZ15" s="30"/>
-      <c r="AMA15" s="30"/>
-      <c r="AMB15" s="30"/>
-      <c r="AMC15" s="30"/>
-      <c r="AMD15" s="30"/>
-      <c r="AME15" s="30"/>
-      <c r="AMF15" s="30"/>
-      <c r="AMG15" s="30"/>
-      <c r="AMH15" s="31"/>
-      <c r="AMI15" s="29"/>
-      <c r="AMJ15" s="30"/>
-      <c r="AMK15" s="30"/>
-      <c r="AML15" s="30"/>
-      <c r="AMM15" s="30"/>
-      <c r="AMN15" s="30"/>
-      <c r="AMO15" s="30"/>
-      <c r="AMP15" s="30"/>
-      <c r="AMQ15" s="30"/>
-      <c r="AMR15" s="30"/>
-      <c r="AMS15" s="30"/>
-      <c r="AMT15" s="30"/>
-      <c r="AMU15" s="30"/>
-      <c r="AMV15" s="30"/>
-      <c r="AMW15" s="30"/>
-      <c r="AMX15" s="30"/>
-      <c r="AMY15" s="30"/>
-      <c r="AMZ15" s="30"/>
-      <c r="ANA15" s="30"/>
-      <c r="ANB15" s="31"/>
-      <c r="ANC15" s="29"/>
-      <c r="AND15" s="30"/>
-      <c r="ANE15" s="30"/>
-      <c r="ANF15" s="30"/>
-      <c r="ANG15" s="30"/>
-      <c r="ANH15" s="30"/>
-      <c r="ANI15" s="30"/>
-      <c r="ANJ15" s="30"/>
-      <c r="ANK15" s="30"/>
-      <c r="ANL15" s="30"/>
-      <c r="ANM15" s="30"/>
-      <c r="ANN15" s="30"/>
-      <c r="ANO15" s="30"/>
-      <c r="ANP15" s="30"/>
-      <c r="ANQ15" s="30"/>
-      <c r="ANR15" s="30"/>
-      <c r="ANS15" s="30"/>
-      <c r="ANT15" s="30"/>
-      <c r="ANU15" s="30"/>
-      <c r="ANV15" s="31"/>
-      <c r="ANW15" s="29"/>
-      <c r="ANX15" s="30"/>
-      <c r="ANY15" s="30"/>
-      <c r="ANZ15" s="30"/>
-      <c r="AOA15" s="30"/>
-      <c r="AOB15" s="30"/>
-      <c r="AOC15" s="30"/>
-      <c r="AOD15" s="30"/>
-      <c r="AOE15" s="30"/>
-      <c r="AOF15" s="30"/>
-      <c r="AOG15" s="30"/>
-      <c r="AOH15" s="30"/>
-      <c r="AOI15" s="30"/>
-      <c r="AOJ15" s="30"/>
-      <c r="AOK15" s="30"/>
-      <c r="AOL15" s="30"/>
-      <c r="AOM15" s="30"/>
-      <c r="AON15" s="30"/>
-      <c r="AOO15" s="30"/>
-      <c r="AOP15" s="31"/>
+      <c r="SJ15" s="44"/>
+      <c r="SK15" s="44"/>
+      <c r="SL15" s="44"/>
+      <c r="SM15" s="44"/>
+      <c r="SN15" s="44"/>
+      <c r="SO15" s="44"/>
+      <c r="SP15" s="44"/>
+      <c r="SQ15" s="44"/>
+      <c r="SR15" s="44"/>
+      <c r="SS15" s="44"/>
+      <c r="ST15" s="44"/>
+      <c r="SU15" s="44"/>
+      <c r="SV15" s="44"/>
+      <c r="SW15" s="44"/>
+      <c r="SX15" s="44"/>
+      <c r="SY15" s="44"/>
+      <c r="SZ15" s="44"/>
+      <c r="TA15" s="44"/>
+      <c r="TB15" s="45"/>
+      <c r="TC15" s="43"/>
+      <c r="TD15" s="44"/>
+      <c r="TE15" s="44"/>
+      <c r="TF15" s="44"/>
+      <c r="TG15" s="44"/>
+      <c r="TH15" s="44"/>
+      <c r="TI15" s="44"/>
+      <c r="TJ15" s="44"/>
+      <c r="TK15" s="44"/>
+      <c r="TL15" s="44"/>
+      <c r="TM15" s="44"/>
+      <c r="TN15" s="44"/>
+      <c r="TO15" s="44"/>
+      <c r="TP15" s="44"/>
+      <c r="TQ15" s="44"/>
+      <c r="TR15" s="44"/>
+      <c r="TS15" s="44"/>
+      <c r="TT15" s="44"/>
+      <c r="TU15" s="44"/>
+      <c r="TV15" s="45"/>
+      <c r="TW15" s="43"/>
+      <c r="TX15" s="44"/>
+      <c r="TY15" s="44"/>
+      <c r="TZ15" s="44"/>
+      <c r="UA15" s="44"/>
+      <c r="UB15" s="44"/>
+      <c r="UC15" s="44"/>
+      <c r="UD15" s="44"/>
+      <c r="UE15" s="44"/>
+      <c r="UF15" s="44"/>
+      <c r="UG15" s="44"/>
+      <c r="UH15" s="44"/>
+      <c r="UI15" s="44"/>
+      <c r="UJ15" s="44"/>
+      <c r="UK15" s="44"/>
+      <c r="UL15" s="44"/>
+      <c r="UM15" s="44"/>
+      <c r="UN15" s="44"/>
+      <c r="UO15" s="44"/>
+      <c r="UP15" s="45"/>
+      <c r="UQ15" s="43"/>
+      <c r="UR15" s="44"/>
+      <c r="US15" s="44"/>
+      <c r="UT15" s="44"/>
+      <c r="UU15" s="44"/>
+      <c r="UV15" s="44"/>
+      <c r="UW15" s="44"/>
+      <c r="UX15" s="44"/>
+      <c r="UY15" s="44"/>
+      <c r="UZ15" s="44"/>
+      <c r="VA15" s="44"/>
+      <c r="VB15" s="44"/>
+      <c r="VC15" s="44"/>
+      <c r="VD15" s="44"/>
+      <c r="VE15" s="44"/>
+      <c r="VF15" s="44"/>
+      <c r="VG15" s="44"/>
+      <c r="VH15" s="44"/>
+      <c r="VI15" s="44"/>
+      <c r="VJ15" s="45"/>
+      <c r="VK15" s="43"/>
+      <c r="VL15" s="44"/>
+      <c r="VM15" s="44"/>
+      <c r="VN15" s="44"/>
+      <c r="VO15" s="44"/>
+      <c r="VP15" s="44"/>
+      <c r="VQ15" s="44"/>
+      <c r="VR15" s="44"/>
+      <c r="VS15" s="44"/>
+      <c r="VT15" s="44"/>
+      <c r="VU15" s="44"/>
+      <c r="VV15" s="44"/>
+      <c r="VW15" s="44"/>
+      <c r="VX15" s="44"/>
+      <c r="VY15" s="44"/>
+      <c r="VZ15" s="44"/>
+      <c r="WA15" s="44"/>
+      <c r="WB15" s="44"/>
+      <c r="WC15" s="44"/>
+      <c r="WD15" s="45"/>
+      <c r="WE15" s="43"/>
+      <c r="WF15" s="44"/>
+      <c r="WG15" s="44"/>
+      <c r="WH15" s="44"/>
+      <c r="WI15" s="44"/>
+      <c r="WJ15" s="44"/>
+      <c r="WK15" s="44"/>
+      <c r="WL15" s="44"/>
+      <c r="WM15" s="44"/>
+      <c r="WN15" s="44"/>
+      <c r="WO15" s="44"/>
+      <c r="WP15" s="44"/>
+      <c r="WQ15" s="44"/>
+      <c r="WR15" s="44"/>
+      <c r="WS15" s="44"/>
+      <c r="WT15" s="44"/>
+      <c r="WU15" s="44"/>
+      <c r="WV15" s="44"/>
+      <c r="WW15" s="44"/>
+      <c r="WX15" s="45"/>
+      <c r="WY15" s="43"/>
+      <c r="WZ15" s="44"/>
+      <c r="XA15" s="44"/>
+      <c r="XB15" s="44"/>
+      <c r="XC15" s="44"/>
+      <c r="XD15" s="44"/>
+      <c r="XE15" s="44"/>
+      <c r="XF15" s="44"/>
+      <c r="XG15" s="44"/>
+      <c r="XH15" s="44"/>
+      <c r="XI15" s="44"/>
+      <c r="XJ15" s="44"/>
+      <c r="XK15" s="44"/>
+      <c r="XL15" s="44"/>
+      <c r="XM15" s="44"/>
+      <c r="XN15" s="44"/>
+      <c r="XO15" s="44"/>
+      <c r="XP15" s="44"/>
+      <c r="XQ15" s="44"/>
+      <c r="XR15" s="45"/>
+      <c r="XS15" s="43"/>
+      <c r="XT15" s="44"/>
+      <c r="XU15" s="44"/>
+      <c r="XV15" s="44"/>
+      <c r="XW15" s="44"/>
+      <c r="XX15" s="44"/>
+      <c r="XY15" s="44"/>
+      <c r="XZ15" s="44"/>
+      <c r="YA15" s="44"/>
+      <c r="YB15" s="44"/>
+      <c r="YC15" s="44"/>
+      <c r="YD15" s="44"/>
+      <c r="YE15" s="44"/>
+      <c r="YF15" s="44"/>
+      <c r="YG15" s="44"/>
+      <c r="YH15" s="44"/>
+      <c r="YI15" s="44"/>
+      <c r="YJ15" s="44"/>
+      <c r="YK15" s="44"/>
+      <c r="YL15" s="45"/>
+      <c r="YM15" s="43"/>
+      <c r="YN15" s="44"/>
+      <c r="YO15" s="44"/>
+      <c r="YP15" s="44"/>
+      <c r="YQ15" s="44"/>
+      <c r="YR15" s="44"/>
+      <c r="YS15" s="44"/>
+      <c r="YT15" s="44"/>
+      <c r="YU15" s="44"/>
+      <c r="YV15" s="44"/>
+      <c r="YW15" s="44"/>
+      <c r="YX15" s="44"/>
+      <c r="YY15" s="44"/>
+      <c r="YZ15" s="44"/>
+      <c r="ZA15" s="44"/>
+      <c r="ZB15" s="44"/>
+      <c r="ZC15" s="44"/>
+      <c r="ZD15" s="44"/>
+      <c r="ZE15" s="44"/>
+      <c r="ZF15" s="45"/>
+      <c r="ZG15" s="43"/>
+      <c r="ZH15" s="44"/>
+      <c r="ZI15" s="44"/>
+      <c r="ZJ15" s="44"/>
+      <c r="ZK15" s="44"/>
+      <c r="ZL15" s="44"/>
+      <c r="ZM15" s="44"/>
+      <c r="ZN15" s="44"/>
+      <c r="ZO15" s="44"/>
+      <c r="ZP15" s="44"/>
+      <c r="ZQ15" s="44"/>
+      <c r="ZR15" s="44"/>
+      <c r="ZS15" s="44"/>
+      <c r="ZT15" s="44"/>
+      <c r="ZU15" s="44"/>
+      <c r="ZV15" s="44"/>
+      <c r="ZW15" s="44"/>
+      <c r="ZX15" s="44"/>
+      <c r="ZY15" s="44"/>
+      <c r="ZZ15" s="45"/>
+      <c r="AAA15" s="43"/>
+      <c r="AAB15" s="44"/>
+      <c r="AAC15" s="44"/>
+      <c r="AAD15" s="44"/>
+      <c r="AAE15" s="44"/>
+      <c r="AAF15" s="44"/>
+      <c r="AAG15" s="44"/>
+      <c r="AAH15" s="44"/>
+      <c r="AAI15" s="44"/>
+      <c r="AAJ15" s="44"/>
+      <c r="AAK15" s="44"/>
+      <c r="AAL15" s="44"/>
+      <c r="AAM15" s="44"/>
+      <c r="AAN15" s="44"/>
+      <c r="AAO15" s="44"/>
+      <c r="AAP15" s="44"/>
+      <c r="AAQ15" s="44"/>
+      <c r="AAR15" s="44"/>
+      <c r="AAS15" s="44"/>
+      <c r="AAT15" s="45"/>
+      <c r="AAU15" s="43"/>
+      <c r="AAV15" s="44"/>
+      <c r="AAW15" s="44"/>
+      <c r="AAX15" s="44"/>
+      <c r="AAY15" s="44"/>
+      <c r="AAZ15" s="44"/>
+      <c r="ABA15" s="44"/>
+      <c r="ABB15" s="44"/>
+      <c r="ABC15" s="44"/>
+      <c r="ABD15" s="44"/>
+      <c r="ABE15" s="44"/>
+      <c r="ABF15" s="44"/>
+      <c r="ABG15" s="44"/>
+      <c r="ABH15" s="44"/>
+      <c r="ABI15" s="44"/>
+      <c r="ABJ15" s="44"/>
+      <c r="ABK15" s="44"/>
+      <c r="ABL15" s="44"/>
+      <c r="ABM15" s="44"/>
+      <c r="ABN15" s="45"/>
+      <c r="ABO15" s="43"/>
+      <c r="ABP15" s="44"/>
+      <c r="ABQ15" s="44"/>
+      <c r="ABR15" s="44"/>
+      <c r="ABS15" s="44"/>
+      <c r="ABT15" s="44"/>
+      <c r="ABU15" s="44"/>
+      <c r="ABV15" s="44"/>
+      <c r="ABW15" s="44"/>
+      <c r="ABX15" s="44"/>
+      <c r="ABY15" s="44"/>
+      <c r="ABZ15" s="44"/>
+      <c r="ACA15" s="44"/>
+      <c r="ACB15" s="44"/>
+      <c r="ACC15" s="44"/>
+      <c r="ACD15" s="44"/>
+      <c r="ACE15" s="44"/>
+      <c r="ACF15" s="44"/>
+      <c r="ACG15" s="44"/>
+      <c r="ACH15" s="45"/>
+      <c r="ACI15" s="43"/>
+      <c r="ACJ15" s="44"/>
+      <c r="ACK15" s="44"/>
+      <c r="ACL15" s="44"/>
+      <c r="ACM15" s="44"/>
+      <c r="ACN15" s="44"/>
+      <c r="ACO15" s="44"/>
+      <c r="ACP15" s="44"/>
+      <c r="ACQ15" s="44"/>
+      <c r="ACR15" s="44"/>
+      <c r="ACS15" s="44"/>
+      <c r="ACT15" s="44"/>
+      <c r="ACU15" s="44"/>
+      <c r="ACV15" s="44"/>
+      <c r="ACW15" s="44"/>
+      <c r="ACX15" s="44"/>
+      <c r="ACY15" s="44"/>
+      <c r="ACZ15" s="44"/>
+      <c r="ADA15" s="44"/>
+      <c r="ADB15" s="45"/>
+      <c r="ADC15" s="43"/>
+      <c r="ADD15" s="44"/>
+      <c r="ADE15" s="44"/>
+      <c r="ADF15" s="44"/>
+      <c r="ADG15" s="44"/>
+      <c r="ADH15" s="44"/>
+      <c r="ADI15" s="44"/>
+      <c r="ADJ15" s="44"/>
+      <c r="ADK15" s="44"/>
+      <c r="ADL15" s="44"/>
+      <c r="ADM15" s="44"/>
+      <c r="ADN15" s="44"/>
+      <c r="ADO15" s="44"/>
+      <c r="ADP15" s="44"/>
+      <c r="ADQ15" s="44"/>
+      <c r="ADR15" s="44"/>
+      <c r="ADS15" s="44"/>
+      <c r="ADT15" s="44"/>
+      <c r="ADU15" s="44"/>
+      <c r="ADV15" s="45"/>
+      <c r="ADW15" s="43"/>
+      <c r="ADX15" s="44"/>
+      <c r="ADY15" s="44"/>
+      <c r="ADZ15" s="44"/>
+      <c r="AEA15" s="44"/>
+      <c r="AEB15" s="44"/>
+      <c r="AEC15" s="44"/>
+      <c r="AED15" s="44"/>
+      <c r="AEE15" s="44"/>
+      <c r="AEF15" s="44"/>
+      <c r="AEG15" s="44"/>
+      <c r="AEH15" s="44"/>
+      <c r="AEI15" s="44"/>
+      <c r="AEJ15" s="44"/>
+      <c r="AEK15" s="44"/>
+      <c r="AEL15" s="44"/>
+      <c r="AEM15" s="44"/>
+      <c r="AEN15" s="44"/>
+      <c r="AEO15" s="44"/>
+      <c r="AEP15" s="45"/>
+      <c r="AEQ15" s="43"/>
+      <c r="AER15" s="44"/>
+      <c r="AES15" s="44"/>
+      <c r="AET15" s="44"/>
+      <c r="AEU15" s="44"/>
+      <c r="AEV15" s="44"/>
+      <c r="AEW15" s="44"/>
+      <c r="AEX15" s="44"/>
+      <c r="AEY15" s="44"/>
+      <c r="AEZ15" s="44"/>
+      <c r="AFA15" s="44"/>
+      <c r="AFB15" s="44"/>
+      <c r="AFC15" s="44"/>
+      <c r="AFD15" s="44"/>
+      <c r="AFE15" s="44"/>
+      <c r="AFF15" s="44"/>
+      <c r="AFG15" s="44"/>
+      <c r="AFH15" s="44"/>
+      <c r="AFI15" s="44"/>
+      <c r="AFJ15" s="45"/>
+      <c r="AFK15" s="43"/>
+      <c r="AFL15" s="44"/>
+      <c r="AFM15" s="44"/>
+      <c r="AFN15" s="44"/>
+      <c r="AFO15" s="44"/>
+      <c r="AFP15" s="44"/>
+      <c r="AFQ15" s="44"/>
+      <c r="AFR15" s="44"/>
+      <c r="AFS15" s="44"/>
+      <c r="AFT15" s="44"/>
+      <c r="AFU15" s="44"/>
+      <c r="AFV15" s="44"/>
+      <c r="AFW15" s="44"/>
+      <c r="AFX15" s="44"/>
+      <c r="AFY15" s="44"/>
+      <c r="AFZ15" s="44"/>
+      <c r="AGA15" s="44"/>
+      <c r="AGB15" s="44"/>
+      <c r="AGC15" s="44"/>
+      <c r="AGD15" s="45"/>
+      <c r="AGE15" s="43"/>
+      <c r="AGF15" s="44"/>
+      <c r="AGG15" s="44"/>
+      <c r="AGH15" s="44"/>
+      <c r="AGI15" s="44"/>
+      <c r="AGJ15" s="44"/>
+      <c r="AGK15" s="44"/>
+      <c r="AGL15" s="44"/>
+      <c r="AGM15" s="44"/>
+      <c r="AGN15" s="44"/>
+      <c r="AGO15" s="44"/>
+      <c r="AGP15" s="44"/>
+      <c r="AGQ15" s="44"/>
+      <c r="AGR15" s="44"/>
+      <c r="AGS15" s="44"/>
+      <c r="AGT15" s="44"/>
+      <c r="AGU15" s="44"/>
+      <c r="AGV15" s="44"/>
+      <c r="AGW15" s="44"/>
+      <c r="AGX15" s="45"/>
+      <c r="AGY15" s="43"/>
+      <c r="AGZ15" s="44"/>
+      <c r="AHA15" s="44"/>
+      <c r="AHB15" s="44"/>
+      <c r="AHC15" s="44"/>
+      <c r="AHD15" s="44"/>
+      <c r="AHE15" s="44"/>
+      <c r="AHF15" s="44"/>
+      <c r="AHG15" s="44"/>
+      <c r="AHH15" s="44"/>
+      <c r="AHI15" s="44"/>
+      <c r="AHJ15" s="44"/>
+      <c r="AHK15" s="44"/>
+      <c r="AHL15" s="44"/>
+      <c r="AHM15" s="44"/>
+      <c r="AHN15" s="44"/>
+      <c r="AHO15" s="44"/>
+      <c r="AHP15" s="44"/>
+      <c r="AHQ15" s="44"/>
+      <c r="AHR15" s="45"/>
+      <c r="AHS15" s="43"/>
+      <c r="AHT15" s="44"/>
+      <c r="AHU15" s="44"/>
+      <c r="AHV15" s="44"/>
+      <c r="AHW15" s="44"/>
+      <c r="AHX15" s="44"/>
+      <c r="AHY15" s="44"/>
+      <c r="AHZ15" s="44"/>
+      <c r="AIA15" s="44"/>
+      <c r="AIB15" s="44"/>
+      <c r="AIC15" s="44"/>
+      <c r="AID15" s="44"/>
+      <c r="AIE15" s="44"/>
+      <c r="AIF15" s="44"/>
+      <c r="AIG15" s="44"/>
+      <c r="AIH15" s="44"/>
+      <c r="AII15" s="44"/>
+      <c r="AIJ15" s="44"/>
+      <c r="AIK15" s="44"/>
+      <c r="AIL15" s="45"/>
+      <c r="AIM15" s="43"/>
+      <c r="AIN15" s="44"/>
+      <c r="AIO15" s="44"/>
+      <c r="AIP15" s="44"/>
+      <c r="AIQ15" s="44"/>
+      <c r="AIR15" s="44"/>
+      <c r="AIS15" s="44"/>
+      <c r="AIT15" s="44"/>
+      <c r="AIU15" s="44"/>
+      <c r="AIV15" s="44"/>
+      <c r="AIW15" s="44"/>
+      <c r="AIX15" s="44"/>
+      <c r="AIY15" s="44"/>
+      <c r="AIZ15" s="44"/>
+      <c r="AJA15" s="44"/>
+      <c r="AJB15" s="44"/>
+      <c r="AJC15" s="44"/>
+      <c r="AJD15" s="44"/>
+      <c r="AJE15" s="44"/>
+      <c r="AJF15" s="45"/>
+      <c r="AJG15" s="43"/>
+      <c r="AJH15" s="44"/>
+      <c r="AJI15" s="44"/>
+      <c r="AJJ15" s="44"/>
+      <c r="AJK15" s="44"/>
+      <c r="AJL15" s="44"/>
+      <c r="AJM15" s="44"/>
+      <c r="AJN15" s="44"/>
+      <c r="AJO15" s="44"/>
+      <c r="AJP15" s="44"/>
+      <c r="AJQ15" s="44"/>
+      <c r="AJR15" s="44"/>
+      <c r="AJS15" s="44"/>
+      <c r="AJT15" s="44"/>
+      <c r="AJU15" s="44"/>
+      <c r="AJV15" s="44"/>
+      <c r="AJW15" s="44"/>
+      <c r="AJX15" s="44"/>
+      <c r="AJY15" s="44"/>
+      <c r="AJZ15" s="45"/>
+      <c r="AKA15" s="43"/>
+      <c r="AKB15" s="44"/>
+      <c r="AKC15" s="44"/>
+      <c r="AKD15" s="44"/>
+      <c r="AKE15" s="44"/>
+      <c r="AKF15" s="44"/>
+      <c r="AKG15" s="44"/>
+      <c r="AKH15" s="44"/>
+      <c r="AKI15" s="44"/>
+      <c r="AKJ15" s="44"/>
+      <c r="AKK15" s="44"/>
+      <c r="AKL15" s="44"/>
+      <c r="AKM15" s="44"/>
+      <c r="AKN15" s="44"/>
+      <c r="AKO15" s="44"/>
+      <c r="AKP15" s="44"/>
+      <c r="AKQ15" s="44"/>
+      <c r="AKR15" s="44"/>
+      <c r="AKS15" s="44"/>
+      <c r="AKT15" s="45"/>
+      <c r="AKU15" s="43"/>
+      <c r="AKV15" s="44"/>
+      <c r="AKW15" s="44"/>
+      <c r="AKX15" s="44"/>
+      <c r="AKY15" s="44"/>
+      <c r="AKZ15" s="44"/>
+      <c r="ALA15" s="44"/>
+      <c r="ALB15" s="44"/>
+      <c r="ALC15" s="44"/>
+      <c r="ALD15" s="44"/>
+      <c r="ALE15" s="44"/>
+      <c r="ALF15" s="44"/>
+      <c r="ALG15" s="44"/>
+      <c r="ALH15" s="44"/>
+      <c r="ALI15" s="44"/>
+      <c r="ALJ15" s="44"/>
+      <c r="ALK15" s="44"/>
+      <c r="ALL15" s="44"/>
+      <c r="ALM15" s="44"/>
+      <c r="ALN15" s="45"/>
+      <c r="ALO15" s="43"/>
+      <c r="ALP15" s="44"/>
+      <c r="ALQ15" s="44"/>
+      <c r="ALR15" s="44"/>
+      <c r="ALS15" s="44"/>
+      <c r="ALT15" s="44"/>
+      <c r="ALU15" s="44"/>
+      <c r="ALV15" s="44"/>
+      <c r="ALW15" s="44"/>
+      <c r="ALX15" s="44"/>
+      <c r="ALY15" s="44"/>
+      <c r="ALZ15" s="44"/>
+      <c r="AMA15" s="44"/>
+      <c r="AMB15" s="44"/>
+      <c r="AMC15" s="44"/>
+      <c r="AMD15" s="44"/>
+      <c r="AME15" s="44"/>
+      <c r="AMF15" s="44"/>
+      <c r="AMG15" s="44"/>
+      <c r="AMH15" s="45"/>
+      <c r="AMI15" s="43"/>
+      <c r="AMJ15" s="44"/>
+      <c r="AMK15" s="44"/>
+      <c r="AML15" s="44"/>
+      <c r="AMM15" s="44"/>
+      <c r="AMN15" s="44"/>
+      <c r="AMO15" s="44"/>
+      <c r="AMP15" s="44"/>
+      <c r="AMQ15" s="44"/>
+      <c r="AMR15" s="44"/>
+      <c r="AMS15" s="44"/>
+      <c r="AMT15" s="44"/>
+      <c r="AMU15" s="44"/>
+      <c r="AMV15" s="44"/>
+      <c r="AMW15" s="44"/>
+      <c r="AMX15" s="44"/>
+      <c r="AMY15" s="44"/>
+      <c r="AMZ15" s="44"/>
+      <c r="ANA15" s="44"/>
+      <c r="ANB15" s="45"/>
+      <c r="ANC15" s="43"/>
+      <c r="AND15" s="44"/>
+      <c r="ANE15" s="44"/>
+      <c r="ANF15" s="44"/>
+      <c r="ANG15" s="44"/>
+      <c r="ANH15" s="44"/>
+      <c r="ANI15" s="44"/>
+      <c r="ANJ15" s="44"/>
+      <c r="ANK15" s="44"/>
+      <c r="ANL15" s="44"/>
+      <c r="ANM15" s="44"/>
+      <c r="ANN15" s="44"/>
+      <c r="ANO15" s="44"/>
+      <c r="ANP15" s="44"/>
+      <c r="ANQ15" s="44"/>
+      <c r="ANR15" s="44"/>
+      <c r="ANS15" s="44"/>
+      <c r="ANT15" s="44"/>
+      <c r="ANU15" s="44"/>
+      <c r="ANV15" s="45"/>
+      <c r="ANW15" s="43"/>
+      <c r="ANX15" s="44"/>
+      <c r="ANY15" s="44"/>
+      <c r="ANZ15" s="44"/>
+      <c r="AOA15" s="44"/>
+      <c r="AOB15" s="44"/>
+      <c r="AOC15" s="44"/>
+      <c r="AOD15" s="44"/>
+      <c r="AOE15" s="44"/>
+      <c r="AOF15" s="44"/>
+      <c r="AOG15" s="44"/>
+      <c r="AOH15" s="44"/>
+      <c r="AOI15" s="44"/>
+      <c r="AOJ15" s="44"/>
+      <c r="AOK15" s="44"/>
+      <c r="AOL15" s="44"/>
+      <c r="AOM15" s="44"/>
+      <c r="AON15" s="44"/>
+      <c r="AOO15" s="44"/>
+      <c r="AOP15" s="45"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -10715,39 +11061,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="42" t="s">
+      <c r="D17" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="44"/>
-      <c r="Q17" s="53" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="Q17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="54"/>
-      <c r="S17" s="54"/>
-      <c r="T17" s="54"/>
-      <c r="U17" s="54"/>
-      <c r="V17" s="54"/>
-      <c r="W17" s="55"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="61" t="s">
+      <c r="Z17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="62"/>
-      <c r="AD17" s="62"/>
-      <c r="AE17" s="62"/>
-      <c r="AF17" s="63"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="37"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -10866,42 +11212,42 @@
       <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="56" t="s">
+      <c r="R18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="56"/>
-      <c r="T18" s="56"/>
-      <c r="U18" s="56"/>
-      <c r="V18" s="56"/>
-      <c r="W18" s="57"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="39"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="56" t="s">
+      <c r="AA18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="56"/>
-      <c r="AD18" s="56"/>
-      <c r="AE18" s="56"/>
-      <c r="AF18" s="57"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="39"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -11020,42 +11366,42 @@
       <c r="D19" s="20">
         <v>0</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="48" t="s">
+      <c r="R19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="48"/>
-      <c r="T19" s="48"/>
-      <c r="U19" s="48"/>
-      <c r="V19" s="48"/>
-      <c r="W19" s="49"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="48" t="s">
+      <c r="AA19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="48"/>
-      <c r="AC19" s="48"/>
-      <c r="AD19" s="48"/>
-      <c r="AE19" s="48"/>
-      <c r="AF19" s="49"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="34"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -11159,42 +11505,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="E20" s="45" t="s">
+      <c r="E20" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="46"/>
-      <c r="J20" s="46"/>
-      <c r="K20" s="46"/>
-      <c r="L20" s="46"/>
-      <c r="M20" s="46"/>
-      <c r="N20" s="47"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="48" t="s">
+      <c r="R20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="48"/>
-      <c r="T20" s="48"/>
-      <c r="U20" s="48"/>
-      <c r="V20" s="48"/>
-      <c r="W20" s="49"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="48" t="s">
+      <c r="AA20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="48"/>
-      <c r="AC20" s="48"/>
-      <c r="AD20" s="48"/>
-      <c r="AE20" s="48"/>
-      <c r="AF20" s="49"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="34"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -11300,42 +11646,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="32" t="s">
+      <c r="E21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="32"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="32"/>
-      <c r="J21" s="32"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="48" t="s">
+      <c r="R21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="48"/>
-      <c r="T21" s="48"/>
-      <c r="U21" s="48"/>
-      <c r="V21" s="48"/>
-      <c r="W21" s="49"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="48" t="s">
+      <c r="AA21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="48"/>
-      <c r="AC21" s="48"/>
-      <c r="AD21" s="48"/>
-      <c r="AE21" s="48"/>
-      <c r="AF21" s="49"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="34"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -11441,40 +11787,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="G22" s="33"/>
-      <c r="H22" s="33"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="33"/>
-      <c r="L22" s="33"/>
-      <c r="M22" s="33"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="17"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="48" t="s">
+      <c r="R22" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="48"/>
-      <c r="T22" s="48"/>
-      <c r="U22" s="48"/>
-      <c r="V22" s="48"/>
-      <c r="W22" s="49"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="34"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="48" t="s">
+      <c r="AA22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AB22" s="48"/>
-      <c r="AC22" s="48"/>
-      <c r="AD22" s="48"/>
-      <c r="AE22" s="48"/>
-      <c r="AF22" s="49"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="34"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -11593,27 +11939,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="48" t="s">
+      <c r="R23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="48"/>
-      <c r="T23" s="48"/>
-      <c r="U23" s="48"/>
-      <c r="V23" s="48"/>
-      <c r="W23" s="49"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="14">
         <v>5</v>
       </c>
-      <c r="AA23" s="59" t="s">
+      <c r="AA23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="60"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="41"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -11732,14 +12078,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="48" t="s">
+      <c r="R24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="48"/>
-      <c r="T24" s="48"/>
-      <c r="U24" s="48"/>
-      <c r="V24" s="48"/>
-      <c r="W24" s="49"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -11861,14 +12207,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="48" t="s">
+      <c r="R25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="48"/>
-      <c r="T25" s="48"/>
-      <c r="U25" s="48"/>
-      <c r="V25" s="48"/>
-      <c r="W25" s="49"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -11990,14 +12336,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="48" t="s">
+      <c r="R26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="48"/>
-      <c r="T26" s="48"/>
-      <c r="U26" s="48"/>
-      <c r="V26" s="48"/>
-      <c r="W26" s="49"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="34"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -12119,14 +12465,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="48" t="s">
+      <c r="R27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="48"/>
-      <c r="T27" s="48"/>
-      <c r="U27" s="48"/>
-      <c r="V27" s="48"/>
-      <c r="W27" s="49"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -12235,14 +12581,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="48" t="s">
+      <c r="R28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S28" s="48"/>
-      <c r="T28" s="48"/>
-      <c r="U28" s="48"/>
-      <c r="V28" s="48"/>
-      <c r="W28" s="49"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="34"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -12351,14 +12697,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="48" t="s">
+      <c r="R29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="48"/>
-      <c r="T29" s="48"/>
-      <c r="U29" s="48"/>
-      <c r="V29" s="48"/>
-      <c r="W29" s="49"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -12467,14 +12813,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="48" t="s">
+      <c r="R30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
-      <c r="V30" s="48"/>
-      <c r="W30" s="49"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="34"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -12583,14 +12929,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="48" t="s">
+      <c r="R31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="49"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -12699,14 +13045,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="48" t="s">
+      <c r="R32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
-      <c r="V32" s="48"/>
-      <c r="W32" s="49"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -12812,14 +13158,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="48" t="s">
+      <c r="R33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
-      <c r="V33" s="48"/>
-      <c r="W33" s="49"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -12925,14 +13271,14 @@
       <c r="Q34" s="14">
         <v>16</v>
       </c>
-      <c r="R34" s="59" t="s">
+      <c r="R34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="60"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="41"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -33351,36 +33697,66 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="58"/>
-      <c r="S1048576" s="58"/>
-      <c r="T1048576" s="58"/>
-      <c r="U1048576" s="58"/>
-      <c r="V1048576" s="58"/>
-      <c r="W1048576" s="58"/>
+      <c r="R1048576" s="42"/>
+      <c r="S1048576" s="42"/>
+      <c r="T1048576" s="42"/>
+      <c r="U1048576" s="42"/>
+      <c r="V1048576" s="42"/>
+      <c r="W1048576" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="ME15:MX15"/>
+    <mergeCell ref="E21:M22"/>
+    <mergeCell ref="DS15:EL15"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="AQ15:BJ15"/>
+    <mergeCell ref="BK15:CD15"/>
+    <mergeCell ref="CE15:CX15"/>
+    <mergeCell ref="CY15:DR15"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="II15:JB15"/>
+    <mergeCell ref="JC15:JV15"/>
+    <mergeCell ref="JW15:KP15"/>
+    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="ANW15:AOP15"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="AGE15:AGX15"/>
+    <mergeCell ref="AGY15:AHR15"/>
+    <mergeCell ref="AHS15:AIL15"/>
+    <mergeCell ref="AIM15:AJF15"/>
+    <mergeCell ref="AJG15:AJZ15"/>
+    <mergeCell ref="AKA15:AKT15"/>
+    <mergeCell ref="ABO15:ACH15"/>
+    <mergeCell ref="ACI15:ADB15"/>
+    <mergeCell ref="ADC15:ADV15"/>
+    <mergeCell ref="ADW15:AEP15"/>
+    <mergeCell ref="AEQ15:AFJ15"/>
+    <mergeCell ref="AFK15:AGD15"/>
+    <mergeCell ref="WY15:XR15"/>
+    <mergeCell ref="XS15:YL15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
     <mergeCell ref="WE15:WX15"/>
     <mergeCell ref="NS15:OL15"/>
     <mergeCell ref="Q17:W17"/>
@@ -33397,57 +33773,27 @@
     <mergeCell ref="QU15:RN15"/>
     <mergeCell ref="RO15:SH15"/>
     <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="ANW15:AOP15"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="AGE15:AGX15"/>
-    <mergeCell ref="AGY15:AHR15"/>
-    <mergeCell ref="AHS15:AIL15"/>
-    <mergeCell ref="AIM15:AJF15"/>
-    <mergeCell ref="AJG15:AJZ15"/>
-    <mergeCell ref="AKA15:AKT15"/>
-    <mergeCell ref="ABO15:ACH15"/>
-    <mergeCell ref="ACI15:ADB15"/>
-    <mergeCell ref="ADC15:ADV15"/>
-    <mergeCell ref="ADW15:AEP15"/>
-    <mergeCell ref="AEQ15:AFJ15"/>
-    <mergeCell ref="AFK15:AGD15"/>
-    <mergeCell ref="WY15:XR15"/>
-    <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="ME15:MX15"/>
-    <mergeCell ref="E21:M22"/>
-    <mergeCell ref="DS15:EL15"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="AQ15:BJ15"/>
-    <mergeCell ref="BK15:CD15"/>
-    <mergeCell ref="CE15:CX15"/>
-    <mergeCell ref="CY15:DR15"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="II15:JB15"/>
-    <mergeCell ref="JC15:JV15"/>
-    <mergeCell ref="JW15:KP15"/>
-    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
@@ -1021,34 +1021,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1060,23 +1039,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,37 +1093,46 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,10 +1439,10 @@
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="QN2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="RR11" sqref="RR11"/>
+      <selection pane="bottomRight" activeCell="EO20" sqref="EO20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1455,31 +1455,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="50"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="18"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2084,7 +2084,7 @@
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2337,7 +2337,7 @@
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2614,7 +2614,7 @@
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="18"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2891,7 +2891,7 @@
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="18"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3506,7 +3506,7 @@
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3682,18 +3682,22 @@
       <c r="EA11" s="3"/>
       <c r="EB11" s="3"/>
       <c r="EC11" s="3"/>
-      <c r="ED11" s="3"/>
-      <c r="EE11" s="3"/>
-      <c r="EF11" s="3"/>
-      <c r="EG11" s="3"/>
       <c r="EH11" s="3"/>
       <c r="EI11" s="3"/>
       <c r="EJ11" s="3"/>
       <c r="EK11" s="3"/>
-      <c r="EL11" s="3"/>
-      <c r="EM11" s="3"/>
-      <c r="EN11" s="3"/>
-      <c r="EO11" s="3"/>
+      <c r="EL11" s="26">
+        <v>8</v>
+      </c>
+      <c r="EM11" s="26">
+        <v>8</v>
+      </c>
+      <c r="EN11" s="26">
+        <v>8</v>
+      </c>
+      <c r="EO11" s="26">
+        <v>8</v>
+      </c>
       <c r="EP11" s="3"/>
       <c r="EQ11" s="3"/>
       <c r="ER11" s="3"/>
@@ -3755,12 +3759,6 @@
       <c r="IS11" s="26">
         <v>7</v>
       </c>
-      <c r="IZ11" s="26">
-        <v>8</v>
-      </c>
-      <c r="JA11" s="26">
-        <v>8</v>
-      </c>
       <c r="JJ11" s="29">
         <v>0</v>
       </c>
@@ -3823,7 +3821,7 @@
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="50"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4041,18 +4039,22 @@
       <c r="EA12" s="3"/>
       <c r="EB12" s="3"/>
       <c r="EC12" s="3"/>
-      <c r="ED12" s="3"/>
-      <c r="EE12" s="3"/>
-      <c r="EF12" s="3"/>
-      <c r="EG12" s="3"/>
       <c r="EH12" s="3"/>
       <c r="EI12" s="3"/>
       <c r="EJ12" s="3"/>
       <c r="EK12" s="3"/>
-      <c r="EL12" s="3"/>
-      <c r="EM12" s="3"/>
-      <c r="EN12" s="3"/>
-      <c r="EO12" s="3"/>
+      <c r="EL12" s="26">
+        <v>8</v>
+      </c>
+      <c r="EM12" s="26">
+        <v>8</v>
+      </c>
+      <c r="EN12" s="26">
+        <v>8</v>
+      </c>
+      <c r="EO12" s="26">
+        <v>8</v>
+      </c>
       <c r="EP12" s="3"/>
       <c r="EQ12" s="3"/>
       <c r="ER12" s="3"/>
@@ -4171,12 +4173,6 @@
       <c r="IS12" s="26">
         <v>7</v>
       </c>
-      <c r="IZ12" s="26">
-        <v>8</v>
-      </c>
-      <c r="JA12" s="26">
-        <v>8</v>
-      </c>
       <c r="JH12" s="29">
         <v>0</v>
       </c>
@@ -4359,7 +4355,7 @@
     </row>
     <row r="13" spans="1:1082" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="27">
         <v>0</v>
       </c>
@@ -8844,1138 +8840,1138 @@
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="43" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="44" t="s">
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="45"/>
-      <c r="BK15" s="43" t="s">
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="37"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="BL15" s="44"/>
-      <c r="BM15" s="44"/>
-      <c r="BN15" s="44"/>
-      <c r="BO15" s="44"/>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44"/>
-      <c r="BR15" s="44"/>
-      <c r="BS15" s="44"/>
-      <c r="BT15" s="44"/>
-      <c r="BU15" s="44"/>
-      <c r="BV15" s="44"/>
-      <c r="BW15" s="44"/>
-      <c r="BX15" s="44"/>
-      <c r="BY15" s="44"/>
-      <c r="BZ15" s="44"/>
-      <c r="CA15" s="44"/>
-      <c r="CB15" s="44"/>
-      <c r="CC15" s="44"/>
-      <c r="CD15" s="45"/>
-      <c r="CE15" s="44" t="s">
+      <c r="BL15" s="37"/>
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="37"/>
+      <c r="BO15" s="37"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
+      <c r="BR15" s="37"/>
+      <c r="BS15" s="37"/>
+      <c r="BT15" s="37"/>
+      <c r="BU15" s="37"/>
+      <c r="BV15" s="37"/>
+      <c r="BW15" s="37"/>
+      <c r="BX15" s="37"/>
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="37"/>
+      <c r="CA15" s="37"/>
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="38"/>
+      <c r="CE15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="CF15" s="44"/>
-      <c r="CG15" s="44"/>
-      <c r="CH15" s="44"/>
-      <c r="CI15" s="44"/>
-      <c r="CJ15" s="44"/>
-      <c r="CK15" s="44"/>
-      <c r="CL15" s="44"/>
-      <c r="CM15" s="44"/>
-      <c r="CN15" s="44"/>
-      <c r="CO15" s="44"/>
-      <c r="CP15" s="44"/>
-      <c r="CQ15" s="44"/>
-      <c r="CR15" s="44"/>
-      <c r="CS15" s="44"/>
-      <c r="CT15" s="44"/>
-      <c r="CU15" s="44"/>
-      <c r="CV15" s="44"/>
-      <c r="CW15" s="44"/>
-      <c r="CX15" s="45"/>
-      <c r="CY15" s="43" t="s">
+      <c r="CF15" s="37"/>
+      <c r="CG15" s="37"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="37"/>
+      <c r="CJ15" s="37"/>
+      <c r="CK15" s="37"/>
+      <c r="CL15" s="37"/>
+      <c r="CM15" s="37"/>
+      <c r="CN15" s="37"/>
+      <c r="CO15" s="37"/>
+      <c r="CP15" s="37"/>
+      <c r="CQ15" s="37"/>
+      <c r="CR15" s="37"/>
+      <c r="CS15" s="37"/>
+      <c r="CT15" s="37"/>
+      <c r="CU15" s="37"/>
+      <c r="CV15" s="37"/>
+      <c r="CW15" s="37"/>
+      <c r="CX15" s="38"/>
+      <c r="CY15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="CZ15" s="44"/>
-      <c r="DA15" s="44"/>
-      <c r="DB15" s="44"/>
-      <c r="DC15" s="44"/>
-      <c r="DD15" s="44"/>
-      <c r="DE15" s="44"/>
-      <c r="DF15" s="44"/>
-      <c r="DG15" s="44"/>
-      <c r="DH15" s="44"/>
-      <c r="DI15" s="44"/>
-      <c r="DJ15" s="44"/>
-      <c r="DK15" s="44"/>
-      <c r="DL15" s="44"/>
-      <c r="DM15" s="44"/>
-      <c r="DN15" s="44"/>
-      <c r="DO15" s="44"/>
-      <c r="DP15" s="44"/>
-      <c r="DQ15" s="44"/>
-      <c r="DR15" s="45"/>
-      <c r="DS15" s="44" t="s">
+      <c r="CZ15" s="37"/>
+      <c r="DA15" s="37"/>
+      <c r="DB15" s="37"/>
+      <c r="DC15" s="37"/>
+      <c r="DD15" s="37"/>
+      <c r="DE15" s="37"/>
+      <c r="DF15" s="37"/>
+      <c r="DG15" s="37"/>
+      <c r="DH15" s="37"/>
+      <c r="DI15" s="37"/>
+      <c r="DJ15" s="37"/>
+      <c r="DK15" s="37"/>
+      <c r="DL15" s="37"/>
+      <c r="DM15" s="37"/>
+      <c r="DN15" s="37"/>
+      <c r="DO15" s="37"/>
+      <c r="DP15" s="37"/>
+      <c r="DQ15" s="37"/>
+      <c r="DR15" s="38"/>
+      <c r="DS15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="DT15" s="44"/>
-      <c r="DU15" s="44"/>
-      <c r="DV15" s="44"/>
-      <c r="DW15" s="44"/>
-      <c r="DX15" s="44"/>
-      <c r="DY15" s="44"/>
-      <c r="DZ15" s="44"/>
-      <c r="EA15" s="44"/>
-      <c r="EB15" s="44"/>
-      <c r="EC15" s="44"/>
-      <c r="ED15" s="44"/>
-      <c r="EE15" s="44"/>
-      <c r="EF15" s="44"/>
-      <c r="EG15" s="44"/>
-      <c r="EH15" s="44"/>
-      <c r="EI15" s="44"/>
-      <c r="EJ15" s="44"/>
-      <c r="EK15" s="44"/>
-      <c r="EL15" s="45"/>
-      <c r="EM15" s="43" t="s">
+      <c r="DT15" s="37"/>
+      <c r="DU15" s="37"/>
+      <c r="DV15" s="37"/>
+      <c r="DW15" s="37"/>
+      <c r="DX15" s="37"/>
+      <c r="DY15" s="37"/>
+      <c r="DZ15" s="37"/>
+      <c r="EA15" s="37"/>
+      <c r="EB15" s="37"/>
+      <c r="EC15" s="37"/>
+      <c r="ED15" s="37"/>
+      <c r="EE15" s="37"/>
+      <c r="EF15" s="37"/>
+      <c r="EG15" s="37"/>
+      <c r="EH15" s="37"/>
+      <c r="EI15" s="37"/>
+      <c r="EJ15" s="37"/>
+      <c r="EK15" s="37"/>
+      <c r="EL15" s="38"/>
+      <c r="EM15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="EN15" s="44"/>
-      <c r="EO15" s="44"/>
-      <c r="EP15" s="44"/>
-      <c r="EQ15" s="44"/>
-      <c r="ER15" s="44"/>
-      <c r="ES15" s="44"/>
-      <c r="ET15" s="44"/>
-      <c r="EU15" s="44"/>
-      <c r="EV15" s="44"/>
-      <c r="EW15" s="44"/>
-      <c r="EX15" s="44"/>
-      <c r="EY15" s="44"/>
-      <c r="EZ15" s="44"/>
-      <c r="FA15" s="44"/>
-      <c r="FB15" s="44"/>
-      <c r="FC15" s="44"/>
-      <c r="FD15" s="44"/>
-      <c r="FE15" s="44"/>
-      <c r="FF15" s="45"/>
-      <c r="FG15" s="44" t="s">
+      <c r="EN15" s="37"/>
+      <c r="EO15" s="37"/>
+      <c r="EP15" s="37"/>
+      <c r="EQ15" s="37"/>
+      <c r="ER15" s="37"/>
+      <c r="ES15" s="37"/>
+      <c r="ET15" s="37"/>
+      <c r="EU15" s="37"/>
+      <c r="EV15" s="37"/>
+      <c r="EW15" s="37"/>
+      <c r="EX15" s="37"/>
+      <c r="EY15" s="37"/>
+      <c r="EZ15" s="37"/>
+      <c r="FA15" s="37"/>
+      <c r="FB15" s="37"/>
+      <c r="FC15" s="37"/>
+      <c r="FD15" s="37"/>
+      <c r="FE15" s="37"/>
+      <c r="FF15" s="38"/>
+      <c r="FG15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="FH15" s="44"/>
-      <c r="FI15" s="44"/>
-      <c r="FJ15" s="44"/>
-      <c r="FK15" s="44"/>
-      <c r="FL15" s="44"/>
-      <c r="FM15" s="44"/>
-      <c r="FN15" s="44"/>
-      <c r="FO15" s="44"/>
-      <c r="FP15" s="44"/>
-      <c r="FQ15" s="44"/>
-      <c r="FR15" s="44"/>
-      <c r="FS15" s="44"/>
-      <c r="FT15" s="44"/>
-      <c r="FU15" s="44"/>
-      <c r="FV15" s="44"/>
-      <c r="FW15" s="44"/>
-      <c r="FX15" s="44"/>
-      <c r="FY15" s="44"/>
-      <c r="FZ15" s="45"/>
-      <c r="GA15" s="43" t="s">
+      <c r="FH15" s="37"/>
+      <c r="FI15" s="37"/>
+      <c r="FJ15" s="37"/>
+      <c r="FK15" s="37"/>
+      <c r="FL15" s="37"/>
+      <c r="FM15" s="37"/>
+      <c r="FN15" s="37"/>
+      <c r="FO15" s="37"/>
+      <c r="FP15" s="37"/>
+      <c r="FQ15" s="37"/>
+      <c r="FR15" s="37"/>
+      <c r="FS15" s="37"/>
+      <c r="FT15" s="37"/>
+      <c r="FU15" s="37"/>
+      <c r="FV15" s="37"/>
+      <c r="FW15" s="37"/>
+      <c r="FX15" s="37"/>
+      <c r="FY15" s="37"/>
+      <c r="FZ15" s="38"/>
+      <c r="GA15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="GB15" s="44"/>
-      <c r="GC15" s="44"/>
-      <c r="GD15" s="44"/>
-      <c r="GE15" s="44"/>
-      <c r="GF15" s="44"/>
-      <c r="GG15" s="44"/>
-      <c r="GH15" s="44"/>
-      <c r="GI15" s="44"/>
-      <c r="GJ15" s="44"/>
-      <c r="GK15" s="44"/>
-      <c r="GL15" s="44"/>
-      <c r="GM15" s="44"/>
-      <c r="GN15" s="44"/>
-      <c r="GO15" s="44"/>
-      <c r="GP15" s="44"/>
-      <c r="GQ15" s="44"/>
-      <c r="GR15" s="44"/>
-      <c r="GS15" s="44"/>
-      <c r="GT15" s="45"/>
-      <c r="GU15" s="44" t="s">
+      <c r="GB15" s="37"/>
+      <c r="GC15" s="37"/>
+      <c r="GD15" s="37"/>
+      <c r="GE15" s="37"/>
+      <c r="GF15" s="37"/>
+      <c r="GG15" s="37"/>
+      <c r="GH15" s="37"/>
+      <c r="GI15" s="37"/>
+      <c r="GJ15" s="37"/>
+      <c r="GK15" s="37"/>
+      <c r="GL15" s="37"/>
+      <c r="GM15" s="37"/>
+      <c r="GN15" s="37"/>
+      <c r="GO15" s="37"/>
+      <c r="GP15" s="37"/>
+      <c r="GQ15" s="37"/>
+      <c r="GR15" s="37"/>
+      <c r="GS15" s="37"/>
+      <c r="GT15" s="38"/>
+      <c r="GU15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="GV15" s="44"/>
-      <c r="GW15" s="44"/>
-      <c r="GX15" s="44"/>
-      <c r="GY15" s="44"/>
-      <c r="GZ15" s="44"/>
-      <c r="HA15" s="44"/>
-      <c r="HB15" s="44"/>
-      <c r="HC15" s="44"/>
-      <c r="HD15" s="44"/>
-      <c r="HE15" s="44"/>
-      <c r="HF15" s="44"/>
-      <c r="HG15" s="44"/>
-      <c r="HH15" s="44"/>
-      <c r="HI15" s="44"/>
-      <c r="HJ15" s="44"/>
-      <c r="HK15" s="44"/>
-      <c r="HL15" s="44"/>
-      <c r="HM15" s="44"/>
-      <c r="HN15" s="45"/>
-      <c r="HO15" s="43" t="s">
+      <c r="GV15" s="37"/>
+      <c r="GW15" s="37"/>
+      <c r="GX15" s="37"/>
+      <c r="GY15" s="37"/>
+      <c r="GZ15" s="37"/>
+      <c r="HA15" s="37"/>
+      <c r="HB15" s="37"/>
+      <c r="HC15" s="37"/>
+      <c r="HD15" s="37"/>
+      <c r="HE15" s="37"/>
+      <c r="HF15" s="37"/>
+      <c r="HG15" s="37"/>
+      <c r="HH15" s="37"/>
+      <c r="HI15" s="37"/>
+      <c r="HJ15" s="37"/>
+      <c r="HK15" s="37"/>
+      <c r="HL15" s="37"/>
+      <c r="HM15" s="37"/>
+      <c r="HN15" s="38"/>
+      <c r="HO15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="HP15" s="44"/>
-      <c r="HQ15" s="44"/>
-      <c r="HR15" s="44"/>
-      <c r="HS15" s="44"/>
-      <c r="HT15" s="44"/>
-      <c r="HU15" s="44"/>
-      <c r="HV15" s="44"/>
-      <c r="HW15" s="44"/>
-      <c r="HX15" s="44"/>
-      <c r="HY15" s="44"/>
-      <c r="HZ15" s="44"/>
-      <c r="IA15" s="44"/>
-      <c r="IB15" s="44"/>
-      <c r="IC15" s="44"/>
-      <c r="ID15" s="44"/>
-      <c r="IE15" s="44"/>
-      <c r="IF15" s="44"/>
-      <c r="IG15" s="44"/>
-      <c r="IH15" s="45"/>
-      <c r="II15" s="44" t="s">
+      <c r="HP15" s="37"/>
+      <c r="HQ15" s="37"/>
+      <c r="HR15" s="37"/>
+      <c r="HS15" s="37"/>
+      <c r="HT15" s="37"/>
+      <c r="HU15" s="37"/>
+      <c r="HV15" s="37"/>
+      <c r="HW15" s="37"/>
+      <c r="HX15" s="37"/>
+      <c r="HY15" s="37"/>
+      <c r="HZ15" s="37"/>
+      <c r="IA15" s="37"/>
+      <c r="IB15" s="37"/>
+      <c r="IC15" s="37"/>
+      <c r="ID15" s="37"/>
+      <c r="IE15" s="37"/>
+      <c r="IF15" s="37"/>
+      <c r="IG15" s="37"/>
+      <c r="IH15" s="38"/>
+      <c r="II15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="IJ15" s="44"/>
-      <c r="IK15" s="44"/>
-      <c r="IL15" s="44"/>
-      <c r="IM15" s="44"/>
-      <c r="IN15" s="44"/>
-      <c r="IO15" s="44"/>
-      <c r="IP15" s="44"/>
-      <c r="IQ15" s="44"/>
-      <c r="IR15" s="44"/>
-      <c r="IS15" s="44"/>
-      <c r="IT15" s="44"/>
-      <c r="IU15" s="44"/>
-      <c r="IV15" s="44"/>
-      <c r="IW15" s="44"/>
-      <c r="IX15" s="44"/>
-      <c r="IY15" s="44"/>
-      <c r="IZ15" s="44"/>
-      <c r="JA15" s="44"/>
-      <c r="JB15" s="45"/>
-      <c r="JC15" s="43" t="s">
+      <c r="IJ15" s="37"/>
+      <c r="IK15" s="37"/>
+      <c r="IL15" s="37"/>
+      <c r="IM15" s="37"/>
+      <c r="IN15" s="37"/>
+      <c r="IO15" s="37"/>
+      <c r="IP15" s="37"/>
+      <c r="IQ15" s="37"/>
+      <c r="IR15" s="37"/>
+      <c r="IS15" s="37"/>
+      <c r="IT15" s="37"/>
+      <c r="IU15" s="37"/>
+      <c r="IV15" s="37"/>
+      <c r="IW15" s="37"/>
+      <c r="IX15" s="37"/>
+      <c r="IY15" s="37"/>
+      <c r="IZ15" s="37"/>
+      <c r="JA15" s="37"/>
+      <c r="JB15" s="38"/>
+      <c r="JC15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="JD15" s="44"/>
-      <c r="JE15" s="44"/>
-      <c r="JF15" s="44"/>
-      <c r="JG15" s="44"/>
-      <c r="JH15" s="44"/>
-      <c r="JI15" s="44"/>
-      <c r="JJ15" s="44"/>
-      <c r="JK15" s="44"/>
-      <c r="JL15" s="44"/>
-      <c r="JM15" s="44"/>
-      <c r="JN15" s="44"/>
-      <c r="JO15" s="44"/>
-      <c r="JP15" s="44"/>
-      <c r="JQ15" s="44"/>
-      <c r="JR15" s="44"/>
-      <c r="JS15" s="44"/>
-      <c r="JT15" s="44"/>
-      <c r="JU15" s="44"/>
-      <c r="JV15" s="45"/>
-      <c r="JW15" s="44" t="s">
+      <c r="JD15" s="37"/>
+      <c r="JE15" s="37"/>
+      <c r="JF15" s="37"/>
+      <c r="JG15" s="37"/>
+      <c r="JH15" s="37"/>
+      <c r="JI15" s="37"/>
+      <c r="JJ15" s="37"/>
+      <c r="JK15" s="37"/>
+      <c r="JL15" s="37"/>
+      <c r="JM15" s="37"/>
+      <c r="JN15" s="37"/>
+      <c r="JO15" s="37"/>
+      <c r="JP15" s="37"/>
+      <c r="JQ15" s="37"/>
+      <c r="JR15" s="37"/>
+      <c r="JS15" s="37"/>
+      <c r="JT15" s="37"/>
+      <c r="JU15" s="37"/>
+      <c r="JV15" s="38"/>
+      <c r="JW15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="JX15" s="44"/>
-      <c r="JY15" s="44"/>
-      <c r="JZ15" s="44"/>
-      <c r="KA15" s="44"/>
-      <c r="KB15" s="44"/>
-      <c r="KC15" s="44"/>
-      <c r="KD15" s="44"/>
-      <c r="KE15" s="44"/>
-      <c r="KF15" s="44"/>
-      <c r="KG15" s="44"/>
-      <c r="KH15" s="44"/>
-      <c r="KI15" s="44"/>
-      <c r="KJ15" s="44"/>
-      <c r="KK15" s="44"/>
-      <c r="KL15" s="44"/>
-      <c r="KM15" s="44"/>
-      <c r="KN15" s="44"/>
-      <c r="KO15" s="44"/>
-      <c r="KP15" s="45"/>
-      <c r="KQ15" s="43" t="s">
+      <c r="JX15" s="37"/>
+      <c r="JY15" s="37"/>
+      <c r="JZ15" s="37"/>
+      <c r="KA15" s="37"/>
+      <c r="KB15" s="37"/>
+      <c r="KC15" s="37"/>
+      <c r="KD15" s="37"/>
+      <c r="KE15" s="37"/>
+      <c r="KF15" s="37"/>
+      <c r="KG15" s="37"/>
+      <c r="KH15" s="37"/>
+      <c r="KI15" s="37"/>
+      <c r="KJ15" s="37"/>
+      <c r="KK15" s="37"/>
+      <c r="KL15" s="37"/>
+      <c r="KM15" s="37"/>
+      <c r="KN15" s="37"/>
+      <c r="KO15" s="37"/>
+      <c r="KP15" s="38"/>
+      <c r="KQ15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="KR15" s="44"/>
-      <c r="KS15" s="44"/>
-      <c r="KT15" s="44"/>
-      <c r="KU15" s="44"/>
-      <c r="KV15" s="44"/>
-      <c r="KW15" s="44"/>
-      <c r="KX15" s="44"/>
-      <c r="KY15" s="44"/>
-      <c r="KZ15" s="44"/>
-      <c r="LA15" s="44"/>
-      <c r="LB15" s="44"/>
-      <c r="LC15" s="44"/>
-      <c r="LD15" s="44"/>
-      <c r="LE15" s="44"/>
-      <c r="LF15" s="44"/>
-      <c r="LG15" s="44"/>
-      <c r="LH15" s="44"/>
-      <c r="LI15" s="44"/>
-      <c r="LJ15" s="45"/>
-      <c r="LK15" s="44" t="s">
+      <c r="KR15" s="37"/>
+      <c r="KS15" s="37"/>
+      <c r="KT15" s="37"/>
+      <c r="KU15" s="37"/>
+      <c r="KV15" s="37"/>
+      <c r="KW15" s="37"/>
+      <c r="KX15" s="37"/>
+      <c r="KY15" s="37"/>
+      <c r="KZ15" s="37"/>
+      <c r="LA15" s="37"/>
+      <c r="LB15" s="37"/>
+      <c r="LC15" s="37"/>
+      <c r="LD15" s="37"/>
+      <c r="LE15" s="37"/>
+      <c r="LF15" s="37"/>
+      <c r="LG15" s="37"/>
+      <c r="LH15" s="37"/>
+      <c r="LI15" s="37"/>
+      <c r="LJ15" s="38"/>
+      <c r="LK15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="LL15" s="44"/>
-      <c r="LM15" s="44"/>
-      <c r="LN15" s="44"/>
-      <c r="LO15" s="44"/>
-      <c r="LP15" s="44"/>
-      <c r="LQ15" s="44"/>
-      <c r="LR15" s="44"/>
-      <c r="LS15" s="44"/>
-      <c r="LT15" s="44"/>
-      <c r="LU15" s="44"/>
-      <c r="LV15" s="44"/>
-      <c r="LW15" s="44"/>
-      <c r="LX15" s="44"/>
-      <c r="LY15" s="44"/>
-      <c r="LZ15" s="44"/>
-      <c r="MA15" s="44"/>
-      <c r="MB15" s="44"/>
-      <c r="MC15" s="44"/>
-      <c r="MD15" s="45"/>
-      <c r="ME15" s="43" t="s">
+      <c r="LL15" s="37"/>
+      <c r="LM15" s="37"/>
+      <c r="LN15" s="37"/>
+      <c r="LO15" s="37"/>
+      <c r="LP15" s="37"/>
+      <c r="LQ15" s="37"/>
+      <c r="LR15" s="37"/>
+      <c r="LS15" s="37"/>
+      <c r="LT15" s="37"/>
+      <c r="LU15" s="37"/>
+      <c r="LV15" s="37"/>
+      <c r="LW15" s="37"/>
+      <c r="LX15" s="37"/>
+      <c r="LY15" s="37"/>
+      <c r="LZ15" s="37"/>
+      <c r="MA15" s="37"/>
+      <c r="MB15" s="37"/>
+      <c r="MC15" s="37"/>
+      <c r="MD15" s="38"/>
+      <c r="ME15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="MF15" s="44"/>
-      <c r="MG15" s="44"/>
-      <c r="MH15" s="44"/>
-      <c r="MI15" s="44"/>
-      <c r="MJ15" s="44"/>
-      <c r="MK15" s="44"/>
-      <c r="ML15" s="44"/>
-      <c r="MM15" s="44"/>
-      <c r="MN15" s="44"/>
-      <c r="MO15" s="44"/>
-      <c r="MP15" s="44"/>
-      <c r="MQ15" s="44"/>
-      <c r="MR15" s="44"/>
-      <c r="MS15" s="44"/>
-      <c r="MT15" s="44"/>
-      <c r="MU15" s="44"/>
-      <c r="MV15" s="44"/>
-      <c r="MW15" s="44"/>
-      <c r="MX15" s="45"/>
-      <c r="MY15" s="44" t="s">
+      <c r="MF15" s="37"/>
+      <c r="MG15" s="37"/>
+      <c r="MH15" s="37"/>
+      <c r="MI15" s="37"/>
+      <c r="MJ15" s="37"/>
+      <c r="MK15" s="37"/>
+      <c r="ML15" s="37"/>
+      <c r="MM15" s="37"/>
+      <c r="MN15" s="37"/>
+      <c r="MO15" s="37"/>
+      <c r="MP15" s="37"/>
+      <c r="MQ15" s="37"/>
+      <c r="MR15" s="37"/>
+      <c r="MS15" s="37"/>
+      <c r="MT15" s="37"/>
+      <c r="MU15" s="37"/>
+      <c r="MV15" s="37"/>
+      <c r="MW15" s="37"/>
+      <c r="MX15" s="38"/>
+      <c r="MY15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="MZ15" s="44"/>
-      <c r="NA15" s="44"/>
-      <c r="NB15" s="44"/>
-      <c r="NC15" s="44"/>
-      <c r="ND15" s="44"/>
-      <c r="NE15" s="44"/>
-      <c r="NF15" s="44"/>
-      <c r="NG15" s="44"/>
-      <c r="NH15" s="44"/>
-      <c r="NI15" s="44"/>
-      <c r="NJ15" s="44"/>
-      <c r="NK15" s="44"/>
-      <c r="NL15" s="44"/>
-      <c r="NM15" s="44"/>
-      <c r="NN15" s="44"/>
-      <c r="NO15" s="44"/>
-      <c r="NP15" s="44"/>
-      <c r="NQ15" s="44"/>
-      <c r="NR15" s="45"/>
-      <c r="NS15" s="43" t="s">
+      <c r="MZ15" s="37"/>
+      <c r="NA15" s="37"/>
+      <c r="NB15" s="37"/>
+      <c r="NC15" s="37"/>
+      <c r="ND15" s="37"/>
+      <c r="NE15" s="37"/>
+      <c r="NF15" s="37"/>
+      <c r="NG15" s="37"/>
+      <c r="NH15" s="37"/>
+      <c r="NI15" s="37"/>
+      <c r="NJ15" s="37"/>
+      <c r="NK15" s="37"/>
+      <c r="NL15" s="37"/>
+      <c r="NM15" s="37"/>
+      <c r="NN15" s="37"/>
+      <c r="NO15" s="37"/>
+      <c r="NP15" s="37"/>
+      <c r="NQ15" s="37"/>
+      <c r="NR15" s="38"/>
+      <c r="NS15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="NT15" s="44"/>
-      <c r="NU15" s="44"/>
-      <c r="NV15" s="44"/>
-      <c r="NW15" s="44"/>
-      <c r="NX15" s="44"/>
-      <c r="NY15" s="44"/>
-      <c r="NZ15" s="44"/>
-      <c r="OA15" s="44"/>
-      <c r="OB15" s="44"/>
-      <c r="OC15" s="44"/>
-      <c r="OD15" s="44"/>
-      <c r="OE15" s="44"/>
-      <c r="OF15" s="44"/>
-      <c r="OG15" s="44"/>
-      <c r="OH15" s="44"/>
-      <c r="OI15" s="44"/>
-      <c r="OJ15" s="44"/>
-      <c r="OK15" s="44"/>
-      <c r="OL15" s="45"/>
-      <c r="OM15" s="44" t="s">
+      <c r="NT15" s="37"/>
+      <c r="NU15" s="37"/>
+      <c r="NV15" s="37"/>
+      <c r="NW15" s="37"/>
+      <c r="NX15" s="37"/>
+      <c r="NY15" s="37"/>
+      <c r="NZ15" s="37"/>
+      <c r="OA15" s="37"/>
+      <c r="OB15" s="37"/>
+      <c r="OC15" s="37"/>
+      <c r="OD15" s="37"/>
+      <c r="OE15" s="37"/>
+      <c r="OF15" s="37"/>
+      <c r="OG15" s="37"/>
+      <c r="OH15" s="37"/>
+      <c r="OI15" s="37"/>
+      <c r="OJ15" s="37"/>
+      <c r="OK15" s="37"/>
+      <c r="OL15" s="38"/>
+      <c r="OM15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="ON15" s="44"/>
-      <c r="OO15" s="44"/>
-      <c r="OP15" s="44"/>
-      <c r="OQ15" s="44"/>
-      <c r="OR15" s="44"/>
-      <c r="OS15" s="44"/>
-      <c r="OT15" s="44"/>
-      <c r="OU15" s="44"/>
-      <c r="OV15" s="44"/>
-      <c r="OW15" s="44"/>
-      <c r="OX15" s="44"/>
-      <c r="OY15" s="44"/>
-      <c r="OZ15" s="44"/>
-      <c r="PA15" s="44"/>
-      <c r="PB15" s="44"/>
-      <c r="PC15" s="44"/>
-      <c r="PD15" s="44"/>
-      <c r="PE15" s="44"/>
-      <c r="PF15" s="45"/>
-      <c r="PG15" s="43" t="s">
+      <c r="ON15" s="37"/>
+      <c r="OO15" s="37"/>
+      <c r="OP15" s="37"/>
+      <c r="OQ15" s="37"/>
+      <c r="OR15" s="37"/>
+      <c r="OS15" s="37"/>
+      <c r="OT15" s="37"/>
+      <c r="OU15" s="37"/>
+      <c r="OV15" s="37"/>
+      <c r="OW15" s="37"/>
+      <c r="OX15" s="37"/>
+      <c r="OY15" s="37"/>
+      <c r="OZ15" s="37"/>
+      <c r="PA15" s="37"/>
+      <c r="PB15" s="37"/>
+      <c r="PC15" s="37"/>
+      <c r="PD15" s="37"/>
+      <c r="PE15" s="37"/>
+      <c r="PF15" s="38"/>
+      <c r="PG15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="PH15" s="44"/>
-      <c r="PI15" s="44"/>
-      <c r="PJ15" s="44"/>
-      <c r="PK15" s="44"/>
-      <c r="PL15" s="44"/>
-      <c r="PM15" s="44"/>
-      <c r="PN15" s="44"/>
-      <c r="PO15" s="44"/>
-      <c r="PP15" s="44"/>
-      <c r="PQ15" s="44"/>
-      <c r="PR15" s="44"/>
-      <c r="PS15" s="44"/>
-      <c r="PT15" s="44"/>
-      <c r="PU15" s="44"/>
-      <c r="PV15" s="44"/>
-      <c r="PW15" s="44"/>
-      <c r="PX15" s="44"/>
-      <c r="PY15" s="44"/>
-      <c r="PZ15" s="45"/>
-      <c r="QA15" s="44" t="s">
+      <c r="PH15" s="37"/>
+      <c r="PI15" s="37"/>
+      <c r="PJ15" s="37"/>
+      <c r="PK15" s="37"/>
+      <c r="PL15" s="37"/>
+      <c r="PM15" s="37"/>
+      <c r="PN15" s="37"/>
+      <c r="PO15" s="37"/>
+      <c r="PP15" s="37"/>
+      <c r="PQ15" s="37"/>
+      <c r="PR15" s="37"/>
+      <c r="PS15" s="37"/>
+      <c r="PT15" s="37"/>
+      <c r="PU15" s="37"/>
+      <c r="PV15" s="37"/>
+      <c r="PW15" s="37"/>
+      <c r="PX15" s="37"/>
+      <c r="PY15" s="37"/>
+      <c r="PZ15" s="38"/>
+      <c r="QA15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="QB15" s="44"/>
-      <c r="QC15" s="44"/>
-      <c r="QD15" s="44"/>
-      <c r="QE15" s="44"/>
-      <c r="QF15" s="44"/>
-      <c r="QG15" s="44"/>
-      <c r="QH15" s="44"/>
-      <c r="QI15" s="44"/>
-      <c r="QJ15" s="44"/>
-      <c r="QK15" s="44"/>
-      <c r="QL15" s="44"/>
-      <c r="QM15" s="44"/>
-      <c r="QN15" s="44"/>
-      <c r="QO15" s="44"/>
-      <c r="QP15" s="44"/>
-      <c r="QQ15" s="44"/>
-      <c r="QR15" s="44"/>
-      <c r="QS15" s="44"/>
-      <c r="QT15" s="45"/>
-      <c r="QU15" s="43" t="s">
+      <c r="QB15" s="37"/>
+      <c r="QC15" s="37"/>
+      <c r="QD15" s="37"/>
+      <c r="QE15" s="37"/>
+      <c r="QF15" s="37"/>
+      <c r="QG15" s="37"/>
+      <c r="QH15" s="37"/>
+      <c r="QI15" s="37"/>
+      <c r="QJ15" s="37"/>
+      <c r="QK15" s="37"/>
+      <c r="QL15" s="37"/>
+      <c r="QM15" s="37"/>
+      <c r="QN15" s="37"/>
+      <c r="QO15" s="37"/>
+      <c r="QP15" s="37"/>
+      <c r="QQ15" s="37"/>
+      <c r="QR15" s="37"/>
+      <c r="QS15" s="37"/>
+      <c r="QT15" s="38"/>
+      <c r="QU15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="QV15" s="44"/>
-      <c r="QW15" s="44"/>
-      <c r="QX15" s="44"/>
-      <c r="QY15" s="44"/>
-      <c r="QZ15" s="44"/>
-      <c r="RA15" s="44"/>
-      <c r="RB15" s="44"/>
-      <c r="RC15" s="44"/>
-      <c r="RD15" s="44"/>
-      <c r="RE15" s="44"/>
-      <c r="RF15" s="44"/>
-      <c r="RG15" s="44"/>
-      <c r="RH15" s="44"/>
-      <c r="RI15" s="44"/>
-      <c r="RJ15" s="44"/>
-      <c r="RK15" s="44"/>
-      <c r="RL15" s="44"/>
-      <c r="RM15" s="44"/>
-      <c r="RN15" s="45"/>
-      <c r="RO15" s="44" t="s">
+      <c r="QV15" s="37"/>
+      <c r="QW15" s="37"/>
+      <c r="QX15" s="37"/>
+      <c r="QY15" s="37"/>
+      <c r="QZ15" s="37"/>
+      <c r="RA15" s="37"/>
+      <c r="RB15" s="37"/>
+      <c r="RC15" s="37"/>
+      <c r="RD15" s="37"/>
+      <c r="RE15" s="37"/>
+      <c r="RF15" s="37"/>
+      <c r="RG15" s="37"/>
+      <c r="RH15" s="37"/>
+      <c r="RI15" s="37"/>
+      <c r="RJ15" s="37"/>
+      <c r="RK15" s="37"/>
+      <c r="RL15" s="37"/>
+      <c r="RM15" s="37"/>
+      <c r="RN15" s="38"/>
+      <c r="RO15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="RP15" s="44"/>
-      <c r="RQ15" s="44"/>
-      <c r="RR15" s="44"/>
-      <c r="RS15" s="44"/>
-      <c r="RT15" s="44"/>
-      <c r="RU15" s="44"/>
-      <c r="RV15" s="44"/>
-      <c r="RW15" s="44"/>
-      <c r="RX15" s="44"/>
-      <c r="RY15" s="44"/>
-      <c r="RZ15" s="44"/>
-      <c r="SA15" s="44"/>
-      <c r="SB15" s="44"/>
-      <c r="SC15" s="44"/>
-      <c r="SD15" s="44"/>
-      <c r="SE15" s="44"/>
-      <c r="SF15" s="44"/>
-      <c r="SG15" s="44"/>
-      <c r="SH15" s="45"/>
-      <c r="SI15" s="43" t="s">
+      <c r="RP15" s="37"/>
+      <c r="RQ15" s="37"/>
+      <c r="RR15" s="37"/>
+      <c r="RS15" s="37"/>
+      <c r="RT15" s="37"/>
+      <c r="RU15" s="37"/>
+      <c r="RV15" s="37"/>
+      <c r="RW15" s="37"/>
+      <c r="RX15" s="37"/>
+      <c r="RY15" s="37"/>
+      <c r="RZ15" s="37"/>
+      <c r="SA15" s="37"/>
+      <c r="SB15" s="37"/>
+      <c r="SC15" s="37"/>
+      <c r="SD15" s="37"/>
+      <c r="SE15" s="37"/>
+      <c r="SF15" s="37"/>
+      <c r="SG15" s="37"/>
+      <c r="SH15" s="38"/>
+      <c r="SI15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="SJ15" s="44"/>
-      <c r="SK15" s="44"/>
-      <c r="SL15" s="44"/>
-      <c r="SM15" s="44"/>
-      <c r="SN15" s="44"/>
-      <c r="SO15" s="44"/>
-      <c r="SP15" s="44"/>
-      <c r="SQ15" s="44"/>
-      <c r="SR15" s="44"/>
-      <c r="SS15" s="44"/>
-      <c r="ST15" s="44"/>
-      <c r="SU15" s="44"/>
-      <c r="SV15" s="44"/>
-      <c r="SW15" s="44"/>
-      <c r="SX15" s="44"/>
-      <c r="SY15" s="44"/>
-      <c r="SZ15" s="44"/>
-      <c r="TA15" s="44"/>
-      <c r="TB15" s="45"/>
-      <c r="TC15" s="43"/>
-      <c r="TD15" s="44"/>
-      <c r="TE15" s="44"/>
-      <c r="TF15" s="44"/>
-      <c r="TG15" s="44"/>
-      <c r="TH15" s="44"/>
-      <c r="TI15" s="44"/>
-      <c r="TJ15" s="44"/>
-      <c r="TK15" s="44"/>
-      <c r="TL15" s="44"/>
-      <c r="TM15" s="44"/>
-      <c r="TN15" s="44"/>
-      <c r="TO15" s="44"/>
-      <c r="TP15" s="44"/>
-      <c r="TQ15" s="44"/>
-      <c r="TR15" s="44"/>
-      <c r="TS15" s="44"/>
-      <c r="TT15" s="44"/>
-      <c r="TU15" s="44"/>
-      <c r="TV15" s="45"/>
-      <c r="TW15" s="43"/>
-      <c r="TX15" s="44"/>
-      <c r="TY15" s="44"/>
-      <c r="TZ15" s="44"/>
-      <c r="UA15" s="44"/>
-      <c r="UB15" s="44"/>
-      <c r="UC15" s="44"/>
-      <c r="UD15" s="44"/>
-      <c r="UE15" s="44"/>
-      <c r="UF15" s="44"/>
-      <c r="UG15" s="44"/>
-      <c r="UH15" s="44"/>
-      <c r="UI15" s="44"/>
-      <c r="UJ15" s="44"/>
-      <c r="UK15" s="44"/>
-      <c r="UL15" s="44"/>
-      <c r="UM15" s="44"/>
-      <c r="UN15" s="44"/>
-      <c r="UO15" s="44"/>
-      <c r="UP15" s="45"/>
-      <c r="UQ15" s="43"/>
-      <c r="UR15" s="44"/>
-      <c r="US15" s="44"/>
-      <c r="UT15" s="44"/>
-      <c r="UU15" s="44"/>
-      <c r="UV15" s="44"/>
-      <c r="UW15" s="44"/>
-      <c r="UX15" s="44"/>
-      <c r="UY15" s="44"/>
-      <c r="UZ15" s="44"/>
-      <c r="VA15" s="44"/>
-      <c r="VB15" s="44"/>
-      <c r="VC15" s="44"/>
-      <c r="VD15" s="44"/>
-      <c r="VE15" s="44"/>
-      <c r="VF15" s="44"/>
-      <c r="VG15" s="44"/>
-      <c r="VH15" s="44"/>
-      <c r="VI15" s="44"/>
-      <c r="VJ15" s="45"/>
-      <c r="VK15" s="43"/>
-      <c r="VL15" s="44"/>
-      <c r="VM15" s="44"/>
-      <c r="VN15" s="44"/>
-      <c r="VO15" s="44"/>
-      <c r="VP15" s="44"/>
-      <c r="VQ15" s="44"/>
-      <c r="VR15" s="44"/>
-      <c r="VS15" s="44"/>
-      <c r="VT15" s="44"/>
-      <c r="VU15" s="44"/>
-      <c r="VV15" s="44"/>
-      <c r="VW15" s="44"/>
-      <c r="VX15" s="44"/>
-      <c r="VY15" s="44"/>
-      <c r="VZ15" s="44"/>
-      <c r="WA15" s="44"/>
-      <c r="WB15" s="44"/>
-      <c r="WC15" s="44"/>
-      <c r="WD15" s="45"/>
-      <c r="WE15" s="43"/>
-      <c r="WF15" s="44"/>
-      <c r="WG15" s="44"/>
-      <c r="WH15" s="44"/>
-      <c r="WI15" s="44"/>
-      <c r="WJ15" s="44"/>
-      <c r="WK15" s="44"/>
-      <c r="WL15" s="44"/>
-      <c r="WM15" s="44"/>
-      <c r="WN15" s="44"/>
-      <c r="WO15" s="44"/>
-      <c r="WP15" s="44"/>
-      <c r="WQ15" s="44"/>
-      <c r="WR15" s="44"/>
-      <c r="WS15" s="44"/>
-      <c r="WT15" s="44"/>
-      <c r="WU15" s="44"/>
-      <c r="WV15" s="44"/>
-      <c r="WW15" s="44"/>
-      <c r="WX15" s="45"/>
-      <c r="WY15" s="43"/>
-      <c r="WZ15" s="44"/>
-      <c r="XA15" s="44"/>
-      <c r="XB15" s="44"/>
-      <c r="XC15" s="44"/>
-      <c r="XD15" s="44"/>
-      <c r="XE15" s="44"/>
-      <c r="XF15" s="44"/>
-      <c r="XG15" s="44"/>
-      <c r="XH15" s="44"/>
-      <c r="XI15" s="44"/>
-      <c r="XJ15" s="44"/>
-      <c r="XK15" s="44"/>
-      <c r="XL15" s="44"/>
-      <c r="XM15" s="44"/>
-      <c r="XN15" s="44"/>
-      <c r="XO15" s="44"/>
-      <c r="XP15" s="44"/>
-      <c r="XQ15" s="44"/>
-      <c r="XR15" s="45"/>
-      <c r="XS15" s="43"/>
-      <c r="XT15" s="44"/>
-      <c r="XU15" s="44"/>
-      <c r="XV15" s="44"/>
-      <c r="XW15" s="44"/>
-      <c r="XX15" s="44"/>
-      <c r="XY15" s="44"/>
-      <c r="XZ15" s="44"/>
-      <c r="YA15" s="44"/>
-      <c r="YB15" s="44"/>
-      <c r="YC15" s="44"/>
-      <c r="YD15" s="44"/>
-      <c r="YE15" s="44"/>
-      <c r="YF15" s="44"/>
-      <c r="YG15" s="44"/>
-      <c r="YH15" s="44"/>
-      <c r="YI15" s="44"/>
-      <c r="YJ15" s="44"/>
-      <c r="YK15" s="44"/>
-      <c r="YL15" s="45"/>
-      <c r="YM15" s="43"/>
-      <c r="YN15" s="44"/>
-      <c r="YO15" s="44"/>
-      <c r="YP15" s="44"/>
-      <c r="YQ15" s="44"/>
-      <c r="YR15" s="44"/>
-      <c r="YS15" s="44"/>
-      <c r="YT15" s="44"/>
-      <c r="YU15" s="44"/>
-      <c r="YV15" s="44"/>
-      <c r="YW15" s="44"/>
-      <c r="YX15" s="44"/>
-      <c r="YY15" s="44"/>
-      <c r="YZ15" s="44"/>
-      <c r="ZA15" s="44"/>
-      <c r="ZB15" s="44"/>
-      <c r="ZC15" s="44"/>
-      <c r="ZD15" s="44"/>
-      <c r="ZE15" s="44"/>
-      <c r="ZF15" s="45"/>
-      <c r="ZG15" s="43"/>
-      <c r="ZH15" s="44"/>
-      <c r="ZI15" s="44"/>
-      <c r="ZJ15" s="44"/>
-      <c r="ZK15" s="44"/>
-      <c r="ZL15" s="44"/>
-      <c r="ZM15" s="44"/>
-      <c r="ZN15" s="44"/>
-      <c r="ZO15" s="44"/>
-      <c r="ZP15" s="44"/>
-      <c r="ZQ15" s="44"/>
-      <c r="ZR15" s="44"/>
-      <c r="ZS15" s="44"/>
-      <c r="ZT15" s="44"/>
-      <c r="ZU15" s="44"/>
-      <c r="ZV15" s="44"/>
-      <c r="ZW15" s="44"/>
-      <c r="ZX15" s="44"/>
-      <c r="ZY15" s="44"/>
-      <c r="ZZ15" s="45"/>
-      <c r="AAA15" s="43"/>
-      <c r="AAB15" s="44"/>
-      <c r="AAC15" s="44"/>
-      <c r="AAD15" s="44"/>
-      <c r="AAE15" s="44"/>
-      <c r="AAF15" s="44"/>
-      <c r="AAG15" s="44"/>
-      <c r="AAH15" s="44"/>
-      <c r="AAI15" s="44"/>
-      <c r="AAJ15" s="44"/>
-      <c r="AAK15" s="44"/>
-      <c r="AAL15" s="44"/>
-      <c r="AAM15" s="44"/>
-      <c r="AAN15" s="44"/>
-      <c r="AAO15" s="44"/>
-      <c r="AAP15" s="44"/>
-      <c r="AAQ15" s="44"/>
-      <c r="AAR15" s="44"/>
-      <c r="AAS15" s="44"/>
-      <c r="AAT15" s="45"/>
-      <c r="AAU15" s="43"/>
-      <c r="AAV15" s="44"/>
-      <c r="AAW15" s="44"/>
-      <c r="AAX15" s="44"/>
-      <c r="AAY15" s="44"/>
-      <c r="AAZ15" s="44"/>
-      <c r="ABA15" s="44"/>
-      <c r="ABB15" s="44"/>
-      <c r="ABC15" s="44"/>
-      <c r="ABD15" s="44"/>
-      <c r="ABE15" s="44"/>
-      <c r="ABF15" s="44"/>
-      <c r="ABG15" s="44"/>
-      <c r="ABH15" s="44"/>
-      <c r="ABI15" s="44"/>
-      <c r="ABJ15" s="44"/>
-      <c r="ABK15" s="44"/>
-      <c r="ABL15" s="44"/>
-      <c r="ABM15" s="44"/>
-      <c r="ABN15" s="45"/>
-      <c r="ABO15" s="43"/>
-      <c r="ABP15" s="44"/>
-      <c r="ABQ15" s="44"/>
-      <c r="ABR15" s="44"/>
-      <c r="ABS15" s="44"/>
-      <c r="ABT15" s="44"/>
-      <c r="ABU15" s="44"/>
-      <c r="ABV15" s="44"/>
-      <c r="ABW15" s="44"/>
-      <c r="ABX15" s="44"/>
-      <c r="ABY15" s="44"/>
-      <c r="ABZ15" s="44"/>
-      <c r="ACA15" s="44"/>
-      <c r="ACB15" s="44"/>
-      <c r="ACC15" s="44"/>
-      <c r="ACD15" s="44"/>
-      <c r="ACE15" s="44"/>
-      <c r="ACF15" s="44"/>
-      <c r="ACG15" s="44"/>
-      <c r="ACH15" s="45"/>
-      <c r="ACI15" s="43"/>
-      <c r="ACJ15" s="44"/>
-      <c r="ACK15" s="44"/>
-      <c r="ACL15" s="44"/>
-      <c r="ACM15" s="44"/>
-      <c r="ACN15" s="44"/>
-      <c r="ACO15" s="44"/>
-      <c r="ACP15" s="44"/>
-      <c r="ACQ15" s="44"/>
-      <c r="ACR15" s="44"/>
-      <c r="ACS15" s="44"/>
-      <c r="ACT15" s="44"/>
-      <c r="ACU15" s="44"/>
-      <c r="ACV15" s="44"/>
-      <c r="ACW15" s="44"/>
-      <c r="ACX15" s="44"/>
-      <c r="ACY15" s="44"/>
-      <c r="ACZ15" s="44"/>
-      <c r="ADA15" s="44"/>
-      <c r="ADB15" s="45"/>
-      <c r="ADC15" s="43"/>
-      <c r="ADD15" s="44"/>
-      <c r="ADE15" s="44"/>
-      <c r="ADF15" s="44"/>
-      <c r="ADG15" s="44"/>
-      <c r="ADH15" s="44"/>
-      <c r="ADI15" s="44"/>
-      <c r="ADJ15" s="44"/>
-      <c r="ADK15" s="44"/>
-      <c r="ADL15" s="44"/>
-      <c r="ADM15" s="44"/>
-      <c r="ADN15" s="44"/>
-      <c r="ADO15" s="44"/>
-      <c r="ADP15" s="44"/>
-      <c r="ADQ15" s="44"/>
-      <c r="ADR15" s="44"/>
-      <c r="ADS15" s="44"/>
-      <c r="ADT15" s="44"/>
-      <c r="ADU15" s="44"/>
-      <c r="ADV15" s="45"/>
-      <c r="ADW15" s="43"/>
-      <c r="ADX15" s="44"/>
-      <c r="ADY15" s="44"/>
-      <c r="ADZ15" s="44"/>
-      <c r="AEA15" s="44"/>
-      <c r="AEB15" s="44"/>
-      <c r="AEC15" s="44"/>
-      <c r="AED15" s="44"/>
-      <c r="AEE15" s="44"/>
-      <c r="AEF15" s="44"/>
-      <c r="AEG15" s="44"/>
-      <c r="AEH15" s="44"/>
-      <c r="AEI15" s="44"/>
-      <c r="AEJ15" s="44"/>
-      <c r="AEK15" s="44"/>
-      <c r="AEL15" s="44"/>
-      <c r="AEM15" s="44"/>
-      <c r="AEN15" s="44"/>
-      <c r="AEO15" s="44"/>
-      <c r="AEP15" s="45"/>
-      <c r="AEQ15" s="43"/>
-      <c r="AER15" s="44"/>
-      <c r="AES15" s="44"/>
-      <c r="AET15" s="44"/>
-      <c r="AEU15" s="44"/>
-      <c r="AEV15" s="44"/>
-      <c r="AEW15" s="44"/>
-      <c r="AEX15" s="44"/>
-      <c r="AEY15" s="44"/>
-      <c r="AEZ15" s="44"/>
-      <c r="AFA15" s="44"/>
-      <c r="AFB15" s="44"/>
-      <c r="AFC15" s="44"/>
-      <c r="AFD15" s="44"/>
-      <c r="AFE15" s="44"/>
-      <c r="AFF15" s="44"/>
-      <c r="AFG15" s="44"/>
-      <c r="AFH15" s="44"/>
-      <c r="AFI15" s="44"/>
-      <c r="AFJ15" s="45"/>
-      <c r="AFK15" s="43"/>
-      <c r="AFL15" s="44"/>
-      <c r="AFM15" s="44"/>
-      <c r="AFN15" s="44"/>
-      <c r="AFO15" s="44"/>
-      <c r="AFP15" s="44"/>
-      <c r="AFQ15" s="44"/>
-      <c r="AFR15" s="44"/>
-      <c r="AFS15" s="44"/>
-      <c r="AFT15" s="44"/>
-      <c r="AFU15" s="44"/>
-      <c r="AFV15" s="44"/>
-      <c r="AFW15" s="44"/>
-      <c r="AFX15" s="44"/>
-      <c r="AFY15" s="44"/>
-      <c r="AFZ15" s="44"/>
-      <c r="AGA15" s="44"/>
-      <c r="AGB15" s="44"/>
-      <c r="AGC15" s="44"/>
-      <c r="AGD15" s="45"/>
-      <c r="AGE15" s="43"/>
-      <c r="AGF15" s="44"/>
-      <c r="AGG15" s="44"/>
-      <c r="AGH15" s="44"/>
-      <c r="AGI15" s="44"/>
-      <c r="AGJ15" s="44"/>
-      <c r="AGK15" s="44"/>
-      <c r="AGL15" s="44"/>
-      <c r="AGM15" s="44"/>
-      <c r="AGN15" s="44"/>
-      <c r="AGO15" s="44"/>
-      <c r="AGP15" s="44"/>
-      <c r="AGQ15" s="44"/>
-      <c r="AGR15" s="44"/>
-      <c r="AGS15" s="44"/>
-      <c r="AGT15" s="44"/>
-      <c r="AGU15" s="44"/>
-      <c r="AGV15" s="44"/>
-      <c r="AGW15" s="44"/>
-      <c r="AGX15" s="45"/>
-      <c r="AGY15" s="43"/>
-      <c r="AGZ15" s="44"/>
-      <c r="AHA15" s="44"/>
-      <c r="AHB15" s="44"/>
-      <c r="AHC15" s="44"/>
-      <c r="AHD15" s="44"/>
-      <c r="AHE15" s="44"/>
-      <c r="AHF15" s="44"/>
-      <c r="AHG15" s="44"/>
-      <c r="AHH15" s="44"/>
-      <c r="AHI15" s="44"/>
-      <c r="AHJ15" s="44"/>
-      <c r="AHK15" s="44"/>
-      <c r="AHL15" s="44"/>
-      <c r="AHM15" s="44"/>
-      <c r="AHN15" s="44"/>
-      <c r="AHO15" s="44"/>
-      <c r="AHP15" s="44"/>
-      <c r="AHQ15" s="44"/>
-      <c r="AHR15" s="45"/>
-      <c r="AHS15" s="43"/>
-      <c r="AHT15" s="44"/>
-      <c r="AHU15" s="44"/>
-      <c r="AHV15" s="44"/>
-      <c r="AHW15" s="44"/>
-      <c r="AHX15" s="44"/>
-      <c r="AHY15" s="44"/>
-      <c r="AHZ15" s="44"/>
-      <c r="AIA15" s="44"/>
-      <c r="AIB15" s="44"/>
-      <c r="AIC15" s="44"/>
-      <c r="AID15" s="44"/>
-      <c r="AIE15" s="44"/>
-      <c r="AIF15" s="44"/>
-      <c r="AIG15" s="44"/>
-      <c r="AIH15" s="44"/>
-      <c r="AII15" s="44"/>
-      <c r="AIJ15" s="44"/>
-      <c r="AIK15" s="44"/>
-      <c r="AIL15" s="45"/>
-      <c r="AIM15" s="43"/>
-      <c r="AIN15" s="44"/>
-      <c r="AIO15" s="44"/>
-      <c r="AIP15" s="44"/>
-      <c r="AIQ15" s="44"/>
-      <c r="AIR15" s="44"/>
-      <c r="AIS15" s="44"/>
-      <c r="AIT15" s="44"/>
-      <c r="AIU15" s="44"/>
-      <c r="AIV15" s="44"/>
-      <c r="AIW15" s="44"/>
-      <c r="AIX15" s="44"/>
-      <c r="AIY15" s="44"/>
-      <c r="AIZ15" s="44"/>
-      <c r="AJA15" s="44"/>
-      <c r="AJB15" s="44"/>
-      <c r="AJC15" s="44"/>
-      <c r="AJD15" s="44"/>
-      <c r="AJE15" s="44"/>
-      <c r="AJF15" s="45"/>
-      <c r="AJG15" s="43"/>
-      <c r="AJH15" s="44"/>
-      <c r="AJI15" s="44"/>
-      <c r="AJJ15" s="44"/>
-      <c r="AJK15" s="44"/>
-      <c r="AJL15" s="44"/>
-      <c r="AJM15" s="44"/>
-      <c r="AJN15" s="44"/>
-      <c r="AJO15" s="44"/>
-      <c r="AJP15" s="44"/>
-      <c r="AJQ15" s="44"/>
-      <c r="AJR15" s="44"/>
-      <c r="AJS15" s="44"/>
-      <c r="AJT15" s="44"/>
-      <c r="AJU15" s="44"/>
-      <c r="AJV15" s="44"/>
-      <c r="AJW15" s="44"/>
-      <c r="AJX15" s="44"/>
-      <c r="AJY15" s="44"/>
-      <c r="AJZ15" s="45"/>
-      <c r="AKA15" s="43"/>
-      <c r="AKB15" s="44"/>
-      <c r="AKC15" s="44"/>
-      <c r="AKD15" s="44"/>
-      <c r="AKE15" s="44"/>
-      <c r="AKF15" s="44"/>
-      <c r="AKG15" s="44"/>
-      <c r="AKH15" s="44"/>
-      <c r="AKI15" s="44"/>
-      <c r="AKJ15" s="44"/>
-      <c r="AKK15" s="44"/>
-      <c r="AKL15" s="44"/>
-      <c r="AKM15" s="44"/>
-      <c r="AKN15" s="44"/>
-      <c r="AKO15" s="44"/>
-      <c r="AKP15" s="44"/>
-      <c r="AKQ15" s="44"/>
-      <c r="AKR15" s="44"/>
-      <c r="AKS15" s="44"/>
-      <c r="AKT15" s="45"/>
-      <c r="AKU15" s="43"/>
-      <c r="AKV15" s="44"/>
-      <c r="AKW15" s="44"/>
-      <c r="AKX15" s="44"/>
-      <c r="AKY15" s="44"/>
-      <c r="AKZ15" s="44"/>
-      <c r="ALA15" s="44"/>
-      <c r="ALB15" s="44"/>
-      <c r="ALC15" s="44"/>
-      <c r="ALD15" s="44"/>
-      <c r="ALE15" s="44"/>
-      <c r="ALF15" s="44"/>
-      <c r="ALG15" s="44"/>
-      <c r="ALH15" s="44"/>
-      <c r="ALI15" s="44"/>
-      <c r="ALJ15" s="44"/>
-      <c r="ALK15" s="44"/>
-      <c r="ALL15" s="44"/>
-      <c r="ALM15" s="44"/>
-      <c r="ALN15" s="45"/>
-      <c r="ALO15" s="43"/>
-      <c r="ALP15" s="44"/>
-      <c r="ALQ15" s="44"/>
-      <c r="ALR15" s="44"/>
-      <c r="ALS15" s="44"/>
-      <c r="ALT15" s="44"/>
-      <c r="ALU15" s="44"/>
-      <c r="ALV15" s="44"/>
-      <c r="ALW15" s="44"/>
-      <c r="ALX15" s="44"/>
-      <c r="ALY15" s="44"/>
-      <c r="ALZ15" s="44"/>
-      <c r="AMA15" s="44"/>
-      <c r="AMB15" s="44"/>
-      <c r="AMC15" s="44"/>
-      <c r="AMD15" s="44"/>
-      <c r="AME15" s="44"/>
-      <c r="AMF15" s="44"/>
-      <c r="AMG15" s="44"/>
-      <c r="AMH15" s="45"/>
-      <c r="AMI15" s="43"/>
-      <c r="AMJ15" s="44"/>
-      <c r="AMK15" s="44"/>
-      <c r="AML15" s="44"/>
-      <c r="AMM15" s="44"/>
-      <c r="AMN15" s="44"/>
-      <c r="AMO15" s="44"/>
-      <c r="AMP15" s="44"/>
-      <c r="AMQ15" s="44"/>
-      <c r="AMR15" s="44"/>
-      <c r="AMS15" s="44"/>
-      <c r="AMT15" s="44"/>
-      <c r="AMU15" s="44"/>
-      <c r="AMV15" s="44"/>
-      <c r="AMW15" s="44"/>
-      <c r="AMX15" s="44"/>
-      <c r="AMY15" s="44"/>
-      <c r="AMZ15" s="44"/>
-      <c r="ANA15" s="44"/>
-      <c r="ANB15" s="45"/>
-      <c r="ANC15" s="43"/>
-      <c r="AND15" s="44"/>
-      <c r="ANE15" s="44"/>
-      <c r="ANF15" s="44"/>
-      <c r="ANG15" s="44"/>
-      <c r="ANH15" s="44"/>
-      <c r="ANI15" s="44"/>
-      <c r="ANJ15" s="44"/>
-      <c r="ANK15" s="44"/>
-      <c r="ANL15" s="44"/>
-      <c r="ANM15" s="44"/>
-      <c r="ANN15" s="44"/>
-      <c r="ANO15" s="44"/>
-      <c r="ANP15" s="44"/>
-      <c r="ANQ15" s="44"/>
-      <c r="ANR15" s="44"/>
-      <c r="ANS15" s="44"/>
-      <c r="ANT15" s="44"/>
-      <c r="ANU15" s="44"/>
-      <c r="ANV15" s="45"/>
-      <c r="ANW15" s="43"/>
-      <c r="ANX15" s="44"/>
-      <c r="ANY15" s="44"/>
-      <c r="ANZ15" s="44"/>
-      <c r="AOA15" s="44"/>
-      <c r="AOB15" s="44"/>
-      <c r="AOC15" s="44"/>
-      <c r="AOD15" s="44"/>
-      <c r="AOE15" s="44"/>
-      <c r="AOF15" s="44"/>
-      <c r="AOG15" s="44"/>
-      <c r="AOH15" s="44"/>
-      <c r="AOI15" s="44"/>
-      <c r="AOJ15" s="44"/>
-      <c r="AOK15" s="44"/>
-      <c r="AOL15" s="44"/>
-      <c r="AOM15" s="44"/>
-      <c r="AON15" s="44"/>
-      <c r="AOO15" s="44"/>
-      <c r="AOP15" s="45"/>
+      <c r="SJ15" s="37"/>
+      <c r="SK15" s="37"/>
+      <c r="SL15" s="37"/>
+      <c r="SM15" s="37"/>
+      <c r="SN15" s="37"/>
+      <c r="SO15" s="37"/>
+      <c r="SP15" s="37"/>
+      <c r="SQ15" s="37"/>
+      <c r="SR15" s="37"/>
+      <c r="SS15" s="37"/>
+      <c r="ST15" s="37"/>
+      <c r="SU15" s="37"/>
+      <c r="SV15" s="37"/>
+      <c r="SW15" s="37"/>
+      <c r="SX15" s="37"/>
+      <c r="SY15" s="37"/>
+      <c r="SZ15" s="37"/>
+      <c r="TA15" s="37"/>
+      <c r="TB15" s="38"/>
+      <c r="TC15" s="36"/>
+      <c r="TD15" s="37"/>
+      <c r="TE15" s="37"/>
+      <c r="TF15" s="37"/>
+      <c r="TG15" s="37"/>
+      <c r="TH15" s="37"/>
+      <c r="TI15" s="37"/>
+      <c r="TJ15" s="37"/>
+      <c r="TK15" s="37"/>
+      <c r="TL15" s="37"/>
+      <c r="TM15" s="37"/>
+      <c r="TN15" s="37"/>
+      <c r="TO15" s="37"/>
+      <c r="TP15" s="37"/>
+      <c r="TQ15" s="37"/>
+      <c r="TR15" s="37"/>
+      <c r="TS15" s="37"/>
+      <c r="TT15" s="37"/>
+      <c r="TU15" s="37"/>
+      <c r="TV15" s="38"/>
+      <c r="TW15" s="36"/>
+      <c r="TX15" s="37"/>
+      <c r="TY15" s="37"/>
+      <c r="TZ15" s="37"/>
+      <c r="UA15" s="37"/>
+      <c r="UB15" s="37"/>
+      <c r="UC15" s="37"/>
+      <c r="UD15" s="37"/>
+      <c r="UE15" s="37"/>
+      <c r="UF15" s="37"/>
+      <c r="UG15" s="37"/>
+      <c r="UH15" s="37"/>
+      <c r="UI15" s="37"/>
+      <c r="UJ15" s="37"/>
+      <c r="UK15" s="37"/>
+      <c r="UL15" s="37"/>
+      <c r="UM15" s="37"/>
+      <c r="UN15" s="37"/>
+      <c r="UO15" s="37"/>
+      <c r="UP15" s="38"/>
+      <c r="UQ15" s="36"/>
+      <c r="UR15" s="37"/>
+      <c r="US15" s="37"/>
+      <c r="UT15" s="37"/>
+      <c r="UU15" s="37"/>
+      <c r="UV15" s="37"/>
+      <c r="UW15" s="37"/>
+      <c r="UX15" s="37"/>
+      <c r="UY15" s="37"/>
+      <c r="UZ15" s="37"/>
+      <c r="VA15" s="37"/>
+      <c r="VB15" s="37"/>
+      <c r="VC15" s="37"/>
+      <c r="VD15" s="37"/>
+      <c r="VE15" s="37"/>
+      <c r="VF15" s="37"/>
+      <c r="VG15" s="37"/>
+      <c r="VH15" s="37"/>
+      <c r="VI15" s="37"/>
+      <c r="VJ15" s="38"/>
+      <c r="VK15" s="36"/>
+      <c r="VL15" s="37"/>
+      <c r="VM15" s="37"/>
+      <c r="VN15" s="37"/>
+      <c r="VO15" s="37"/>
+      <c r="VP15" s="37"/>
+      <c r="VQ15" s="37"/>
+      <c r="VR15" s="37"/>
+      <c r="VS15" s="37"/>
+      <c r="VT15" s="37"/>
+      <c r="VU15" s="37"/>
+      <c r="VV15" s="37"/>
+      <c r="VW15" s="37"/>
+      <c r="VX15" s="37"/>
+      <c r="VY15" s="37"/>
+      <c r="VZ15" s="37"/>
+      <c r="WA15" s="37"/>
+      <c r="WB15" s="37"/>
+      <c r="WC15" s="37"/>
+      <c r="WD15" s="38"/>
+      <c r="WE15" s="36"/>
+      <c r="WF15" s="37"/>
+      <c r="WG15" s="37"/>
+      <c r="WH15" s="37"/>
+      <c r="WI15" s="37"/>
+      <c r="WJ15" s="37"/>
+      <c r="WK15" s="37"/>
+      <c r="WL15" s="37"/>
+      <c r="WM15" s="37"/>
+      <c r="WN15" s="37"/>
+      <c r="WO15" s="37"/>
+      <c r="WP15" s="37"/>
+      <c r="WQ15" s="37"/>
+      <c r="WR15" s="37"/>
+      <c r="WS15" s="37"/>
+      <c r="WT15" s="37"/>
+      <c r="WU15" s="37"/>
+      <c r="WV15" s="37"/>
+      <c r="WW15" s="37"/>
+      <c r="WX15" s="38"/>
+      <c r="WY15" s="36"/>
+      <c r="WZ15" s="37"/>
+      <c r="XA15" s="37"/>
+      <c r="XB15" s="37"/>
+      <c r="XC15" s="37"/>
+      <c r="XD15" s="37"/>
+      <c r="XE15" s="37"/>
+      <c r="XF15" s="37"/>
+      <c r="XG15" s="37"/>
+      <c r="XH15" s="37"/>
+      <c r="XI15" s="37"/>
+      <c r="XJ15" s="37"/>
+      <c r="XK15" s="37"/>
+      <c r="XL15" s="37"/>
+      <c r="XM15" s="37"/>
+      <c r="XN15" s="37"/>
+      <c r="XO15" s="37"/>
+      <c r="XP15" s="37"/>
+      <c r="XQ15" s="37"/>
+      <c r="XR15" s="38"/>
+      <c r="XS15" s="36"/>
+      <c r="XT15" s="37"/>
+      <c r="XU15" s="37"/>
+      <c r="XV15" s="37"/>
+      <c r="XW15" s="37"/>
+      <c r="XX15" s="37"/>
+      <c r="XY15" s="37"/>
+      <c r="XZ15" s="37"/>
+      <c r="YA15" s="37"/>
+      <c r="YB15" s="37"/>
+      <c r="YC15" s="37"/>
+      <c r="YD15" s="37"/>
+      <c r="YE15" s="37"/>
+      <c r="YF15" s="37"/>
+      <c r="YG15" s="37"/>
+      <c r="YH15" s="37"/>
+      <c r="YI15" s="37"/>
+      <c r="YJ15" s="37"/>
+      <c r="YK15" s="37"/>
+      <c r="YL15" s="38"/>
+      <c r="YM15" s="36"/>
+      <c r="YN15" s="37"/>
+      <c r="YO15" s="37"/>
+      <c r="YP15" s="37"/>
+      <c r="YQ15" s="37"/>
+      <c r="YR15" s="37"/>
+      <c r="YS15" s="37"/>
+      <c r="YT15" s="37"/>
+      <c r="YU15" s="37"/>
+      <c r="YV15" s="37"/>
+      <c r="YW15" s="37"/>
+      <c r="YX15" s="37"/>
+      <c r="YY15" s="37"/>
+      <c r="YZ15" s="37"/>
+      <c r="ZA15" s="37"/>
+      <c r="ZB15" s="37"/>
+      <c r="ZC15" s="37"/>
+      <c r="ZD15" s="37"/>
+      <c r="ZE15" s="37"/>
+      <c r="ZF15" s="38"/>
+      <c r="ZG15" s="36"/>
+      <c r="ZH15" s="37"/>
+      <c r="ZI15" s="37"/>
+      <c r="ZJ15" s="37"/>
+      <c r="ZK15" s="37"/>
+      <c r="ZL15" s="37"/>
+      <c r="ZM15" s="37"/>
+      <c r="ZN15" s="37"/>
+      <c r="ZO15" s="37"/>
+      <c r="ZP15" s="37"/>
+      <c r="ZQ15" s="37"/>
+      <c r="ZR15" s="37"/>
+      <c r="ZS15" s="37"/>
+      <c r="ZT15" s="37"/>
+      <c r="ZU15" s="37"/>
+      <c r="ZV15" s="37"/>
+      <c r="ZW15" s="37"/>
+      <c r="ZX15" s="37"/>
+      <c r="ZY15" s="37"/>
+      <c r="ZZ15" s="38"/>
+      <c r="AAA15" s="36"/>
+      <c r="AAB15" s="37"/>
+      <c r="AAC15" s="37"/>
+      <c r="AAD15" s="37"/>
+      <c r="AAE15" s="37"/>
+      <c r="AAF15" s="37"/>
+      <c r="AAG15" s="37"/>
+      <c r="AAH15" s="37"/>
+      <c r="AAI15" s="37"/>
+      <c r="AAJ15" s="37"/>
+      <c r="AAK15" s="37"/>
+      <c r="AAL15" s="37"/>
+      <c r="AAM15" s="37"/>
+      <c r="AAN15" s="37"/>
+      <c r="AAO15" s="37"/>
+      <c r="AAP15" s="37"/>
+      <c r="AAQ15" s="37"/>
+      <c r="AAR15" s="37"/>
+      <c r="AAS15" s="37"/>
+      <c r="AAT15" s="38"/>
+      <c r="AAU15" s="36"/>
+      <c r="AAV15" s="37"/>
+      <c r="AAW15" s="37"/>
+      <c r="AAX15" s="37"/>
+      <c r="AAY15" s="37"/>
+      <c r="AAZ15" s="37"/>
+      <c r="ABA15" s="37"/>
+      <c r="ABB15" s="37"/>
+      <c r="ABC15" s="37"/>
+      <c r="ABD15" s="37"/>
+      <c r="ABE15" s="37"/>
+      <c r="ABF15" s="37"/>
+      <c r="ABG15" s="37"/>
+      <c r="ABH15" s="37"/>
+      <c r="ABI15" s="37"/>
+      <c r="ABJ15" s="37"/>
+      <c r="ABK15" s="37"/>
+      <c r="ABL15" s="37"/>
+      <c r="ABM15" s="37"/>
+      <c r="ABN15" s="38"/>
+      <c r="ABO15" s="36"/>
+      <c r="ABP15" s="37"/>
+      <c r="ABQ15" s="37"/>
+      <c r="ABR15" s="37"/>
+      <c r="ABS15" s="37"/>
+      <c r="ABT15" s="37"/>
+      <c r="ABU15" s="37"/>
+      <c r="ABV15" s="37"/>
+      <c r="ABW15" s="37"/>
+      <c r="ABX15" s="37"/>
+      <c r="ABY15" s="37"/>
+      <c r="ABZ15" s="37"/>
+      <c r="ACA15" s="37"/>
+      <c r="ACB15" s="37"/>
+      <c r="ACC15" s="37"/>
+      <c r="ACD15" s="37"/>
+      <c r="ACE15" s="37"/>
+      <c r="ACF15" s="37"/>
+      <c r="ACG15" s="37"/>
+      <c r="ACH15" s="38"/>
+      <c r="ACI15" s="36"/>
+      <c r="ACJ15" s="37"/>
+      <c r="ACK15" s="37"/>
+      <c r="ACL15" s="37"/>
+      <c r="ACM15" s="37"/>
+      <c r="ACN15" s="37"/>
+      <c r="ACO15" s="37"/>
+      <c r="ACP15" s="37"/>
+      <c r="ACQ15" s="37"/>
+      <c r="ACR15" s="37"/>
+      <c r="ACS15" s="37"/>
+      <c r="ACT15" s="37"/>
+      <c r="ACU15" s="37"/>
+      <c r="ACV15" s="37"/>
+      <c r="ACW15" s="37"/>
+      <c r="ACX15" s="37"/>
+      <c r="ACY15" s="37"/>
+      <c r="ACZ15" s="37"/>
+      <c r="ADA15" s="37"/>
+      <c r="ADB15" s="38"/>
+      <c r="ADC15" s="36"/>
+      <c r="ADD15" s="37"/>
+      <c r="ADE15" s="37"/>
+      <c r="ADF15" s="37"/>
+      <c r="ADG15" s="37"/>
+      <c r="ADH15" s="37"/>
+      <c r="ADI15" s="37"/>
+      <c r="ADJ15" s="37"/>
+      <c r="ADK15" s="37"/>
+      <c r="ADL15" s="37"/>
+      <c r="ADM15" s="37"/>
+      <c r="ADN15" s="37"/>
+      <c r="ADO15" s="37"/>
+      <c r="ADP15" s="37"/>
+      <c r="ADQ15" s="37"/>
+      <c r="ADR15" s="37"/>
+      <c r="ADS15" s="37"/>
+      <c r="ADT15" s="37"/>
+      <c r="ADU15" s="37"/>
+      <c r="ADV15" s="38"/>
+      <c r="ADW15" s="36"/>
+      <c r="ADX15" s="37"/>
+      <c r="ADY15" s="37"/>
+      <c r="ADZ15" s="37"/>
+      <c r="AEA15" s="37"/>
+      <c r="AEB15" s="37"/>
+      <c r="AEC15" s="37"/>
+      <c r="AED15" s="37"/>
+      <c r="AEE15" s="37"/>
+      <c r="AEF15" s="37"/>
+      <c r="AEG15" s="37"/>
+      <c r="AEH15" s="37"/>
+      <c r="AEI15" s="37"/>
+      <c r="AEJ15" s="37"/>
+      <c r="AEK15" s="37"/>
+      <c r="AEL15" s="37"/>
+      <c r="AEM15" s="37"/>
+      <c r="AEN15" s="37"/>
+      <c r="AEO15" s="37"/>
+      <c r="AEP15" s="38"/>
+      <c r="AEQ15" s="36"/>
+      <c r="AER15" s="37"/>
+      <c r="AES15" s="37"/>
+      <c r="AET15" s="37"/>
+      <c r="AEU15" s="37"/>
+      <c r="AEV15" s="37"/>
+      <c r="AEW15" s="37"/>
+      <c r="AEX15" s="37"/>
+      <c r="AEY15" s="37"/>
+      <c r="AEZ15" s="37"/>
+      <c r="AFA15" s="37"/>
+      <c r="AFB15" s="37"/>
+      <c r="AFC15" s="37"/>
+      <c r="AFD15" s="37"/>
+      <c r="AFE15" s="37"/>
+      <c r="AFF15" s="37"/>
+      <c r="AFG15" s="37"/>
+      <c r="AFH15" s="37"/>
+      <c r="AFI15" s="37"/>
+      <c r="AFJ15" s="38"/>
+      <c r="AFK15" s="36"/>
+      <c r="AFL15" s="37"/>
+      <c r="AFM15" s="37"/>
+      <c r="AFN15" s="37"/>
+      <c r="AFO15" s="37"/>
+      <c r="AFP15" s="37"/>
+      <c r="AFQ15" s="37"/>
+      <c r="AFR15" s="37"/>
+      <c r="AFS15" s="37"/>
+      <c r="AFT15" s="37"/>
+      <c r="AFU15" s="37"/>
+      <c r="AFV15" s="37"/>
+      <c r="AFW15" s="37"/>
+      <c r="AFX15" s="37"/>
+      <c r="AFY15" s="37"/>
+      <c r="AFZ15" s="37"/>
+      <c r="AGA15" s="37"/>
+      <c r="AGB15" s="37"/>
+      <c r="AGC15" s="37"/>
+      <c r="AGD15" s="38"/>
+      <c r="AGE15" s="36"/>
+      <c r="AGF15" s="37"/>
+      <c r="AGG15" s="37"/>
+      <c r="AGH15" s="37"/>
+      <c r="AGI15" s="37"/>
+      <c r="AGJ15" s="37"/>
+      <c r="AGK15" s="37"/>
+      <c r="AGL15" s="37"/>
+      <c r="AGM15" s="37"/>
+      <c r="AGN15" s="37"/>
+      <c r="AGO15" s="37"/>
+      <c r="AGP15" s="37"/>
+      <c r="AGQ15" s="37"/>
+      <c r="AGR15" s="37"/>
+      <c r="AGS15" s="37"/>
+      <c r="AGT15" s="37"/>
+      <c r="AGU15" s="37"/>
+      <c r="AGV15" s="37"/>
+      <c r="AGW15" s="37"/>
+      <c r="AGX15" s="38"/>
+      <c r="AGY15" s="36"/>
+      <c r="AGZ15" s="37"/>
+      <c r="AHA15" s="37"/>
+      <c r="AHB15" s="37"/>
+      <c r="AHC15" s="37"/>
+      <c r="AHD15" s="37"/>
+      <c r="AHE15" s="37"/>
+      <c r="AHF15" s="37"/>
+      <c r="AHG15" s="37"/>
+      <c r="AHH15" s="37"/>
+      <c r="AHI15" s="37"/>
+      <c r="AHJ15" s="37"/>
+      <c r="AHK15" s="37"/>
+      <c r="AHL15" s="37"/>
+      <c r="AHM15" s="37"/>
+      <c r="AHN15" s="37"/>
+      <c r="AHO15" s="37"/>
+      <c r="AHP15" s="37"/>
+      <c r="AHQ15" s="37"/>
+      <c r="AHR15" s="38"/>
+      <c r="AHS15" s="36"/>
+      <c r="AHT15" s="37"/>
+      <c r="AHU15" s="37"/>
+      <c r="AHV15" s="37"/>
+      <c r="AHW15" s="37"/>
+      <c r="AHX15" s="37"/>
+      <c r="AHY15" s="37"/>
+      <c r="AHZ15" s="37"/>
+      <c r="AIA15" s="37"/>
+      <c r="AIB15" s="37"/>
+      <c r="AIC15" s="37"/>
+      <c r="AID15" s="37"/>
+      <c r="AIE15" s="37"/>
+      <c r="AIF15" s="37"/>
+      <c r="AIG15" s="37"/>
+      <c r="AIH15" s="37"/>
+      <c r="AII15" s="37"/>
+      <c r="AIJ15" s="37"/>
+      <c r="AIK15" s="37"/>
+      <c r="AIL15" s="38"/>
+      <c r="AIM15" s="36"/>
+      <c r="AIN15" s="37"/>
+      <c r="AIO15" s="37"/>
+      <c r="AIP15" s="37"/>
+      <c r="AIQ15" s="37"/>
+      <c r="AIR15" s="37"/>
+      <c r="AIS15" s="37"/>
+      <c r="AIT15" s="37"/>
+      <c r="AIU15" s="37"/>
+      <c r="AIV15" s="37"/>
+      <c r="AIW15" s="37"/>
+      <c r="AIX15" s="37"/>
+      <c r="AIY15" s="37"/>
+      <c r="AIZ15" s="37"/>
+      <c r="AJA15" s="37"/>
+      <c r="AJB15" s="37"/>
+      <c r="AJC15" s="37"/>
+      <c r="AJD15" s="37"/>
+      <c r="AJE15" s="37"/>
+      <c r="AJF15" s="38"/>
+      <c r="AJG15" s="36"/>
+      <c r="AJH15" s="37"/>
+      <c r="AJI15" s="37"/>
+      <c r="AJJ15" s="37"/>
+      <c r="AJK15" s="37"/>
+      <c r="AJL15" s="37"/>
+      <c r="AJM15" s="37"/>
+      <c r="AJN15" s="37"/>
+      <c r="AJO15" s="37"/>
+      <c r="AJP15" s="37"/>
+      <c r="AJQ15" s="37"/>
+      <c r="AJR15" s="37"/>
+      <c r="AJS15" s="37"/>
+      <c r="AJT15" s="37"/>
+      <c r="AJU15" s="37"/>
+      <c r="AJV15" s="37"/>
+      <c r="AJW15" s="37"/>
+      <c r="AJX15" s="37"/>
+      <c r="AJY15" s="37"/>
+      <c r="AJZ15" s="38"/>
+      <c r="AKA15" s="36"/>
+      <c r="AKB15" s="37"/>
+      <c r="AKC15" s="37"/>
+      <c r="AKD15" s="37"/>
+      <c r="AKE15" s="37"/>
+      <c r="AKF15" s="37"/>
+      <c r="AKG15" s="37"/>
+      <c r="AKH15" s="37"/>
+      <c r="AKI15" s="37"/>
+      <c r="AKJ15" s="37"/>
+      <c r="AKK15" s="37"/>
+      <c r="AKL15" s="37"/>
+      <c r="AKM15" s="37"/>
+      <c r="AKN15" s="37"/>
+      <c r="AKO15" s="37"/>
+      <c r="AKP15" s="37"/>
+      <c r="AKQ15" s="37"/>
+      <c r="AKR15" s="37"/>
+      <c r="AKS15" s="37"/>
+      <c r="AKT15" s="38"/>
+      <c r="AKU15" s="36"/>
+      <c r="AKV15" s="37"/>
+      <c r="AKW15" s="37"/>
+      <c r="AKX15" s="37"/>
+      <c r="AKY15" s="37"/>
+      <c r="AKZ15" s="37"/>
+      <c r="ALA15" s="37"/>
+      <c r="ALB15" s="37"/>
+      <c r="ALC15" s="37"/>
+      <c r="ALD15" s="37"/>
+      <c r="ALE15" s="37"/>
+      <c r="ALF15" s="37"/>
+      <c r="ALG15" s="37"/>
+      <c r="ALH15" s="37"/>
+      <c r="ALI15" s="37"/>
+      <c r="ALJ15" s="37"/>
+      <c r="ALK15" s="37"/>
+      <c r="ALL15" s="37"/>
+      <c r="ALM15" s="37"/>
+      <c r="ALN15" s="38"/>
+      <c r="ALO15" s="36"/>
+      <c r="ALP15" s="37"/>
+      <c r="ALQ15" s="37"/>
+      <c r="ALR15" s="37"/>
+      <c r="ALS15" s="37"/>
+      <c r="ALT15" s="37"/>
+      <c r="ALU15" s="37"/>
+      <c r="ALV15" s="37"/>
+      <c r="ALW15" s="37"/>
+      <c r="ALX15" s="37"/>
+      <c r="ALY15" s="37"/>
+      <c r="ALZ15" s="37"/>
+      <c r="AMA15" s="37"/>
+      <c r="AMB15" s="37"/>
+      <c r="AMC15" s="37"/>
+      <c r="AMD15" s="37"/>
+      <c r="AME15" s="37"/>
+      <c r="AMF15" s="37"/>
+      <c r="AMG15" s="37"/>
+      <c r="AMH15" s="38"/>
+      <c r="AMI15" s="36"/>
+      <c r="AMJ15" s="37"/>
+      <c r="AMK15" s="37"/>
+      <c r="AML15" s="37"/>
+      <c r="AMM15" s="37"/>
+      <c r="AMN15" s="37"/>
+      <c r="AMO15" s="37"/>
+      <c r="AMP15" s="37"/>
+      <c r="AMQ15" s="37"/>
+      <c r="AMR15" s="37"/>
+      <c r="AMS15" s="37"/>
+      <c r="AMT15" s="37"/>
+      <c r="AMU15" s="37"/>
+      <c r="AMV15" s="37"/>
+      <c r="AMW15" s="37"/>
+      <c r="AMX15" s="37"/>
+      <c r="AMY15" s="37"/>
+      <c r="AMZ15" s="37"/>
+      <c r="ANA15" s="37"/>
+      <c r="ANB15" s="38"/>
+      <c r="ANC15" s="36"/>
+      <c r="AND15" s="37"/>
+      <c r="ANE15" s="37"/>
+      <c r="ANF15" s="37"/>
+      <c r="ANG15" s="37"/>
+      <c r="ANH15" s="37"/>
+      <c r="ANI15" s="37"/>
+      <c r="ANJ15" s="37"/>
+      <c r="ANK15" s="37"/>
+      <c r="ANL15" s="37"/>
+      <c r="ANM15" s="37"/>
+      <c r="ANN15" s="37"/>
+      <c r="ANO15" s="37"/>
+      <c r="ANP15" s="37"/>
+      <c r="ANQ15" s="37"/>
+      <c r="ANR15" s="37"/>
+      <c r="ANS15" s="37"/>
+      <c r="ANT15" s="37"/>
+      <c r="ANU15" s="37"/>
+      <c r="ANV15" s="38"/>
+      <c r="ANW15" s="36"/>
+      <c r="ANX15" s="37"/>
+      <c r="ANY15" s="37"/>
+      <c r="ANZ15" s="37"/>
+      <c r="AOA15" s="37"/>
+      <c r="AOB15" s="37"/>
+      <c r="AOC15" s="37"/>
+      <c r="AOD15" s="37"/>
+      <c r="AOE15" s="37"/>
+      <c r="AOF15" s="37"/>
+      <c r="AOG15" s="37"/>
+      <c r="AOH15" s="37"/>
+      <c r="AOI15" s="37"/>
+      <c r="AOJ15" s="37"/>
+      <c r="AOK15" s="37"/>
+      <c r="AOL15" s="37"/>
+      <c r="AOM15" s="37"/>
+      <c r="AON15" s="37"/>
+      <c r="AOO15" s="37"/>
+      <c r="AOP15" s="38"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -11061,39 +11057,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="Q17" s="46" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
+      <c r="Q17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="48"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="35" t="s">
+      <c r="Z17" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="37"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="70"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -11212,42 +11208,42 @@
       <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="39"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="64"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="38" t="s">
+      <c r="AA18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="39"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="64"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -11366,42 +11362,42 @@
       <c r="D19" s="20">
         <v>0</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="48"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="33" t="s">
+      <c r="AA19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="34"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="48"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -11505,42 +11501,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="46"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="34"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="48"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -11646,42 +11642,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="33" t="s">
+      <c r="AA21" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="34"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="48"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -11787,40 +11783,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="17"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="34"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="48"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="33" t="s">
+      <c r="AA22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="34"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="48"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -11939,27 +11935,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="14">
         <v>5</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AA23" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="41"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="67"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -12078,14 +12074,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="48"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -12207,14 +12203,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="33" t="s">
+      <c r="R25" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="48"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -12336,14 +12332,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="34"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="48"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -12465,14 +12461,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="48"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -12581,14 +12577,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="34"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="48"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -12697,14 +12693,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="48"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -12813,14 +12809,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="34"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="48"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -12929,14 +12925,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="48"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -13045,14 +13041,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="34"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="48"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -13158,14 +13154,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="33" t="s">
+      <c r="R33" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="48"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -13271,14 +13267,14 @@
       <c r="Q34" s="14">
         <v>16</v>
       </c>
-      <c r="R34" s="40" t="s">
+      <c r="R34" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="41"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="67"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -33697,15 +33693,87 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="42"/>
-      <c r="S1048576" s="42"/>
-      <c r="T1048576" s="42"/>
-      <c r="U1048576" s="42"/>
-      <c r="V1048576" s="42"/>
-      <c r="W1048576" s="42"/>
+      <c r="R1048576" s="65"/>
+      <c r="S1048576" s="65"/>
+      <c r="T1048576" s="65"/>
+      <c r="U1048576" s="65"/>
+      <c r="V1048576" s="65"/>
+      <c r="W1048576" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="WE15:WX15"/>
+    <mergeCell ref="NS15:OL15"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="SI15:TB15"/>
+    <mergeCell ref="TC15:TV15"/>
+    <mergeCell ref="TW15:UP15"/>
+    <mergeCell ref="UQ15:VJ15"/>
+    <mergeCell ref="VK15:WD15"/>
+    <mergeCell ref="OM15:PF15"/>
+    <mergeCell ref="PG15:PZ15"/>
+    <mergeCell ref="QA15:QT15"/>
+    <mergeCell ref="QU15:RN15"/>
+    <mergeCell ref="RO15:SH15"/>
+    <mergeCell ref="MY15:NR15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
+    <mergeCell ref="ANW15:AOP15"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="AGE15:AGX15"/>
+    <mergeCell ref="AGY15:AHR15"/>
+    <mergeCell ref="AHS15:AIL15"/>
+    <mergeCell ref="AIM15:AJF15"/>
+    <mergeCell ref="AJG15:AJZ15"/>
+    <mergeCell ref="AKA15:AKT15"/>
+    <mergeCell ref="ABO15:ACH15"/>
+    <mergeCell ref="ACI15:ADB15"/>
+    <mergeCell ref="ADC15:ADV15"/>
+    <mergeCell ref="ADW15:AEP15"/>
+    <mergeCell ref="AEQ15:AFJ15"/>
+    <mergeCell ref="AFK15:AGD15"/>
+    <mergeCell ref="WY15:XR15"/>
+    <mergeCell ref="XS15:YL15"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="ME15:MX15"/>
     <mergeCell ref="E21:M22"/>
@@ -33722,78 +33790,6 @@
     <mergeCell ref="JC15:JV15"/>
     <mergeCell ref="JW15:KP15"/>
     <mergeCell ref="KQ15:LJ15"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
-    <mergeCell ref="ANW15:AOP15"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="AGE15:AGX15"/>
-    <mergeCell ref="AGY15:AHR15"/>
-    <mergeCell ref="AHS15:AIL15"/>
-    <mergeCell ref="AIM15:AJF15"/>
-    <mergeCell ref="AJG15:AJZ15"/>
-    <mergeCell ref="AKA15:AKT15"/>
-    <mergeCell ref="ABO15:ACH15"/>
-    <mergeCell ref="ACI15:ADB15"/>
-    <mergeCell ref="ADC15:ADV15"/>
-    <mergeCell ref="ADW15:AEP15"/>
-    <mergeCell ref="AEQ15:AFJ15"/>
-    <mergeCell ref="AFK15:AGD15"/>
-    <mergeCell ref="WY15:XR15"/>
-    <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="WE15:WX15"/>
-    <mergeCell ref="NS15:OL15"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="SI15:TB15"/>
-    <mergeCell ref="TC15:TV15"/>
-    <mergeCell ref="TW15:UP15"/>
-    <mergeCell ref="UQ15:VJ15"/>
-    <mergeCell ref="VK15:WD15"/>
-    <mergeCell ref="OM15:PF15"/>
-    <mergeCell ref="PG15:PZ15"/>
-    <mergeCell ref="QA15:QT15"/>
-    <mergeCell ref="QU15:RN15"/>
-    <mergeCell ref="RO15:SH15"/>
-    <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
@@ -1021,13 +1021,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1039,35 +1060,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1093,46 +1102,37 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,10 +1439,10 @@
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="RY2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="EO20" sqref="EO20"/>
+      <selection pane="bottomRight" activeCell="DW4" sqref="DW4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1455,31 +1455,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51" t="s">
+      <c r="C1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="56"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="58"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="18"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1845,7 +1845,7 @@
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="58"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2004,24 +2004,16 @@
       <c r="DZ5" s="3"/>
       <c r="EA5" s="3"/>
       <c r="EB5" s="3"/>
-      <c r="EC5" s="26">
-        <v>2</v>
-      </c>
-      <c r="ED5" s="26">
-        <v>2</v>
-      </c>
+      <c r="EC5" s="3"/>
+      <c r="ED5" s="3"/>
       <c r="EE5" s="26">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="EF5" s="26">
-        <v>3</v>
-      </c>
-      <c r="EG5" s="26">
-        <v>4</v>
-      </c>
-      <c r="EH5" s="26">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="EG5" s="3"/>
+      <c r="EH5" s="3"/>
       <c r="EI5" s="3"/>
       <c r="EJ5" s="3"/>
       <c r="EK5" s="3"/>
@@ -2084,7 +2076,7 @@
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="58"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2239,24 +2231,16 @@
       <c r="DZ6" s="3"/>
       <c r="EA6" s="3"/>
       <c r="EB6" s="3"/>
-      <c r="EC6" s="26">
-        <v>2</v>
-      </c>
-      <c r="ED6" s="26">
-        <v>2</v>
-      </c>
+      <c r="EC6" s="3"/>
+      <c r="ED6" s="3"/>
       <c r="EE6" s="26">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="EF6" s="26">
-        <v>3</v>
-      </c>
-      <c r="EG6" s="26">
-        <v>4</v>
-      </c>
-      <c r="EH6" s="26">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="EG6" s="3"/>
+      <c r="EH6" s="3"/>
       <c r="EI6" s="3"/>
       <c r="EJ6" s="3"/>
       <c r="EK6" s="3"/>
@@ -2337,7 +2321,7 @@
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="58"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2614,7 +2598,7 @@
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="18"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2891,7 +2875,7 @@
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="58"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="18"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3206,7 +3190,7 @@
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="58"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3334,24 +3318,15 @@
       <c r="CQ10" s="3"/>
       <c r="CR10" s="3"/>
       <c r="CS10" s="3"/>
-      <c r="CT10" s="26">
-        <v>2</v>
-      </c>
-      <c r="CU10" s="26">
-        <v>2</v>
-      </c>
+      <c r="CT10" s="3"/>
       <c r="CV10" s="26">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="CW10" s="26">
-        <v>3</v>
-      </c>
-      <c r="CX10" s="26">
-        <v>4</v>
-      </c>
-      <c r="CY10" s="26">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="CX10" s="3"/>
+      <c r="CY10" s="3"/>
       <c r="CZ10" s="3"/>
       <c r="DA10" s="3"/>
       <c r="DB10" s="3"/>
@@ -3506,7 +3481,7 @@
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="58"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3622,24 +3597,16 @@
       <c r="CQ11" s="3"/>
       <c r="CR11" s="3"/>
       <c r="CS11" s="3"/>
-      <c r="CT11" s="26">
-        <v>2</v>
-      </c>
-      <c r="CU11" s="26">
-        <v>2</v>
-      </c>
+      <c r="CT11" s="3"/>
+      <c r="CU11" s="3"/>
       <c r="CV11" s="26">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="CW11" s="26">
-        <v>3</v>
-      </c>
-      <c r="CX11" s="26">
-        <v>4</v>
-      </c>
-      <c r="CY11" s="26">
-        <v>4</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="CX11" s="3"/>
+      <c r="CY11" s="3"/>
       <c r="CZ11" s="3"/>
       <c r="DA11" s="3"/>
       <c r="DB11" s="29">
@@ -3821,7 +3788,7 @@
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="58"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4355,7 +4322,7 @@
     </row>
     <row r="13" spans="1:1082" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="27">
         <v>0</v>
       </c>
@@ -8840,1138 +8807,1138 @@
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="36" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="37" t="s">
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="37"/>
-      <c r="BG15" s="37"/>
-      <c r="BH15" s="37"/>
-      <c r="BI15" s="37"/>
-      <c r="BJ15" s="38"/>
-      <c r="BK15" s="36" t="s">
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="44"/>
+      <c r="BC15" s="44"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="45"/>
+      <c r="BK15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BL15" s="37"/>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
-      <c r="BR15" s="37"/>
-      <c r="BS15" s="37"/>
-      <c r="BT15" s="37"/>
-      <c r="BU15" s="37"/>
-      <c r="BV15" s="37"/>
-      <c r="BW15" s="37"/>
-      <c r="BX15" s="37"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="37"/>
-      <c r="CA15" s="37"/>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="38"/>
-      <c r="CE15" s="37" t="s">
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="44"/>
+      <c r="BU15" s="44"/>
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="45"/>
+      <c r="CE15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="CF15" s="37"/>
-      <c r="CG15" s="37"/>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
-      <c r="CL15" s="37"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37"/>
-      <c r="CO15" s="37"/>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37"/>
-      <c r="CU15" s="37"/>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="38"/>
-      <c r="CY15" s="36" t="s">
+      <c r="CF15" s="44"/>
+      <c r="CG15" s="44"/>
+      <c r="CH15" s="44"/>
+      <c r="CI15" s="44"/>
+      <c r="CJ15" s="44"/>
+      <c r="CK15" s="44"/>
+      <c r="CL15" s="44"/>
+      <c r="CM15" s="44"/>
+      <c r="CN15" s="44"/>
+      <c r="CO15" s="44"/>
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44"/>
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="45"/>
+      <c r="CY15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="CZ15" s="37"/>
-      <c r="DA15" s="37"/>
-      <c r="DB15" s="37"/>
-      <c r="DC15" s="37"/>
-      <c r="DD15" s="37"/>
-      <c r="DE15" s="37"/>
-      <c r="DF15" s="37"/>
-      <c r="DG15" s="37"/>
-      <c r="DH15" s="37"/>
-      <c r="DI15" s="37"/>
-      <c r="DJ15" s="37"/>
-      <c r="DK15" s="37"/>
-      <c r="DL15" s="37"/>
-      <c r="DM15" s="37"/>
-      <c r="DN15" s="37"/>
-      <c r="DO15" s="37"/>
-      <c r="DP15" s="37"/>
-      <c r="DQ15" s="37"/>
-      <c r="DR15" s="38"/>
-      <c r="DS15" s="37" t="s">
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+      <c r="DC15" s="44"/>
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44"/>
+      <c r="DF15" s="44"/>
+      <c r="DG15" s="44"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
+      <c r="DJ15" s="44"/>
+      <c r="DK15" s="44"/>
+      <c r="DL15" s="44"/>
+      <c r="DM15" s="44"/>
+      <c r="DN15" s="44"/>
+      <c r="DO15" s="44"/>
+      <c r="DP15" s="44"/>
+      <c r="DQ15" s="44"/>
+      <c r="DR15" s="45"/>
+      <c r="DS15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="DT15" s="37"/>
-      <c r="DU15" s="37"/>
-      <c r="DV15" s="37"/>
-      <c r="DW15" s="37"/>
-      <c r="DX15" s="37"/>
-      <c r="DY15" s="37"/>
-      <c r="DZ15" s="37"/>
-      <c r="EA15" s="37"/>
-      <c r="EB15" s="37"/>
-      <c r="EC15" s="37"/>
-      <c r="ED15" s="37"/>
-      <c r="EE15" s="37"/>
-      <c r="EF15" s="37"/>
-      <c r="EG15" s="37"/>
-      <c r="EH15" s="37"/>
-      <c r="EI15" s="37"/>
-      <c r="EJ15" s="37"/>
-      <c r="EK15" s="37"/>
-      <c r="EL15" s="38"/>
-      <c r="EM15" s="36" t="s">
+      <c r="DT15" s="44"/>
+      <c r="DU15" s="44"/>
+      <c r="DV15" s="44"/>
+      <c r="DW15" s="44"/>
+      <c r="DX15" s="44"/>
+      <c r="DY15" s="44"/>
+      <c r="DZ15" s="44"/>
+      <c r="EA15" s="44"/>
+      <c r="EB15" s="44"/>
+      <c r="EC15" s="44"/>
+      <c r="ED15" s="44"/>
+      <c r="EE15" s="44"/>
+      <c r="EF15" s="44"/>
+      <c r="EG15" s="44"/>
+      <c r="EH15" s="44"/>
+      <c r="EI15" s="44"/>
+      <c r="EJ15" s="44"/>
+      <c r="EK15" s="44"/>
+      <c r="EL15" s="45"/>
+      <c r="EM15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="EN15" s="37"/>
-      <c r="EO15" s="37"/>
-      <c r="EP15" s="37"/>
-      <c r="EQ15" s="37"/>
-      <c r="ER15" s="37"/>
-      <c r="ES15" s="37"/>
-      <c r="ET15" s="37"/>
-      <c r="EU15" s="37"/>
-      <c r="EV15" s="37"/>
-      <c r="EW15" s="37"/>
-      <c r="EX15" s="37"/>
-      <c r="EY15" s="37"/>
-      <c r="EZ15" s="37"/>
-      <c r="FA15" s="37"/>
-      <c r="FB15" s="37"/>
-      <c r="FC15" s="37"/>
-      <c r="FD15" s="37"/>
-      <c r="FE15" s="37"/>
-      <c r="FF15" s="38"/>
-      <c r="FG15" s="37" t="s">
+      <c r="EN15" s="44"/>
+      <c r="EO15" s="44"/>
+      <c r="EP15" s="44"/>
+      <c r="EQ15" s="44"/>
+      <c r="ER15" s="44"/>
+      <c r="ES15" s="44"/>
+      <c r="ET15" s="44"/>
+      <c r="EU15" s="44"/>
+      <c r="EV15" s="44"/>
+      <c r="EW15" s="44"/>
+      <c r="EX15" s="44"/>
+      <c r="EY15" s="44"/>
+      <c r="EZ15" s="44"/>
+      <c r="FA15" s="44"/>
+      <c r="FB15" s="44"/>
+      <c r="FC15" s="44"/>
+      <c r="FD15" s="44"/>
+      <c r="FE15" s="44"/>
+      <c r="FF15" s="45"/>
+      <c r="FG15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="FH15" s="37"/>
-      <c r="FI15" s="37"/>
-      <c r="FJ15" s="37"/>
-      <c r="FK15" s="37"/>
-      <c r="FL15" s="37"/>
-      <c r="FM15" s="37"/>
-      <c r="FN15" s="37"/>
-      <c r="FO15" s="37"/>
-      <c r="FP15" s="37"/>
-      <c r="FQ15" s="37"/>
-      <c r="FR15" s="37"/>
-      <c r="FS15" s="37"/>
-      <c r="FT15" s="37"/>
-      <c r="FU15" s="37"/>
-      <c r="FV15" s="37"/>
-      <c r="FW15" s="37"/>
-      <c r="FX15" s="37"/>
-      <c r="FY15" s="37"/>
-      <c r="FZ15" s="38"/>
-      <c r="GA15" s="36" t="s">
+      <c r="FH15" s="44"/>
+      <c r="FI15" s="44"/>
+      <c r="FJ15" s="44"/>
+      <c r="FK15" s="44"/>
+      <c r="FL15" s="44"/>
+      <c r="FM15" s="44"/>
+      <c r="FN15" s="44"/>
+      <c r="FO15" s="44"/>
+      <c r="FP15" s="44"/>
+      <c r="FQ15" s="44"/>
+      <c r="FR15" s="44"/>
+      <c r="FS15" s="44"/>
+      <c r="FT15" s="44"/>
+      <c r="FU15" s="44"/>
+      <c r="FV15" s="44"/>
+      <c r="FW15" s="44"/>
+      <c r="FX15" s="44"/>
+      <c r="FY15" s="44"/>
+      <c r="FZ15" s="45"/>
+      <c r="GA15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="GB15" s="37"/>
-      <c r="GC15" s="37"/>
-      <c r="GD15" s="37"/>
-      <c r="GE15" s="37"/>
-      <c r="GF15" s="37"/>
-      <c r="GG15" s="37"/>
-      <c r="GH15" s="37"/>
-      <c r="GI15" s="37"/>
-      <c r="GJ15" s="37"/>
-      <c r="GK15" s="37"/>
-      <c r="GL15" s="37"/>
-      <c r="GM15" s="37"/>
-      <c r="GN15" s="37"/>
-      <c r="GO15" s="37"/>
-      <c r="GP15" s="37"/>
-      <c r="GQ15" s="37"/>
-      <c r="GR15" s="37"/>
-      <c r="GS15" s="37"/>
-      <c r="GT15" s="38"/>
-      <c r="GU15" s="37" t="s">
+      <c r="GB15" s="44"/>
+      <c r="GC15" s="44"/>
+      <c r="GD15" s="44"/>
+      <c r="GE15" s="44"/>
+      <c r="GF15" s="44"/>
+      <c r="GG15" s="44"/>
+      <c r="GH15" s="44"/>
+      <c r="GI15" s="44"/>
+      <c r="GJ15" s="44"/>
+      <c r="GK15" s="44"/>
+      <c r="GL15" s="44"/>
+      <c r="GM15" s="44"/>
+      <c r="GN15" s="44"/>
+      <c r="GO15" s="44"/>
+      <c r="GP15" s="44"/>
+      <c r="GQ15" s="44"/>
+      <c r="GR15" s="44"/>
+      <c r="GS15" s="44"/>
+      <c r="GT15" s="45"/>
+      <c r="GU15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="GV15" s="37"/>
-      <c r="GW15" s="37"/>
-      <c r="GX15" s="37"/>
-      <c r="GY15" s="37"/>
-      <c r="GZ15" s="37"/>
-      <c r="HA15" s="37"/>
-      <c r="HB15" s="37"/>
-      <c r="HC15" s="37"/>
-      <c r="HD15" s="37"/>
-      <c r="HE15" s="37"/>
-      <c r="HF15" s="37"/>
-      <c r="HG15" s="37"/>
-      <c r="HH15" s="37"/>
-      <c r="HI15" s="37"/>
-      <c r="HJ15" s="37"/>
-      <c r="HK15" s="37"/>
-      <c r="HL15" s="37"/>
-      <c r="HM15" s="37"/>
-      <c r="HN15" s="38"/>
-      <c r="HO15" s="36" t="s">
+      <c r="GV15" s="44"/>
+      <c r="GW15" s="44"/>
+      <c r="GX15" s="44"/>
+      <c r="GY15" s="44"/>
+      <c r="GZ15" s="44"/>
+      <c r="HA15" s="44"/>
+      <c r="HB15" s="44"/>
+      <c r="HC15" s="44"/>
+      <c r="HD15" s="44"/>
+      <c r="HE15" s="44"/>
+      <c r="HF15" s="44"/>
+      <c r="HG15" s="44"/>
+      <c r="HH15" s="44"/>
+      <c r="HI15" s="44"/>
+      <c r="HJ15" s="44"/>
+      <c r="HK15" s="44"/>
+      <c r="HL15" s="44"/>
+      <c r="HM15" s="44"/>
+      <c r="HN15" s="45"/>
+      <c r="HO15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="HP15" s="37"/>
-      <c r="HQ15" s="37"/>
-      <c r="HR15" s="37"/>
-      <c r="HS15" s="37"/>
-      <c r="HT15" s="37"/>
-      <c r="HU15" s="37"/>
-      <c r="HV15" s="37"/>
-      <c r="HW15" s="37"/>
-      <c r="HX15" s="37"/>
-      <c r="HY15" s="37"/>
-      <c r="HZ15" s="37"/>
-      <c r="IA15" s="37"/>
-      <c r="IB15" s="37"/>
-      <c r="IC15" s="37"/>
-      <c r="ID15" s="37"/>
-      <c r="IE15" s="37"/>
-      <c r="IF15" s="37"/>
-      <c r="IG15" s="37"/>
-      <c r="IH15" s="38"/>
-      <c r="II15" s="37" t="s">
+      <c r="HP15" s="44"/>
+      <c r="HQ15" s="44"/>
+      <c r="HR15" s="44"/>
+      <c r="HS15" s="44"/>
+      <c r="HT15" s="44"/>
+      <c r="HU15" s="44"/>
+      <c r="HV15" s="44"/>
+      <c r="HW15" s="44"/>
+      <c r="HX15" s="44"/>
+      <c r="HY15" s="44"/>
+      <c r="HZ15" s="44"/>
+      <c r="IA15" s="44"/>
+      <c r="IB15" s="44"/>
+      <c r="IC15" s="44"/>
+      <c r="ID15" s="44"/>
+      <c r="IE15" s="44"/>
+      <c r="IF15" s="44"/>
+      <c r="IG15" s="44"/>
+      <c r="IH15" s="45"/>
+      <c r="II15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="IJ15" s="37"/>
-      <c r="IK15" s="37"/>
-      <c r="IL15" s="37"/>
-      <c r="IM15" s="37"/>
-      <c r="IN15" s="37"/>
-      <c r="IO15" s="37"/>
-      <c r="IP15" s="37"/>
-      <c r="IQ15" s="37"/>
-      <c r="IR15" s="37"/>
-      <c r="IS15" s="37"/>
-      <c r="IT15" s="37"/>
-      <c r="IU15" s="37"/>
-      <c r="IV15" s="37"/>
-      <c r="IW15" s="37"/>
-      <c r="IX15" s="37"/>
-      <c r="IY15" s="37"/>
-      <c r="IZ15" s="37"/>
-      <c r="JA15" s="37"/>
-      <c r="JB15" s="38"/>
-      <c r="JC15" s="36" t="s">
+      <c r="IJ15" s="44"/>
+      <c r="IK15" s="44"/>
+      <c r="IL15" s="44"/>
+      <c r="IM15" s="44"/>
+      <c r="IN15" s="44"/>
+      <c r="IO15" s="44"/>
+      <c r="IP15" s="44"/>
+      <c r="IQ15" s="44"/>
+      <c r="IR15" s="44"/>
+      <c r="IS15" s="44"/>
+      <c r="IT15" s="44"/>
+      <c r="IU15" s="44"/>
+      <c r="IV15" s="44"/>
+      <c r="IW15" s="44"/>
+      <c r="IX15" s="44"/>
+      <c r="IY15" s="44"/>
+      <c r="IZ15" s="44"/>
+      <c r="JA15" s="44"/>
+      <c r="JB15" s="45"/>
+      <c r="JC15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="JD15" s="37"/>
-      <c r="JE15" s="37"/>
-      <c r="JF15" s="37"/>
-      <c r="JG15" s="37"/>
-      <c r="JH15" s="37"/>
-      <c r="JI15" s="37"/>
-      <c r="JJ15" s="37"/>
-      <c r="JK15" s="37"/>
-      <c r="JL15" s="37"/>
-      <c r="JM15" s="37"/>
-      <c r="JN15" s="37"/>
-      <c r="JO15" s="37"/>
-      <c r="JP15" s="37"/>
-      <c r="JQ15" s="37"/>
-      <c r="JR15" s="37"/>
-      <c r="JS15" s="37"/>
-      <c r="JT15" s="37"/>
-      <c r="JU15" s="37"/>
-      <c r="JV15" s="38"/>
-      <c r="JW15" s="37" t="s">
+      <c r="JD15" s="44"/>
+      <c r="JE15" s="44"/>
+      <c r="JF15" s="44"/>
+      <c r="JG15" s="44"/>
+      <c r="JH15" s="44"/>
+      <c r="JI15" s="44"/>
+      <c r="JJ15" s="44"/>
+      <c r="JK15" s="44"/>
+      <c r="JL15" s="44"/>
+      <c r="JM15" s="44"/>
+      <c r="JN15" s="44"/>
+      <c r="JO15" s="44"/>
+      <c r="JP15" s="44"/>
+      <c r="JQ15" s="44"/>
+      <c r="JR15" s="44"/>
+      <c r="JS15" s="44"/>
+      <c r="JT15" s="44"/>
+      <c r="JU15" s="44"/>
+      <c r="JV15" s="45"/>
+      <c r="JW15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="JX15" s="37"/>
-      <c r="JY15" s="37"/>
-      <c r="JZ15" s="37"/>
-      <c r="KA15" s="37"/>
-      <c r="KB15" s="37"/>
-      <c r="KC15" s="37"/>
-      <c r="KD15" s="37"/>
-      <c r="KE15" s="37"/>
-      <c r="KF15" s="37"/>
-      <c r="KG15" s="37"/>
-      <c r="KH15" s="37"/>
-      <c r="KI15" s="37"/>
-      <c r="KJ15" s="37"/>
-      <c r="KK15" s="37"/>
-      <c r="KL15" s="37"/>
-      <c r="KM15" s="37"/>
-      <c r="KN15" s="37"/>
-      <c r="KO15" s="37"/>
-      <c r="KP15" s="38"/>
-      <c r="KQ15" s="36" t="s">
+      <c r="JX15" s="44"/>
+      <c r="JY15" s="44"/>
+      <c r="JZ15" s="44"/>
+      <c r="KA15" s="44"/>
+      <c r="KB15" s="44"/>
+      <c r="KC15" s="44"/>
+      <c r="KD15" s="44"/>
+      <c r="KE15" s="44"/>
+      <c r="KF15" s="44"/>
+      <c r="KG15" s="44"/>
+      <c r="KH15" s="44"/>
+      <c r="KI15" s="44"/>
+      <c r="KJ15" s="44"/>
+      <c r="KK15" s="44"/>
+      <c r="KL15" s="44"/>
+      <c r="KM15" s="44"/>
+      <c r="KN15" s="44"/>
+      <c r="KO15" s="44"/>
+      <c r="KP15" s="45"/>
+      <c r="KQ15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="KR15" s="37"/>
-      <c r="KS15" s="37"/>
-      <c r="KT15" s="37"/>
-      <c r="KU15" s="37"/>
-      <c r="KV15" s="37"/>
-      <c r="KW15" s="37"/>
-      <c r="KX15" s="37"/>
-      <c r="KY15" s="37"/>
-      <c r="KZ15" s="37"/>
-      <c r="LA15" s="37"/>
-      <c r="LB15" s="37"/>
-      <c r="LC15" s="37"/>
-      <c r="LD15" s="37"/>
-      <c r="LE15" s="37"/>
-      <c r="LF15" s="37"/>
-      <c r="LG15" s="37"/>
-      <c r="LH15" s="37"/>
-      <c r="LI15" s="37"/>
-      <c r="LJ15" s="38"/>
-      <c r="LK15" s="37" t="s">
+      <c r="KR15" s="44"/>
+      <c r="KS15" s="44"/>
+      <c r="KT15" s="44"/>
+      <c r="KU15" s="44"/>
+      <c r="KV15" s="44"/>
+      <c r="KW15" s="44"/>
+      <c r="KX15" s="44"/>
+      <c r="KY15" s="44"/>
+      <c r="KZ15" s="44"/>
+      <c r="LA15" s="44"/>
+      <c r="LB15" s="44"/>
+      <c r="LC15" s="44"/>
+      <c r="LD15" s="44"/>
+      <c r="LE15" s="44"/>
+      <c r="LF15" s="44"/>
+      <c r="LG15" s="44"/>
+      <c r="LH15" s="44"/>
+      <c r="LI15" s="44"/>
+      <c r="LJ15" s="45"/>
+      <c r="LK15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="LL15" s="37"/>
-      <c r="LM15" s="37"/>
-      <c r="LN15" s="37"/>
-      <c r="LO15" s="37"/>
-      <c r="LP15" s="37"/>
-      <c r="LQ15" s="37"/>
-      <c r="LR15" s="37"/>
-      <c r="LS15" s="37"/>
-      <c r="LT15" s="37"/>
-      <c r="LU15" s="37"/>
-      <c r="LV15" s="37"/>
-      <c r="LW15" s="37"/>
-      <c r="LX15" s="37"/>
-      <c r="LY15" s="37"/>
-      <c r="LZ15" s="37"/>
-      <c r="MA15" s="37"/>
-      <c r="MB15" s="37"/>
-      <c r="MC15" s="37"/>
-      <c r="MD15" s="38"/>
-      <c r="ME15" s="36" t="s">
+      <c r="LL15" s="44"/>
+      <c r="LM15" s="44"/>
+      <c r="LN15" s="44"/>
+      <c r="LO15" s="44"/>
+      <c r="LP15" s="44"/>
+      <c r="LQ15" s="44"/>
+      <c r="LR15" s="44"/>
+      <c r="LS15" s="44"/>
+      <c r="LT15" s="44"/>
+      <c r="LU15" s="44"/>
+      <c r="LV15" s="44"/>
+      <c r="LW15" s="44"/>
+      <c r="LX15" s="44"/>
+      <c r="LY15" s="44"/>
+      <c r="LZ15" s="44"/>
+      <c r="MA15" s="44"/>
+      <c r="MB15" s="44"/>
+      <c r="MC15" s="44"/>
+      <c r="MD15" s="45"/>
+      <c r="ME15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="MF15" s="37"/>
-      <c r="MG15" s="37"/>
-      <c r="MH15" s="37"/>
-      <c r="MI15" s="37"/>
-      <c r="MJ15" s="37"/>
-      <c r="MK15" s="37"/>
-      <c r="ML15" s="37"/>
-      <c r="MM15" s="37"/>
-      <c r="MN15" s="37"/>
-      <c r="MO15" s="37"/>
-      <c r="MP15" s="37"/>
-      <c r="MQ15" s="37"/>
-      <c r="MR15" s="37"/>
-      <c r="MS15" s="37"/>
-      <c r="MT15" s="37"/>
-      <c r="MU15" s="37"/>
-      <c r="MV15" s="37"/>
-      <c r="MW15" s="37"/>
-      <c r="MX15" s="38"/>
-      <c r="MY15" s="37" t="s">
+      <c r="MF15" s="44"/>
+      <c r="MG15" s="44"/>
+      <c r="MH15" s="44"/>
+      <c r="MI15" s="44"/>
+      <c r="MJ15" s="44"/>
+      <c r="MK15" s="44"/>
+      <c r="ML15" s="44"/>
+      <c r="MM15" s="44"/>
+      <c r="MN15" s="44"/>
+      <c r="MO15" s="44"/>
+      <c r="MP15" s="44"/>
+      <c r="MQ15" s="44"/>
+      <c r="MR15" s="44"/>
+      <c r="MS15" s="44"/>
+      <c r="MT15" s="44"/>
+      <c r="MU15" s="44"/>
+      <c r="MV15" s="44"/>
+      <c r="MW15" s="44"/>
+      <c r="MX15" s="45"/>
+      <c r="MY15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="MZ15" s="37"/>
-      <c r="NA15" s="37"/>
-      <c r="NB15" s="37"/>
-      <c r="NC15" s="37"/>
-      <c r="ND15" s="37"/>
-      <c r="NE15" s="37"/>
-      <c r="NF15" s="37"/>
-      <c r="NG15" s="37"/>
-      <c r="NH15" s="37"/>
-      <c r="NI15" s="37"/>
-      <c r="NJ15" s="37"/>
-      <c r="NK15" s="37"/>
-      <c r="NL15" s="37"/>
-      <c r="NM15" s="37"/>
-      <c r="NN15" s="37"/>
-      <c r="NO15" s="37"/>
-      <c r="NP15" s="37"/>
-      <c r="NQ15" s="37"/>
-      <c r="NR15" s="38"/>
-      <c r="NS15" s="36" t="s">
+      <c r="MZ15" s="44"/>
+      <c r="NA15" s="44"/>
+      <c r="NB15" s="44"/>
+      <c r="NC15" s="44"/>
+      <c r="ND15" s="44"/>
+      <c r="NE15" s="44"/>
+      <c r="NF15" s="44"/>
+      <c r="NG15" s="44"/>
+      <c r="NH15" s="44"/>
+      <c r="NI15" s="44"/>
+      <c r="NJ15" s="44"/>
+      <c r="NK15" s="44"/>
+      <c r="NL15" s="44"/>
+      <c r="NM15" s="44"/>
+      <c r="NN15" s="44"/>
+      <c r="NO15" s="44"/>
+      <c r="NP15" s="44"/>
+      <c r="NQ15" s="44"/>
+      <c r="NR15" s="45"/>
+      <c r="NS15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="NT15" s="37"/>
-      <c r="NU15" s="37"/>
-      <c r="NV15" s="37"/>
-      <c r="NW15" s="37"/>
-      <c r="NX15" s="37"/>
-      <c r="NY15" s="37"/>
-      <c r="NZ15" s="37"/>
-      <c r="OA15" s="37"/>
-      <c r="OB15" s="37"/>
-      <c r="OC15" s="37"/>
-      <c r="OD15" s="37"/>
-      <c r="OE15" s="37"/>
-      <c r="OF15" s="37"/>
-      <c r="OG15" s="37"/>
-      <c r="OH15" s="37"/>
-      <c r="OI15" s="37"/>
-      <c r="OJ15" s="37"/>
-      <c r="OK15" s="37"/>
-      <c r="OL15" s="38"/>
-      <c r="OM15" s="37" t="s">
+      <c r="NT15" s="44"/>
+      <c r="NU15" s="44"/>
+      <c r="NV15" s="44"/>
+      <c r="NW15" s="44"/>
+      <c r="NX15" s="44"/>
+      <c r="NY15" s="44"/>
+      <c r="NZ15" s="44"/>
+      <c r="OA15" s="44"/>
+      <c r="OB15" s="44"/>
+      <c r="OC15" s="44"/>
+      <c r="OD15" s="44"/>
+      <c r="OE15" s="44"/>
+      <c r="OF15" s="44"/>
+      <c r="OG15" s="44"/>
+      <c r="OH15" s="44"/>
+      <c r="OI15" s="44"/>
+      <c r="OJ15" s="44"/>
+      <c r="OK15" s="44"/>
+      <c r="OL15" s="45"/>
+      <c r="OM15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="ON15" s="37"/>
-      <c r="OO15" s="37"/>
-      <c r="OP15" s="37"/>
-      <c r="OQ15" s="37"/>
-      <c r="OR15" s="37"/>
-      <c r="OS15" s="37"/>
-      <c r="OT15" s="37"/>
-      <c r="OU15" s="37"/>
-      <c r="OV15" s="37"/>
-      <c r="OW15" s="37"/>
-      <c r="OX15" s="37"/>
-      <c r="OY15" s="37"/>
-      <c r="OZ15" s="37"/>
-      <c r="PA15" s="37"/>
-      <c r="PB15" s="37"/>
-      <c r="PC15" s="37"/>
-      <c r="PD15" s="37"/>
-      <c r="PE15" s="37"/>
-      <c r="PF15" s="38"/>
-      <c r="PG15" s="36" t="s">
+      <c r="ON15" s="44"/>
+      <c r="OO15" s="44"/>
+      <c r="OP15" s="44"/>
+      <c r="OQ15" s="44"/>
+      <c r="OR15" s="44"/>
+      <c r="OS15" s="44"/>
+      <c r="OT15" s="44"/>
+      <c r="OU15" s="44"/>
+      <c r="OV15" s="44"/>
+      <c r="OW15" s="44"/>
+      <c r="OX15" s="44"/>
+      <c r="OY15" s="44"/>
+      <c r="OZ15" s="44"/>
+      <c r="PA15" s="44"/>
+      <c r="PB15" s="44"/>
+      <c r="PC15" s="44"/>
+      <c r="PD15" s="44"/>
+      <c r="PE15" s="44"/>
+      <c r="PF15" s="45"/>
+      <c r="PG15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="PH15" s="37"/>
-      <c r="PI15" s="37"/>
-      <c r="PJ15" s="37"/>
-      <c r="PK15" s="37"/>
-      <c r="PL15" s="37"/>
-      <c r="PM15" s="37"/>
-      <c r="PN15" s="37"/>
-      <c r="PO15" s="37"/>
-      <c r="PP15" s="37"/>
-      <c r="PQ15" s="37"/>
-      <c r="PR15" s="37"/>
-      <c r="PS15" s="37"/>
-      <c r="PT15" s="37"/>
-      <c r="PU15" s="37"/>
-      <c r="PV15" s="37"/>
-      <c r="PW15" s="37"/>
-      <c r="PX15" s="37"/>
-      <c r="PY15" s="37"/>
-      <c r="PZ15" s="38"/>
-      <c r="QA15" s="37" t="s">
+      <c r="PH15" s="44"/>
+      <c r="PI15" s="44"/>
+      <c r="PJ15" s="44"/>
+      <c r="PK15" s="44"/>
+      <c r="PL15" s="44"/>
+      <c r="PM15" s="44"/>
+      <c r="PN15" s="44"/>
+      <c r="PO15" s="44"/>
+      <c r="PP15" s="44"/>
+      <c r="PQ15" s="44"/>
+      <c r="PR15" s="44"/>
+      <c r="PS15" s="44"/>
+      <c r="PT15" s="44"/>
+      <c r="PU15" s="44"/>
+      <c r="PV15" s="44"/>
+      <c r="PW15" s="44"/>
+      <c r="PX15" s="44"/>
+      <c r="PY15" s="44"/>
+      <c r="PZ15" s="45"/>
+      <c r="QA15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="QB15" s="37"/>
-      <c r="QC15" s="37"/>
-      <c r="QD15" s="37"/>
-      <c r="QE15" s="37"/>
-      <c r="QF15" s="37"/>
-      <c r="QG15" s="37"/>
-      <c r="QH15" s="37"/>
-      <c r="QI15" s="37"/>
-      <c r="QJ15" s="37"/>
-      <c r="QK15" s="37"/>
-      <c r="QL15" s="37"/>
-      <c r="QM15" s="37"/>
-      <c r="QN15" s="37"/>
-      <c r="QO15" s="37"/>
-      <c r="QP15" s="37"/>
-      <c r="QQ15" s="37"/>
-      <c r="QR15" s="37"/>
-      <c r="QS15" s="37"/>
-      <c r="QT15" s="38"/>
-      <c r="QU15" s="36" t="s">
+      <c r="QB15" s="44"/>
+      <c r="QC15" s="44"/>
+      <c r="QD15" s="44"/>
+      <c r="QE15" s="44"/>
+      <c r="QF15" s="44"/>
+      <c r="QG15" s="44"/>
+      <c r="QH15" s="44"/>
+      <c r="QI15" s="44"/>
+      <c r="QJ15" s="44"/>
+      <c r="QK15" s="44"/>
+      <c r="QL15" s="44"/>
+      <c r="QM15" s="44"/>
+      <c r="QN15" s="44"/>
+      <c r="QO15" s="44"/>
+      <c r="QP15" s="44"/>
+      <c r="QQ15" s="44"/>
+      <c r="QR15" s="44"/>
+      <c r="QS15" s="44"/>
+      <c r="QT15" s="45"/>
+      <c r="QU15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="QV15" s="37"/>
-      <c r="QW15" s="37"/>
-      <c r="QX15" s="37"/>
-      <c r="QY15" s="37"/>
-      <c r="QZ15" s="37"/>
-      <c r="RA15" s="37"/>
-      <c r="RB15" s="37"/>
-      <c r="RC15" s="37"/>
-      <c r="RD15" s="37"/>
-      <c r="RE15" s="37"/>
-      <c r="RF15" s="37"/>
-      <c r="RG15" s="37"/>
-      <c r="RH15" s="37"/>
-      <c r="RI15" s="37"/>
-      <c r="RJ15" s="37"/>
-      <c r="RK15" s="37"/>
-      <c r="RL15" s="37"/>
-      <c r="RM15" s="37"/>
-      <c r="RN15" s="38"/>
-      <c r="RO15" s="37" t="s">
+      <c r="QV15" s="44"/>
+      <c r="QW15" s="44"/>
+      <c r="QX15" s="44"/>
+      <c r="QY15" s="44"/>
+      <c r="QZ15" s="44"/>
+      <c r="RA15" s="44"/>
+      <c r="RB15" s="44"/>
+      <c r="RC15" s="44"/>
+      <c r="RD15" s="44"/>
+      <c r="RE15" s="44"/>
+      <c r="RF15" s="44"/>
+      <c r="RG15" s="44"/>
+      <c r="RH15" s="44"/>
+      <c r="RI15" s="44"/>
+      <c r="RJ15" s="44"/>
+      <c r="RK15" s="44"/>
+      <c r="RL15" s="44"/>
+      <c r="RM15" s="44"/>
+      <c r="RN15" s="45"/>
+      <c r="RO15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="RP15" s="37"/>
-      <c r="RQ15" s="37"/>
-      <c r="RR15" s="37"/>
-      <c r="RS15" s="37"/>
-      <c r="RT15" s="37"/>
-      <c r="RU15" s="37"/>
-      <c r="RV15" s="37"/>
-      <c r="RW15" s="37"/>
-      <c r="RX15" s="37"/>
-      <c r="RY15" s="37"/>
-      <c r="RZ15" s="37"/>
-      <c r="SA15" s="37"/>
-      <c r="SB15" s="37"/>
-      <c r="SC15" s="37"/>
-      <c r="SD15" s="37"/>
-      <c r="SE15" s="37"/>
-      <c r="SF15" s="37"/>
-      <c r="SG15" s="37"/>
-      <c r="SH15" s="38"/>
-      <c r="SI15" s="36" t="s">
+      <c r="RP15" s="44"/>
+      <c r="RQ15" s="44"/>
+      <c r="RR15" s="44"/>
+      <c r="RS15" s="44"/>
+      <c r="RT15" s="44"/>
+      <c r="RU15" s="44"/>
+      <c r="RV15" s="44"/>
+      <c r="RW15" s="44"/>
+      <c r="RX15" s="44"/>
+      <c r="RY15" s="44"/>
+      <c r="RZ15" s="44"/>
+      <c r="SA15" s="44"/>
+      <c r="SB15" s="44"/>
+      <c r="SC15" s="44"/>
+      <c r="SD15" s="44"/>
+      <c r="SE15" s="44"/>
+      <c r="SF15" s="44"/>
+      <c r="SG15" s="44"/>
+      <c r="SH15" s="45"/>
+      <c r="SI15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="SJ15" s="37"/>
-      <c r="SK15" s="37"/>
-      <c r="SL15" s="37"/>
-      <c r="SM15" s="37"/>
-      <c r="SN15" s="37"/>
-      <c r="SO15" s="37"/>
-      <c r="SP15" s="37"/>
-      <c r="SQ15" s="37"/>
-      <c r="SR15" s="37"/>
-      <c r="SS15" s="37"/>
-      <c r="ST15" s="37"/>
-      <c r="SU15" s="37"/>
-      <c r="SV15" s="37"/>
-      <c r="SW15" s="37"/>
-      <c r="SX15" s="37"/>
-      <c r="SY15" s="37"/>
-      <c r="SZ15" s="37"/>
-      <c r="TA15" s="37"/>
-      <c r="TB15" s="38"/>
-      <c r="TC15" s="36"/>
-      <c r="TD15" s="37"/>
-      <c r="TE15" s="37"/>
-      <c r="TF15" s="37"/>
-      <c r="TG15" s="37"/>
-      <c r="TH15" s="37"/>
-      <c r="TI15" s="37"/>
-      <c r="TJ15" s="37"/>
-      <c r="TK15" s="37"/>
-      <c r="TL15" s="37"/>
-      <c r="TM15" s="37"/>
-      <c r="TN15" s="37"/>
-      <c r="TO15" s="37"/>
-      <c r="TP15" s="37"/>
-      <c r="TQ15" s="37"/>
-      <c r="TR15" s="37"/>
-      <c r="TS15" s="37"/>
-      <c r="TT15" s="37"/>
-      <c r="TU15" s="37"/>
-      <c r="TV15" s="38"/>
-      <c r="TW15" s="36"/>
-      <c r="TX15" s="37"/>
-      <c r="TY15" s="37"/>
-      <c r="TZ15" s="37"/>
-      <c r="UA15" s="37"/>
-      <c r="UB15" s="37"/>
-      <c r="UC15" s="37"/>
-      <c r="UD15" s="37"/>
-      <c r="UE15" s="37"/>
-      <c r="UF15" s="37"/>
-      <c r="UG15" s="37"/>
-      <c r="UH15" s="37"/>
-      <c r="UI15" s="37"/>
-      <c r="UJ15" s="37"/>
-      <c r="UK15" s="37"/>
-      <c r="UL15" s="37"/>
-      <c r="UM15" s="37"/>
-      <c r="UN15" s="37"/>
-      <c r="UO15" s="37"/>
-      <c r="UP15" s="38"/>
-      <c r="UQ15" s="36"/>
-      <c r="UR15" s="37"/>
-      <c r="US15" s="37"/>
-      <c r="UT15" s="37"/>
-      <c r="UU15" s="37"/>
-      <c r="UV15" s="37"/>
-      <c r="UW15" s="37"/>
-      <c r="UX15" s="37"/>
-      <c r="UY15" s="37"/>
-      <c r="UZ15" s="37"/>
-      <c r="VA15" s="37"/>
-      <c r="VB15" s="37"/>
-      <c r="VC15" s="37"/>
-      <c r="VD15" s="37"/>
-      <c r="VE15" s="37"/>
-      <c r="VF15" s="37"/>
-      <c r="VG15" s="37"/>
-      <c r="VH15" s="37"/>
-      <c r="VI15" s="37"/>
-      <c r="VJ15" s="38"/>
-      <c r="VK15" s="36"/>
-      <c r="VL15" s="37"/>
-      <c r="VM15" s="37"/>
-      <c r="VN15" s="37"/>
-      <c r="VO15" s="37"/>
-      <c r="VP15" s="37"/>
-      <c r="VQ15" s="37"/>
-      <c r="VR15" s="37"/>
-      <c r="VS15" s="37"/>
-      <c r="VT15" s="37"/>
-      <c r="VU15" s="37"/>
-      <c r="VV15" s="37"/>
-      <c r="VW15" s="37"/>
-      <c r="VX15" s="37"/>
-      <c r="VY15" s="37"/>
-      <c r="VZ15" s="37"/>
-      <c r="WA15" s="37"/>
-      <c r="WB15" s="37"/>
-      <c r="WC15" s="37"/>
-      <c r="WD15" s="38"/>
-      <c r="WE15" s="36"/>
-      <c r="WF15" s="37"/>
-      <c r="WG15" s="37"/>
-      <c r="WH15" s="37"/>
-      <c r="WI15" s="37"/>
-      <c r="WJ15" s="37"/>
-      <c r="WK15" s="37"/>
-      <c r="WL15" s="37"/>
-      <c r="WM15" s="37"/>
-      <c r="WN15" s="37"/>
-      <c r="WO15" s="37"/>
-      <c r="WP15" s="37"/>
-      <c r="WQ15" s="37"/>
-      <c r="WR15" s="37"/>
-      <c r="WS15" s="37"/>
-      <c r="WT15" s="37"/>
-      <c r="WU15" s="37"/>
-      <c r="WV15" s="37"/>
-      <c r="WW15" s="37"/>
-      <c r="WX15" s="38"/>
-      <c r="WY15" s="36"/>
-      <c r="WZ15" s="37"/>
-      <c r="XA15" s="37"/>
-      <c r="XB15" s="37"/>
-      <c r="XC15" s="37"/>
-      <c r="XD15" s="37"/>
-      <c r="XE15" s="37"/>
-      <c r="XF15" s="37"/>
-      <c r="XG15" s="37"/>
-      <c r="XH15" s="37"/>
-      <c r="XI15" s="37"/>
-      <c r="XJ15" s="37"/>
-      <c r="XK15" s="37"/>
-      <c r="XL15" s="37"/>
-      <c r="XM15" s="37"/>
-      <c r="XN15" s="37"/>
-      <c r="XO15" s="37"/>
-      <c r="XP15" s="37"/>
-      <c r="XQ15" s="37"/>
-      <c r="XR15" s="38"/>
-      <c r="XS15" s="36"/>
-      <c r="XT15" s="37"/>
-      <c r="XU15" s="37"/>
-      <c r="XV15" s="37"/>
-      <c r="XW15" s="37"/>
-      <c r="XX15" s="37"/>
-      <c r="XY15" s="37"/>
-      <c r="XZ15" s="37"/>
-      <c r="YA15" s="37"/>
-      <c r="YB15" s="37"/>
-      <c r="YC15" s="37"/>
-      <c r="YD15" s="37"/>
-      <c r="YE15" s="37"/>
-      <c r="YF15" s="37"/>
-      <c r="YG15" s="37"/>
-      <c r="YH15" s="37"/>
-      <c r="YI15" s="37"/>
-      <c r="YJ15" s="37"/>
-      <c r="YK15" s="37"/>
-      <c r="YL15" s="38"/>
-      <c r="YM15" s="36"/>
-      <c r="YN15" s="37"/>
-      <c r="YO15" s="37"/>
-      <c r="YP15" s="37"/>
-      <c r="YQ15" s="37"/>
-      <c r="YR15" s="37"/>
-      <c r="YS15" s="37"/>
-      <c r="YT15" s="37"/>
-      <c r="YU15" s="37"/>
-      <c r="YV15" s="37"/>
-      <c r="YW15" s="37"/>
-      <c r="YX15" s="37"/>
-      <c r="YY15" s="37"/>
-      <c r="YZ15" s="37"/>
-      <c r="ZA15" s="37"/>
-      <c r="ZB15" s="37"/>
-      <c r="ZC15" s="37"/>
-      <c r="ZD15" s="37"/>
-      <c r="ZE15" s="37"/>
-      <c r="ZF15" s="38"/>
-      <c r="ZG15" s="36"/>
-      <c r="ZH15" s="37"/>
-      <c r="ZI15" s="37"/>
-      <c r="ZJ15" s="37"/>
-      <c r="ZK15" s="37"/>
-      <c r="ZL15" s="37"/>
-      <c r="ZM15" s="37"/>
-      <c r="ZN15" s="37"/>
-      <c r="ZO15" s="37"/>
-      <c r="ZP15" s="37"/>
-      <c r="ZQ15" s="37"/>
-      <c r="ZR15" s="37"/>
-      <c r="ZS15" s="37"/>
-      <c r="ZT15" s="37"/>
-      <c r="ZU15" s="37"/>
-      <c r="ZV15" s="37"/>
-      <c r="ZW15" s="37"/>
-      <c r="ZX15" s="37"/>
-      <c r="ZY15" s="37"/>
-      <c r="ZZ15" s="38"/>
-      <c r="AAA15" s="36"/>
-      <c r="AAB15" s="37"/>
-      <c r="AAC15" s="37"/>
-      <c r="AAD15" s="37"/>
-      <c r="AAE15" s="37"/>
-      <c r="AAF15" s="37"/>
-      <c r="AAG15" s="37"/>
-      <c r="AAH15" s="37"/>
-      <c r="AAI15" s="37"/>
-      <c r="AAJ15" s="37"/>
-      <c r="AAK15" s="37"/>
-      <c r="AAL15" s="37"/>
-      <c r="AAM15" s="37"/>
-      <c r="AAN15" s="37"/>
-      <c r="AAO15" s="37"/>
-      <c r="AAP15" s="37"/>
-      <c r="AAQ15" s="37"/>
-      <c r="AAR15" s="37"/>
-      <c r="AAS15" s="37"/>
-      <c r="AAT15" s="38"/>
-      <c r="AAU15" s="36"/>
-      <c r="AAV15" s="37"/>
-      <c r="AAW15" s="37"/>
-      <c r="AAX15" s="37"/>
-      <c r="AAY15" s="37"/>
-      <c r="AAZ15" s="37"/>
-      <c r="ABA15" s="37"/>
-      <c r="ABB15" s="37"/>
-      <c r="ABC15" s="37"/>
-      <c r="ABD15" s="37"/>
-      <c r="ABE15" s="37"/>
-      <c r="ABF15" s="37"/>
-      <c r="ABG15" s="37"/>
-      <c r="ABH15" s="37"/>
-      <c r="ABI15" s="37"/>
-      <c r="ABJ15" s="37"/>
-      <c r="ABK15" s="37"/>
-      <c r="ABL15" s="37"/>
-      <c r="ABM15" s="37"/>
-      <c r="ABN15" s="38"/>
-      <c r="ABO15" s="36"/>
-      <c r="ABP15" s="37"/>
-      <c r="ABQ15" s="37"/>
-      <c r="ABR15" s="37"/>
-      <c r="ABS15" s="37"/>
-      <c r="ABT15" s="37"/>
-      <c r="ABU15" s="37"/>
-      <c r="ABV15" s="37"/>
-      <c r="ABW15" s="37"/>
-      <c r="ABX15" s="37"/>
-      <c r="ABY15" s="37"/>
-      <c r="ABZ15" s="37"/>
-      <c r="ACA15" s="37"/>
-      <c r="ACB15" s="37"/>
-      <c r="ACC15" s="37"/>
-      <c r="ACD15" s="37"/>
-      <c r="ACE15" s="37"/>
-      <c r="ACF15" s="37"/>
-      <c r="ACG15" s="37"/>
-      <c r="ACH15" s="38"/>
-      <c r="ACI15" s="36"/>
-      <c r="ACJ15" s="37"/>
-      <c r="ACK15" s="37"/>
-      <c r="ACL15" s="37"/>
-      <c r="ACM15" s="37"/>
-      <c r="ACN15" s="37"/>
-      <c r="ACO15" s="37"/>
-      <c r="ACP15" s="37"/>
-      <c r="ACQ15" s="37"/>
-      <c r="ACR15" s="37"/>
-      <c r="ACS15" s="37"/>
-      <c r="ACT15" s="37"/>
-      <c r="ACU15" s="37"/>
-      <c r="ACV15" s="37"/>
-      <c r="ACW15" s="37"/>
-      <c r="ACX15" s="37"/>
-      <c r="ACY15" s="37"/>
-      <c r="ACZ15" s="37"/>
-      <c r="ADA15" s="37"/>
-      <c r="ADB15" s="38"/>
-      <c r="ADC15" s="36"/>
-      <c r="ADD15" s="37"/>
-      <c r="ADE15" s="37"/>
-      <c r="ADF15" s="37"/>
-      <c r="ADG15" s="37"/>
-      <c r="ADH15" s="37"/>
-      <c r="ADI15" s="37"/>
-      <c r="ADJ15" s="37"/>
-      <c r="ADK15" s="37"/>
-      <c r="ADL15" s="37"/>
-      <c r="ADM15" s="37"/>
-      <c r="ADN15" s="37"/>
-      <c r="ADO15" s="37"/>
-      <c r="ADP15" s="37"/>
-      <c r="ADQ15" s="37"/>
-      <c r="ADR15" s="37"/>
-      <c r="ADS15" s="37"/>
-      <c r="ADT15" s="37"/>
-      <c r="ADU15" s="37"/>
-      <c r="ADV15" s="38"/>
-      <c r="ADW15" s="36"/>
-      <c r="ADX15" s="37"/>
-      <c r="ADY15" s="37"/>
-      <c r="ADZ15" s="37"/>
-      <c r="AEA15" s="37"/>
-      <c r="AEB15" s="37"/>
-      <c r="AEC15" s="37"/>
-      <c r="AED15" s="37"/>
-      <c r="AEE15" s="37"/>
-      <c r="AEF15" s="37"/>
-      <c r="AEG15" s="37"/>
-      <c r="AEH15" s="37"/>
-      <c r="AEI15" s="37"/>
-      <c r="AEJ15" s="37"/>
-      <c r="AEK15" s="37"/>
-      <c r="AEL15" s="37"/>
-      <c r="AEM15" s="37"/>
-      <c r="AEN15" s="37"/>
-      <c r="AEO15" s="37"/>
-      <c r="AEP15" s="38"/>
-      <c r="AEQ15" s="36"/>
-      <c r="AER15" s="37"/>
-      <c r="AES15" s="37"/>
-      <c r="AET15" s="37"/>
-      <c r="AEU15" s="37"/>
-      <c r="AEV15" s="37"/>
-      <c r="AEW15" s="37"/>
-      <c r="AEX15" s="37"/>
-      <c r="AEY15" s="37"/>
-      <c r="AEZ15" s="37"/>
-      <c r="AFA15" s="37"/>
-      <c r="AFB15" s="37"/>
-      <c r="AFC15" s="37"/>
-      <c r="AFD15" s="37"/>
-      <c r="AFE15" s="37"/>
-      <c r="AFF15" s="37"/>
-      <c r="AFG15" s="37"/>
-      <c r="AFH15" s="37"/>
-      <c r="AFI15" s="37"/>
-      <c r="AFJ15" s="38"/>
-      <c r="AFK15" s="36"/>
-      <c r="AFL15" s="37"/>
-      <c r="AFM15" s="37"/>
-      <c r="AFN15" s="37"/>
-      <c r="AFO15" s="37"/>
-      <c r="AFP15" s="37"/>
-      <c r="AFQ15" s="37"/>
-      <c r="AFR15" s="37"/>
-      <c r="AFS15" s="37"/>
-      <c r="AFT15" s="37"/>
-      <c r="AFU15" s="37"/>
-      <c r="AFV15" s="37"/>
-      <c r="AFW15" s="37"/>
-      <c r="AFX15" s="37"/>
-      <c r="AFY15" s="37"/>
-      <c r="AFZ15" s="37"/>
-      <c r="AGA15" s="37"/>
-      <c r="AGB15" s="37"/>
-      <c r="AGC15" s="37"/>
-      <c r="AGD15" s="38"/>
-      <c r="AGE15" s="36"/>
-      <c r="AGF15" s="37"/>
-      <c r="AGG15" s="37"/>
-      <c r="AGH15" s="37"/>
-      <c r="AGI15" s="37"/>
-      <c r="AGJ15" s="37"/>
-      <c r="AGK15" s="37"/>
-      <c r="AGL15" s="37"/>
-      <c r="AGM15" s="37"/>
-      <c r="AGN15" s="37"/>
-      <c r="AGO15" s="37"/>
-      <c r="AGP15" s="37"/>
-      <c r="AGQ15" s="37"/>
-      <c r="AGR15" s="37"/>
-      <c r="AGS15" s="37"/>
-      <c r="AGT15" s="37"/>
-      <c r="AGU15" s="37"/>
-      <c r="AGV15" s="37"/>
-      <c r="AGW15" s="37"/>
-      <c r="AGX15" s="38"/>
-      <c r="AGY15" s="36"/>
-      <c r="AGZ15" s="37"/>
-      <c r="AHA15" s="37"/>
-      <c r="AHB15" s="37"/>
-      <c r="AHC15" s="37"/>
-      <c r="AHD15" s="37"/>
-      <c r="AHE15" s="37"/>
-      <c r="AHF15" s="37"/>
-      <c r="AHG15" s="37"/>
-      <c r="AHH15" s="37"/>
-      <c r="AHI15" s="37"/>
-      <c r="AHJ15" s="37"/>
-      <c r="AHK15" s="37"/>
-      <c r="AHL15" s="37"/>
-      <c r="AHM15" s="37"/>
-      <c r="AHN15" s="37"/>
-      <c r="AHO15" s="37"/>
-      <c r="AHP15" s="37"/>
-      <c r="AHQ15" s="37"/>
-      <c r="AHR15" s="38"/>
-      <c r="AHS15" s="36"/>
-      <c r="AHT15" s="37"/>
-      <c r="AHU15" s="37"/>
-      <c r="AHV15" s="37"/>
-      <c r="AHW15" s="37"/>
-      <c r="AHX15" s="37"/>
-      <c r="AHY15" s="37"/>
-      <c r="AHZ15" s="37"/>
-      <c r="AIA15" s="37"/>
-      <c r="AIB15" s="37"/>
-      <c r="AIC15" s="37"/>
-      <c r="AID15" s="37"/>
-      <c r="AIE15" s="37"/>
-      <c r="AIF15" s="37"/>
-      <c r="AIG15" s="37"/>
-      <c r="AIH15" s="37"/>
-      <c r="AII15" s="37"/>
-      <c r="AIJ15" s="37"/>
-      <c r="AIK15" s="37"/>
-      <c r="AIL15" s="38"/>
-      <c r="AIM15" s="36"/>
-      <c r="AIN15" s="37"/>
-      <c r="AIO15" s="37"/>
-      <c r="AIP15" s="37"/>
-      <c r="AIQ15" s="37"/>
-      <c r="AIR15" s="37"/>
-      <c r="AIS15" s="37"/>
-      <c r="AIT15" s="37"/>
-      <c r="AIU15" s="37"/>
-      <c r="AIV15" s="37"/>
-      <c r="AIW15" s="37"/>
-      <c r="AIX15" s="37"/>
-      <c r="AIY15" s="37"/>
-      <c r="AIZ15" s="37"/>
-      <c r="AJA15" s="37"/>
-      <c r="AJB15" s="37"/>
-      <c r="AJC15" s="37"/>
-      <c r="AJD15" s="37"/>
-      <c r="AJE15" s="37"/>
-      <c r="AJF15" s="38"/>
-      <c r="AJG15" s="36"/>
-      <c r="AJH15" s="37"/>
-      <c r="AJI15" s="37"/>
-      <c r="AJJ15" s="37"/>
-      <c r="AJK15" s="37"/>
-      <c r="AJL15" s="37"/>
-      <c r="AJM15" s="37"/>
-      <c r="AJN15" s="37"/>
-      <c r="AJO15" s="37"/>
-      <c r="AJP15" s="37"/>
-      <c r="AJQ15" s="37"/>
-      <c r="AJR15" s="37"/>
-      <c r="AJS15" s="37"/>
-      <c r="AJT15" s="37"/>
-      <c r="AJU15" s="37"/>
-      <c r="AJV15" s="37"/>
-      <c r="AJW15" s="37"/>
-      <c r="AJX15" s="37"/>
-      <c r="AJY15" s="37"/>
-      <c r="AJZ15" s="38"/>
-      <c r="AKA15" s="36"/>
-      <c r="AKB15" s="37"/>
-      <c r="AKC15" s="37"/>
-      <c r="AKD15" s="37"/>
-      <c r="AKE15" s="37"/>
-      <c r="AKF15" s="37"/>
-      <c r="AKG15" s="37"/>
-      <c r="AKH15" s="37"/>
-      <c r="AKI15" s="37"/>
-      <c r="AKJ15" s="37"/>
-      <c r="AKK15" s="37"/>
-      <c r="AKL15" s="37"/>
-      <c r="AKM15" s="37"/>
-      <c r="AKN15" s="37"/>
-      <c r="AKO15" s="37"/>
-      <c r="AKP15" s="37"/>
-      <c r="AKQ15" s="37"/>
-      <c r="AKR15" s="37"/>
-      <c r="AKS15" s="37"/>
-      <c r="AKT15" s="38"/>
-      <c r="AKU15" s="36"/>
-      <c r="AKV15" s="37"/>
-      <c r="AKW15" s="37"/>
-      <c r="AKX15" s="37"/>
-      <c r="AKY15" s="37"/>
-      <c r="AKZ15" s="37"/>
-      <c r="ALA15" s="37"/>
-      <c r="ALB15" s="37"/>
-      <c r="ALC15" s="37"/>
-      <c r="ALD15" s="37"/>
-      <c r="ALE15" s="37"/>
-      <c r="ALF15" s="37"/>
-      <c r="ALG15" s="37"/>
-      <c r="ALH15" s="37"/>
-      <c r="ALI15" s="37"/>
-      <c r="ALJ15" s="37"/>
-      <c r="ALK15" s="37"/>
-      <c r="ALL15" s="37"/>
-      <c r="ALM15" s="37"/>
-      <c r="ALN15" s="38"/>
-      <c r="ALO15" s="36"/>
-      <c r="ALP15" s="37"/>
-      <c r="ALQ15" s="37"/>
-      <c r="ALR15" s="37"/>
-      <c r="ALS15" s="37"/>
-      <c r="ALT15" s="37"/>
-      <c r="ALU15" s="37"/>
-      <c r="ALV15" s="37"/>
-      <c r="ALW15" s="37"/>
-      <c r="ALX15" s="37"/>
-      <c r="ALY15" s="37"/>
-      <c r="ALZ15" s="37"/>
-      <c r="AMA15" s="37"/>
-      <c r="AMB15" s="37"/>
-      <c r="AMC15" s="37"/>
-      <c r="AMD15" s="37"/>
-      <c r="AME15" s="37"/>
-      <c r="AMF15" s="37"/>
-      <c r="AMG15" s="37"/>
-      <c r="AMH15" s="38"/>
-      <c r="AMI15" s="36"/>
-      <c r="AMJ15" s="37"/>
-      <c r="AMK15" s="37"/>
-      <c r="AML15" s="37"/>
-      <c r="AMM15" s="37"/>
-      <c r="AMN15" s="37"/>
-      <c r="AMO15" s="37"/>
-      <c r="AMP15" s="37"/>
-      <c r="AMQ15" s="37"/>
-      <c r="AMR15" s="37"/>
-      <c r="AMS15" s="37"/>
-      <c r="AMT15" s="37"/>
-      <c r="AMU15" s="37"/>
-      <c r="AMV15" s="37"/>
-      <c r="AMW15" s="37"/>
-      <c r="AMX15" s="37"/>
-      <c r="AMY15" s="37"/>
-      <c r="AMZ15" s="37"/>
-      <c r="ANA15" s="37"/>
-      <c r="ANB15" s="38"/>
-      <c r="ANC15" s="36"/>
-      <c r="AND15" s="37"/>
-      <c r="ANE15" s="37"/>
-      <c r="ANF15" s="37"/>
-      <c r="ANG15" s="37"/>
-      <c r="ANH15" s="37"/>
-      <c r="ANI15" s="37"/>
-      <c r="ANJ15" s="37"/>
-      <c r="ANK15" s="37"/>
-      <c r="ANL15" s="37"/>
-      <c r="ANM15" s="37"/>
-      <c r="ANN15" s="37"/>
-      <c r="ANO15" s="37"/>
-      <c r="ANP15" s="37"/>
-      <c r="ANQ15" s="37"/>
-      <c r="ANR15" s="37"/>
-      <c r="ANS15" s="37"/>
-      <c r="ANT15" s="37"/>
-      <c r="ANU15" s="37"/>
-      <c r="ANV15" s="38"/>
-      <c r="ANW15" s="36"/>
-      <c r="ANX15" s="37"/>
-      <c r="ANY15" s="37"/>
-      <c r="ANZ15" s="37"/>
-      <c r="AOA15" s="37"/>
-      <c r="AOB15" s="37"/>
-      <c r="AOC15" s="37"/>
-      <c r="AOD15" s="37"/>
-      <c r="AOE15" s="37"/>
-      <c r="AOF15" s="37"/>
-      <c r="AOG15" s="37"/>
-      <c r="AOH15" s="37"/>
-      <c r="AOI15" s="37"/>
-      <c r="AOJ15" s="37"/>
-      <c r="AOK15" s="37"/>
-      <c r="AOL15" s="37"/>
-      <c r="AOM15" s="37"/>
-      <c r="AON15" s="37"/>
-      <c r="AOO15" s="37"/>
-      <c r="AOP15" s="38"/>
+      <c r="SJ15" s="44"/>
+      <c r="SK15" s="44"/>
+      <c r="SL15" s="44"/>
+      <c r="SM15" s="44"/>
+      <c r="SN15" s="44"/>
+      <c r="SO15" s="44"/>
+      <c r="SP15" s="44"/>
+      <c r="SQ15" s="44"/>
+      <c r="SR15" s="44"/>
+      <c r="SS15" s="44"/>
+      <c r="ST15" s="44"/>
+      <c r="SU15" s="44"/>
+      <c r="SV15" s="44"/>
+      <c r="SW15" s="44"/>
+      <c r="SX15" s="44"/>
+      <c r="SY15" s="44"/>
+      <c r="SZ15" s="44"/>
+      <c r="TA15" s="44"/>
+      <c r="TB15" s="45"/>
+      <c r="TC15" s="43"/>
+      <c r="TD15" s="44"/>
+      <c r="TE15" s="44"/>
+      <c r="TF15" s="44"/>
+      <c r="TG15" s="44"/>
+      <c r="TH15" s="44"/>
+      <c r="TI15" s="44"/>
+      <c r="TJ15" s="44"/>
+      <c r="TK15" s="44"/>
+      <c r="TL15" s="44"/>
+      <c r="TM15" s="44"/>
+      <c r="TN15" s="44"/>
+      <c r="TO15" s="44"/>
+      <c r="TP15" s="44"/>
+      <c r="TQ15" s="44"/>
+      <c r="TR15" s="44"/>
+      <c r="TS15" s="44"/>
+      <c r="TT15" s="44"/>
+      <c r="TU15" s="44"/>
+      <c r="TV15" s="45"/>
+      <c r="TW15" s="43"/>
+      <c r="TX15" s="44"/>
+      <c r="TY15" s="44"/>
+      <c r="TZ15" s="44"/>
+      <c r="UA15" s="44"/>
+      <c r="UB15" s="44"/>
+      <c r="UC15" s="44"/>
+      <c r="UD15" s="44"/>
+      <c r="UE15" s="44"/>
+      <c r="UF15" s="44"/>
+      <c r="UG15" s="44"/>
+      <c r="UH15" s="44"/>
+      <c r="UI15" s="44"/>
+      <c r="UJ15" s="44"/>
+      <c r="UK15" s="44"/>
+      <c r="UL15" s="44"/>
+      <c r="UM15" s="44"/>
+      <c r="UN15" s="44"/>
+      <c r="UO15" s="44"/>
+      <c r="UP15" s="45"/>
+      <c r="UQ15" s="43"/>
+      <c r="UR15" s="44"/>
+      <c r="US15" s="44"/>
+      <c r="UT15" s="44"/>
+      <c r="UU15" s="44"/>
+      <c r="UV15" s="44"/>
+      <c r="UW15" s="44"/>
+      <c r="UX15" s="44"/>
+      <c r="UY15" s="44"/>
+      <c r="UZ15" s="44"/>
+      <c r="VA15" s="44"/>
+      <c r="VB15" s="44"/>
+      <c r="VC15" s="44"/>
+      <c r="VD15" s="44"/>
+      <c r="VE15" s="44"/>
+      <c r="VF15" s="44"/>
+      <c r="VG15" s="44"/>
+      <c r="VH15" s="44"/>
+      <c r="VI15" s="44"/>
+      <c r="VJ15" s="45"/>
+      <c r="VK15" s="43"/>
+      <c r="VL15" s="44"/>
+      <c r="VM15" s="44"/>
+      <c r="VN15" s="44"/>
+      <c r="VO15" s="44"/>
+      <c r="VP15" s="44"/>
+      <c r="VQ15" s="44"/>
+      <c r="VR15" s="44"/>
+      <c r="VS15" s="44"/>
+      <c r="VT15" s="44"/>
+      <c r="VU15" s="44"/>
+      <c r="VV15" s="44"/>
+      <c r="VW15" s="44"/>
+      <c r="VX15" s="44"/>
+      <c r="VY15" s="44"/>
+      <c r="VZ15" s="44"/>
+      <c r="WA15" s="44"/>
+      <c r="WB15" s="44"/>
+      <c r="WC15" s="44"/>
+      <c r="WD15" s="45"/>
+      <c r="WE15" s="43"/>
+      <c r="WF15" s="44"/>
+      <c r="WG15" s="44"/>
+      <c r="WH15" s="44"/>
+      <c r="WI15" s="44"/>
+      <c r="WJ15" s="44"/>
+      <c r="WK15" s="44"/>
+      <c r="WL15" s="44"/>
+      <c r="WM15" s="44"/>
+      <c r="WN15" s="44"/>
+      <c r="WO15" s="44"/>
+      <c r="WP15" s="44"/>
+      <c r="WQ15" s="44"/>
+      <c r="WR15" s="44"/>
+      <c r="WS15" s="44"/>
+      <c r="WT15" s="44"/>
+      <c r="WU15" s="44"/>
+      <c r="WV15" s="44"/>
+      <c r="WW15" s="44"/>
+      <c r="WX15" s="45"/>
+      <c r="WY15" s="43"/>
+      <c r="WZ15" s="44"/>
+      <c r="XA15" s="44"/>
+      <c r="XB15" s="44"/>
+      <c r="XC15" s="44"/>
+      <c r="XD15" s="44"/>
+      <c r="XE15" s="44"/>
+      <c r="XF15" s="44"/>
+      <c r="XG15" s="44"/>
+      <c r="XH15" s="44"/>
+      <c r="XI15" s="44"/>
+      <c r="XJ15" s="44"/>
+      <c r="XK15" s="44"/>
+      <c r="XL15" s="44"/>
+      <c r="XM15" s="44"/>
+      <c r="XN15" s="44"/>
+      <c r="XO15" s="44"/>
+      <c r="XP15" s="44"/>
+      <c r="XQ15" s="44"/>
+      <c r="XR15" s="45"/>
+      <c r="XS15" s="43"/>
+      <c r="XT15" s="44"/>
+      <c r="XU15" s="44"/>
+      <c r="XV15" s="44"/>
+      <c r="XW15" s="44"/>
+      <c r="XX15" s="44"/>
+      <c r="XY15" s="44"/>
+      <c r="XZ15" s="44"/>
+      <c r="YA15" s="44"/>
+      <c r="YB15" s="44"/>
+      <c r="YC15" s="44"/>
+      <c r="YD15" s="44"/>
+      <c r="YE15" s="44"/>
+      <c r="YF15" s="44"/>
+      <c r="YG15" s="44"/>
+      <c r="YH15" s="44"/>
+      <c r="YI15" s="44"/>
+      <c r="YJ15" s="44"/>
+      <c r="YK15" s="44"/>
+      <c r="YL15" s="45"/>
+      <c r="YM15" s="43"/>
+      <c r="YN15" s="44"/>
+      <c r="YO15" s="44"/>
+      <c r="YP15" s="44"/>
+      <c r="YQ15" s="44"/>
+      <c r="YR15" s="44"/>
+      <c r="YS15" s="44"/>
+      <c r="YT15" s="44"/>
+      <c r="YU15" s="44"/>
+      <c r="YV15" s="44"/>
+      <c r="YW15" s="44"/>
+      <c r="YX15" s="44"/>
+      <c r="YY15" s="44"/>
+      <c r="YZ15" s="44"/>
+      <c r="ZA15" s="44"/>
+      <c r="ZB15" s="44"/>
+      <c r="ZC15" s="44"/>
+      <c r="ZD15" s="44"/>
+      <c r="ZE15" s="44"/>
+      <c r="ZF15" s="45"/>
+      <c r="ZG15" s="43"/>
+      <c r="ZH15" s="44"/>
+      <c r="ZI15" s="44"/>
+      <c r="ZJ15" s="44"/>
+      <c r="ZK15" s="44"/>
+      <c r="ZL15" s="44"/>
+      <c r="ZM15" s="44"/>
+      <c r="ZN15" s="44"/>
+      <c r="ZO15" s="44"/>
+      <c r="ZP15" s="44"/>
+      <c r="ZQ15" s="44"/>
+      <c r="ZR15" s="44"/>
+      <c r="ZS15" s="44"/>
+      <c r="ZT15" s="44"/>
+      <c r="ZU15" s="44"/>
+      <c r="ZV15" s="44"/>
+      <c r="ZW15" s="44"/>
+      <c r="ZX15" s="44"/>
+      <c r="ZY15" s="44"/>
+      <c r="ZZ15" s="45"/>
+      <c r="AAA15" s="43"/>
+      <c r="AAB15" s="44"/>
+      <c r="AAC15" s="44"/>
+      <c r="AAD15" s="44"/>
+      <c r="AAE15" s="44"/>
+      <c r="AAF15" s="44"/>
+      <c r="AAG15" s="44"/>
+      <c r="AAH15" s="44"/>
+      <c r="AAI15" s="44"/>
+      <c r="AAJ15" s="44"/>
+      <c r="AAK15" s="44"/>
+      <c r="AAL15" s="44"/>
+      <c r="AAM15" s="44"/>
+      <c r="AAN15" s="44"/>
+      <c r="AAO15" s="44"/>
+      <c r="AAP15" s="44"/>
+      <c r="AAQ15" s="44"/>
+      <c r="AAR15" s="44"/>
+      <c r="AAS15" s="44"/>
+      <c r="AAT15" s="45"/>
+      <c r="AAU15" s="43"/>
+      <c r="AAV15" s="44"/>
+      <c r="AAW15" s="44"/>
+      <c r="AAX15" s="44"/>
+      <c r="AAY15" s="44"/>
+      <c r="AAZ15" s="44"/>
+      <c r="ABA15" s="44"/>
+      <c r="ABB15" s="44"/>
+      <c r="ABC15" s="44"/>
+      <c r="ABD15" s="44"/>
+      <c r="ABE15" s="44"/>
+      <c r="ABF15" s="44"/>
+      <c r="ABG15" s="44"/>
+      <c r="ABH15" s="44"/>
+      <c r="ABI15" s="44"/>
+      <c r="ABJ15" s="44"/>
+      <c r="ABK15" s="44"/>
+      <c r="ABL15" s="44"/>
+      <c r="ABM15" s="44"/>
+      <c r="ABN15" s="45"/>
+      <c r="ABO15" s="43"/>
+      <c r="ABP15" s="44"/>
+      <c r="ABQ15" s="44"/>
+      <c r="ABR15" s="44"/>
+      <c r="ABS15" s="44"/>
+      <c r="ABT15" s="44"/>
+      <c r="ABU15" s="44"/>
+      <c r="ABV15" s="44"/>
+      <c r="ABW15" s="44"/>
+      <c r="ABX15" s="44"/>
+      <c r="ABY15" s="44"/>
+      <c r="ABZ15" s="44"/>
+      <c r="ACA15" s="44"/>
+      <c r="ACB15" s="44"/>
+      <c r="ACC15" s="44"/>
+      <c r="ACD15" s="44"/>
+      <c r="ACE15" s="44"/>
+      <c r="ACF15" s="44"/>
+      <c r="ACG15" s="44"/>
+      <c r="ACH15" s="45"/>
+      <c r="ACI15" s="43"/>
+      <c r="ACJ15" s="44"/>
+      <c r="ACK15" s="44"/>
+      <c r="ACL15" s="44"/>
+      <c r="ACM15" s="44"/>
+      <c r="ACN15" s="44"/>
+      <c r="ACO15" s="44"/>
+      <c r="ACP15" s="44"/>
+      <c r="ACQ15" s="44"/>
+      <c r="ACR15" s="44"/>
+      <c r="ACS15" s="44"/>
+      <c r="ACT15" s="44"/>
+      <c r="ACU15" s="44"/>
+      <c r="ACV15" s="44"/>
+      <c r="ACW15" s="44"/>
+      <c r="ACX15" s="44"/>
+      <c r="ACY15" s="44"/>
+      <c r="ACZ15" s="44"/>
+      <c r="ADA15" s="44"/>
+      <c r="ADB15" s="45"/>
+      <c r="ADC15" s="43"/>
+      <c r="ADD15" s="44"/>
+      <c r="ADE15" s="44"/>
+      <c r="ADF15" s="44"/>
+      <c r="ADG15" s="44"/>
+      <c r="ADH15" s="44"/>
+      <c r="ADI15" s="44"/>
+      <c r="ADJ15" s="44"/>
+      <c r="ADK15" s="44"/>
+      <c r="ADL15" s="44"/>
+      <c r="ADM15" s="44"/>
+      <c r="ADN15" s="44"/>
+      <c r="ADO15" s="44"/>
+      <c r="ADP15" s="44"/>
+      <c r="ADQ15" s="44"/>
+      <c r="ADR15" s="44"/>
+      <c r="ADS15" s="44"/>
+      <c r="ADT15" s="44"/>
+      <c r="ADU15" s="44"/>
+      <c r="ADV15" s="45"/>
+      <c r="ADW15" s="43"/>
+      <c r="ADX15" s="44"/>
+      <c r="ADY15" s="44"/>
+      <c r="ADZ15" s="44"/>
+      <c r="AEA15" s="44"/>
+      <c r="AEB15" s="44"/>
+      <c r="AEC15" s="44"/>
+      <c r="AED15" s="44"/>
+      <c r="AEE15" s="44"/>
+      <c r="AEF15" s="44"/>
+      <c r="AEG15" s="44"/>
+      <c r="AEH15" s="44"/>
+      <c r="AEI15" s="44"/>
+      <c r="AEJ15" s="44"/>
+      <c r="AEK15" s="44"/>
+      <c r="AEL15" s="44"/>
+      <c r="AEM15" s="44"/>
+      <c r="AEN15" s="44"/>
+      <c r="AEO15" s="44"/>
+      <c r="AEP15" s="45"/>
+      <c r="AEQ15" s="43"/>
+      <c r="AER15" s="44"/>
+      <c r="AES15" s="44"/>
+      <c r="AET15" s="44"/>
+      <c r="AEU15" s="44"/>
+      <c r="AEV15" s="44"/>
+      <c r="AEW15" s="44"/>
+      <c r="AEX15" s="44"/>
+      <c r="AEY15" s="44"/>
+      <c r="AEZ15" s="44"/>
+      <c r="AFA15" s="44"/>
+      <c r="AFB15" s="44"/>
+      <c r="AFC15" s="44"/>
+      <c r="AFD15" s="44"/>
+      <c r="AFE15" s="44"/>
+      <c r="AFF15" s="44"/>
+      <c r="AFG15" s="44"/>
+      <c r="AFH15" s="44"/>
+      <c r="AFI15" s="44"/>
+      <c r="AFJ15" s="45"/>
+      <c r="AFK15" s="43"/>
+      <c r="AFL15" s="44"/>
+      <c r="AFM15" s="44"/>
+      <c r="AFN15" s="44"/>
+      <c r="AFO15" s="44"/>
+      <c r="AFP15" s="44"/>
+      <c r="AFQ15" s="44"/>
+      <c r="AFR15" s="44"/>
+      <c r="AFS15" s="44"/>
+      <c r="AFT15" s="44"/>
+      <c r="AFU15" s="44"/>
+      <c r="AFV15" s="44"/>
+      <c r="AFW15" s="44"/>
+      <c r="AFX15" s="44"/>
+      <c r="AFY15" s="44"/>
+      <c r="AFZ15" s="44"/>
+      <c r="AGA15" s="44"/>
+      <c r="AGB15" s="44"/>
+      <c r="AGC15" s="44"/>
+      <c r="AGD15" s="45"/>
+      <c r="AGE15" s="43"/>
+      <c r="AGF15" s="44"/>
+      <c r="AGG15" s="44"/>
+      <c r="AGH15" s="44"/>
+      <c r="AGI15" s="44"/>
+      <c r="AGJ15" s="44"/>
+      <c r="AGK15" s="44"/>
+      <c r="AGL15" s="44"/>
+      <c r="AGM15" s="44"/>
+      <c r="AGN15" s="44"/>
+      <c r="AGO15" s="44"/>
+      <c r="AGP15" s="44"/>
+      <c r="AGQ15" s="44"/>
+      <c r="AGR15" s="44"/>
+      <c r="AGS15" s="44"/>
+      <c r="AGT15" s="44"/>
+      <c r="AGU15" s="44"/>
+      <c r="AGV15" s="44"/>
+      <c r="AGW15" s="44"/>
+      <c r="AGX15" s="45"/>
+      <c r="AGY15" s="43"/>
+      <c r="AGZ15" s="44"/>
+      <c r="AHA15" s="44"/>
+      <c r="AHB15" s="44"/>
+      <c r="AHC15" s="44"/>
+      <c r="AHD15" s="44"/>
+      <c r="AHE15" s="44"/>
+      <c r="AHF15" s="44"/>
+      <c r="AHG15" s="44"/>
+      <c r="AHH15" s="44"/>
+      <c r="AHI15" s="44"/>
+      <c r="AHJ15" s="44"/>
+      <c r="AHK15" s="44"/>
+      <c r="AHL15" s="44"/>
+      <c r="AHM15" s="44"/>
+      <c r="AHN15" s="44"/>
+      <c r="AHO15" s="44"/>
+      <c r="AHP15" s="44"/>
+      <c r="AHQ15" s="44"/>
+      <c r="AHR15" s="45"/>
+      <c r="AHS15" s="43"/>
+      <c r="AHT15" s="44"/>
+      <c r="AHU15" s="44"/>
+      <c r="AHV15" s="44"/>
+      <c r="AHW15" s="44"/>
+      <c r="AHX15" s="44"/>
+      <c r="AHY15" s="44"/>
+      <c r="AHZ15" s="44"/>
+      <c r="AIA15" s="44"/>
+      <c r="AIB15" s="44"/>
+      <c r="AIC15" s="44"/>
+      <c r="AID15" s="44"/>
+      <c r="AIE15" s="44"/>
+      <c r="AIF15" s="44"/>
+      <c r="AIG15" s="44"/>
+      <c r="AIH15" s="44"/>
+      <c r="AII15" s="44"/>
+      <c r="AIJ15" s="44"/>
+      <c r="AIK15" s="44"/>
+      <c r="AIL15" s="45"/>
+      <c r="AIM15" s="43"/>
+      <c r="AIN15" s="44"/>
+      <c r="AIO15" s="44"/>
+      <c r="AIP15" s="44"/>
+      <c r="AIQ15" s="44"/>
+      <c r="AIR15" s="44"/>
+      <c r="AIS15" s="44"/>
+      <c r="AIT15" s="44"/>
+      <c r="AIU15" s="44"/>
+      <c r="AIV15" s="44"/>
+      <c r="AIW15" s="44"/>
+      <c r="AIX15" s="44"/>
+      <c r="AIY15" s="44"/>
+      <c r="AIZ15" s="44"/>
+      <c r="AJA15" s="44"/>
+      <c r="AJB15" s="44"/>
+      <c r="AJC15" s="44"/>
+      <c r="AJD15" s="44"/>
+      <c r="AJE15" s="44"/>
+      <c r="AJF15" s="45"/>
+      <c r="AJG15" s="43"/>
+      <c r="AJH15" s="44"/>
+      <c r="AJI15" s="44"/>
+      <c r="AJJ15" s="44"/>
+      <c r="AJK15" s="44"/>
+      <c r="AJL15" s="44"/>
+      <c r="AJM15" s="44"/>
+      <c r="AJN15" s="44"/>
+      <c r="AJO15" s="44"/>
+      <c r="AJP15" s="44"/>
+      <c r="AJQ15" s="44"/>
+      <c r="AJR15" s="44"/>
+      <c r="AJS15" s="44"/>
+      <c r="AJT15" s="44"/>
+      <c r="AJU15" s="44"/>
+      <c r="AJV15" s="44"/>
+      <c r="AJW15" s="44"/>
+      <c r="AJX15" s="44"/>
+      <c r="AJY15" s="44"/>
+      <c r="AJZ15" s="45"/>
+      <c r="AKA15" s="43"/>
+      <c r="AKB15" s="44"/>
+      <c r="AKC15" s="44"/>
+      <c r="AKD15" s="44"/>
+      <c r="AKE15" s="44"/>
+      <c r="AKF15" s="44"/>
+      <c r="AKG15" s="44"/>
+      <c r="AKH15" s="44"/>
+      <c r="AKI15" s="44"/>
+      <c r="AKJ15" s="44"/>
+      <c r="AKK15" s="44"/>
+      <c r="AKL15" s="44"/>
+      <c r="AKM15" s="44"/>
+      <c r="AKN15" s="44"/>
+      <c r="AKO15" s="44"/>
+      <c r="AKP15" s="44"/>
+      <c r="AKQ15" s="44"/>
+      <c r="AKR15" s="44"/>
+      <c r="AKS15" s="44"/>
+      <c r="AKT15" s="45"/>
+      <c r="AKU15" s="43"/>
+      <c r="AKV15" s="44"/>
+      <c r="AKW15" s="44"/>
+      <c r="AKX15" s="44"/>
+      <c r="AKY15" s="44"/>
+      <c r="AKZ15" s="44"/>
+      <c r="ALA15" s="44"/>
+      <c r="ALB15" s="44"/>
+      <c r="ALC15" s="44"/>
+      <c r="ALD15" s="44"/>
+      <c r="ALE15" s="44"/>
+      <c r="ALF15" s="44"/>
+      <c r="ALG15" s="44"/>
+      <c r="ALH15" s="44"/>
+      <c r="ALI15" s="44"/>
+      <c r="ALJ15" s="44"/>
+      <c r="ALK15" s="44"/>
+      <c r="ALL15" s="44"/>
+      <c r="ALM15" s="44"/>
+      <c r="ALN15" s="45"/>
+      <c r="ALO15" s="43"/>
+      <c r="ALP15" s="44"/>
+      <c r="ALQ15" s="44"/>
+      <c r="ALR15" s="44"/>
+      <c r="ALS15" s="44"/>
+      <c r="ALT15" s="44"/>
+      <c r="ALU15" s="44"/>
+      <c r="ALV15" s="44"/>
+      <c r="ALW15" s="44"/>
+      <c r="ALX15" s="44"/>
+      <c r="ALY15" s="44"/>
+      <c r="ALZ15" s="44"/>
+      <c r="AMA15" s="44"/>
+      <c r="AMB15" s="44"/>
+      <c r="AMC15" s="44"/>
+      <c r="AMD15" s="44"/>
+      <c r="AME15" s="44"/>
+      <c r="AMF15" s="44"/>
+      <c r="AMG15" s="44"/>
+      <c r="AMH15" s="45"/>
+      <c r="AMI15" s="43"/>
+      <c r="AMJ15" s="44"/>
+      <c r="AMK15" s="44"/>
+      <c r="AML15" s="44"/>
+      <c r="AMM15" s="44"/>
+      <c r="AMN15" s="44"/>
+      <c r="AMO15" s="44"/>
+      <c r="AMP15" s="44"/>
+      <c r="AMQ15" s="44"/>
+      <c r="AMR15" s="44"/>
+      <c r="AMS15" s="44"/>
+      <c r="AMT15" s="44"/>
+      <c r="AMU15" s="44"/>
+      <c r="AMV15" s="44"/>
+      <c r="AMW15" s="44"/>
+      <c r="AMX15" s="44"/>
+      <c r="AMY15" s="44"/>
+      <c r="AMZ15" s="44"/>
+      <c r="ANA15" s="44"/>
+      <c r="ANB15" s="45"/>
+      <c r="ANC15" s="43"/>
+      <c r="AND15" s="44"/>
+      <c r="ANE15" s="44"/>
+      <c r="ANF15" s="44"/>
+      <c r="ANG15" s="44"/>
+      <c r="ANH15" s="44"/>
+      <c r="ANI15" s="44"/>
+      <c r="ANJ15" s="44"/>
+      <c r="ANK15" s="44"/>
+      <c r="ANL15" s="44"/>
+      <c r="ANM15" s="44"/>
+      <c r="ANN15" s="44"/>
+      <c r="ANO15" s="44"/>
+      <c r="ANP15" s="44"/>
+      <c r="ANQ15" s="44"/>
+      <c r="ANR15" s="44"/>
+      <c r="ANS15" s="44"/>
+      <c r="ANT15" s="44"/>
+      <c r="ANU15" s="44"/>
+      <c r="ANV15" s="45"/>
+      <c r="ANW15" s="43"/>
+      <c r="ANX15" s="44"/>
+      <c r="ANY15" s="44"/>
+      <c r="ANZ15" s="44"/>
+      <c r="AOA15" s="44"/>
+      <c r="AOB15" s="44"/>
+      <c r="AOC15" s="44"/>
+      <c r="AOD15" s="44"/>
+      <c r="AOE15" s="44"/>
+      <c r="AOF15" s="44"/>
+      <c r="AOG15" s="44"/>
+      <c r="AOH15" s="44"/>
+      <c r="AOI15" s="44"/>
+      <c r="AOJ15" s="44"/>
+      <c r="AOK15" s="44"/>
+      <c r="AOL15" s="44"/>
+      <c r="AOM15" s="44"/>
+      <c r="AON15" s="44"/>
+      <c r="AOO15" s="44"/>
+      <c r="AOP15" s="45"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -11057,39 +11024,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="Q17" s="60" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="Q17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="68" t="s">
+      <c r="Z17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="70"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="37"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -11208,42 +11175,42 @@
       <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="63" t="s">
+      <c r="R18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="64"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="39"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="63" t="s">
+      <c r="AA18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="64"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="39"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -11362,42 +11329,42 @@
       <c r="D19" s="20">
         <v>0</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="48"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="47" t="s">
+      <c r="AA19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="48"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="34"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -11501,42 +11468,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="48"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="47" t="s">
+      <c r="AA20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="48"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="34"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -11642,42 +11609,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="47" t="s">
+      <c r="R21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="47" t="s">
+      <c r="AA21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="48"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="34"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -11783,40 +11750,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="17"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="47" t="s">
+      <c r="R22" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="48"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="34"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="47" t="s">
+      <c r="AA22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="48"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="34"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -11935,27 +11902,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="48"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="14">
         <v>5</v>
       </c>
-      <c r="AA23" s="66" t="s">
+      <c r="AA23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="67"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="41"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -12074,14 +12041,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="48"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -12203,14 +12170,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="47" t="s">
+      <c r="R25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="48"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -12332,14 +12299,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="47" t="s">
+      <c r="R26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="48"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="34"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -12461,14 +12428,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="47" t="s">
+      <c r="R27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="48"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -12577,14 +12544,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="47" t="s">
+      <c r="R28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="48"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="34"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -12693,14 +12660,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="47" t="s">
+      <c r="R29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="48"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -12809,14 +12776,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="47" t="s">
+      <c r="R30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="48"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="34"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -12925,14 +12892,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="47" t="s">
+      <c r="R31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="48"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -13041,14 +13008,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="47" t="s">
+      <c r="R32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="48"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -13154,14 +13121,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="47" t="s">
+      <c r="R33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="48"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -13267,14 +13234,14 @@
       <c r="Q34" s="14">
         <v>16</v>
       </c>
-      <c r="R34" s="66" t="s">
+      <c r="R34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="67"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="41"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -33693,36 +33660,66 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="65"/>
-      <c r="S1048576" s="65"/>
-      <c r="T1048576" s="65"/>
-      <c r="U1048576" s="65"/>
-      <c r="V1048576" s="65"/>
-      <c r="W1048576" s="65"/>
+      <c r="R1048576" s="42"/>
+      <c r="S1048576" s="42"/>
+      <c r="T1048576" s="42"/>
+      <c r="U1048576" s="42"/>
+      <c r="V1048576" s="42"/>
+      <c r="W1048576" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="ME15:MX15"/>
+    <mergeCell ref="E21:M22"/>
+    <mergeCell ref="DS15:EL15"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="AQ15:BJ15"/>
+    <mergeCell ref="BK15:CD15"/>
+    <mergeCell ref="CE15:CX15"/>
+    <mergeCell ref="CY15:DR15"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="II15:JB15"/>
+    <mergeCell ref="JC15:JV15"/>
+    <mergeCell ref="JW15:KP15"/>
+    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="ANW15:AOP15"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="AGE15:AGX15"/>
+    <mergeCell ref="AGY15:AHR15"/>
+    <mergeCell ref="AHS15:AIL15"/>
+    <mergeCell ref="AIM15:AJF15"/>
+    <mergeCell ref="AJG15:AJZ15"/>
+    <mergeCell ref="AKA15:AKT15"/>
+    <mergeCell ref="ABO15:ACH15"/>
+    <mergeCell ref="ACI15:ADB15"/>
+    <mergeCell ref="ADC15:ADV15"/>
+    <mergeCell ref="ADW15:AEP15"/>
+    <mergeCell ref="AEQ15:AFJ15"/>
+    <mergeCell ref="AFK15:AGD15"/>
+    <mergeCell ref="WY15:XR15"/>
+    <mergeCell ref="XS15:YL15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
     <mergeCell ref="WE15:WX15"/>
     <mergeCell ref="NS15:OL15"/>
     <mergeCell ref="Q17:W17"/>
@@ -33739,57 +33736,27 @@
     <mergeCell ref="QU15:RN15"/>
     <mergeCell ref="RO15:SH15"/>
     <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="ANW15:AOP15"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="AGE15:AGX15"/>
-    <mergeCell ref="AGY15:AHR15"/>
-    <mergeCell ref="AHS15:AIL15"/>
-    <mergeCell ref="AIM15:AJF15"/>
-    <mergeCell ref="AJG15:AJZ15"/>
-    <mergeCell ref="AKA15:AKT15"/>
-    <mergeCell ref="ABO15:ACH15"/>
-    <mergeCell ref="ACI15:ADB15"/>
-    <mergeCell ref="ADC15:ADV15"/>
-    <mergeCell ref="ADW15:AEP15"/>
-    <mergeCell ref="AEQ15:AFJ15"/>
-    <mergeCell ref="AFK15:AGD15"/>
-    <mergeCell ref="WY15:XR15"/>
-    <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="ME15:MX15"/>
-    <mergeCell ref="E21:M22"/>
-    <mergeCell ref="DS15:EL15"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="AQ15:BJ15"/>
-    <mergeCell ref="BK15:CD15"/>
-    <mergeCell ref="CE15:CX15"/>
-    <mergeCell ref="CY15:DR15"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="II15:JB15"/>
-    <mergeCell ref="JC15:JV15"/>
-    <mergeCell ref="JW15:KP15"/>
-    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="12915" windowHeight="6045"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="12915" windowHeight="6045" tabRatio="39"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1021,34 +1021,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1060,23 +1039,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1102,37 +1093,46 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1439,10 +1439,10 @@
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="RY2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="JT2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DW4" sqref="DW4"/>
+      <selection pane="bottomRight" activeCell="NT8" sqref="NT8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1455,31 +1455,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="C1" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="53"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="57" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
@@ -1648,7 +1648,7 @@
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="50"/>
+      <c r="B4" s="58"/>
       <c r="C4" s="18"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1793,8 +1793,12 @@
       <c r="EB4" s="3"/>
       <c r="EC4" s="3"/>
       <c r="ED4" s="3"/>
-      <c r="EE4" s="3"/>
-      <c r="EF4" s="3"/>
+      <c r="EE4" s="26">
+        <v>17</v>
+      </c>
+      <c r="EF4" s="26">
+        <v>17</v>
+      </c>
       <c r="EG4" s="3"/>
       <c r="EH4" s="3"/>
       <c r="EI4" s="3"/>
@@ -1845,7 +1849,7 @@
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="58"/>
       <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2037,6 +2041,12 @@
       <c r="FC5" s="3"/>
       <c r="FD5" s="3"/>
       <c r="FE5" s="3"/>
+      <c r="FX5" s="26">
+        <v>15</v>
+      </c>
+      <c r="FY5" s="26">
+        <v>15</v>
+      </c>
       <c r="HD5" s="26">
         <v>12</v>
       </c>
@@ -2071,12 +2081,18 @@
         <v>6</v>
       </c>
       <c r="OR5" s="26">
+        <v>6</v>
+      </c>
+      <c r="QB5" s="26">
+        <v>6</v>
+      </c>
+      <c r="QC5" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="58"/>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2222,38 +2238,90 @@
       <c r="DQ6" s="3"/>
       <c r="DR6" s="3"/>
       <c r="DS6" s="3"/>
-      <c r="DT6" s="3"/>
-      <c r="DU6" s="3"/>
-      <c r="DV6" s="3"/>
-      <c r="DW6" s="3"/>
-      <c r="DX6" s="3"/>
-      <c r="DY6" s="3"/>
-      <c r="DZ6" s="3"/>
-      <c r="EA6" s="3"/>
-      <c r="EB6" s="3"/>
-      <c r="EC6" s="3"/>
-      <c r="ED6" s="3"/>
-      <c r="EE6" s="26">
-        <v>17</v>
-      </c>
-      <c r="EF6" s="26">
-        <v>17</v>
-      </c>
-      <c r="EG6" s="3"/>
-      <c r="EH6" s="3"/>
-      <c r="EI6" s="3"/>
-      <c r="EJ6" s="3"/>
-      <c r="EK6" s="3"/>
-      <c r="EL6" s="3"/>
-      <c r="EM6" s="3"/>
-      <c r="EN6" s="3"/>
-      <c r="EO6" s="3"/>
-      <c r="EP6" s="3"/>
-      <c r="EQ6" s="3"/>
-      <c r="ER6" s="3"/>
-      <c r="ES6" s="3"/>
-      <c r="ET6" s="3"/>
-      <c r="EU6" s="3"/>
+      <c r="DT6" s="29">
+        <v>0</v>
+      </c>
+      <c r="DU6" s="29">
+        <v>0</v>
+      </c>
+      <c r="DV6" s="29">
+        <v>0</v>
+      </c>
+      <c r="DW6" s="29">
+        <v>0</v>
+      </c>
+      <c r="DX6" s="29">
+        <v>0</v>
+      </c>
+      <c r="DY6" s="29">
+        <v>0</v>
+      </c>
+      <c r="DZ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EA6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EB6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EC6" s="29">
+        <v>0</v>
+      </c>
+      <c r="ED6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EE6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EF6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EG6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EH6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EI6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EJ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EK6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EL6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EM6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EN6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EO6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EP6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EQ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="ER6" s="29">
+        <v>0</v>
+      </c>
+      <c r="ES6" s="29">
+        <v>0</v>
+      </c>
+      <c r="ET6" s="29">
+        <v>0</v>
+      </c>
+      <c r="EU6" s="29">
+        <v>0</v>
+      </c>
       <c r="EV6" s="3"/>
       <c r="EW6" s="3"/>
       <c r="EX6" s="3"/>
@@ -2264,6 +2332,12 @@
       <c r="FC6" s="3"/>
       <c r="FD6" s="3"/>
       <c r="FE6" s="3"/>
+      <c r="FX6" s="26">
+        <v>15</v>
+      </c>
+      <c r="FY6" s="26">
+        <v>15</v>
+      </c>
       <c r="GN6" s="29">
         <v>0</v>
       </c>
@@ -2312,16 +2386,16 @@
       <c r="NT6" s="26">
         <v>15</v>
       </c>
-      <c r="QA6" s="26">
+      <c r="QB6" s="26">
         <v>6</v>
       </c>
-      <c r="QB6" s="26">
+      <c r="QC6" s="26">
         <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="58"/>
       <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2483,90 +2557,6 @@
       <c r="DQ7" s="3"/>
       <c r="DR7" s="3"/>
       <c r="DS7" s="3"/>
-      <c r="DT7" s="29">
-        <v>0</v>
-      </c>
-      <c r="DU7" s="29">
-        <v>0</v>
-      </c>
-      <c r="DV7" s="29">
-        <v>0</v>
-      </c>
-      <c r="DW7" s="29">
-        <v>0</v>
-      </c>
-      <c r="DX7" s="29">
-        <v>0</v>
-      </c>
-      <c r="DY7" s="29">
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EA7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EB7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EC7" s="29">
-        <v>0</v>
-      </c>
-      <c r="ED7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EE7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EF7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EG7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EH7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EI7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EK7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EL7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EM7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EN7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EO7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EP7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EQ7" s="29">
-        <v>0</v>
-      </c>
-      <c r="ER7" s="29">
-        <v>0</v>
-      </c>
-      <c r="ES7" s="29">
-        <v>0</v>
-      </c>
-      <c r="ET7" s="29">
-        <v>0</v>
-      </c>
-      <c r="EU7" s="29">
-        <v>0</v>
-      </c>
       <c r="EV7" s="3"/>
       <c r="EW7" s="3"/>
       <c r="EX7" s="3"/>
@@ -2589,16 +2579,10 @@
       <c r="OK7" s="26">
         <v>6</v>
       </c>
-      <c r="QA7" s="26">
-        <v>6</v>
-      </c>
-      <c r="QB7" s="26">
-        <v>6</v>
-      </c>
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="58"/>
       <c r="C8" s="18"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2635,9 +2619,9 @@
       <c r="AJ8" s="3"/>
       <c r="AK8" s="3"/>
       <c r="AL8" s="3"/>
-      <c r="AM8" s="29"/>
-      <c r="AN8" s="29"/>
-      <c r="AO8" s="29"/>
+      <c r="AM8" s="3"/>
+      <c r="AN8" s="3"/>
+      <c r="AO8" s="3"/>
       <c r="AP8" s="3"/>
       <c r="AQ8" s="3"/>
       <c r="AR8" s="3"/>
@@ -2712,11 +2696,21 @@
       <c r="DI8" s="3"/>
       <c r="DJ8" s="3"/>
       <c r="DK8" s="3"/>
-      <c r="DL8" s="3"/>
-      <c r="DM8" s="3"/>
-      <c r="DN8" s="3"/>
-      <c r="DO8" s="3"/>
-      <c r="DP8" s="3"/>
+      <c r="DL8" s="29">
+        <v>0</v>
+      </c>
+      <c r="DM8" s="29">
+        <v>0</v>
+      </c>
+      <c r="DN8" s="29">
+        <v>0</v>
+      </c>
+      <c r="DO8" s="29">
+        <v>0</v>
+      </c>
+      <c r="DP8" s="29">
+        <v>0</v>
+      </c>
       <c r="DQ8" s="3"/>
       <c r="DR8" s="3"/>
       <c r="DS8" s="3"/>
@@ -2812,6 +2806,12 @@
       <c r="NB8" s="26">
         <v>6</v>
       </c>
+      <c r="NV8" s="26">
+        <v>16</v>
+      </c>
+      <c r="NW8" s="26">
+        <v>16</v>
+      </c>
       <c r="OA8" s="29">
         <v>0</v>
       </c>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="58"/>
       <c r="C9" s="18"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -2908,12 +2908,8 @@
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-      <c r="AI9" s="26">
-        <v>16</v>
-      </c>
-      <c r="AJ9" s="26">
-        <v>16</v>
-      </c>
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
       <c r="AK9" s="3"/>
       <c r="AL9" s="3"/>
       <c r="AM9" s="3"/>
@@ -2924,23 +2920,51 @@
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="3"/>
-      <c r="AV9" s="3"/>
-      <c r="AW9" s="3"/>
-      <c r="AX9" s="3"/>
-      <c r="AY9" s="3"/>
-      <c r="AZ9" s="3"/>
-      <c r="BA9" s="3"/>
+      <c r="AU9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="29">
+        <v>0</v>
+      </c>
       <c r="BB9" s="3"/>
       <c r="BC9" s="3"/>
       <c r="BD9" s="3"/>
-      <c r="BE9" s="3"/>
-      <c r="BF9" s="3"/>
-      <c r="BG9" s="3"/>
-      <c r="BH9" s="3"/>
-      <c r="BI9" s="3"/>
-      <c r="BJ9" s="3"/>
-      <c r="BK9" s="3"/>
+      <c r="BE9" s="29">
+        <v>0</v>
+      </c>
+      <c r="BF9" s="29">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="29">
+        <v>0</v>
+      </c>
+      <c r="BH9" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI9" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ9" s="29">
+        <v>0</v>
+      </c>
+      <c r="BK9" s="29">
+        <v>0</v>
+      </c>
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
@@ -2992,21 +3016,6 @@
       <c r="DH9" s="3"/>
       <c r="DI9" s="3"/>
       <c r="DJ9" s="3"/>
-      <c r="DK9" s="29">
-        <v>0</v>
-      </c>
-      <c r="DL9" s="29">
-        <v>0</v>
-      </c>
-      <c r="DM9" s="29">
-        <v>0</v>
-      </c>
-      <c r="DN9" s="29">
-        <v>0</v>
-      </c>
-      <c r="DO9" s="29">
-        <v>0</v>
-      </c>
       <c r="DP9" s="3"/>
       <c r="DQ9" s="3"/>
       <c r="DR9" s="3"/>
@@ -3070,12 +3079,6 @@
       <c r="FR9" s="29">
         <v>0</v>
       </c>
-      <c r="FX9" s="26">
-        <v>15</v>
-      </c>
-      <c r="FY9" s="26">
-        <v>15</v>
-      </c>
       <c r="FZ9" s="26">
         <v>16</v>
       </c>
@@ -3088,9 +3091,7 @@
       <c r="IW9" s="26">
         <v>15</v>
       </c>
-      <c r="JL9" s="29">
-        <v>0</v>
-      </c>
+      <c r="JL9" s="3"/>
       <c r="KA9" s="26">
         <v>12</v>
       </c>
@@ -3157,6 +3158,12 @@
       <c r="NB9" s="26">
         <v>6</v>
       </c>
+      <c r="NT9" s="29">
+        <v>0</v>
+      </c>
+      <c r="NU9" s="29">
+        <v>0</v>
+      </c>
       <c r="NV9" s="26">
         <v>16</v>
       </c>
@@ -3174,6 +3181,30 @@
       </c>
       <c r="PU9" s="26">
         <v>15</v>
+      </c>
+      <c r="PW9" s="29">
+        <v>0</v>
+      </c>
+      <c r="PX9" s="29">
+        <v>0</v>
+      </c>
+      <c r="PY9" s="29">
+        <v>0</v>
+      </c>
+      <c r="PZ9" s="29">
+        <v>0</v>
+      </c>
+      <c r="QA9" s="29">
+        <v>0</v>
+      </c>
+      <c r="QB9" s="29">
+        <v>0</v>
+      </c>
+      <c r="QC9" s="29">
+        <v>0</v>
+      </c>
+      <c r="QD9" s="29">
+        <v>0</v>
       </c>
       <c r="QT9" s="26">
         <v>15</v>
@@ -3190,7 +3221,7 @@
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="58"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3223,12 +3254,8 @@
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-      <c r="AI10" s="26">
-        <v>16</v>
-      </c>
-      <c r="AJ10" s="26">
-        <v>16</v>
-      </c>
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
       <c r="AK10" s="3"/>
       <c r="AL10" s="3"/>
       <c r="AM10" s="3"/>
@@ -3236,53 +3263,8 @@
       <c r="AO10" s="3"/>
       <c r="AP10" s="3"/>
       <c r="AQ10" s="3"/>
-      <c r="AR10" s="3"/>
-      <c r="AS10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AT10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AU10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AV10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY10" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ10" s="3"/>
-      <c r="BA10" s="3"/>
       <c r="BB10" s="3"/>
       <c r="BC10" s="3"/>
-      <c r="BD10" s="29">
-        <v>0</v>
-      </c>
-      <c r="BE10" s="29">
-        <v>0</v>
-      </c>
-      <c r="BF10" s="29">
-        <v>0</v>
-      </c>
-      <c r="BG10" s="29">
-        <v>0</v>
-      </c>
-      <c r="BH10" s="29">
-        <v>0</v>
-      </c>
-      <c r="BI10" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ10" s="29">
-        <v>0</v>
-      </c>
       <c r="BK10" s="3"/>
       <c r="BL10" s="3"/>
       <c r="BM10" s="3"/>
@@ -3385,18 +3367,15 @@
       <c r="FC10" s="3"/>
       <c r="FD10" s="3"/>
       <c r="FE10" s="3"/>
-      <c r="FX10" s="26">
-        <v>15</v>
-      </c>
-      <c r="FY10" s="26">
-        <v>15</v>
-      </c>
       <c r="FZ10" s="26">
         <v>16</v>
       </c>
       <c r="GA10" s="26">
         <v>16</v>
       </c>
+      <c r="GF10" s="3"/>
+      <c r="GG10" s="3"/>
+      <c r="GH10" s="3"/>
       <c r="JK10" s="29">
         <v>0</v>
       </c>
@@ -3439,38 +3418,11 @@
       <c r="LI10" s="29">
         <v>0</v>
       </c>
-      <c r="NT10" s="29">
-        <v>0</v>
-      </c>
-      <c r="NU10" s="29">
-        <v>0</v>
-      </c>
-      <c r="NV10" s="26">
-        <v>16</v>
-      </c>
-      <c r="NW10" s="26">
-        <v>16</v>
-      </c>
       <c r="PT10" s="26">
         <v>15</v>
       </c>
       <c r="PU10" s="26">
         <v>15</v>
-      </c>
-      <c r="PZ10" s="29">
-        <v>0</v>
-      </c>
-      <c r="QA10" s="29">
-        <v>0</v>
-      </c>
-      <c r="QB10" s="29">
-        <v>0</v>
-      </c>
-      <c r="QC10" s="29">
-        <v>0</v>
-      </c>
-      <c r="QD10" s="29">
-        <v>0</v>
       </c>
       <c r="QT10" s="26">
         <v>15</v>
@@ -3481,7 +3433,7 @@
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="58"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3687,12 +3639,9 @@
       <c r="FK11" s="29">
         <v>0</v>
       </c>
-      <c r="GG11" s="26">
-        <v>0</v>
-      </c>
-      <c r="GH11" s="26">
-        <v>0</v>
-      </c>
+      <c r="GF11" s="3"/>
+      <c r="GG11" s="3"/>
+      <c r="GH11" s="3"/>
       <c r="GR11" s="26">
         <v>1</v>
       </c>
@@ -3735,6 +3684,9 @@
       <c r="JL11" s="29">
         <v>0</v>
       </c>
+      <c r="JM11" s="29">
+        <v>0</v>
+      </c>
       <c r="LS11" s="26">
         <v>7</v>
       </c>
@@ -3768,9 +3720,7 @@
       <c r="PB11" s="26">
         <v>7</v>
       </c>
-      <c r="PY11" s="29">
-        <v>0</v>
-      </c>
+      <c r="PY11" s="3"/>
       <c r="QK11" s="26">
         <v>7</v>
       </c>
@@ -3788,7 +3738,7 @@
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="50"/>
+      <c r="B12" s="58"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -3843,7 +3793,9 @@
       <c r="AP12" s="29">
         <v>0</v>
       </c>
-      <c r="AQ12" s="29"/>
+      <c r="AQ12" s="29">
+        <v>0</v>
+      </c>
       <c r="AR12" s="3"/>
       <c r="AS12" s="3"/>
       <c r="AT12" s="3"/>
@@ -4038,12 +3990,9 @@
       <c r="FC12" s="3"/>
       <c r="FD12" s="3"/>
       <c r="FE12" s="3"/>
-      <c r="GG12" s="26">
-        <v>0</v>
-      </c>
-      <c r="GH12" s="26">
-        <v>0</v>
-      </c>
+      <c r="GF12" s="3"/>
+      <c r="GG12" s="3"/>
+      <c r="GH12" s="3"/>
       <c r="GR12" s="26">
         <v>1</v>
       </c>
@@ -4153,6 +4102,12 @@
         <v>0</v>
       </c>
       <c r="JL12" s="29">
+        <v>0</v>
+      </c>
+      <c r="JM12" s="29">
+        <v>0</v>
+      </c>
+      <c r="JN12" s="29">
         <v>0</v>
       </c>
       <c r="LH12" s="3"/>
@@ -4322,7 +4277,7 @@
     </row>
     <row r="13" spans="1:1082" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="59"/>
       <c r="C13" s="27">
         <v>0</v>
       </c>
@@ -4481,14 +4436,18 @@
       <c r="BD13" s="28">
         <v>0</v>
       </c>
-      <c r="BE13" s="8"/>
+      <c r="BE13" s="28">
+        <v>0</v>
+      </c>
       <c r="BF13" s="28">
         <v>0</v>
       </c>
       <c r="BG13" s="28">
         <v>0</v>
       </c>
-      <c r="BH13" s="8"/>
+      <c r="BH13" s="28">
+        <v>0</v>
+      </c>
       <c r="BI13" s="28">
         <v>0</v>
       </c>
@@ -8807,1138 +8766,1138 @@
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="43" t="s">
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="37"/>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="37"/>
+      <c r="S15" s="37"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="37"/>
+      <c r="V15" s="38"/>
+      <c r="W15" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="44" t="s">
+      <c r="X15" s="37"/>
+      <c r="Y15" s="37"/>
+      <c r="Z15" s="37"/>
+      <c r="AA15" s="37"/>
+      <c r="AB15" s="37"/>
+      <c r="AC15" s="37"/>
+      <c r="AD15" s="37"/>
+      <c r="AE15" s="37"/>
+      <c r="AF15" s="37"/>
+      <c r="AG15" s="37"/>
+      <c r="AH15" s="37"/>
+      <c r="AI15" s="37"/>
+      <c r="AJ15" s="37"/>
+      <c r="AK15" s="37"/>
+      <c r="AL15" s="37"/>
+      <c r="AM15" s="37"/>
+      <c r="AN15" s="37"/>
+      <c r="AO15" s="37"/>
+      <c r="AP15" s="38"/>
+      <c r="AQ15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="45"/>
-      <c r="BK15" s="43" t="s">
+      <c r="AR15" s="37"/>
+      <c r="AS15" s="37"/>
+      <c r="AT15" s="37"/>
+      <c r="AU15" s="37"/>
+      <c r="AV15" s="37"/>
+      <c r="AW15" s="37"/>
+      <c r="AX15" s="37"/>
+      <c r="AY15" s="37"/>
+      <c r="AZ15" s="37"/>
+      <c r="BA15" s="37"/>
+      <c r="BB15" s="37"/>
+      <c r="BC15" s="37"/>
+      <c r="BD15" s="37"/>
+      <c r="BE15" s="37"/>
+      <c r="BF15" s="37"/>
+      <c r="BG15" s="37"/>
+      <c r="BH15" s="37"/>
+      <c r="BI15" s="37"/>
+      <c r="BJ15" s="38"/>
+      <c r="BK15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="BL15" s="44"/>
-      <c r="BM15" s="44"/>
-      <c r="BN15" s="44"/>
-      <c r="BO15" s="44"/>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44"/>
-      <c r="BR15" s="44"/>
-      <c r="BS15" s="44"/>
-      <c r="BT15" s="44"/>
-      <c r="BU15" s="44"/>
-      <c r="BV15" s="44"/>
-      <c r="BW15" s="44"/>
-      <c r="BX15" s="44"/>
-      <c r="BY15" s="44"/>
-      <c r="BZ15" s="44"/>
-      <c r="CA15" s="44"/>
-      <c r="CB15" s="44"/>
-      <c r="CC15" s="44"/>
-      <c r="CD15" s="45"/>
-      <c r="CE15" s="44" t="s">
+      <c r="BL15" s="37"/>
+      <c r="BM15" s="37"/>
+      <c r="BN15" s="37"/>
+      <c r="BO15" s="37"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
+      <c r="BR15" s="37"/>
+      <c r="BS15" s="37"/>
+      <c r="BT15" s="37"/>
+      <c r="BU15" s="37"/>
+      <c r="BV15" s="37"/>
+      <c r="BW15" s="37"/>
+      <c r="BX15" s="37"/>
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="37"/>
+      <c r="CA15" s="37"/>
+      <c r="CB15" s="37"/>
+      <c r="CC15" s="37"/>
+      <c r="CD15" s="38"/>
+      <c r="CE15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="CF15" s="44"/>
-      <c r="CG15" s="44"/>
-      <c r="CH15" s="44"/>
-      <c r="CI15" s="44"/>
-      <c r="CJ15" s="44"/>
-      <c r="CK15" s="44"/>
-      <c r="CL15" s="44"/>
-      <c r="CM15" s="44"/>
-      <c r="CN15" s="44"/>
-      <c r="CO15" s="44"/>
-      <c r="CP15" s="44"/>
-      <c r="CQ15" s="44"/>
-      <c r="CR15" s="44"/>
-      <c r="CS15" s="44"/>
-      <c r="CT15" s="44"/>
-      <c r="CU15" s="44"/>
-      <c r="CV15" s="44"/>
-      <c r="CW15" s="44"/>
-      <c r="CX15" s="45"/>
-      <c r="CY15" s="43" t="s">
+      <c r="CF15" s="37"/>
+      <c r="CG15" s="37"/>
+      <c r="CH15" s="37"/>
+      <c r="CI15" s="37"/>
+      <c r="CJ15" s="37"/>
+      <c r="CK15" s="37"/>
+      <c r="CL15" s="37"/>
+      <c r="CM15" s="37"/>
+      <c r="CN15" s="37"/>
+      <c r="CO15" s="37"/>
+      <c r="CP15" s="37"/>
+      <c r="CQ15" s="37"/>
+      <c r="CR15" s="37"/>
+      <c r="CS15" s="37"/>
+      <c r="CT15" s="37"/>
+      <c r="CU15" s="37"/>
+      <c r="CV15" s="37"/>
+      <c r="CW15" s="37"/>
+      <c r="CX15" s="38"/>
+      <c r="CY15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="CZ15" s="44"/>
-      <c r="DA15" s="44"/>
-      <c r="DB15" s="44"/>
-      <c r="DC15" s="44"/>
-      <c r="DD15" s="44"/>
-      <c r="DE15" s="44"/>
-      <c r="DF15" s="44"/>
-      <c r="DG15" s="44"/>
-      <c r="DH15" s="44"/>
-      <c r="DI15" s="44"/>
-      <c r="DJ15" s="44"/>
-      <c r="DK15" s="44"/>
-      <c r="DL15" s="44"/>
-      <c r="DM15" s="44"/>
-      <c r="DN15" s="44"/>
-      <c r="DO15" s="44"/>
-      <c r="DP15" s="44"/>
-      <c r="DQ15" s="44"/>
-      <c r="DR15" s="45"/>
-      <c r="DS15" s="44" t="s">
+      <c r="CZ15" s="37"/>
+      <c r="DA15" s="37"/>
+      <c r="DB15" s="37"/>
+      <c r="DC15" s="37"/>
+      <c r="DD15" s="37"/>
+      <c r="DE15" s="37"/>
+      <c r="DF15" s="37"/>
+      <c r="DG15" s="37"/>
+      <c r="DH15" s="37"/>
+      <c r="DI15" s="37"/>
+      <c r="DJ15" s="37"/>
+      <c r="DK15" s="37"/>
+      <c r="DL15" s="37"/>
+      <c r="DM15" s="37"/>
+      <c r="DN15" s="37"/>
+      <c r="DO15" s="37"/>
+      <c r="DP15" s="37"/>
+      <c r="DQ15" s="37"/>
+      <c r="DR15" s="38"/>
+      <c r="DS15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="DT15" s="44"/>
-      <c r="DU15" s="44"/>
-      <c r="DV15" s="44"/>
-      <c r="DW15" s="44"/>
-      <c r="DX15" s="44"/>
-      <c r="DY15" s="44"/>
-      <c r="DZ15" s="44"/>
-      <c r="EA15" s="44"/>
-      <c r="EB15" s="44"/>
-      <c r="EC15" s="44"/>
-      <c r="ED15" s="44"/>
-      <c r="EE15" s="44"/>
-      <c r="EF15" s="44"/>
-      <c r="EG15" s="44"/>
-      <c r="EH15" s="44"/>
-      <c r="EI15" s="44"/>
-      <c r="EJ15" s="44"/>
-      <c r="EK15" s="44"/>
-      <c r="EL15" s="45"/>
-      <c r="EM15" s="43" t="s">
+      <c r="DT15" s="37"/>
+      <c r="DU15" s="37"/>
+      <c r="DV15" s="37"/>
+      <c r="DW15" s="37"/>
+      <c r="DX15" s="37"/>
+      <c r="DY15" s="37"/>
+      <c r="DZ15" s="37"/>
+      <c r="EA15" s="37"/>
+      <c r="EB15" s="37"/>
+      <c r="EC15" s="37"/>
+      <c r="ED15" s="37"/>
+      <c r="EE15" s="37"/>
+      <c r="EF15" s="37"/>
+      <c r="EG15" s="37"/>
+      <c r="EH15" s="37"/>
+      <c r="EI15" s="37"/>
+      <c r="EJ15" s="37"/>
+      <c r="EK15" s="37"/>
+      <c r="EL15" s="38"/>
+      <c r="EM15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="EN15" s="44"/>
-      <c r="EO15" s="44"/>
-      <c r="EP15" s="44"/>
-      <c r="EQ15" s="44"/>
-      <c r="ER15" s="44"/>
-      <c r="ES15" s="44"/>
-      <c r="ET15" s="44"/>
-      <c r="EU15" s="44"/>
-      <c r="EV15" s="44"/>
-      <c r="EW15" s="44"/>
-      <c r="EX15" s="44"/>
-      <c r="EY15" s="44"/>
-      <c r="EZ15" s="44"/>
-      <c r="FA15" s="44"/>
-      <c r="FB15" s="44"/>
-      <c r="FC15" s="44"/>
-      <c r="FD15" s="44"/>
-      <c r="FE15" s="44"/>
-      <c r="FF15" s="45"/>
-      <c r="FG15" s="44" t="s">
+      <c r="EN15" s="37"/>
+      <c r="EO15" s="37"/>
+      <c r="EP15" s="37"/>
+      <c r="EQ15" s="37"/>
+      <c r="ER15" s="37"/>
+      <c r="ES15" s="37"/>
+      <c r="ET15" s="37"/>
+      <c r="EU15" s="37"/>
+      <c r="EV15" s="37"/>
+      <c r="EW15" s="37"/>
+      <c r="EX15" s="37"/>
+      <c r="EY15" s="37"/>
+      <c r="EZ15" s="37"/>
+      <c r="FA15" s="37"/>
+      <c r="FB15" s="37"/>
+      <c r="FC15" s="37"/>
+      <c r="FD15" s="37"/>
+      <c r="FE15" s="37"/>
+      <c r="FF15" s="38"/>
+      <c r="FG15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="FH15" s="44"/>
-      <c r="FI15" s="44"/>
-      <c r="FJ15" s="44"/>
-      <c r="FK15" s="44"/>
-      <c r="FL15" s="44"/>
-      <c r="FM15" s="44"/>
-      <c r="FN15" s="44"/>
-      <c r="FO15" s="44"/>
-      <c r="FP15" s="44"/>
-      <c r="FQ15" s="44"/>
-      <c r="FR15" s="44"/>
-      <c r="FS15" s="44"/>
-      <c r="FT15" s="44"/>
-      <c r="FU15" s="44"/>
-      <c r="FV15" s="44"/>
-      <c r="FW15" s="44"/>
-      <c r="FX15" s="44"/>
-      <c r="FY15" s="44"/>
-      <c r="FZ15" s="45"/>
-      <c r="GA15" s="43" t="s">
+      <c r="FH15" s="37"/>
+      <c r="FI15" s="37"/>
+      <c r="FJ15" s="37"/>
+      <c r="FK15" s="37"/>
+      <c r="FL15" s="37"/>
+      <c r="FM15" s="37"/>
+      <c r="FN15" s="37"/>
+      <c r="FO15" s="37"/>
+      <c r="FP15" s="37"/>
+      <c r="FQ15" s="37"/>
+      <c r="FR15" s="37"/>
+      <c r="FS15" s="37"/>
+      <c r="FT15" s="37"/>
+      <c r="FU15" s="37"/>
+      <c r="FV15" s="37"/>
+      <c r="FW15" s="37"/>
+      <c r="FX15" s="37"/>
+      <c r="FY15" s="37"/>
+      <c r="FZ15" s="38"/>
+      <c r="GA15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="GB15" s="44"/>
-      <c r="GC15" s="44"/>
-      <c r="GD15" s="44"/>
-      <c r="GE15" s="44"/>
-      <c r="GF15" s="44"/>
-      <c r="GG15" s="44"/>
-      <c r="GH15" s="44"/>
-      <c r="GI15" s="44"/>
-      <c r="GJ15" s="44"/>
-      <c r="GK15" s="44"/>
-      <c r="GL15" s="44"/>
-      <c r="GM15" s="44"/>
-      <c r="GN15" s="44"/>
-      <c r="GO15" s="44"/>
-      <c r="GP15" s="44"/>
-      <c r="GQ15" s="44"/>
-      <c r="GR15" s="44"/>
-      <c r="GS15" s="44"/>
-      <c r="GT15" s="45"/>
-      <c r="GU15" s="44" t="s">
+      <c r="GB15" s="37"/>
+      <c r="GC15" s="37"/>
+      <c r="GD15" s="37"/>
+      <c r="GE15" s="37"/>
+      <c r="GF15" s="37"/>
+      <c r="GG15" s="37"/>
+      <c r="GH15" s="37"/>
+      <c r="GI15" s="37"/>
+      <c r="GJ15" s="37"/>
+      <c r="GK15" s="37"/>
+      <c r="GL15" s="37"/>
+      <c r="GM15" s="37"/>
+      <c r="GN15" s="37"/>
+      <c r="GO15" s="37"/>
+      <c r="GP15" s="37"/>
+      <c r="GQ15" s="37"/>
+      <c r="GR15" s="37"/>
+      <c r="GS15" s="37"/>
+      <c r="GT15" s="38"/>
+      <c r="GU15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="GV15" s="44"/>
-      <c r="GW15" s="44"/>
-      <c r="GX15" s="44"/>
-      <c r="GY15" s="44"/>
-      <c r="GZ15" s="44"/>
-      <c r="HA15" s="44"/>
-      <c r="HB15" s="44"/>
-      <c r="HC15" s="44"/>
-      <c r="HD15" s="44"/>
-      <c r="HE15" s="44"/>
-      <c r="HF15" s="44"/>
-      <c r="HG15" s="44"/>
-      <c r="HH15" s="44"/>
-      <c r="HI15" s="44"/>
-      <c r="HJ15" s="44"/>
-      <c r="HK15" s="44"/>
-      <c r="HL15" s="44"/>
-      <c r="HM15" s="44"/>
-      <c r="HN15" s="45"/>
-      <c r="HO15" s="43" t="s">
+      <c r="GV15" s="37"/>
+      <c r="GW15" s="37"/>
+      <c r="GX15" s="37"/>
+      <c r="GY15" s="37"/>
+      <c r="GZ15" s="37"/>
+      <c r="HA15" s="37"/>
+      <c r="HB15" s="37"/>
+      <c r="HC15" s="37"/>
+      <c r="HD15" s="37"/>
+      <c r="HE15" s="37"/>
+      <c r="HF15" s="37"/>
+      <c r="HG15" s="37"/>
+      <c r="HH15" s="37"/>
+      <c r="HI15" s="37"/>
+      <c r="HJ15" s="37"/>
+      <c r="HK15" s="37"/>
+      <c r="HL15" s="37"/>
+      <c r="HM15" s="37"/>
+      <c r="HN15" s="38"/>
+      <c r="HO15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="HP15" s="44"/>
-      <c r="HQ15" s="44"/>
-      <c r="HR15" s="44"/>
-      <c r="HS15" s="44"/>
-      <c r="HT15" s="44"/>
-      <c r="HU15" s="44"/>
-      <c r="HV15" s="44"/>
-      <c r="HW15" s="44"/>
-      <c r="HX15" s="44"/>
-      <c r="HY15" s="44"/>
-      <c r="HZ15" s="44"/>
-      <c r="IA15" s="44"/>
-      <c r="IB15" s="44"/>
-      <c r="IC15" s="44"/>
-      <c r="ID15" s="44"/>
-      <c r="IE15" s="44"/>
-      <c r="IF15" s="44"/>
-      <c r="IG15" s="44"/>
-      <c r="IH15" s="45"/>
-      <c r="II15" s="44" t="s">
+      <c r="HP15" s="37"/>
+      <c r="HQ15" s="37"/>
+      <c r="HR15" s="37"/>
+      <c r="HS15" s="37"/>
+      <c r="HT15" s="37"/>
+      <c r="HU15" s="37"/>
+      <c r="HV15" s="37"/>
+      <c r="HW15" s="37"/>
+      <c r="HX15" s="37"/>
+      <c r="HY15" s="37"/>
+      <c r="HZ15" s="37"/>
+      <c r="IA15" s="37"/>
+      <c r="IB15" s="37"/>
+      <c r="IC15" s="37"/>
+      <c r="ID15" s="37"/>
+      <c r="IE15" s="37"/>
+      <c r="IF15" s="37"/>
+      <c r="IG15" s="37"/>
+      <c r="IH15" s="38"/>
+      <c r="II15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="IJ15" s="44"/>
-      <c r="IK15" s="44"/>
-      <c r="IL15" s="44"/>
-      <c r="IM15" s="44"/>
-      <c r="IN15" s="44"/>
-      <c r="IO15" s="44"/>
-      <c r="IP15" s="44"/>
-      <c r="IQ15" s="44"/>
-      <c r="IR15" s="44"/>
-      <c r="IS15" s="44"/>
-      <c r="IT15" s="44"/>
-      <c r="IU15" s="44"/>
-      <c r="IV15" s="44"/>
-      <c r="IW15" s="44"/>
-      <c r="IX15" s="44"/>
-      <c r="IY15" s="44"/>
-      <c r="IZ15" s="44"/>
-      <c r="JA15" s="44"/>
-      <c r="JB15" s="45"/>
-      <c r="JC15" s="43" t="s">
+      <c r="IJ15" s="37"/>
+      <c r="IK15" s="37"/>
+      <c r="IL15" s="37"/>
+      <c r="IM15" s="37"/>
+      <c r="IN15" s="37"/>
+      <c r="IO15" s="37"/>
+      <c r="IP15" s="37"/>
+      <c r="IQ15" s="37"/>
+      <c r="IR15" s="37"/>
+      <c r="IS15" s="37"/>
+      <c r="IT15" s="37"/>
+      <c r="IU15" s="37"/>
+      <c r="IV15" s="37"/>
+      <c r="IW15" s="37"/>
+      <c r="IX15" s="37"/>
+      <c r="IY15" s="37"/>
+      <c r="IZ15" s="37"/>
+      <c r="JA15" s="37"/>
+      <c r="JB15" s="38"/>
+      <c r="JC15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="JD15" s="44"/>
-      <c r="JE15" s="44"/>
-      <c r="JF15" s="44"/>
-      <c r="JG15" s="44"/>
-      <c r="JH15" s="44"/>
-      <c r="JI15" s="44"/>
-      <c r="JJ15" s="44"/>
-      <c r="JK15" s="44"/>
-      <c r="JL15" s="44"/>
-      <c r="JM15" s="44"/>
-      <c r="JN15" s="44"/>
-      <c r="JO15" s="44"/>
-      <c r="JP15" s="44"/>
-      <c r="JQ15" s="44"/>
-      <c r="JR15" s="44"/>
-      <c r="JS15" s="44"/>
-      <c r="JT15" s="44"/>
-      <c r="JU15" s="44"/>
-      <c r="JV15" s="45"/>
-      <c r="JW15" s="44" t="s">
+      <c r="JD15" s="37"/>
+      <c r="JE15" s="37"/>
+      <c r="JF15" s="37"/>
+      <c r="JG15" s="37"/>
+      <c r="JH15" s="37"/>
+      <c r="JI15" s="37"/>
+      <c r="JJ15" s="37"/>
+      <c r="JK15" s="37"/>
+      <c r="JL15" s="37"/>
+      <c r="JM15" s="37"/>
+      <c r="JN15" s="37"/>
+      <c r="JO15" s="37"/>
+      <c r="JP15" s="37"/>
+      <c r="JQ15" s="37"/>
+      <c r="JR15" s="37"/>
+      <c r="JS15" s="37"/>
+      <c r="JT15" s="37"/>
+      <c r="JU15" s="37"/>
+      <c r="JV15" s="38"/>
+      <c r="JW15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="JX15" s="44"/>
-      <c r="JY15" s="44"/>
-      <c r="JZ15" s="44"/>
-      <c r="KA15" s="44"/>
-      <c r="KB15" s="44"/>
-      <c r="KC15" s="44"/>
-      <c r="KD15" s="44"/>
-      <c r="KE15" s="44"/>
-      <c r="KF15" s="44"/>
-      <c r="KG15" s="44"/>
-      <c r="KH15" s="44"/>
-      <c r="KI15" s="44"/>
-      <c r="KJ15" s="44"/>
-      <c r="KK15" s="44"/>
-      <c r="KL15" s="44"/>
-      <c r="KM15" s="44"/>
-      <c r="KN15" s="44"/>
-      <c r="KO15" s="44"/>
-      <c r="KP15" s="45"/>
-      <c r="KQ15" s="43" t="s">
+      <c r="JX15" s="37"/>
+      <c r="JY15" s="37"/>
+      <c r="JZ15" s="37"/>
+      <c r="KA15" s="37"/>
+      <c r="KB15" s="37"/>
+      <c r="KC15" s="37"/>
+      <c r="KD15" s="37"/>
+      <c r="KE15" s="37"/>
+      <c r="KF15" s="37"/>
+      <c r="KG15" s="37"/>
+      <c r="KH15" s="37"/>
+      <c r="KI15" s="37"/>
+      <c r="KJ15" s="37"/>
+      <c r="KK15" s="37"/>
+      <c r="KL15" s="37"/>
+      <c r="KM15" s="37"/>
+      <c r="KN15" s="37"/>
+      <c r="KO15" s="37"/>
+      <c r="KP15" s="38"/>
+      <c r="KQ15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="KR15" s="44"/>
-      <c r="KS15" s="44"/>
-      <c r="KT15" s="44"/>
-      <c r="KU15" s="44"/>
-      <c r="KV15" s="44"/>
-      <c r="KW15" s="44"/>
-      <c r="KX15" s="44"/>
-      <c r="KY15" s="44"/>
-      <c r="KZ15" s="44"/>
-      <c r="LA15" s="44"/>
-      <c r="LB15" s="44"/>
-      <c r="LC15" s="44"/>
-      <c r="LD15" s="44"/>
-      <c r="LE15" s="44"/>
-      <c r="LF15" s="44"/>
-      <c r="LG15" s="44"/>
-      <c r="LH15" s="44"/>
-      <c r="LI15" s="44"/>
-      <c r="LJ15" s="45"/>
-      <c r="LK15" s="44" t="s">
+      <c r="KR15" s="37"/>
+      <c r="KS15" s="37"/>
+      <c r="KT15" s="37"/>
+      <c r="KU15" s="37"/>
+      <c r="KV15" s="37"/>
+      <c r="KW15" s="37"/>
+      <c r="KX15" s="37"/>
+      <c r="KY15" s="37"/>
+      <c r="KZ15" s="37"/>
+      <c r="LA15" s="37"/>
+      <c r="LB15" s="37"/>
+      <c r="LC15" s="37"/>
+      <c r="LD15" s="37"/>
+      <c r="LE15" s="37"/>
+      <c r="LF15" s="37"/>
+      <c r="LG15" s="37"/>
+      <c r="LH15" s="37"/>
+      <c r="LI15" s="37"/>
+      <c r="LJ15" s="38"/>
+      <c r="LK15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="LL15" s="44"/>
-      <c r="LM15" s="44"/>
-      <c r="LN15" s="44"/>
-      <c r="LO15" s="44"/>
-      <c r="LP15" s="44"/>
-      <c r="LQ15" s="44"/>
-      <c r="LR15" s="44"/>
-      <c r="LS15" s="44"/>
-      <c r="LT15" s="44"/>
-      <c r="LU15" s="44"/>
-      <c r="LV15" s="44"/>
-      <c r="LW15" s="44"/>
-      <c r="LX15" s="44"/>
-      <c r="LY15" s="44"/>
-      <c r="LZ15" s="44"/>
-      <c r="MA15" s="44"/>
-      <c r="MB15" s="44"/>
-      <c r="MC15" s="44"/>
-      <c r="MD15" s="45"/>
-      <c r="ME15" s="43" t="s">
+      <c r="LL15" s="37"/>
+      <c r="LM15" s="37"/>
+      <c r="LN15" s="37"/>
+      <c r="LO15" s="37"/>
+      <c r="LP15" s="37"/>
+      <c r="LQ15" s="37"/>
+      <c r="LR15" s="37"/>
+      <c r="LS15" s="37"/>
+      <c r="LT15" s="37"/>
+      <c r="LU15" s="37"/>
+      <c r="LV15" s="37"/>
+      <c r="LW15" s="37"/>
+      <c r="LX15" s="37"/>
+      <c r="LY15" s="37"/>
+      <c r="LZ15" s="37"/>
+      <c r="MA15" s="37"/>
+      <c r="MB15" s="37"/>
+      <c r="MC15" s="37"/>
+      <c r="MD15" s="38"/>
+      <c r="ME15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="MF15" s="44"/>
-      <c r="MG15" s="44"/>
-      <c r="MH15" s="44"/>
-      <c r="MI15" s="44"/>
-      <c r="MJ15" s="44"/>
-      <c r="MK15" s="44"/>
-      <c r="ML15" s="44"/>
-      <c r="MM15" s="44"/>
-      <c r="MN15" s="44"/>
-      <c r="MO15" s="44"/>
-      <c r="MP15" s="44"/>
-      <c r="MQ15" s="44"/>
-      <c r="MR15" s="44"/>
-      <c r="MS15" s="44"/>
-      <c r="MT15" s="44"/>
-      <c r="MU15" s="44"/>
-      <c r="MV15" s="44"/>
-      <c r="MW15" s="44"/>
-      <c r="MX15" s="45"/>
-      <c r="MY15" s="44" t="s">
+      <c r="MF15" s="37"/>
+      <c r="MG15" s="37"/>
+      <c r="MH15" s="37"/>
+      <c r="MI15" s="37"/>
+      <c r="MJ15" s="37"/>
+      <c r="MK15" s="37"/>
+      <c r="ML15" s="37"/>
+      <c r="MM15" s="37"/>
+      <c r="MN15" s="37"/>
+      <c r="MO15" s="37"/>
+      <c r="MP15" s="37"/>
+      <c r="MQ15" s="37"/>
+      <c r="MR15" s="37"/>
+      <c r="MS15" s="37"/>
+      <c r="MT15" s="37"/>
+      <c r="MU15" s="37"/>
+      <c r="MV15" s="37"/>
+      <c r="MW15" s="37"/>
+      <c r="MX15" s="38"/>
+      <c r="MY15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="MZ15" s="44"/>
-      <c r="NA15" s="44"/>
-      <c r="NB15" s="44"/>
-      <c r="NC15" s="44"/>
-      <c r="ND15" s="44"/>
-      <c r="NE15" s="44"/>
-      <c r="NF15" s="44"/>
-      <c r="NG15" s="44"/>
-      <c r="NH15" s="44"/>
-      <c r="NI15" s="44"/>
-      <c r="NJ15" s="44"/>
-      <c r="NK15" s="44"/>
-      <c r="NL15" s="44"/>
-      <c r="NM15" s="44"/>
-      <c r="NN15" s="44"/>
-      <c r="NO15" s="44"/>
-      <c r="NP15" s="44"/>
-      <c r="NQ15" s="44"/>
-      <c r="NR15" s="45"/>
-      <c r="NS15" s="43" t="s">
+      <c r="MZ15" s="37"/>
+      <c r="NA15" s="37"/>
+      <c r="NB15" s="37"/>
+      <c r="NC15" s="37"/>
+      <c r="ND15" s="37"/>
+      <c r="NE15" s="37"/>
+      <c r="NF15" s="37"/>
+      <c r="NG15" s="37"/>
+      <c r="NH15" s="37"/>
+      <c r="NI15" s="37"/>
+      <c r="NJ15" s="37"/>
+      <c r="NK15" s="37"/>
+      <c r="NL15" s="37"/>
+      <c r="NM15" s="37"/>
+      <c r="NN15" s="37"/>
+      <c r="NO15" s="37"/>
+      <c r="NP15" s="37"/>
+      <c r="NQ15" s="37"/>
+      <c r="NR15" s="38"/>
+      <c r="NS15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="NT15" s="44"/>
-      <c r="NU15" s="44"/>
-      <c r="NV15" s="44"/>
-      <c r="NW15" s="44"/>
-      <c r="NX15" s="44"/>
-      <c r="NY15" s="44"/>
-      <c r="NZ15" s="44"/>
-      <c r="OA15" s="44"/>
-      <c r="OB15" s="44"/>
-      <c r="OC15" s="44"/>
-      <c r="OD15" s="44"/>
-      <c r="OE15" s="44"/>
-      <c r="OF15" s="44"/>
-      <c r="OG15" s="44"/>
-      <c r="OH15" s="44"/>
-      <c r="OI15" s="44"/>
-      <c r="OJ15" s="44"/>
-      <c r="OK15" s="44"/>
-      <c r="OL15" s="45"/>
-      <c r="OM15" s="44" t="s">
+      <c r="NT15" s="37"/>
+      <c r="NU15" s="37"/>
+      <c r="NV15" s="37"/>
+      <c r="NW15" s="37"/>
+      <c r="NX15" s="37"/>
+      <c r="NY15" s="37"/>
+      <c r="NZ15" s="37"/>
+      <c r="OA15" s="37"/>
+      <c r="OB15" s="37"/>
+      <c r="OC15" s="37"/>
+      <c r="OD15" s="37"/>
+      <c r="OE15" s="37"/>
+      <c r="OF15" s="37"/>
+      <c r="OG15" s="37"/>
+      <c r="OH15" s="37"/>
+      <c r="OI15" s="37"/>
+      <c r="OJ15" s="37"/>
+      <c r="OK15" s="37"/>
+      <c r="OL15" s="38"/>
+      <c r="OM15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="ON15" s="44"/>
-      <c r="OO15" s="44"/>
-      <c r="OP15" s="44"/>
-      <c r="OQ15" s="44"/>
-      <c r="OR15" s="44"/>
-      <c r="OS15" s="44"/>
-      <c r="OT15" s="44"/>
-      <c r="OU15" s="44"/>
-      <c r="OV15" s="44"/>
-      <c r="OW15" s="44"/>
-      <c r="OX15" s="44"/>
-      <c r="OY15" s="44"/>
-      <c r="OZ15" s="44"/>
-      <c r="PA15" s="44"/>
-      <c r="PB15" s="44"/>
-      <c r="PC15" s="44"/>
-      <c r="PD15" s="44"/>
-      <c r="PE15" s="44"/>
-      <c r="PF15" s="45"/>
-      <c r="PG15" s="43" t="s">
+      <c r="ON15" s="37"/>
+      <c r="OO15" s="37"/>
+      <c r="OP15" s="37"/>
+      <c r="OQ15" s="37"/>
+      <c r="OR15" s="37"/>
+      <c r="OS15" s="37"/>
+      <c r="OT15" s="37"/>
+      <c r="OU15" s="37"/>
+      <c r="OV15" s="37"/>
+      <c r="OW15" s="37"/>
+      <c r="OX15" s="37"/>
+      <c r="OY15" s="37"/>
+      <c r="OZ15" s="37"/>
+      <c r="PA15" s="37"/>
+      <c r="PB15" s="37"/>
+      <c r="PC15" s="37"/>
+      <c r="PD15" s="37"/>
+      <c r="PE15" s="37"/>
+      <c r="PF15" s="38"/>
+      <c r="PG15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="PH15" s="44"/>
-      <c r="PI15" s="44"/>
-      <c r="PJ15" s="44"/>
-      <c r="PK15" s="44"/>
-      <c r="PL15" s="44"/>
-      <c r="PM15" s="44"/>
-      <c r="PN15" s="44"/>
-      <c r="PO15" s="44"/>
-      <c r="PP15" s="44"/>
-      <c r="PQ15" s="44"/>
-      <c r="PR15" s="44"/>
-      <c r="PS15" s="44"/>
-      <c r="PT15" s="44"/>
-      <c r="PU15" s="44"/>
-      <c r="PV15" s="44"/>
-      <c r="PW15" s="44"/>
-      <c r="PX15" s="44"/>
-      <c r="PY15" s="44"/>
-      <c r="PZ15" s="45"/>
-      <c r="QA15" s="44" t="s">
+      <c r="PH15" s="37"/>
+      <c r="PI15" s="37"/>
+      <c r="PJ15" s="37"/>
+      <c r="PK15" s="37"/>
+      <c r="PL15" s="37"/>
+      <c r="PM15" s="37"/>
+      <c r="PN15" s="37"/>
+      <c r="PO15" s="37"/>
+      <c r="PP15" s="37"/>
+      <c r="PQ15" s="37"/>
+      <c r="PR15" s="37"/>
+      <c r="PS15" s="37"/>
+      <c r="PT15" s="37"/>
+      <c r="PU15" s="37"/>
+      <c r="PV15" s="37"/>
+      <c r="PW15" s="37"/>
+      <c r="PX15" s="37"/>
+      <c r="PY15" s="37"/>
+      <c r="PZ15" s="38"/>
+      <c r="QA15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="QB15" s="44"/>
-      <c r="QC15" s="44"/>
-      <c r="QD15" s="44"/>
-      <c r="QE15" s="44"/>
-      <c r="QF15" s="44"/>
-      <c r="QG15" s="44"/>
-      <c r="QH15" s="44"/>
-      <c r="QI15" s="44"/>
-      <c r="QJ15" s="44"/>
-      <c r="QK15" s="44"/>
-      <c r="QL15" s="44"/>
-      <c r="QM15" s="44"/>
-      <c r="QN15" s="44"/>
-      <c r="QO15" s="44"/>
-      <c r="QP15" s="44"/>
-      <c r="QQ15" s="44"/>
-      <c r="QR15" s="44"/>
-      <c r="QS15" s="44"/>
-      <c r="QT15" s="45"/>
-      <c r="QU15" s="43" t="s">
+      <c r="QB15" s="37"/>
+      <c r="QC15" s="37"/>
+      <c r="QD15" s="37"/>
+      <c r="QE15" s="37"/>
+      <c r="QF15" s="37"/>
+      <c r="QG15" s="37"/>
+      <c r="QH15" s="37"/>
+      <c r="QI15" s="37"/>
+      <c r="QJ15" s="37"/>
+      <c r="QK15" s="37"/>
+      <c r="QL15" s="37"/>
+      <c r="QM15" s="37"/>
+      <c r="QN15" s="37"/>
+      <c r="QO15" s="37"/>
+      <c r="QP15" s="37"/>
+      <c r="QQ15" s="37"/>
+      <c r="QR15" s="37"/>
+      <c r="QS15" s="37"/>
+      <c r="QT15" s="38"/>
+      <c r="QU15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="QV15" s="44"/>
-      <c r="QW15" s="44"/>
-      <c r="QX15" s="44"/>
-      <c r="QY15" s="44"/>
-      <c r="QZ15" s="44"/>
-      <c r="RA15" s="44"/>
-      <c r="RB15" s="44"/>
-      <c r="RC15" s="44"/>
-      <c r="RD15" s="44"/>
-      <c r="RE15" s="44"/>
-      <c r="RF15" s="44"/>
-      <c r="RG15" s="44"/>
-      <c r="RH15" s="44"/>
-      <c r="RI15" s="44"/>
-      <c r="RJ15" s="44"/>
-      <c r="RK15" s="44"/>
-      <c r="RL15" s="44"/>
-      <c r="RM15" s="44"/>
-      <c r="RN15" s="45"/>
-      <c r="RO15" s="44" t="s">
+      <c r="QV15" s="37"/>
+      <c r="QW15" s="37"/>
+      <c r="QX15" s="37"/>
+      <c r="QY15" s="37"/>
+      <c r="QZ15" s="37"/>
+      <c r="RA15" s="37"/>
+      <c r="RB15" s="37"/>
+      <c r="RC15" s="37"/>
+      <c r="RD15" s="37"/>
+      <c r="RE15" s="37"/>
+      <c r="RF15" s="37"/>
+      <c r="RG15" s="37"/>
+      <c r="RH15" s="37"/>
+      <c r="RI15" s="37"/>
+      <c r="RJ15" s="37"/>
+      <c r="RK15" s="37"/>
+      <c r="RL15" s="37"/>
+      <c r="RM15" s="37"/>
+      <c r="RN15" s="38"/>
+      <c r="RO15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="RP15" s="44"/>
-      <c r="RQ15" s="44"/>
-      <c r="RR15" s="44"/>
-      <c r="RS15" s="44"/>
-      <c r="RT15" s="44"/>
-      <c r="RU15" s="44"/>
-      <c r="RV15" s="44"/>
-      <c r="RW15" s="44"/>
-      <c r="RX15" s="44"/>
-      <c r="RY15" s="44"/>
-      <c r="RZ15" s="44"/>
-      <c r="SA15" s="44"/>
-      <c r="SB15" s="44"/>
-      <c r="SC15" s="44"/>
-      <c r="SD15" s="44"/>
-      <c r="SE15" s="44"/>
-      <c r="SF15" s="44"/>
-      <c r="SG15" s="44"/>
-      <c r="SH15" s="45"/>
-      <c r="SI15" s="43" t="s">
+      <c r="RP15" s="37"/>
+      <c r="RQ15" s="37"/>
+      <c r="RR15" s="37"/>
+      <c r="RS15" s="37"/>
+      <c r="RT15" s="37"/>
+      <c r="RU15" s="37"/>
+      <c r="RV15" s="37"/>
+      <c r="RW15" s="37"/>
+      <c r="RX15" s="37"/>
+      <c r="RY15" s="37"/>
+      <c r="RZ15" s="37"/>
+      <c r="SA15" s="37"/>
+      <c r="SB15" s="37"/>
+      <c r="SC15" s="37"/>
+      <c r="SD15" s="37"/>
+      <c r="SE15" s="37"/>
+      <c r="SF15" s="37"/>
+      <c r="SG15" s="37"/>
+      <c r="SH15" s="38"/>
+      <c r="SI15" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="SJ15" s="44"/>
-      <c r="SK15" s="44"/>
-      <c r="SL15" s="44"/>
-      <c r="SM15" s="44"/>
-      <c r="SN15" s="44"/>
-      <c r="SO15" s="44"/>
-      <c r="SP15" s="44"/>
-      <c r="SQ15" s="44"/>
-      <c r="SR15" s="44"/>
-      <c r="SS15" s="44"/>
-      <c r="ST15" s="44"/>
-      <c r="SU15" s="44"/>
-      <c r="SV15" s="44"/>
-      <c r="SW15" s="44"/>
-      <c r="SX15" s="44"/>
-      <c r="SY15" s="44"/>
-      <c r="SZ15" s="44"/>
-      <c r="TA15" s="44"/>
-      <c r="TB15" s="45"/>
-      <c r="TC15" s="43"/>
-      <c r="TD15" s="44"/>
-      <c r="TE15" s="44"/>
-      <c r="TF15" s="44"/>
-      <c r="TG15" s="44"/>
-      <c r="TH15" s="44"/>
-      <c r="TI15" s="44"/>
-      <c r="TJ15" s="44"/>
-      <c r="TK15" s="44"/>
-      <c r="TL15" s="44"/>
-      <c r="TM15" s="44"/>
-      <c r="TN15" s="44"/>
-      <c r="TO15" s="44"/>
-      <c r="TP15" s="44"/>
-      <c r="TQ15" s="44"/>
-      <c r="TR15" s="44"/>
-      <c r="TS15" s="44"/>
-      <c r="TT15" s="44"/>
-      <c r="TU15" s="44"/>
-      <c r="TV15" s="45"/>
-      <c r="TW15" s="43"/>
-      <c r="TX15" s="44"/>
-      <c r="TY15" s="44"/>
-      <c r="TZ15" s="44"/>
-      <c r="UA15" s="44"/>
-      <c r="UB15" s="44"/>
-      <c r="UC15" s="44"/>
-      <c r="UD15" s="44"/>
-      <c r="UE15" s="44"/>
-      <c r="UF15" s="44"/>
-      <c r="UG15" s="44"/>
-      <c r="UH15" s="44"/>
-      <c r="UI15" s="44"/>
-      <c r="UJ15" s="44"/>
-      <c r="UK15" s="44"/>
-      <c r="UL15" s="44"/>
-      <c r="UM15" s="44"/>
-      <c r="UN15" s="44"/>
-      <c r="UO15" s="44"/>
-      <c r="UP15" s="45"/>
-      <c r="UQ15" s="43"/>
-      <c r="UR15" s="44"/>
-      <c r="US15" s="44"/>
-      <c r="UT15" s="44"/>
-      <c r="UU15" s="44"/>
-      <c r="UV15" s="44"/>
-      <c r="UW15" s="44"/>
-      <c r="UX15" s="44"/>
-      <c r="UY15" s="44"/>
-      <c r="UZ15" s="44"/>
-      <c r="VA15" s="44"/>
-      <c r="VB15" s="44"/>
-      <c r="VC15" s="44"/>
-      <c r="VD15" s="44"/>
-      <c r="VE15" s="44"/>
-      <c r="VF15" s="44"/>
-      <c r="VG15" s="44"/>
-      <c r="VH15" s="44"/>
-      <c r="VI15" s="44"/>
-      <c r="VJ15" s="45"/>
-      <c r="VK15" s="43"/>
-      <c r="VL15" s="44"/>
-      <c r="VM15" s="44"/>
-      <c r="VN15" s="44"/>
-      <c r="VO15" s="44"/>
-      <c r="VP15" s="44"/>
-      <c r="VQ15" s="44"/>
-      <c r="VR15" s="44"/>
-      <c r="VS15" s="44"/>
-      <c r="VT15" s="44"/>
-      <c r="VU15" s="44"/>
-      <c r="VV15" s="44"/>
-      <c r="VW15" s="44"/>
-      <c r="VX15" s="44"/>
-      <c r="VY15" s="44"/>
-      <c r="VZ15" s="44"/>
-      <c r="WA15" s="44"/>
-      <c r="WB15" s="44"/>
-      <c r="WC15" s="44"/>
-      <c r="WD15" s="45"/>
-      <c r="WE15" s="43"/>
-      <c r="WF15" s="44"/>
-      <c r="WG15" s="44"/>
-      <c r="WH15" s="44"/>
-      <c r="WI15" s="44"/>
-      <c r="WJ15" s="44"/>
-      <c r="WK15" s="44"/>
-      <c r="WL15" s="44"/>
-      <c r="WM15" s="44"/>
-      <c r="WN15" s="44"/>
-      <c r="WO15" s="44"/>
-      <c r="WP15" s="44"/>
-      <c r="WQ15" s="44"/>
-      <c r="WR15" s="44"/>
-      <c r="WS15" s="44"/>
-      <c r="WT15" s="44"/>
-      <c r="WU15" s="44"/>
-      <c r="WV15" s="44"/>
-      <c r="WW15" s="44"/>
-      <c r="WX15" s="45"/>
-      <c r="WY15" s="43"/>
-      <c r="WZ15" s="44"/>
-      <c r="XA15" s="44"/>
-      <c r="XB15" s="44"/>
-      <c r="XC15" s="44"/>
-      <c r="XD15" s="44"/>
-      <c r="XE15" s="44"/>
-      <c r="XF15" s="44"/>
-      <c r="XG15" s="44"/>
-      <c r="XH15" s="44"/>
-      <c r="XI15" s="44"/>
-      <c r="XJ15" s="44"/>
-      <c r="XK15" s="44"/>
-      <c r="XL15" s="44"/>
-      <c r="XM15" s="44"/>
-      <c r="XN15" s="44"/>
-      <c r="XO15" s="44"/>
-      <c r="XP15" s="44"/>
-      <c r="XQ15" s="44"/>
-      <c r="XR15" s="45"/>
-      <c r="XS15" s="43"/>
-      <c r="XT15" s="44"/>
-      <c r="XU15" s="44"/>
-      <c r="XV15" s="44"/>
-      <c r="XW15" s="44"/>
-      <c r="XX15" s="44"/>
-      <c r="XY15" s="44"/>
-      <c r="XZ15" s="44"/>
-      <c r="YA15" s="44"/>
-      <c r="YB15" s="44"/>
-      <c r="YC15" s="44"/>
-      <c r="YD15" s="44"/>
-      <c r="YE15" s="44"/>
-      <c r="YF15" s="44"/>
-      <c r="YG15" s="44"/>
-      <c r="YH15" s="44"/>
-      <c r="YI15" s="44"/>
-      <c r="YJ15" s="44"/>
-      <c r="YK15" s="44"/>
-      <c r="YL15" s="45"/>
-      <c r="YM15" s="43"/>
-      <c r="YN15" s="44"/>
-      <c r="YO15" s="44"/>
-      <c r="YP15" s="44"/>
-      <c r="YQ15" s="44"/>
-      <c r="YR15" s="44"/>
-      <c r="YS15" s="44"/>
-      <c r="YT15" s="44"/>
-      <c r="YU15" s="44"/>
-      <c r="YV15" s="44"/>
-      <c r="YW15" s="44"/>
-      <c r="YX15" s="44"/>
-      <c r="YY15" s="44"/>
-      <c r="YZ15" s="44"/>
-      <c r="ZA15" s="44"/>
-      <c r="ZB15" s="44"/>
-      <c r="ZC15" s="44"/>
-      <c r="ZD15" s="44"/>
-      <c r="ZE15" s="44"/>
-      <c r="ZF15" s="45"/>
-      <c r="ZG15" s="43"/>
-      <c r="ZH15" s="44"/>
-      <c r="ZI15" s="44"/>
-      <c r="ZJ15" s="44"/>
-      <c r="ZK15" s="44"/>
-      <c r="ZL15" s="44"/>
-      <c r="ZM15" s="44"/>
-      <c r="ZN15" s="44"/>
-      <c r="ZO15" s="44"/>
-      <c r="ZP15" s="44"/>
-      <c r="ZQ15" s="44"/>
-      <c r="ZR15" s="44"/>
-      <c r="ZS15" s="44"/>
-      <c r="ZT15" s="44"/>
-      <c r="ZU15" s="44"/>
-      <c r="ZV15" s="44"/>
-      <c r="ZW15" s="44"/>
-      <c r="ZX15" s="44"/>
-      <c r="ZY15" s="44"/>
-      <c r="ZZ15" s="45"/>
-      <c r="AAA15" s="43"/>
-      <c r="AAB15" s="44"/>
-      <c r="AAC15" s="44"/>
-      <c r="AAD15" s="44"/>
-      <c r="AAE15" s="44"/>
-      <c r="AAF15" s="44"/>
-      <c r="AAG15" s="44"/>
-      <c r="AAH15" s="44"/>
-      <c r="AAI15" s="44"/>
-      <c r="AAJ15" s="44"/>
-      <c r="AAK15" s="44"/>
-      <c r="AAL15" s="44"/>
-      <c r="AAM15" s="44"/>
-      <c r="AAN15" s="44"/>
-      <c r="AAO15" s="44"/>
-      <c r="AAP15" s="44"/>
-      <c r="AAQ15" s="44"/>
-      <c r="AAR15" s="44"/>
-      <c r="AAS15" s="44"/>
-      <c r="AAT15" s="45"/>
-      <c r="AAU15" s="43"/>
-      <c r="AAV15" s="44"/>
-      <c r="AAW15" s="44"/>
-      <c r="AAX15" s="44"/>
-      <c r="AAY15" s="44"/>
-      <c r="AAZ15" s="44"/>
-      <c r="ABA15" s="44"/>
-      <c r="ABB15" s="44"/>
-      <c r="ABC15" s="44"/>
-      <c r="ABD15" s="44"/>
-      <c r="ABE15" s="44"/>
-      <c r="ABF15" s="44"/>
-      <c r="ABG15" s="44"/>
-      <c r="ABH15" s="44"/>
-      <c r="ABI15" s="44"/>
-      <c r="ABJ15" s="44"/>
-      <c r="ABK15" s="44"/>
-      <c r="ABL15" s="44"/>
-      <c r="ABM15" s="44"/>
-      <c r="ABN15" s="45"/>
-      <c r="ABO15" s="43"/>
-      <c r="ABP15" s="44"/>
-      <c r="ABQ15" s="44"/>
-      <c r="ABR15" s="44"/>
-      <c r="ABS15" s="44"/>
-      <c r="ABT15" s="44"/>
-      <c r="ABU15" s="44"/>
-      <c r="ABV15" s="44"/>
-      <c r="ABW15" s="44"/>
-      <c r="ABX15" s="44"/>
-      <c r="ABY15" s="44"/>
-      <c r="ABZ15" s="44"/>
-      <c r="ACA15" s="44"/>
-      <c r="ACB15" s="44"/>
-      <c r="ACC15" s="44"/>
-      <c r="ACD15" s="44"/>
-      <c r="ACE15" s="44"/>
-      <c r="ACF15" s="44"/>
-      <c r="ACG15" s="44"/>
-      <c r="ACH15" s="45"/>
-      <c r="ACI15" s="43"/>
-      <c r="ACJ15" s="44"/>
-      <c r="ACK15" s="44"/>
-      <c r="ACL15" s="44"/>
-      <c r="ACM15" s="44"/>
-      <c r="ACN15" s="44"/>
-      <c r="ACO15" s="44"/>
-      <c r="ACP15" s="44"/>
-      <c r="ACQ15" s="44"/>
-      <c r="ACR15" s="44"/>
-      <c r="ACS15" s="44"/>
-      <c r="ACT15" s="44"/>
-      <c r="ACU15" s="44"/>
-      <c r="ACV15" s="44"/>
-      <c r="ACW15" s="44"/>
-      <c r="ACX15" s="44"/>
-      <c r="ACY15" s="44"/>
-      <c r="ACZ15" s="44"/>
-      <c r="ADA15" s="44"/>
-      <c r="ADB15" s="45"/>
-      <c r="ADC15" s="43"/>
-      <c r="ADD15" s="44"/>
-      <c r="ADE15" s="44"/>
-      <c r="ADF15" s="44"/>
-      <c r="ADG15" s="44"/>
-      <c r="ADH15" s="44"/>
-      <c r="ADI15" s="44"/>
-      <c r="ADJ15" s="44"/>
-      <c r="ADK15" s="44"/>
-      <c r="ADL15" s="44"/>
-      <c r="ADM15" s="44"/>
-      <c r="ADN15" s="44"/>
-      <c r="ADO15" s="44"/>
-      <c r="ADP15" s="44"/>
-      <c r="ADQ15" s="44"/>
-      <c r="ADR15" s="44"/>
-      <c r="ADS15" s="44"/>
-      <c r="ADT15" s="44"/>
-      <c r="ADU15" s="44"/>
-      <c r="ADV15" s="45"/>
-      <c r="ADW15" s="43"/>
-      <c r="ADX15" s="44"/>
-      <c r="ADY15" s="44"/>
-      <c r="ADZ15" s="44"/>
-      <c r="AEA15" s="44"/>
-      <c r="AEB15" s="44"/>
-      <c r="AEC15" s="44"/>
-      <c r="AED15" s="44"/>
-      <c r="AEE15" s="44"/>
-      <c r="AEF15" s="44"/>
-      <c r="AEG15" s="44"/>
-      <c r="AEH15" s="44"/>
-      <c r="AEI15" s="44"/>
-      <c r="AEJ15" s="44"/>
-      <c r="AEK15" s="44"/>
-      <c r="AEL15" s="44"/>
-      <c r="AEM15" s="44"/>
-      <c r="AEN15" s="44"/>
-      <c r="AEO15" s="44"/>
-      <c r="AEP15" s="45"/>
-      <c r="AEQ15" s="43"/>
-      <c r="AER15" s="44"/>
-      <c r="AES15" s="44"/>
-      <c r="AET15" s="44"/>
-      <c r="AEU15" s="44"/>
-      <c r="AEV15" s="44"/>
-      <c r="AEW15" s="44"/>
-      <c r="AEX15" s="44"/>
-      <c r="AEY15" s="44"/>
-      <c r="AEZ15" s="44"/>
-      <c r="AFA15" s="44"/>
-      <c r="AFB15" s="44"/>
-      <c r="AFC15" s="44"/>
-      <c r="AFD15" s="44"/>
-      <c r="AFE15" s="44"/>
-      <c r="AFF15" s="44"/>
-      <c r="AFG15" s="44"/>
-      <c r="AFH15" s="44"/>
-      <c r="AFI15" s="44"/>
-      <c r="AFJ15" s="45"/>
-      <c r="AFK15" s="43"/>
-      <c r="AFL15" s="44"/>
-      <c r="AFM15" s="44"/>
-      <c r="AFN15" s="44"/>
-      <c r="AFO15" s="44"/>
-      <c r="AFP15" s="44"/>
-      <c r="AFQ15" s="44"/>
-      <c r="AFR15" s="44"/>
-      <c r="AFS15" s="44"/>
-      <c r="AFT15" s="44"/>
-      <c r="AFU15" s="44"/>
-      <c r="AFV15" s="44"/>
-      <c r="AFW15" s="44"/>
-      <c r="AFX15" s="44"/>
-      <c r="AFY15" s="44"/>
-      <c r="AFZ15" s="44"/>
-      <c r="AGA15" s="44"/>
-      <c r="AGB15" s="44"/>
-      <c r="AGC15" s="44"/>
-      <c r="AGD15" s="45"/>
-      <c r="AGE15" s="43"/>
-      <c r="AGF15" s="44"/>
-      <c r="AGG15" s="44"/>
-      <c r="AGH15" s="44"/>
-      <c r="AGI15" s="44"/>
-      <c r="AGJ15" s="44"/>
-      <c r="AGK15" s="44"/>
-      <c r="AGL15" s="44"/>
-      <c r="AGM15" s="44"/>
-      <c r="AGN15" s="44"/>
-      <c r="AGO15" s="44"/>
-      <c r="AGP15" s="44"/>
-      <c r="AGQ15" s="44"/>
-      <c r="AGR15" s="44"/>
-      <c r="AGS15" s="44"/>
-      <c r="AGT15" s="44"/>
-      <c r="AGU15" s="44"/>
-      <c r="AGV15" s="44"/>
-      <c r="AGW15" s="44"/>
-      <c r="AGX15" s="45"/>
-      <c r="AGY15" s="43"/>
-      <c r="AGZ15" s="44"/>
-      <c r="AHA15" s="44"/>
-      <c r="AHB15" s="44"/>
-      <c r="AHC15" s="44"/>
-      <c r="AHD15" s="44"/>
-      <c r="AHE15" s="44"/>
-      <c r="AHF15" s="44"/>
-      <c r="AHG15" s="44"/>
-      <c r="AHH15" s="44"/>
-      <c r="AHI15" s="44"/>
-      <c r="AHJ15" s="44"/>
-      <c r="AHK15" s="44"/>
-      <c r="AHL15" s="44"/>
-      <c r="AHM15" s="44"/>
-      <c r="AHN15" s="44"/>
-      <c r="AHO15" s="44"/>
-      <c r="AHP15" s="44"/>
-      <c r="AHQ15" s="44"/>
-      <c r="AHR15" s="45"/>
-      <c r="AHS15" s="43"/>
-      <c r="AHT15" s="44"/>
-      <c r="AHU15" s="44"/>
-      <c r="AHV15" s="44"/>
-      <c r="AHW15" s="44"/>
-      <c r="AHX15" s="44"/>
-      <c r="AHY15" s="44"/>
-      <c r="AHZ15" s="44"/>
-      <c r="AIA15" s="44"/>
-      <c r="AIB15" s="44"/>
-      <c r="AIC15" s="44"/>
-      <c r="AID15" s="44"/>
-      <c r="AIE15" s="44"/>
-      <c r="AIF15" s="44"/>
-      <c r="AIG15" s="44"/>
-      <c r="AIH15" s="44"/>
-      <c r="AII15" s="44"/>
-      <c r="AIJ15" s="44"/>
-      <c r="AIK15" s="44"/>
-      <c r="AIL15" s="45"/>
-      <c r="AIM15" s="43"/>
-      <c r="AIN15" s="44"/>
-      <c r="AIO15" s="44"/>
-      <c r="AIP15" s="44"/>
-      <c r="AIQ15" s="44"/>
-      <c r="AIR15" s="44"/>
-      <c r="AIS15" s="44"/>
-      <c r="AIT15" s="44"/>
-      <c r="AIU15" s="44"/>
-      <c r="AIV15" s="44"/>
-      <c r="AIW15" s="44"/>
-      <c r="AIX15" s="44"/>
-      <c r="AIY15" s="44"/>
-      <c r="AIZ15" s="44"/>
-      <c r="AJA15" s="44"/>
-      <c r="AJB15" s="44"/>
-      <c r="AJC15" s="44"/>
-      <c r="AJD15" s="44"/>
-      <c r="AJE15" s="44"/>
-      <c r="AJF15" s="45"/>
-      <c r="AJG15" s="43"/>
-      <c r="AJH15" s="44"/>
-      <c r="AJI15" s="44"/>
-      <c r="AJJ15" s="44"/>
-      <c r="AJK15" s="44"/>
-      <c r="AJL15" s="44"/>
-      <c r="AJM15" s="44"/>
-      <c r="AJN15" s="44"/>
-      <c r="AJO15" s="44"/>
-      <c r="AJP15" s="44"/>
-      <c r="AJQ15" s="44"/>
-      <c r="AJR15" s="44"/>
-      <c r="AJS15" s="44"/>
-      <c r="AJT15" s="44"/>
-      <c r="AJU15" s="44"/>
-      <c r="AJV15" s="44"/>
-      <c r="AJW15" s="44"/>
-      <c r="AJX15" s="44"/>
-      <c r="AJY15" s="44"/>
-      <c r="AJZ15" s="45"/>
-      <c r="AKA15" s="43"/>
-      <c r="AKB15" s="44"/>
-      <c r="AKC15" s="44"/>
-      <c r="AKD15" s="44"/>
-      <c r="AKE15" s="44"/>
-      <c r="AKF15" s="44"/>
-      <c r="AKG15" s="44"/>
-      <c r="AKH15" s="44"/>
-      <c r="AKI15" s="44"/>
-      <c r="AKJ15" s="44"/>
-      <c r="AKK15" s="44"/>
-      <c r="AKL15" s="44"/>
-      <c r="AKM15" s="44"/>
-      <c r="AKN15" s="44"/>
-      <c r="AKO15" s="44"/>
-      <c r="AKP15" s="44"/>
-      <c r="AKQ15" s="44"/>
-      <c r="AKR15" s="44"/>
-      <c r="AKS15" s="44"/>
-      <c r="AKT15" s="45"/>
-      <c r="AKU15" s="43"/>
-      <c r="AKV15" s="44"/>
-      <c r="AKW15" s="44"/>
-      <c r="AKX15" s="44"/>
-      <c r="AKY15" s="44"/>
-      <c r="AKZ15" s="44"/>
-      <c r="ALA15" s="44"/>
-      <c r="ALB15" s="44"/>
-      <c r="ALC15" s="44"/>
-      <c r="ALD15" s="44"/>
-      <c r="ALE15" s="44"/>
-      <c r="ALF15" s="44"/>
-      <c r="ALG15" s="44"/>
-      <c r="ALH15" s="44"/>
-      <c r="ALI15" s="44"/>
-      <c r="ALJ15" s="44"/>
-      <c r="ALK15" s="44"/>
-      <c r="ALL15" s="44"/>
-      <c r="ALM15" s="44"/>
-      <c r="ALN15" s="45"/>
-      <c r="ALO15" s="43"/>
-      <c r="ALP15" s="44"/>
-      <c r="ALQ15" s="44"/>
-      <c r="ALR15" s="44"/>
-      <c r="ALS15" s="44"/>
-      <c r="ALT15" s="44"/>
-      <c r="ALU15" s="44"/>
-      <c r="ALV15" s="44"/>
-      <c r="ALW15" s="44"/>
-      <c r="ALX15" s="44"/>
-      <c r="ALY15" s="44"/>
-      <c r="ALZ15" s="44"/>
-      <c r="AMA15" s="44"/>
-      <c r="AMB15" s="44"/>
-      <c r="AMC15" s="44"/>
-      <c r="AMD15" s="44"/>
-      <c r="AME15" s="44"/>
-      <c r="AMF15" s="44"/>
-      <c r="AMG15" s="44"/>
-      <c r="AMH15" s="45"/>
-      <c r="AMI15" s="43"/>
-      <c r="AMJ15" s="44"/>
-      <c r="AMK15" s="44"/>
-      <c r="AML15" s="44"/>
-      <c r="AMM15" s="44"/>
-      <c r="AMN15" s="44"/>
-      <c r="AMO15" s="44"/>
-      <c r="AMP15" s="44"/>
-      <c r="AMQ15" s="44"/>
-      <c r="AMR15" s="44"/>
-      <c r="AMS15" s="44"/>
-      <c r="AMT15" s="44"/>
-      <c r="AMU15" s="44"/>
-      <c r="AMV15" s="44"/>
-      <c r="AMW15" s="44"/>
-      <c r="AMX15" s="44"/>
-      <c r="AMY15" s="44"/>
-      <c r="AMZ15" s="44"/>
-      <c r="ANA15" s="44"/>
-      <c r="ANB15" s="45"/>
-      <c r="ANC15" s="43"/>
-      <c r="AND15" s="44"/>
-      <c r="ANE15" s="44"/>
-      <c r="ANF15" s="44"/>
-      <c r="ANG15" s="44"/>
-      <c r="ANH15" s="44"/>
-      <c r="ANI15" s="44"/>
-      <c r="ANJ15" s="44"/>
-      <c r="ANK15" s="44"/>
-      <c r="ANL15" s="44"/>
-      <c r="ANM15" s="44"/>
-      <c r="ANN15" s="44"/>
-      <c r="ANO15" s="44"/>
-      <c r="ANP15" s="44"/>
-      <c r="ANQ15" s="44"/>
-      <c r="ANR15" s="44"/>
-      <c r="ANS15" s="44"/>
-      <c r="ANT15" s="44"/>
-      <c r="ANU15" s="44"/>
-      <c r="ANV15" s="45"/>
-      <c r="ANW15" s="43"/>
-      <c r="ANX15" s="44"/>
-      <c r="ANY15" s="44"/>
-      <c r="ANZ15" s="44"/>
-      <c r="AOA15" s="44"/>
-      <c r="AOB15" s="44"/>
-      <c r="AOC15" s="44"/>
-      <c r="AOD15" s="44"/>
-      <c r="AOE15" s="44"/>
-      <c r="AOF15" s="44"/>
-      <c r="AOG15" s="44"/>
-      <c r="AOH15" s="44"/>
-      <c r="AOI15" s="44"/>
-      <c r="AOJ15" s="44"/>
-      <c r="AOK15" s="44"/>
-      <c r="AOL15" s="44"/>
-      <c r="AOM15" s="44"/>
-      <c r="AON15" s="44"/>
-      <c r="AOO15" s="44"/>
-      <c r="AOP15" s="45"/>
+      <c r="SJ15" s="37"/>
+      <c r="SK15" s="37"/>
+      <c r="SL15" s="37"/>
+      <c r="SM15" s="37"/>
+      <c r="SN15" s="37"/>
+      <c r="SO15" s="37"/>
+      <c r="SP15" s="37"/>
+      <c r="SQ15" s="37"/>
+      <c r="SR15" s="37"/>
+      <c r="SS15" s="37"/>
+      <c r="ST15" s="37"/>
+      <c r="SU15" s="37"/>
+      <c r="SV15" s="37"/>
+      <c r="SW15" s="37"/>
+      <c r="SX15" s="37"/>
+      <c r="SY15" s="37"/>
+      <c r="SZ15" s="37"/>
+      <c r="TA15" s="37"/>
+      <c r="TB15" s="38"/>
+      <c r="TC15" s="36"/>
+      <c r="TD15" s="37"/>
+      <c r="TE15" s="37"/>
+      <c r="TF15" s="37"/>
+      <c r="TG15" s="37"/>
+      <c r="TH15" s="37"/>
+      <c r="TI15" s="37"/>
+      <c r="TJ15" s="37"/>
+      <c r="TK15" s="37"/>
+      <c r="TL15" s="37"/>
+      <c r="TM15" s="37"/>
+      <c r="TN15" s="37"/>
+      <c r="TO15" s="37"/>
+      <c r="TP15" s="37"/>
+      <c r="TQ15" s="37"/>
+      <c r="TR15" s="37"/>
+      <c r="TS15" s="37"/>
+      <c r="TT15" s="37"/>
+      <c r="TU15" s="37"/>
+      <c r="TV15" s="38"/>
+      <c r="TW15" s="36"/>
+      <c r="TX15" s="37"/>
+      <c r="TY15" s="37"/>
+      <c r="TZ15" s="37"/>
+      <c r="UA15" s="37"/>
+      <c r="UB15" s="37"/>
+      <c r="UC15" s="37"/>
+      <c r="UD15" s="37"/>
+      <c r="UE15" s="37"/>
+      <c r="UF15" s="37"/>
+      <c r="UG15" s="37"/>
+      <c r="UH15" s="37"/>
+      <c r="UI15" s="37"/>
+      <c r="UJ15" s="37"/>
+      <c r="UK15" s="37"/>
+      <c r="UL15" s="37"/>
+      <c r="UM15" s="37"/>
+      <c r="UN15" s="37"/>
+      <c r="UO15" s="37"/>
+      <c r="UP15" s="38"/>
+      <c r="UQ15" s="36"/>
+      <c r="UR15" s="37"/>
+      <c r="US15" s="37"/>
+      <c r="UT15" s="37"/>
+      <c r="UU15" s="37"/>
+      <c r="UV15" s="37"/>
+      <c r="UW15" s="37"/>
+      <c r="UX15" s="37"/>
+      <c r="UY15" s="37"/>
+      <c r="UZ15" s="37"/>
+      <c r="VA15" s="37"/>
+      <c r="VB15" s="37"/>
+      <c r="VC15" s="37"/>
+      <c r="VD15" s="37"/>
+      <c r="VE15" s="37"/>
+      <c r="VF15" s="37"/>
+      <c r="VG15" s="37"/>
+      <c r="VH15" s="37"/>
+      <c r="VI15" s="37"/>
+      <c r="VJ15" s="38"/>
+      <c r="VK15" s="36"/>
+      <c r="VL15" s="37"/>
+      <c r="VM15" s="37"/>
+      <c r="VN15" s="37"/>
+      <c r="VO15" s="37"/>
+      <c r="VP15" s="37"/>
+      <c r="VQ15" s="37"/>
+      <c r="VR15" s="37"/>
+      <c r="VS15" s="37"/>
+      <c r="VT15" s="37"/>
+      <c r="VU15" s="37"/>
+      <c r="VV15" s="37"/>
+      <c r="VW15" s="37"/>
+      <c r="VX15" s="37"/>
+      <c r="VY15" s="37"/>
+      <c r="VZ15" s="37"/>
+      <c r="WA15" s="37"/>
+      <c r="WB15" s="37"/>
+      <c r="WC15" s="37"/>
+      <c r="WD15" s="38"/>
+      <c r="WE15" s="36"/>
+      <c r="WF15" s="37"/>
+      <c r="WG15" s="37"/>
+      <c r="WH15" s="37"/>
+      <c r="WI15" s="37"/>
+      <c r="WJ15" s="37"/>
+      <c r="WK15" s="37"/>
+      <c r="WL15" s="37"/>
+      <c r="WM15" s="37"/>
+      <c r="WN15" s="37"/>
+      <c r="WO15" s="37"/>
+      <c r="WP15" s="37"/>
+      <c r="WQ15" s="37"/>
+      <c r="WR15" s="37"/>
+      <c r="WS15" s="37"/>
+      <c r="WT15" s="37"/>
+      <c r="WU15" s="37"/>
+      <c r="WV15" s="37"/>
+      <c r="WW15" s="37"/>
+      <c r="WX15" s="38"/>
+      <c r="WY15" s="36"/>
+      <c r="WZ15" s="37"/>
+      <c r="XA15" s="37"/>
+      <c r="XB15" s="37"/>
+      <c r="XC15" s="37"/>
+      <c r="XD15" s="37"/>
+      <c r="XE15" s="37"/>
+      <c r="XF15" s="37"/>
+      <c r="XG15" s="37"/>
+      <c r="XH15" s="37"/>
+      <c r="XI15" s="37"/>
+      <c r="XJ15" s="37"/>
+      <c r="XK15" s="37"/>
+      <c r="XL15" s="37"/>
+      <c r="XM15" s="37"/>
+      <c r="XN15" s="37"/>
+      <c r="XO15" s="37"/>
+      <c r="XP15" s="37"/>
+      <c r="XQ15" s="37"/>
+      <c r="XR15" s="38"/>
+      <c r="XS15" s="36"/>
+      <c r="XT15" s="37"/>
+      <c r="XU15" s="37"/>
+      <c r="XV15" s="37"/>
+      <c r="XW15" s="37"/>
+      <c r="XX15" s="37"/>
+      <c r="XY15" s="37"/>
+      <c r="XZ15" s="37"/>
+      <c r="YA15" s="37"/>
+      <c r="YB15" s="37"/>
+      <c r="YC15" s="37"/>
+      <c r="YD15" s="37"/>
+      <c r="YE15" s="37"/>
+      <c r="YF15" s="37"/>
+      <c r="YG15" s="37"/>
+      <c r="YH15" s="37"/>
+      <c r="YI15" s="37"/>
+      <c r="YJ15" s="37"/>
+      <c r="YK15" s="37"/>
+      <c r="YL15" s="38"/>
+      <c r="YM15" s="36"/>
+      <c r="YN15" s="37"/>
+      <c r="YO15" s="37"/>
+      <c r="YP15" s="37"/>
+      <c r="YQ15" s="37"/>
+      <c r="YR15" s="37"/>
+      <c r="YS15" s="37"/>
+      <c r="YT15" s="37"/>
+      <c r="YU15" s="37"/>
+      <c r="YV15" s="37"/>
+      <c r="YW15" s="37"/>
+      <c r="YX15" s="37"/>
+      <c r="YY15" s="37"/>
+      <c r="YZ15" s="37"/>
+      <c r="ZA15" s="37"/>
+      <c r="ZB15" s="37"/>
+      <c r="ZC15" s="37"/>
+      <c r="ZD15" s="37"/>
+      <c r="ZE15" s="37"/>
+      <c r="ZF15" s="38"/>
+      <c r="ZG15" s="36"/>
+      <c r="ZH15" s="37"/>
+      <c r="ZI15" s="37"/>
+      <c r="ZJ15" s="37"/>
+      <c r="ZK15" s="37"/>
+      <c r="ZL15" s="37"/>
+      <c r="ZM15" s="37"/>
+      <c r="ZN15" s="37"/>
+      <c r="ZO15" s="37"/>
+      <c r="ZP15" s="37"/>
+      <c r="ZQ15" s="37"/>
+      <c r="ZR15" s="37"/>
+      <c r="ZS15" s="37"/>
+      <c r="ZT15" s="37"/>
+      <c r="ZU15" s="37"/>
+      <c r="ZV15" s="37"/>
+      <c r="ZW15" s="37"/>
+      <c r="ZX15" s="37"/>
+      <c r="ZY15" s="37"/>
+      <c r="ZZ15" s="38"/>
+      <c r="AAA15" s="36"/>
+      <c r="AAB15" s="37"/>
+      <c r="AAC15" s="37"/>
+      <c r="AAD15" s="37"/>
+      <c r="AAE15" s="37"/>
+      <c r="AAF15" s="37"/>
+      <c r="AAG15" s="37"/>
+      <c r="AAH15" s="37"/>
+      <c r="AAI15" s="37"/>
+      <c r="AAJ15" s="37"/>
+      <c r="AAK15" s="37"/>
+      <c r="AAL15" s="37"/>
+      <c r="AAM15" s="37"/>
+      <c r="AAN15" s="37"/>
+      <c r="AAO15" s="37"/>
+      <c r="AAP15" s="37"/>
+      <c r="AAQ15" s="37"/>
+      <c r="AAR15" s="37"/>
+      <c r="AAS15" s="37"/>
+      <c r="AAT15" s="38"/>
+      <c r="AAU15" s="36"/>
+      <c r="AAV15" s="37"/>
+      <c r="AAW15" s="37"/>
+      <c r="AAX15" s="37"/>
+      <c r="AAY15" s="37"/>
+      <c r="AAZ15" s="37"/>
+      <c r="ABA15" s="37"/>
+      <c r="ABB15" s="37"/>
+      <c r="ABC15" s="37"/>
+      <c r="ABD15" s="37"/>
+      <c r="ABE15" s="37"/>
+      <c r="ABF15" s="37"/>
+      <c r="ABG15" s="37"/>
+      <c r="ABH15" s="37"/>
+      <c r="ABI15" s="37"/>
+      <c r="ABJ15" s="37"/>
+      <c r="ABK15" s="37"/>
+      <c r="ABL15" s="37"/>
+      <c r="ABM15" s="37"/>
+      <c r="ABN15" s="38"/>
+      <c r="ABO15" s="36"/>
+      <c r="ABP15" s="37"/>
+      <c r="ABQ15" s="37"/>
+      <c r="ABR15" s="37"/>
+      <c r="ABS15" s="37"/>
+      <c r="ABT15" s="37"/>
+      <c r="ABU15" s="37"/>
+      <c r="ABV15" s="37"/>
+      <c r="ABW15" s="37"/>
+      <c r="ABX15" s="37"/>
+      <c r="ABY15" s="37"/>
+      <c r="ABZ15" s="37"/>
+      <c r="ACA15" s="37"/>
+      <c r="ACB15" s="37"/>
+      <c r="ACC15" s="37"/>
+      <c r="ACD15" s="37"/>
+      <c r="ACE15" s="37"/>
+      <c r="ACF15" s="37"/>
+      <c r="ACG15" s="37"/>
+      <c r="ACH15" s="38"/>
+      <c r="ACI15" s="36"/>
+      <c r="ACJ15" s="37"/>
+      <c r="ACK15" s="37"/>
+      <c r="ACL15" s="37"/>
+      <c r="ACM15" s="37"/>
+      <c r="ACN15" s="37"/>
+      <c r="ACO15" s="37"/>
+      <c r="ACP15" s="37"/>
+      <c r="ACQ15" s="37"/>
+      <c r="ACR15" s="37"/>
+      <c r="ACS15" s="37"/>
+      <c r="ACT15" s="37"/>
+      <c r="ACU15" s="37"/>
+      <c r="ACV15" s="37"/>
+      <c r="ACW15" s="37"/>
+      <c r="ACX15" s="37"/>
+      <c r="ACY15" s="37"/>
+      <c r="ACZ15" s="37"/>
+      <c r="ADA15" s="37"/>
+      <c r="ADB15" s="38"/>
+      <c r="ADC15" s="36"/>
+      <c r="ADD15" s="37"/>
+      <c r="ADE15" s="37"/>
+      <c r="ADF15" s="37"/>
+      <c r="ADG15" s="37"/>
+      <c r="ADH15" s="37"/>
+      <c r="ADI15" s="37"/>
+      <c r="ADJ15" s="37"/>
+      <c r="ADK15" s="37"/>
+      <c r="ADL15" s="37"/>
+      <c r="ADM15" s="37"/>
+      <c r="ADN15" s="37"/>
+      <c r="ADO15" s="37"/>
+      <c r="ADP15" s="37"/>
+      <c r="ADQ15" s="37"/>
+      <c r="ADR15" s="37"/>
+      <c r="ADS15" s="37"/>
+      <c r="ADT15" s="37"/>
+      <c r="ADU15" s="37"/>
+      <c r="ADV15" s="38"/>
+      <c r="ADW15" s="36"/>
+      <c r="ADX15" s="37"/>
+      <c r="ADY15" s="37"/>
+      <c r="ADZ15" s="37"/>
+      <c r="AEA15" s="37"/>
+      <c r="AEB15" s="37"/>
+      <c r="AEC15" s="37"/>
+      <c r="AED15" s="37"/>
+      <c r="AEE15" s="37"/>
+      <c r="AEF15" s="37"/>
+      <c r="AEG15" s="37"/>
+      <c r="AEH15" s="37"/>
+      <c r="AEI15" s="37"/>
+      <c r="AEJ15" s="37"/>
+      <c r="AEK15" s="37"/>
+      <c r="AEL15" s="37"/>
+      <c r="AEM15" s="37"/>
+      <c r="AEN15" s="37"/>
+      <c r="AEO15" s="37"/>
+      <c r="AEP15" s="38"/>
+      <c r="AEQ15" s="36"/>
+      <c r="AER15" s="37"/>
+      <c r="AES15" s="37"/>
+      <c r="AET15" s="37"/>
+      <c r="AEU15" s="37"/>
+      <c r="AEV15" s="37"/>
+      <c r="AEW15" s="37"/>
+      <c r="AEX15" s="37"/>
+      <c r="AEY15" s="37"/>
+      <c r="AEZ15" s="37"/>
+      <c r="AFA15" s="37"/>
+      <c r="AFB15" s="37"/>
+      <c r="AFC15" s="37"/>
+      <c r="AFD15" s="37"/>
+      <c r="AFE15" s="37"/>
+      <c r="AFF15" s="37"/>
+      <c r="AFG15" s="37"/>
+      <c r="AFH15" s="37"/>
+      <c r="AFI15" s="37"/>
+      <c r="AFJ15" s="38"/>
+      <c r="AFK15" s="36"/>
+      <c r="AFL15" s="37"/>
+      <c r="AFM15" s="37"/>
+      <c r="AFN15" s="37"/>
+      <c r="AFO15" s="37"/>
+      <c r="AFP15" s="37"/>
+      <c r="AFQ15" s="37"/>
+      <c r="AFR15" s="37"/>
+      <c r="AFS15" s="37"/>
+      <c r="AFT15" s="37"/>
+      <c r="AFU15" s="37"/>
+      <c r="AFV15" s="37"/>
+      <c r="AFW15" s="37"/>
+      <c r="AFX15" s="37"/>
+      <c r="AFY15" s="37"/>
+      <c r="AFZ15" s="37"/>
+      <c r="AGA15" s="37"/>
+      <c r="AGB15" s="37"/>
+      <c r="AGC15" s="37"/>
+      <c r="AGD15" s="38"/>
+      <c r="AGE15" s="36"/>
+      <c r="AGF15" s="37"/>
+      <c r="AGG15" s="37"/>
+      <c r="AGH15" s="37"/>
+      <c r="AGI15" s="37"/>
+      <c r="AGJ15" s="37"/>
+      <c r="AGK15" s="37"/>
+      <c r="AGL15" s="37"/>
+      <c r="AGM15" s="37"/>
+      <c r="AGN15" s="37"/>
+      <c r="AGO15" s="37"/>
+      <c r="AGP15" s="37"/>
+      <c r="AGQ15" s="37"/>
+      <c r="AGR15" s="37"/>
+      <c r="AGS15" s="37"/>
+      <c r="AGT15" s="37"/>
+      <c r="AGU15" s="37"/>
+      <c r="AGV15" s="37"/>
+      <c r="AGW15" s="37"/>
+      <c r="AGX15" s="38"/>
+      <c r="AGY15" s="36"/>
+      <c r="AGZ15" s="37"/>
+      <c r="AHA15" s="37"/>
+      <c r="AHB15" s="37"/>
+      <c r="AHC15" s="37"/>
+      <c r="AHD15" s="37"/>
+      <c r="AHE15" s="37"/>
+      <c r="AHF15" s="37"/>
+      <c r="AHG15" s="37"/>
+      <c r="AHH15" s="37"/>
+      <c r="AHI15" s="37"/>
+      <c r="AHJ15" s="37"/>
+      <c r="AHK15" s="37"/>
+      <c r="AHL15" s="37"/>
+      <c r="AHM15" s="37"/>
+      <c r="AHN15" s="37"/>
+      <c r="AHO15" s="37"/>
+      <c r="AHP15" s="37"/>
+      <c r="AHQ15" s="37"/>
+      <c r="AHR15" s="38"/>
+      <c r="AHS15" s="36"/>
+      <c r="AHT15" s="37"/>
+      <c r="AHU15" s="37"/>
+      <c r="AHV15" s="37"/>
+      <c r="AHW15" s="37"/>
+      <c r="AHX15" s="37"/>
+      <c r="AHY15" s="37"/>
+      <c r="AHZ15" s="37"/>
+      <c r="AIA15" s="37"/>
+      <c r="AIB15" s="37"/>
+      <c r="AIC15" s="37"/>
+      <c r="AID15" s="37"/>
+      <c r="AIE15" s="37"/>
+      <c r="AIF15" s="37"/>
+      <c r="AIG15" s="37"/>
+      <c r="AIH15" s="37"/>
+      <c r="AII15" s="37"/>
+      <c r="AIJ15" s="37"/>
+      <c r="AIK15" s="37"/>
+      <c r="AIL15" s="38"/>
+      <c r="AIM15" s="36"/>
+      <c r="AIN15" s="37"/>
+      <c r="AIO15" s="37"/>
+      <c r="AIP15" s="37"/>
+      <c r="AIQ15" s="37"/>
+      <c r="AIR15" s="37"/>
+      <c r="AIS15" s="37"/>
+      <c r="AIT15" s="37"/>
+      <c r="AIU15" s="37"/>
+      <c r="AIV15" s="37"/>
+      <c r="AIW15" s="37"/>
+      <c r="AIX15" s="37"/>
+      <c r="AIY15" s="37"/>
+      <c r="AIZ15" s="37"/>
+      <c r="AJA15" s="37"/>
+      <c r="AJB15" s="37"/>
+      <c r="AJC15" s="37"/>
+      <c r="AJD15" s="37"/>
+      <c r="AJE15" s="37"/>
+      <c r="AJF15" s="38"/>
+      <c r="AJG15" s="36"/>
+      <c r="AJH15" s="37"/>
+      <c r="AJI15" s="37"/>
+      <c r="AJJ15" s="37"/>
+      <c r="AJK15" s="37"/>
+      <c r="AJL15" s="37"/>
+      <c r="AJM15" s="37"/>
+      <c r="AJN15" s="37"/>
+      <c r="AJO15" s="37"/>
+      <c r="AJP15" s="37"/>
+      <c r="AJQ15" s="37"/>
+      <c r="AJR15" s="37"/>
+      <c r="AJS15" s="37"/>
+      <c r="AJT15" s="37"/>
+      <c r="AJU15" s="37"/>
+      <c r="AJV15" s="37"/>
+      <c r="AJW15" s="37"/>
+      <c r="AJX15" s="37"/>
+      <c r="AJY15" s="37"/>
+      <c r="AJZ15" s="38"/>
+      <c r="AKA15" s="36"/>
+      <c r="AKB15" s="37"/>
+      <c r="AKC15" s="37"/>
+      <c r="AKD15" s="37"/>
+      <c r="AKE15" s="37"/>
+      <c r="AKF15" s="37"/>
+      <c r="AKG15" s="37"/>
+      <c r="AKH15" s="37"/>
+      <c r="AKI15" s="37"/>
+      <c r="AKJ15" s="37"/>
+      <c r="AKK15" s="37"/>
+      <c r="AKL15" s="37"/>
+      <c r="AKM15" s="37"/>
+      <c r="AKN15" s="37"/>
+      <c r="AKO15" s="37"/>
+      <c r="AKP15" s="37"/>
+      <c r="AKQ15" s="37"/>
+      <c r="AKR15" s="37"/>
+      <c r="AKS15" s="37"/>
+      <c r="AKT15" s="38"/>
+      <c r="AKU15" s="36"/>
+      <c r="AKV15" s="37"/>
+      <c r="AKW15" s="37"/>
+      <c r="AKX15" s="37"/>
+      <c r="AKY15" s="37"/>
+      <c r="AKZ15" s="37"/>
+      <c r="ALA15" s="37"/>
+      <c r="ALB15" s="37"/>
+      <c r="ALC15" s="37"/>
+      <c r="ALD15" s="37"/>
+      <c r="ALE15" s="37"/>
+      <c r="ALF15" s="37"/>
+      <c r="ALG15" s="37"/>
+      <c r="ALH15" s="37"/>
+      <c r="ALI15" s="37"/>
+      <c r="ALJ15" s="37"/>
+      <c r="ALK15" s="37"/>
+      <c r="ALL15" s="37"/>
+      <c r="ALM15" s="37"/>
+      <c r="ALN15" s="38"/>
+      <c r="ALO15" s="36"/>
+      <c r="ALP15" s="37"/>
+      <c r="ALQ15" s="37"/>
+      <c r="ALR15" s="37"/>
+      <c r="ALS15" s="37"/>
+      <c r="ALT15" s="37"/>
+      <c r="ALU15" s="37"/>
+      <c r="ALV15" s="37"/>
+      <c r="ALW15" s="37"/>
+      <c r="ALX15" s="37"/>
+      <c r="ALY15" s="37"/>
+      <c r="ALZ15" s="37"/>
+      <c r="AMA15" s="37"/>
+      <c r="AMB15" s="37"/>
+      <c r="AMC15" s="37"/>
+      <c r="AMD15" s="37"/>
+      <c r="AME15" s="37"/>
+      <c r="AMF15" s="37"/>
+      <c r="AMG15" s="37"/>
+      <c r="AMH15" s="38"/>
+      <c r="AMI15" s="36"/>
+      <c r="AMJ15" s="37"/>
+      <c r="AMK15" s="37"/>
+      <c r="AML15" s="37"/>
+      <c r="AMM15" s="37"/>
+      <c r="AMN15" s="37"/>
+      <c r="AMO15" s="37"/>
+      <c r="AMP15" s="37"/>
+      <c r="AMQ15" s="37"/>
+      <c r="AMR15" s="37"/>
+      <c r="AMS15" s="37"/>
+      <c r="AMT15" s="37"/>
+      <c r="AMU15" s="37"/>
+      <c r="AMV15" s="37"/>
+      <c r="AMW15" s="37"/>
+      <c r="AMX15" s="37"/>
+      <c r="AMY15" s="37"/>
+      <c r="AMZ15" s="37"/>
+      <c r="ANA15" s="37"/>
+      <c r="ANB15" s="38"/>
+      <c r="ANC15" s="36"/>
+      <c r="AND15" s="37"/>
+      <c r="ANE15" s="37"/>
+      <c r="ANF15" s="37"/>
+      <c r="ANG15" s="37"/>
+      <c r="ANH15" s="37"/>
+      <c r="ANI15" s="37"/>
+      <c r="ANJ15" s="37"/>
+      <c r="ANK15" s="37"/>
+      <c r="ANL15" s="37"/>
+      <c r="ANM15" s="37"/>
+      <c r="ANN15" s="37"/>
+      <c r="ANO15" s="37"/>
+      <c r="ANP15" s="37"/>
+      <c r="ANQ15" s="37"/>
+      <c r="ANR15" s="37"/>
+      <c r="ANS15" s="37"/>
+      <c r="ANT15" s="37"/>
+      <c r="ANU15" s="37"/>
+      <c r="ANV15" s="38"/>
+      <c r="ANW15" s="36"/>
+      <c r="ANX15" s="37"/>
+      <c r="ANY15" s="37"/>
+      <c r="ANZ15" s="37"/>
+      <c r="AOA15" s="37"/>
+      <c r="AOB15" s="37"/>
+      <c r="AOC15" s="37"/>
+      <c r="AOD15" s="37"/>
+      <c r="AOE15" s="37"/>
+      <c r="AOF15" s="37"/>
+      <c r="AOG15" s="37"/>
+      <c r="AOH15" s="37"/>
+      <c r="AOI15" s="37"/>
+      <c r="AOJ15" s="37"/>
+      <c r="AOK15" s="37"/>
+      <c r="AOL15" s="37"/>
+      <c r="AOM15" s="37"/>
+      <c r="AON15" s="37"/>
+      <c r="AOO15" s="37"/>
+      <c r="AOP15" s="38"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -11024,39 +10983,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="Q17" s="46" t="s">
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
+      <c r="K17" s="55"/>
+      <c r="L17" s="55"/>
+      <c r="M17" s="55"/>
+      <c r="N17" s="56"/>
+      <c r="Q17" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="48"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="61"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="61"/>
+      <c r="V17" s="61"/>
+      <c r="W17" s="62"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="35" t="s">
+      <c r="Z17" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="37"/>
+      <c r="AA17" s="69"/>
+      <c r="AB17" s="69"/>
+      <c r="AC17" s="69"/>
+      <c r="AD17" s="69"/>
+      <c r="AE17" s="69"/>
+      <c r="AF17" s="70"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -11175,42 +11134,42 @@
       <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+      <c r="K18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="43"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="39"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="64"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="38" t="s">
+      <c r="AA18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="39"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="64"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -11329,42 +11288,42 @@
       <c r="D19" s="20">
         <v>0</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="48"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="33" t="s">
+      <c r="AA19" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="34"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="48"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -11468,42 +11427,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="45"/>
+      <c r="L20" s="45"/>
+      <c r="M20" s="45"/>
+      <c r="N20" s="46"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="48"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="34"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="48"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -11609,42 +11568,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="F21" s="39"/>
+      <c r="G21" s="39"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="39"/>
+      <c r="M21" s="39"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="48"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="33" t="s">
+      <c r="AA21" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="34"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="48"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -11750,40 +11709,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="40"/>
+      <c r="J22" s="40"/>
+      <c r="K22" s="40"/>
+      <c r="L22" s="40"/>
+      <c r="M22" s="40"/>
       <c r="N22" s="17"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="34"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="48"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="33" t="s">
+      <c r="AA22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="34"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="48"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -11902,27 +11861,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="48"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="14">
         <v>5</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AA23" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="41"/>
+      <c r="AB23" s="66"/>
+      <c r="AC23" s="66"/>
+      <c r="AD23" s="66"/>
+      <c r="AE23" s="66"/>
+      <c r="AF23" s="67"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -12041,14 +12000,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="48"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -12170,14 +12129,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="33" t="s">
+      <c r="R25" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="48"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -12299,14 +12258,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="34"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="48"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -12428,14 +12387,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="48"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -12544,14 +12503,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="47" t="s">
         <v>16</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="34"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="48"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -12660,14 +12619,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="48"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -12776,14 +12735,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="34"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="48"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -12892,14 +12851,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="48"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -13008,14 +12967,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="34"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="48"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -13121,14 +13080,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="33" t="s">
+      <c r="R33" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="48"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -13234,14 +13193,14 @@
       <c r="Q34" s="14">
         <v>16</v>
       </c>
-      <c r="R34" s="40" t="s">
+      <c r="R34" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="41"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="67"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -33660,15 +33619,87 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="42"/>
-      <c r="S1048576" s="42"/>
-      <c r="T1048576" s="42"/>
-      <c r="U1048576" s="42"/>
-      <c r="V1048576" s="42"/>
-      <c r="W1048576" s="42"/>
+      <c r="R1048576" s="65"/>
+      <c r="S1048576" s="65"/>
+      <c r="T1048576" s="65"/>
+      <c r="U1048576" s="65"/>
+      <c r="V1048576" s="65"/>
+      <c r="W1048576" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="WE15:WX15"/>
+    <mergeCell ref="NS15:OL15"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="SI15:TB15"/>
+    <mergeCell ref="TC15:TV15"/>
+    <mergeCell ref="TW15:UP15"/>
+    <mergeCell ref="UQ15:VJ15"/>
+    <mergeCell ref="VK15:WD15"/>
+    <mergeCell ref="OM15:PF15"/>
+    <mergeCell ref="PG15:PZ15"/>
+    <mergeCell ref="QA15:QT15"/>
+    <mergeCell ref="QU15:RN15"/>
+    <mergeCell ref="RO15:SH15"/>
+    <mergeCell ref="MY15:NR15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
+    <mergeCell ref="ANW15:AOP15"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="AGE15:AGX15"/>
+    <mergeCell ref="AGY15:AHR15"/>
+    <mergeCell ref="AHS15:AIL15"/>
+    <mergeCell ref="AIM15:AJF15"/>
+    <mergeCell ref="AJG15:AJZ15"/>
+    <mergeCell ref="AKA15:AKT15"/>
+    <mergeCell ref="ABO15:ACH15"/>
+    <mergeCell ref="ACI15:ADB15"/>
+    <mergeCell ref="ADC15:ADV15"/>
+    <mergeCell ref="ADW15:AEP15"/>
+    <mergeCell ref="AEQ15:AFJ15"/>
+    <mergeCell ref="AFK15:AGD15"/>
+    <mergeCell ref="WY15:XR15"/>
+    <mergeCell ref="XS15:YL15"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="ME15:MX15"/>
     <mergeCell ref="E21:M22"/>
@@ -33685,78 +33716,6 @@
     <mergeCell ref="JC15:JV15"/>
     <mergeCell ref="JW15:KP15"/>
     <mergeCell ref="KQ15:LJ15"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
-    <mergeCell ref="ANW15:AOP15"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="AGE15:AGX15"/>
-    <mergeCell ref="AGY15:AHR15"/>
-    <mergeCell ref="AHS15:AIL15"/>
-    <mergeCell ref="AIM15:AJF15"/>
-    <mergeCell ref="AJG15:AJZ15"/>
-    <mergeCell ref="AKA15:AKT15"/>
-    <mergeCell ref="ABO15:ACH15"/>
-    <mergeCell ref="ACI15:ADB15"/>
-    <mergeCell ref="ADC15:ADV15"/>
-    <mergeCell ref="ADW15:AEP15"/>
-    <mergeCell ref="AEQ15:AFJ15"/>
-    <mergeCell ref="AFK15:AGD15"/>
-    <mergeCell ref="WY15:XR15"/>
-    <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="WE15:WX15"/>
-    <mergeCell ref="NS15:OL15"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="SI15:TB15"/>
-    <mergeCell ref="TC15:TV15"/>
-    <mergeCell ref="TW15:UP15"/>
-    <mergeCell ref="UQ15:VJ15"/>
-    <mergeCell ref="VK15:WD15"/>
-    <mergeCell ref="OM15:PF15"/>
-    <mergeCell ref="PG15:PZ15"/>
-    <mergeCell ref="QA15:QT15"/>
-    <mergeCell ref="QU15:RN15"/>
-    <mergeCell ref="RO15:SH15"/>
-    <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
@@ -921,7 +921,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1021,13 +1021,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1037,6 +1058,57 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1063,77 +1135,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1439,10 +1442,10 @@
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="JT2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="QK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="NT8" sqref="NT8"/>
+      <selection pane="bottomRight" activeCell="PU21" sqref="PU21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1455,31 +1458,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="49" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="51" t="s">
+      <c r="C1" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="53"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
+      <c r="N1" s="55"/>
+      <c r="O1" s="55"/>
+      <c r="P1" s="55"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="56"/>
     </row>
-    <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="AI2" s="71"/>
+      <c r="AJ2" s="71"/>
+      <c r="AM2" s="71"/>
+      <c r="AN2" s="71"/>
+      <c r="AO2" s="71"/>
+      <c r="AS2" s="71"/>
+      <c r="AT2" s="71"/>
+      <c r="AU2" s="71"/>
+      <c r="AV2" s="71"/>
+      <c r="AW2" s="71"/>
+      <c r="AX2" s="71"/>
+      <c r="AY2" s="71"/>
+      <c r="AZ2" s="71"/>
+      <c r="BA2" s="71"/>
+      <c r="BD2" s="71"/>
+      <c r="BE2" s="71"/>
+      <c r="BF2" s="71"/>
+      <c r="BG2" s="71"/>
+      <c r="BH2" s="71"/>
+      <c r="BI2" s="71"/>
+      <c r="BJ2" s="71"/>
+      <c r="BK2" s="71"/>
+      <c r="DK2" s="71"/>
+      <c r="DL2" s="71"/>
+      <c r="DM2" s="71"/>
+      <c r="DN2" s="71"/>
+      <c r="DO2" s="71"/>
+      <c r="DP2" s="71"/>
+      <c r="DT2" s="71"/>
+      <c r="DU2" s="71"/>
+      <c r="DV2" s="71"/>
+      <c r="DW2" s="71"/>
+      <c r="DX2" s="71"/>
+      <c r="DY2" s="71"/>
+      <c r="DZ2" s="71"/>
+      <c r="EA2" s="71"/>
+      <c r="EB2" s="71"/>
+      <c r="EC2" s="71"/>
+      <c r="ED2" s="71"/>
+      <c r="EE2" s="71"/>
+      <c r="EF2" s="71"/>
+      <c r="EG2" s="71"/>
+      <c r="EH2" s="71"/>
+      <c r="EI2" s="71"/>
+      <c r="EJ2" s="71"/>
+      <c r="EK2" s="71"/>
+      <c r="EL2" s="71"/>
+      <c r="EM2" s="71"/>
+      <c r="EN2" s="71"/>
+      <c r="EO2" s="71"/>
+      <c r="EP2" s="71"/>
+      <c r="EQ2" s="71"/>
+      <c r="ER2" s="71"/>
+      <c r="ES2" s="71"/>
+      <c r="ET2" s="71"/>
+      <c r="EU2" s="71"/>
+      <c r="FX2" s="71"/>
+      <c r="FY2" s="71"/>
+      <c r="FZ2" s="71"/>
+      <c r="GA2" s="71"/>
+      <c r="GG2" s="71"/>
+      <c r="GH2" s="71"/>
+      <c r="JL2" s="71"/>
+      <c r="JM2" s="71"/>
+      <c r="JN2" s="71"/>
+      <c r="NT2" s="71"/>
+      <c r="NU2" s="71"/>
+      <c r="NV2" s="71"/>
+      <c r="NW2" s="71"/>
+      <c r="PW2" s="71"/>
+      <c r="PX2" s="71"/>
+      <c r="PY2" s="71"/>
+      <c r="PZ2" s="71"/>
+      <c r="QA2" s="71"/>
+      <c r="QB2" s="71"/>
+      <c r="QC2" s="71"/>
+      <c r="QD2" s="71"/>
+    </row>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="49" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
@@ -1648,7 +1729,7 @@
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="58"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="18"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1849,7 +1930,7 @@
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="58"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2092,7 +2173,7 @@
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="58"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2395,7 +2476,7 @@
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="58"/>
+      <c r="B7" s="50"/>
       <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2582,7 +2663,7 @@
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="58"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="18"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2875,7 +2956,7 @@
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="58"/>
+      <c r="B9" s="50"/>
       <c r="C9" s="18"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3221,7 +3302,7 @@
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="58"/>
+      <c r="B10" s="50"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3433,7 +3514,7 @@
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="58"/>
+      <c r="B11" s="50"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3738,7 +3819,7 @@
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="58"/>
+      <c r="B12" s="50"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4277,7 +4358,7 @@
     </row>
     <row r="13" spans="1:1082" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="59"/>
+      <c r="B13" s="51"/>
       <c r="C13" s="27">
         <v>0</v>
       </c>
@@ -8766,1138 +8847,1138 @@
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="37"/>
-      <c r="O15" s="37"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="37"/>
-      <c r="R15" s="37"/>
-      <c r="S15" s="37"/>
-      <c r="T15" s="37"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="38"/>
-      <c r="W15" s="36" t="s">
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="44"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="44"/>
+      <c r="L15" s="44"/>
+      <c r="M15" s="44"/>
+      <c r="N15" s="44"/>
+      <c r="O15" s="44"/>
+      <c r="P15" s="44"/>
+      <c r="Q15" s="44"/>
+      <c r="R15" s="44"/>
+      <c r="S15" s="44"/>
+      <c r="T15" s="44"/>
+      <c r="U15" s="44"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="37"/>
-      <c r="Y15" s="37"/>
-      <c r="Z15" s="37"/>
-      <c r="AA15" s="37"/>
-      <c r="AB15" s="37"/>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="37"/>
-      <c r="AE15" s="37"/>
-      <c r="AF15" s="37"/>
-      <c r="AG15" s="37"/>
-      <c r="AH15" s="37"/>
-      <c r="AI15" s="37"/>
-      <c r="AJ15" s="37"/>
-      <c r="AK15" s="37"/>
-      <c r="AL15" s="37"/>
-      <c r="AM15" s="37"/>
-      <c r="AN15" s="37"/>
-      <c r="AO15" s="37"/>
-      <c r="AP15" s="38"/>
-      <c r="AQ15" s="37" t="s">
+      <c r="X15" s="44"/>
+      <c r="Y15" s="44"/>
+      <c r="Z15" s="44"/>
+      <c r="AA15" s="44"/>
+      <c r="AB15" s="44"/>
+      <c r="AC15" s="44"/>
+      <c r="AD15" s="44"/>
+      <c r="AE15" s="44"/>
+      <c r="AF15" s="44"/>
+      <c r="AG15" s="44"/>
+      <c r="AH15" s="44"/>
+      <c r="AI15" s="44"/>
+      <c r="AJ15" s="44"/>
+      <c r="AK15" s="44"/>
+      <c r="AL15" s="44"/>
+      <c r="AM15" s="44"/>
+      <c r="AN15" s="44"/>
+      <c r="AO15" s="44"/>
+      <c r="AP15" s="45"/>
+      <c r="AQ15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="AR15" s="37"/>
-      <c r="AS15" s="37"/>
-      <c r="AT15" s="37"/>
-      <c r="AU15" s="37"/>
-      <c r="AV15" s="37"/>
-      <c r="AW15" s="37"/>
-      <c r="AX15" s="37"/>
-      <c r="AY15" s="37"/>
-      <c r="AZ15" s="37"/>
-      <c r="BA15" s="37"/>
-      <c r="BB15" s="37"/>
-      <c r="BC15" s="37"/>
-      <c r="BD15" s="37"/>
-      <c r="BE15" s="37"/>
-      <c r="BF15" s="37"/>
-      <c r="BG15" s="37"/>
-      <c r="BH15" s="37"/>
-      <c r="BI15" s="37"/>
-      <c r="BJ15" s="38"/>
-      <c r="BK15" s="36" t="s">
+      <c r="AR15" s="44"/>
+      <c r="AS15" s="44"/>
+      <c r="AT15" s="44"/>
+      <c r="AU15" s="44"/>
+      <c r="AV15" s="44"/>
+      <c r="AW15" s="44"/>
+      <c r="AX15" s="44"/>
+      <c r="AY15" s="44"/>
+      <c r="AZ15" s="44"/>
+      <c r="BA15" s="44"/>
+      <c r="BB15" s="44"/>
+      <c r="BC15" s="44"/>
+      <c r="BD15" s="44"/>
+      <c r="BE15" s="44"/>
+      <c r="BF15" s="44"/>
+      <c r="BG15" s="44"/>
+      <c r="BH15" s="44"/>
+      <c r="BI15" s="44"/>
+      <c r="BJ15" s="45"/>
+      <c r="BK15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="BL15" s="37"/>
-      <c r="BM15" s="37"/>
-      <c r="BN15" s="37"/>
-      <c r="BO15" s="37"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
-      <c r="BR15" s="37"/>
-      <c r="BS15" s="37"/>
-      <c r="BT15" s="37"/>
-      <c r="BU15" s="37"/>
-      <c r="BV15" s="37"/>
-      <c r="BW15" s="37"/>
-      <c r="BX15" s="37"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="37"/>
-      <c r="CA15" s="37"/>
-      <c r="CB15" s="37"/>
-      <c r="CC15" s="37"/>
-      <c r="CD15" s="38"/>
-      <c r="CE15" s="37" t="s">
+      <c r="BL15" s="44"/>
+      <c r="BM15" s="44"/>
+      <c r="BN15" s="44"/>
+      <c r="BO15" s="44"/>
+      <c r="BP15" s="44"/>
+      <c r="BQ15" s="44"/>
+      <c r="BR15" s="44"/>
+      <c r="BS15" s="44"/>
+      <c r="BT15" s="44"/>
+      <c r="BU15" s="44"/>
+      <c r="BV15" s="44"/>
+      <c r="BW15" s="44"/>
+      <c r="BX15" s="44"/>
+      <c r="BY15" s="44"/>
+      <c r="BZ15" s="44"/>
+      <c r="CA15" s="44"/>
+      <c r="CB15" s="44"/>
+      <c r="CC15" s="44"/>
+      <c r="CD15" s="45"/>
+      <c r="CE15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="CF15" s="37"/>
-      <c r="CG15" s="37"/>
-      <c r="CH15" s="37"/>
-      <c r="CI15" s="37"/>
-      <c r="CJ15" s="37"/>
-      <c r="CK15" s="37"/>
-      <c r="CL15" s="37"/>
-      <c r="CM15" s="37"/>
-      <c r="CN15" s="37"/>
-      <c r="CO15" s="37"/>
-      <c r="CP15" s="37"/>
-      <c r="CQ15" s="37"/>
-      <c r="CR15" s="37"/>
-      <c r="CS15" s="37"/>
-      <c r="CT15" s="37"/>
-      <c r="CU15" s="37"/>
-      <c r="CV15" s="37"/>
-      <c r="CW15" s="37"/>
-      <c r="CX15" s="38"/>
-      <c r="CY15" s="36" t="s">
+      <c r="CF15" s="44"/>
+      <c r="CG15" s="44"/>
+      <c r="CH15" s="44"/>
+      <c r="CI15" s="44"/>
+      <c r="CJ15" s="44"/>
+      <c r="CK15" s="44"/>
+      <c r="CL15" s="44"/>
+      <c r="CM15" s="44"/>
+      <c r="CN15" s="44"/>
+      <c r="CO15" s="44"/>
+      <c r="CP15" s="44"/>
+      <c r="CQ15" s="44"/>
+      <c r="CR15" s="44"/>
+      <c r="CS15" s="44"/>
+      <c r="CT15" s="44"/>
+      <c r="CU15" s="44"/>
+      <c r="CV15" s="44"/>
+      <c r="CW15" s="44"/>
+      <c r="CX15" s="45"/>
+      <c r="CY15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="CZ15" s="37"/>
-      <c r="DA15" s="37"/>
-      <c r="DB15" s="37"/>
-      <c r="DC15" s="37"/>
-      <c r="DD15" s="37"/>
-      <c r="DE15" s="37"/>
-      <c r="DF15" s="37"/>
-      <c r="DG15" s="37"/>
-      <c r="DH15" s="37"/>
-      <c r="DI15" s="37"/>
-      <c r="DJ15" s="37"/>
-      <c r="DK15" s="37"/>
-      <c r="DL15" s="37"/>
-      <c r="DM15" s="37"/>
-      <c r="DN15" s="37"/>
-      <c r="DO15" s="37"/>
-      <c r="DP15" s="37"/>
-      <c r="DQ15" s="37"/>
-      <c r="DR15" s="38"/>
-      <c r="DS15" s="37" t="s">
+      <c r="CZ15" s="44"/>
+      <c r="DA15" s="44"/>
+      <c r="DB15" s="44"/>
+      <c r="DC15" s="44"/>
+      <c r="DD15" s="44"/>
+      <c r="DE15" s="44"/>
+      <c r="DF15" s="44"/>
+      <c r="DG15" s="44"/>
+      <c r="DH15" s="44"/>
+      <c r="DI15" s="44"/>
+      <c r="DJ15" s="44"/>
+      <c r="DK15" s="44"/>
+      <c r="DL15" s="44"/>
+      <c r="DM15" s="44"/>
+      <c r="DN15" s="44"/>
+      <c r="DO15" s="44"/>
+      <c r="DP15" s="44"/>
+      <c r="DQ15" s="44"/>
+      <c r="DR15" s="45"/>
+      <c r="DS15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="DT15" s="37"/>
-      <c r="DU15" s="37"/>
-      <c r="DV15" s="37"/>
-      <c r="DW15" s="37"/>
-      <c r="DX15" s="37"/>
-      <c r="DY15" s="37"/>
-      <c r="DZ15" s="37"/>
-      <c r="EA15" s="37"/>
-      <c r="EB15" s="37"/>
-      <c r="EC15" s="37"/>
-      <c r="ED15" s="37"/>
-      <c r="EE15" s="37"/>
-      <c r="EF15" s="37"/>
-      <c r="EG15" s="37"/>
-      <c r="EH15" s="37"/>
-      <c r="EI15" s="37"/>
-      <c r="EJ15" s="37"/>
-      <c r="EK15" s="37"/>
-      <c r="EL15" s="38"/>
-      <c r="EM15" s="36" t="s">
+      <c r="DT15" s="44"/>
+      <c r="DU15" s="44"/>
+      <c r="DV15" s="44"/>
+      <c r="DW15" s="44"/>
+      <c r="DX15" s="44"/>
+      <c r="DY15" s="44"/>
+      <c r="DZ15" s="44"/>
+      <c r="EA15" s="44"/>
+      <c r="EB15" s="44"/>
+      <c r="EC15" s="44"/>
+      <c r="ED15" s="44"/>
+      <c r="EE15" s="44"/>
+      <c r="EF15" s="44"/>
+      <c r="EG15" s="44"/>
+      <c r="EH15" s="44"/>
+      <c r="EI15" s="44"/>
+      <c r="EJ15" s="44"/>
+      <c r="EK15" s="44"/>
+      <c r="EL15" s="45"/>
+      <c r="EM15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="EN15" s="37"/>
-      <c r="EO15" s="37"/>
-      <c r="EP15" s="37"/>
-      <c r="EQ15" s="37"/>
-      <c r="ER15" s="37"/>
-      <c r="ES15" s="37"/>
-      <c r="ET15" s="37"/>
-      <c r="EU15" s="37"/>
-      <c r="EV15" s="37"/>
-      <c r="EW15" s="37"/>
-      <c r="EX15" s="37"/>
-      <c r="EY15" s="37"/>
-      <c r="EZ15" s="37"/>
-      <c r="FA15" s="37"/>
-      <c r="FB15" s="37"/>
-      <c r="FC15" s="37"/>
-      <c r="FD15" s="37"/>
-      <c r="FE15" s="37"/>
-      <c r="FF15" s="38"/>
-      <c r="FG15" s="37" t="s">
+      <c r="EN15" s="44"/>
+      <c r="EO15" s="44"/>
+      <c r="EP15" s="44"/>
+      <c r="EQ15" s="44"/>
+      <c r="ER15" s="44"/>
+      <c r="ES15" s="44"/>
+      <c r="ET15" s="44"/>
+      <c r="EU15" s="44"/>
+      <c r="EV15" s="44"/>
+      <c r="EW15" s="44"/>
+      <c r="EX15" s="44"/>
+      <c r="EY15" s="44"/>
+      <c r="EZ15" s="44"/>
+      <c r="FA15" s="44"/>
+      <c r="FB15" s="44"/>
+      <c r="FC15" s="44"/>
+      <c r="FD15" s="44"/>
+      <c r="FE15" s="44"/>
+      <c r="FF15" s="45"/>
+      <c r="FG15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="FH15" s="37"/>
-      <c r="FI15" s="37"/>
-      <c r="FJ15" s="37"/>
-      <c r="FK15" s="37"/>
-      <c r="FL15" s="37"/>
-      <c r="FM15" s="37"/>
-      <c r="FN15" s="37"/>
-      <c r="FO15" s="37"/>
-      <c r="FP15" s="37"/>
-      <c r="FQ15" s="37"/>
-      <c r="FR15" s="37"/>
-      <c r="FS15" s="37"/>
-      <c r="FT15" s="37"/>
-      <c r="FU15" s="37"/>
-      <c r="FV15" s="37"/>
-      <c r="FW15" s="37"/>
-      <c r="FX15" s="37"/>
-      <c r="FY15" s="37"/>
-      <c r="FZ15" s="38"/>
-      <c r="GA15" s="36" t="s">
+      <c r="FH15" s="44"/>
+      <c r="FI15" s="44"/>
+      <c r="FJ15" s="44"/>
+      <c r="FK15" s="44"/>
+      <c r="FL15" s="44"/>
+      <c r="FM15" s="44"/>
+      <c r="FN15" s="44"/>
+      <c r="FO15" s="44"/>
+      <c r="FP15" s="44"/>
+      <c r="FQ15" s="44"/>
+      <c r="FR15" s="44"/>
+      <c r="FS15" s="44"/>
+      <c r="FT15" s="44"/>
+      <c r="FU15" s="44"/>
+      <c r="FV15" s="44"/>
+      <c r="FW15" s="44"/>
+      <c r="FX15" s="44"/>
+      <c r="FY15" s="44"/>
+      <c r="FZ15" s="45"/>
+      <c r="GA15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="GB15" s="37"/>
-      <c r="GC15" s="37"/>
-      <c r="GD15" s="37"/>
-      <c r="GE15" s="37"/>
-      <c r="GF15" s="37"/>
-      <c r="GG15" s="37"/>
-      <c r="GH15" s="37"/>
-      <c r="GI15" s="37"/>
-      <c r="GJ15" s="37"/>
-      <c r="GK15" s="37"/>
-      <c r="GL15" s="37"/>
-      <c r="GM15" s="37"/>
-      <c r="GN15" s="37"/>
-      <c r="GO15" s="37"/>
-      <c r="GP15" s="37"/>
-      <c r="GQ15" s="37"/>
-      <c r="GR15" s="37"/>
-      <c r="GS15" s="37"/>
-      <c r="GT15" s="38"/>
-      <c r="GU15" s="37" t="s">
+      <c r="GB15" s="44"/>
+      <c r="GC15" s="44"/>
+      <c r="GD15" s="44"/>
+      <c r="GE15" s="44"/>
+      <c r="GF15" s="44"/>
+      <c r="GG15" s="44"/>
+      <c r="GH15" s="44"/>
+      <c r="GI15" s="44"/>
+      <c r="GJ15" s="44"/>
+      <c r="GK15" s="44"/>
+      <c r="GL15" s="44"/>
+      <c r="GM15" s="44"/>
+      <c r="GN15" s="44"/>
+      <c r="GO15" s="44"/>
+      <c r="GP15" s="44"/>
+      <c r="GQ15" s="44"/>
+      <c r="GR15" s="44"/>
+      <c r="GS15" s="44"/>
+      <c r="GT15" s="45"/>
+      <c r="GU15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="GV15" s="37"/>
-      <c r="GW15" s="37"/>
-      <c r="GX15" s="37"/>
-      <c r="GY15" s="37"/>
-      <c r="GZ15" s="37"/>
-      <c r="HA15" s="37"/>
-      <c r="HB15" s="37"/>
-      <c r="HC15" s="37"/>
-      <c r="HD15" s="37"/>
-      <c r="HE15" s="37"/>
-      <c r="HF15" s="37"/>
-      <c r="HG15" s="37"/>
-      <c r="HH15" s="37"/>
-      <c r="HI15" s="37"/>
-      <c r="HJ15" s="37"/>
-      <c r="HK15" s="37"/>
-      <c r="HL15" s="37"/>
-      <c r="HM15" s="37"/>
-      <c r="HN15" s="38"/>
-      <c r="HO15" s="36" t="s">
+      <c r="GV15" s="44"/>
+      <c r="GW15" s="44"/>
+      <c r="GX15" s="44"/>
+      <c r="GY15" s="44"/>
+      <c r="GZ15" s="44"/>
+      <c r="HA15" s="44"/>
+      <c r="HB15" s="44"/>
+      <c r="HC15" s="44"/>
+      <c r="HD15" s="44"/>
+      <c r="HE15" s="44"/>
+      <c r="HF15" s="44"/>
+      <c r="HG15" s="44"/>
+      <c r="HH15" s="44"/>
+      <c r="HI15" s="44"/>
+      <c r="HJ15" s="44"/>
+      <c r="HK15" s="44"/>
+      <c r="HL15" s="44"/>
+      <c r="HM15" s="44"/>
+      <c r="HN15" s="45"/>
+      <c r="HO15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="HP15" s="37"/>
-      <c r="HQ15" s="37"/>
-      <c r="HR15" s="37"/>
-      <c r="HS15" s="37"/>
-      <c r="HT15" s="37"/>
-      <c r="HU15" s="37"/>
-      <c r="HV15" s="37"/>
-      <c r="HW15" s="37"/>
-      <c r="HX15" s="37"/>
-      <c r="HY15" s="37"/>
-      <c r="HZ15" s="37"/>
-      <c r="IA15" s="37"/>
-      <c r="IB15" s="37"/>
-      <c r="IC15" s="37"/>
-      <c r="ID15" s="37"/>
-      <c r="IE15" s="37"/>
-      <c r="IF15" s="37"/>
-      <c r="IG15" s="37"/>
-      <c r="IH15" s="38"/>
-      <c r="II15" s="37" t="s">
+      <c r="HP15" s="44"/>
+      <c r="HQ15" s="44"/>
+      <c r="HR15" s="44"/>
+      <c r="HS15" s="44"/>
+      <c r="HT15" s="44"/>
+      <c r="HU15" s="44"/>
+      <c r="HV15" s="44"/>
+      <c r="HW15" s="44"/>
+      <c r="HX15" s="44"/>
+      <c r="HY15" s="44"/>
+      <c r="HZ15" s="44"/>
+      <c r="IA15" s="44"/>
+      <c r="IB15" s="44"/>
+      <c r="IC15" s="44"/>
+      <c r="ID15" s="44"/>
+      <c r="IE15" s="44"/>
+      <c r="IF15" s="44"/>
+      <c r="IG15" s="44"/>
+      <c r="IH15" s="45"/>
+      <c r="II15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="IJ15" s="37"/>
-      <c r="IK15" s="37"/>
-      <c r="IL15" s="37"/>
-      <c r="IM15" s="37"/>
-      <c r="IN15" s="37"/>
-      <c r="IO15" s="37"/>
-      <c r="IP15" s="37"/>
-      <c r="IQ15" s="37"/>
-      <c r="IR15" s="37"/>
-      <c r="IS15" s="37"/>
-      <c r="IT15" s="37"/>
-      <c r="IU15" s="37"/>
-      <c r="IV15" s="37"/>
-      <c r="IW15" s="37"/>
-      <c r="IX15" s="37"/>
-      <c r="IY15" s="37"/>
-      <c r="IZ15" s="37"/>
-      <c r="JA15" s="37"/>
-      <c r="JB15" s="38"/>
-      <c r="JC15" s="36" t="s">
+      <c r="IJ15" s="44"/>
+      <c r="IK15" s="44"/>
+      <c r="IL15" s="44"/>
+      <c r="IM15" s="44"/>
+      <c r="IN15" s="44"/>
+      <c r="IO15" s="44"/>
+      <c r="IP15" s="44"/>
+      <c r="IQ15" s="44"/>
+      <c r="IR15" s="44"/>
+      <c r="IS15" s="44"/>
+      <c r="IT15" s="44"/>
+      <c r="IU15" s="44"/>
+      <c r="IV15" s="44"/>
+      <c r="IW15" s="44"/>
+      <c r="IX15" s="44"/>
+      <c r="IY15" s="44"/>
+      <c r="IZ15" s="44"/>
+      <c r="JA15" s="44"/>
+      <c r="JB15" s="45"/>
+      <c r="JC15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="JD15" s="37"/>
-      <c r="JE15" s="37"/>
-      <c r="JF15" s="37"/>
-      <c r="JG15" s="37"/>
-      <c r="JH15" s="37"/>
-      <c r="JI15" s="37"/>
-      <c r="JJ15" s="37"/>
-      <c r="JK15" s="37"/>
-      <c r="JL15" s="37"/>
-      <c r="JM15" s="37"/>
-      <c r="JN15" s="37"/>
-      <c r="JO15" s="37"/>
-      <c r="JP15" s="37"/>
-      <c r="JQ15" s="37"/>
-      <c r="JR15" s="37"/>
-      <c r="JS15" s="37"/>
-      <c r="JT15" s="37"/>
-      <c r="JU15" s="37"/>
-      <c r="JV15" s="38"/>
-      <c r="JW15" s="37" t="s">
+      <c r="JD15" s="44"/>
+      <c r="JE15" s="44"/>
+      <c r="JF15" s="44"/>
+      <c r="JG15" s="44"/>
+      <c r="JH15" s="44"/>
+      <c r="JI15" s="44"/>
+      <c r="JJ15" s="44"/>
+      <c r="JK15" s="44"/>
+      <c r="JL15" s="44"/>
+      <c r="JM15" s="44"/>
+      <c r="JN15" s="44"/>
+      <c r="JO15" s="44"/>
+      <c r="JP15" s="44"/>
+      <c r="JQ15" s="44"/>
+      <c r="JR15" s="44"/>
+      <c r="JS15" s="44"/>
+      <c r="JT15" s="44"/>
+      <c r="JU15" s="44"/>
+      <c r="JV15" s="45"/>
+      <c r="JW15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="JX15" s="37"/>
-      <c r="JY15" s="37"/>
-      <c r="JZ15" s="37"/>
-      <c r="KA15" s="37"/>
-      <c r="KB15" s="37"/>
-      <c r="KC15" s="37"/>
-      <c r="KD15" s="37"/>
-      <c r="KE15" s="37"/>
-      <c r="KF15" s="37"/>
-      <c r="KG15" s="37"/>
-      <c r="KH15" s="37"/>
-      <c r="KI15" s="37"/>
-      <c r="KJ15" s="37"/>
-      <c r="KK15" s="37"/>
-      <c r="KL15" s="37"/>
-      <c r="KM15" s="37"/>
-      <c r="KN15" s="37"/>
-      <c r="KO15" s="37"/>
-      <c r="KP15" s="38"/>
-      <c r="KQ15" s="36" t="s">
+      <c r="JX15" s="44"/>
+      <c r="JY15" s="44"/>
+      <c r="JZ15" s="44"/>
+      <c r="KA15" s="44"/>
+      <c r="KB15" s="44"/>
+      <c r="KC15" s="44"/>
+      <c r="KD15" s="44"/>
+      <c r="KE15" s="44"/>
+      <c r="KF15" s="44"/>
+      <c r="KG15" s="44"/>
+      <c r="KH15" s="44"/>
+      <c r="KI15" s="44"/>
+      <c r="KJ15" s="44"/>
+      <c r="KK15" s="44"/>
+      <c r="KL15" s="44"/>
+      <c r="KM15" s="44"/>
+      <c r="KN15" s="44"/>
+      <c r="KO15" s="44"/>
+      <c r="KP15" s="45"/>
+      <c r="KQ15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="KR15" s="37"/>
-      <c r="KS15" s="37"/>
-      <c r="KT15" s="37"/>
-      <c r="KU15" s="37"/>
-      <c r="KV15" s="37"/>
-      <c r="KW15" s="37"/>
-      <c r="KX15" s="37"/>
-      <c r="KY15" s="37"/>
-      <c r="KZ15" s="37"/>
-      <c r="LA15" s="37"/>
-      <c r="LB15" s="37"/>
-      <c r="LC15" s="37"/>
-      <c r="LD15" s="37"/>
-      <c r="LE15" s="37"/>
-      <c r="LF15" s="37"/>
-      <c r="LG15" s="37"/>
-      <c r="LH15" s="37"/>
-      <c r="LI15" s="37"/>
-      <c r="LJ15" s="38"/>
-      <c r="LK15" s="37" t="s">
+      <c r="KR15" s="44"/>
+      <c r="KS15" s="44"/>
+      <c r="KT15" s="44"/>
+      <c r="KU15" s="44"/>
+      <c r="KV15" s="44"/>
+      <c r="KW15" s="44"/>
+      <c r="KX15" s="44"/>
+      <c r="KY15" s="44"/>
+      <c r="KZ15" s="44"/>
+      <c r="LA15" s="44"/>
+      <c r="LB15" s="44"/>
+      <c r="LC15" s="44"/>
+      <c r="LD15" s="44"/>
+      <c r="LE15" s="44"/>
+      <c r="LF15" s="44"/>
+      <c r="LG15" s="44"/>
+      <c r="LH15" s="44"/>
+      <c r="LI15" s="44"/>
+      <c r="LJ15" s="45"/>
+      <c r="LK15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="LL15" s="37"/>
-      <c r="LM15" s="37"/>
-      <c r="LN15" s="37"/>
-      <c r="LO15" s="37"/>
-      <c r="LP15" s="37"/>
-      <c r="LQ15" s="37"/>
-      <c r="LR15" s="37"/>
-      <c r="LS15" s="37"/>
-      <c r="LT15" s="37"/>
-      <c r="LU15" s="37"/>
-      <c r="LV15" s="37"/>
-      <c r="LW15" s="37"/>
-      <c r="LX15" s="37"/>
-      <c r="LY15" s="37"/>
-      <c r="LZ15" s="37"/>
-      <c r="MA15" s="37"/>
-      <c r="MB15" s="37"/>
-      <c r="MC15" s="37"/>
-      <c r="MD15" s="38"/>
-      <c r="ME15" s="36" t="s">
+      <c r="LL15" s="44"/>
+      <c r="LM15" s="44"/>
+      <c r="LN15" s="44"/>
+      <c r="LO15" s="44"/>
+      <c r="LP15" s="44"/>
+      <c r="LQ15" s="44"/>
+      <c r="LR15" s="44"/>
+      <c r="LS15" s="44"/>
+      <c r="LT15" s="44"/>
+      <c r="LU15" s="44"/>
+      <c r="LV15" s="44"/>
+      <c r="LW15" s="44"/>
+      <c r="LX15" s="44"/>
+      <c r="LY15" s="44"/>
+      <c r="LZ15" s="44"/>
+      <c r="MA15" s="44"/>
+      <c r="MB15" s="44"/>
+      <c r="MC15" s="44"/>
+      <c r="MD15" s="45"/>
+      <c r="ME15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="MF15" s="37"/>
-      <c r="MG15" s="37"/>
-      <c r="MH15" s="37"/>
-      <c r="MI15" s="37"/>
-      <c r="MJ15" s="37"/>
-      <c r="MK15" s="37"/>
-      <c r="ML15" s="37"/>
-      <c r="MM15" s="37"/>
-      <c r="MN15" s="37"/>
-      <c r="MO15" s="37"/>
-      <c r="MP15" s="37"/>
-      <c r="MQ15" s="37"/>
-      <c r="MR15" s="37"/>
-      <c r="MS15" s="37"/>
-      <c r="MT15" s="37"/>
-      <c r="MU15" s="37"/>
-      <c r="MV15" s="37"/>
-      <c r="MW15" s="37"/>
-      <c r="MX15" s="38"/>
-      <c r="MY15" s="37" t="s">
+      <c r="MF15" s="44"/>
+      <c r="MG15" s="44"/>
+      <c r="MH15" s="44"/>
+      <c r="MI15" s="44"/>
+      <c r="MJ15" s="44"/>
+      <c r="MK15" s="44"/>
+      <c r="ML15" s="44"/>
+      <c r="MM15" s="44"/>
+      <c r="MN15" s="44"/>
+      <c r="MO15" s="44"/>
+      <c r="MP15" s="44"/>
+      <c r="MQ15" s="44"/>
+      <c r="MR15" s="44"/>
+      <c r="MS15" s="44"/>
+      <c r="MT15" s="44"/>
+      <c r="MU15" s="44"/>
+      <c r="MV15" s="44"/>
+      <c r="MW15" s="44"/>
+      <c r="MX15" s="45"/>
+      <c r="MY15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="MZ15" s="37"/>
-      <c r="NA15" s="37"/>
-      <c r="NB15" s="37"/>
-      <c r="NC15" s="37"/>
-      <c r="ND15" s="37"/>
-      <c r="NE15" s="37"/>
-      <c r="NF15" s="37"/>
-      <c r="NG15" s="37"/>
-      <c r="NH15" s="37"/>
-      <c r="NI15" s="37"/>
-      <c r="NJ15" s="37"/>
-      <c r="NK15" s="37"/>
-      <c r="NL15" s="37"/>
-      <c r="NM15" s="37"/>
-      <c r="NN15" s="37"/>
-      <c r="NO15" s="37"/>
-      <c r="NP15" s="37"/>
-      <c r="NQ15" s="37"/>
-      <c r="NR15" s="38"/>
-      <c r="NS15" s="36" t="s">
+      <c r="MZ15" s="44"/>
+      <c r="NA15" s="44"/>
+      <c r="NB15" s="44"/>
+      <c r="NC15" s="44"/>
+      <c r="ND15" s="44"/>
+      <c r="NE15" s="44"/>
+      <c r="NF15" s="44"/>
+      <c r="NG15" s="44"/>
+      <c r="NH15" s="44"/>
+      <c r="NI15" s="44"/>
+      <c r="NJ15" s="44"/>
+      <c r="NK15" s="44"/>
+      <c r="NL15" s="44"/>
+      <c r="NM15" s="44"/>
+      <c r="NN15" s="44"/>
+      <c r="NO15" s="44"/>
+      <c r="NP15" s="44"/>
+      <c r="NQ15" s="44"/>
+      <c r="NR15" s="45"/>
+      <c r="NS15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="NT15" s="37"/>
-      <c r="NU15" s="37"/>
-      <c r="NV15" s="37"/>
-      <c r="NW15" s="37"/>
-      <c r="NX15" s="37"/>
-      <c r="NY15" s="37"/>
-      <c r="NZ15" s="37"/>
-      <c r="OA15" s="37"/>
-      <c r="OB15" s="37"/>
-      <c r="OC15" s="37"/>
-      <c r="OD15" s="37"/>
-      <c r="OE15" s="37"/>
-      <c r="OF15" s="37"/>
-      <c r="OG15" s="37"/>
-      <c r="OH15" s="37"/>
-      <c r="OI15" s="37"/>
-      <c r="OJ15" s="37"/>
-      <c r="OK15" s="37"/>
-      <c r="OL15" s="38"/>
-      <c r="OM15" s="37" t="s">
+      <c r="NT15" s="44"/>
+      <c r="NU15" s="44"/>
+      <c r="NV15" s="44"/>
+      <c r="NW15" s="44"/>
+      <c r="NX15" s="44"/>
+      <c r="NY15" s="44"/>
+      <c r="NZ15" s="44"/>
+      <c r="OA15" s="44"/>
+      <c r="OB15" s="44"/>
+      <c r="OC15" s="44"/>
+      <c r="OD15" s="44"/>
+      <c r="OE15" s="44"/>
+      <c r="OF15" s="44"/>
+      <c r="OG15" s="44"/>
+      <c r="OH15" s="44"/>
+      <c r="OI15" s="44"/>
+      <c r="OJ15" s="44"/>
+      <c r="OK15" s="44"/>
+      <c r="OL15" s="45"/>
+      <c r="OM15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="ON15" s="37"/>
-      <c r="OO15" s="37"/>
-      <c r="OP15" s="37"/>
-      <c r="OQ15" s="37"/>
-      <c r="OR15" s="37"/>
-      <c r="OS15" s="37"/>
-      <c r="OT15" s="37"/>
-      <c r="OU15" s="37"/>
-      <c r="OV15" s="37"/>
-      <c r="OW15" s="37"/>
-      <c r="OX15" s="37"/>
-      <c r="OY15" s="37"/>
-      <c r="OZ15" s="37"/>
-      <c r="PA15" s="37"/>
-      <c r="PB15" s="37"/>
-      <c r="PC15" s="37"/>
-      <c r="PD15" s="37"/>
-      <c r="PE15" s="37"/>
-      <c r="PF15" s="38"/>
-      <c r="PG15" s="36" t="s">
+      <c r="ON15" s="44"/>
+      <c r="OO15" s="44"/>
+      <c r="OP15" s="44"/>
+      <c r="OQ15" s="44"/>
+      <c r="OR15" s="44"/>
+      <c r="OS15" s="44"/>
+      <c r="OT15" s="44"/>
+      <c r="OU15" s="44"/>
+      <c r="OV15" s="44"/>
+      <c r="OW15" s="44"/>
+      <c r="OX15" s="44"/>
+      <c r="OY15" s="44"/>
+      <c r="OZ15" s="44"/>
+      <c r="PA15" s="44"/>
+      <c r="PB15" s="44"/>
+      <c r="PC15" s="44"/>
+      <c r="PD15" s="44"/>
+      <c r="PE15" s="44"/>
+      <c r="PF15" s="45"/>
+      <c r="PG15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="PH15" s="37"/>
-      <c r="PI15" s="37"/>
-      <c r="PJ15" s="37"/>
-      <c r="PK15" s="37"/>
-      <c r="PL15" s="37"/>
-      <c r="PM15" s="37"/>
-      <c r="PN15" s="37"/>
-      <c r="PO15" s="37"/>
-      <c r="PP15" s="37"/>
-      <c r="PQ15" s="37"/>
-      <c r="PR15" s="37"/>
-      <c r="PS15" s="37"/>
-      <c r="PT15" s="37"/>
-      <c r="PU15" s="37"/>
-      <c r="PV15" s="37"/>
-      <c r="PW15" s="37"/>
-      <c r="PX15" s="37"/>
-      <c r="PY15" s="37"/>
-      <c r="PZ15" s="38"/>
-      <c r="QA15" s="37" t="s">
+      <c r="PH15" s="44"/>
+      <c r="PI15" s="44"/>
+      <c r="PJ15" s="44"/>
+      <c r="PK15" s="44"/>
+      <c r="PL15" s="44"/>
+      <c r="PM15" s="44"/>
+      <c r="PN15" s="44"/>
+      <c r="PO15" s="44"/>
+      <c r="PP15" s="44"/>
+      <c r="PQ15" s="44"/>
+      <c r="PR15" s="44"/>
+      <c r="PS15" s="44"/>
+      <c r="PT15" s="44"/>
+      <c r="PU15" s="44"/>
+      <c r="PV15" s="44"/>
+      <c r="PW15" s="44"/>
+      <c r="PX15" s="44"/>
+      <c r="PY15" s="44"/>
+      <c r="PZ15" s="45"/>
+      <c r="QA15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="QB15" s="37"/>
-      <c r="QC15" s="37"/>
-      <c r="QD15" s="37"/>
-      <c r="QE15" s="37"/>
-      <c r="QF15" s="37"/>
-      <c r="QG15" s="37"/>
-      <c r="QH15" s="37"/>
-      <c r="QI15" s="37"/>
-      <c r="QJ15" s="37"/>
-      <c r="QK15" s="37"/>
-      <c r="QL15" s="37"/>
-      <c r="QM15" s="37"/>
-      <c r="QN15" s="37"/>
-      <c r="QO15" s="37"/>
-      <c r="QP15" s="37"/>
-      <c r="QQ15" s="37"/>
-      <c r="QR15" s="37"/>
-      <c r="QS15" s="37"/>
-      <c r="QT15" s="38"/>
-      <c r="QU15" s="36" t="s">
+      <c r="QB15" s="44"/>
+      <c r="QC15" s="44"/>
+      <c r="QD15" s="44"/>
+      <c r="QE15" s="44"/>
+      <c r="QF15" s="44"/>
+      <c r="QG15" s="44"/>
+      <c r="QH15" s="44"/>
+      <c r="QI15" s="44"/>
+      <c r="QJ15" s="44"/>
+      <c r="QK15" s="44"/>
+      <c r="QL15" s="44"/>
+      <c r="QM15" s="44"/>
+      <c r="QN15" s="44"/>
+      <c r="QO15" s="44"/>
+      <c r="QP15" s="44"/>
+      <c r="QQ15" s="44"/>
+      <c r="QR15" s="44"/>
+      <c r="QS15" s="44"/>
+      <c r="QT15" s="45"/>
+      <c r="QU15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="QV15" s="37"/>
-      <c r="QW15" s="37"/>
-      <c r="QX15" s="37"/>
-      <c r="QY15" s="37"/>
-      <c r="QZ15" s="37"/>
-      <c r="RA15" s="37"/>
-      <c r="RB15" s="37"/>
-      <c r="RC15" s="37"/>
-      <c r="RD15" s="37"/>
-      <c r="RE15" s="37"/>
-      <c r="RF15" s="37"/>
-      <c r="RG15" s="37"/>
-      <c r="RH15" s="37"/>
-      <c r="RI15" s="37"/>
-      <c r="RJ15" s="37"/>
-      <c r="RK15" s="37"/>
-      <c r="RL15" s="37"/>
-      <c r="RM15" s="37"/>
-      <c r="RN15" s="38"/>
-      <c r="RO15" s="37" t="s">
+      <c r="QV15" s="44"/>
+      <c r="QW15" s="44"/>
+      <c r="QX15" s="44"/>
+      <c r="QY15" s="44"/>
+      <c r="QZ15" s="44"/>
+      <c r="RA15" s="44"/>
+      <c r="RB15" s="44"/>
+      <c r="RC15" s="44"/>
+      <c r="RD15" s="44"/>
+      <c r="RE15" s="44"/>
+      <c r="RF15" s="44"/>
+      <c r="RG15" s="44"/>
+      <c r="RH15" s="44"/>
+      <c r="RI15" s="44"/>
+      <c r="RJ15" s="44"/>
+      <c r="RK15" s="44"/>
+      <c r="RL15" s="44"/>
+      <c r="RM15" s="44"/>
+      <c r="RN15" s="45"/>
+      <c r="RO15" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="RP15" s="37"/>
-      <c r="RQ15" s="37"/>
-      <c r="RR15" s="37"/>
-      <c r="RS15" s="37"/>
-      <c r="RT15" s="37"/>
-      <c r="RU15" s="37"/>
-      <c r="RV15" s="37"/>
-      <c r="RW15" s="37"/>
-      <c r="RX15" s="37"/>
-      <c r="RY15" s="37"/>
-      <c r="RZ15" s="37"/>
-      <c r="SA15" s="37"/>
-      <c r="SB15" s="37"/>
-      <c r="SC15" s="37"/>
-      <c r="SD15" s="37"/>
-      <c r="SE15" s="37"/>
-      <c r="SF15" s="37"/>
-      <c r="SG15" s="37"/>
-      <c r="SH15" s="38"/>
-      <c r="SI15" s="36" t="s">
+      <c r="RP15" s="44"/>
+      <c r="RQ15" s="44"/>
+      <c r="RR15" s="44"/>
+      <c r="RS15" s="44"/>
+      <c r="RT15" s="44"/>
+      <c r="RU15" s="44"/>
+      <c r="RV15" s="44"/>
+      <c r="RW15" s="44"/>
+      <c r="RX15" s="44"/>
+      <c r="RY15" s="44"/>
+      <c r="RZ15" s="44"/>
+      <c r="SA15" s="44"/>
+      <c r="SB15" s="44"/>
+      <c r="SC15" s="44"/>
+      <c r="SD15" s="44"/>
+      <c r="SE15" s="44"/>
+      <c r="SF15" s="44"/>
+      <c r="SG15" s="44"/>
+      <c r="SH15" s="45"/>
+      <c r="SI15" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="SJ15" s="37"/>
-      <c r="SK15" s="37"/>
-      <c r="SL15" s="37"/>
-      <c r="SM15" s="37"/>
-      <c r="SN15" s="37"/>
-      <c r="SO15" s="37"/>
-      <c r="SP15" s="37"/>
-      <c r="SQ15" s="37"/>
-      <c r="SR15" s="37"/>
-      <c r="SS15" s="37"/>
-      <c r="ST15" s="37"/>
-      <c r="SU15" s="37"/>
-      <c r="SV15" s="37"/>
-      <c r="SW15" s="37"/>
-      <c r="SX15" s="37"/>
-      <c r="SY15" s="37"/>
-      <c r="SZ15" s="37"/>
-      <c r="TA15" s="37"/>
-      <c r="TB15" s="38"/>
-      <c r="TC15" s="36"/>
-      <c r="TD15" s="37"/>
-      <c r="TE15" s="37"/>
-      <c r="TF15" s="37"/>
-      <c r="TG15" s="37"/>
-      <c r="TH15" s="37"/>
-      <c r="TI15" s="37"/>
-      <c r="TJ15" s="37"/>
-      <c r="TK15" s="37"/>
-      <c r="TL15" s="37"/>
-      <c r="TM15" s="37"/>
-      <c r="TN15" s="37"/>
-      <c r="TO15" s="37"/>
-      <c r="TP15" s="37"/>
-      <c r="TQ15" s="37"/>
-      <c r="TR15" s="37"/>
-      <c r="TS15" s="37"/>
-      <c r="TT15" s="37"/>
-      <c r="TU15" s="37"/>
-      <c r="TV15" s="38"/>
-      <c r="TW15" s="36"/>
-      <c r="TX15" s="37"/>
-      <c r="TY15" s="37"/>
-      <c r="TZ15" s="37"/>
-      <c r="UA15" s="37"/>
-      <c r="UB15" s="37"/>
-      <c r="UC15" s="37"/>
-      <c r="UD15" s="37"/>
-      <c r="UE15" s="37"/>
-      <c r="UF15" s="37"/>
-      <c r="UG15" s="37"/>
-      <c r="UH15" s="37"/>
-      <c r="UI15" s="37"/>
-      <c r="UJ15" s="37"/>
-      <c r="UK15" s="37"/>
-      <c r="UL15" s="37"/>
-      <c r="UM15" s="37"/>
-      <c r="UN15" s="37"/>
-      <c r="UO15" s="37"/>
-      <c r="UP15" s="38"/>
-      <c r="UQ15" s="36"/>
-      <c r="UR15" s="37"/>
-      <c r="US15" s="37"/>
-      <c r="UT15" s="37"/>
-      <c r="UU15" s="37"/>
-      <c r="UV15" s="37"/>
-      <c r="UW15" s="37"/>
-      <c r="UX15" s="37"/>
-      <c r="UY15" s="37"/>
-      <c r="UZ15" s="37"/>
-      <c r="VA15" s="37"/>
-      <c r="VB15" s="37"/>
-      <c r="VC15" s="37"/>
-      <c r="VD15" s="37"/>
-      <c r="VE15" s="37"/>
-      <c r="VF15" s="37"/>
-      <c r="VG15" s="37"/>
-      <c r="VH15" s="37"/>
-      <c r="VI15" s="37"/>
-      <c r="VJ15" s="38"/>
-      <c r="VK15" s="36"/>
-      <c r="VL15" s="37"/>
-      <c r="VM15" s="37"/>
-      <c r="VN15" s="37"/>
-      <c r="VO15" s="37"/>
-      <c r="VP15" s="37"/>
-      <c r="VQ15" s="37"/>
-      <c r="VR15" s="37"/>
-      <c r="VS15" s="37"/>
-      <c r="VT15" s="37"/>
-      <c r="VU15" s="37"/>
-      <c r="VV15" s="37"/>
-      <c r="VW15" s="37"/>
-      <c r="VX15" s="37"/>
-      <c r="VY15" s="37"/>
-      <c r="VZ15" s="37"/>
-      <c r="WA15" s="37"/>
-      <c r="WB15" s="37"/>
-      <c r="WC15" s="37"/>
-      <c r="WD15" s="38"/>
-      <c r="WE15" s="36"/>
-      <c r="WF15" s="37"/>
-      <c r="WG15" s="37"/>
-      <c r="WH15" s="37"/>
-      <c r="WI15" s="37"/>
-      <c r="WJ15" s="37"/>
-      <c r="WK15" s="37"/>
-      <c r="WL15" s="37"/>
-      <c r="WM15" s="37"/>
-      <c r="WN15" s="37"/>
-      <c r="WO15" s="37"/>
-      <c r="WP15" s="37"/>
-      <c r="WQ15" s="37"/>
-      <c r="WR15" s="37"/>
-      <c r="WS15" s="37"/>
-      <c r="WT15" s="37"/>
-      <c r="WU15" s="37"/>
-      <c r="WV15" s="37"/>
-      <c r="WW15" s="37"/>
-      <c r="WX15" s="38"/>
-      <c r="WY15" s="36"/>
-      <c r="WZ15" s="37"/>
-      <c r="XA15" s="37"/>
-      <c r="XB15" s="37"/>
-      <c r="XC15" s="37"/>
-      <c r="XD15" s="37"/>
-      <c r="XE15" s="37"/>
-      <c r="XF15" s="37"/>
-      <c r="XG15" s="37"/>
-      <c r="XH15" s="37"/>
-      <c r="XI15" s="37"/>
-      <c r="XJ15" s="37"/>
-      <c r="XK15" s="37"/>
-      <c r="XL15" s="37"/>
-      <c r="XM15" s="37"/>
-      <c r="XN15" s="37"/>
-      <c r="XO15" s="37"/>
-      <c r="XP15" s="37"/>
-      <c r="XQ15" s="37"/>
-      <c r="XR15" s="38"/>
-      <c r="XS15" s="36"/>
-      <c r="XT15" s="37"/>
-      <c r="XU15" s="37"/>
-      <c r="XV15" s="37"/>
-      <c r="XW15" s="37"/>
-      <c r="XX15" s="37"/>
-      <c r="XY15" s="37"/>
-      <c r="XZ15" s="37"/>
-      <c r="YA15" s="37"/>
-      <c r="YB15" s="37"/>
-      <c r="YC15" s="37"/>
-      <c r="YD15" s="37"/>
-      <c r="YE15" s="37"/>
-      <c r="YF15" s="37"/>
-      <c r="YG15" s="37"/>
-      <c r="YH15" s="37"/>
-      <c r="YI15" s="37"/>
-      <c r="YJ15" s="37"/>
-      <c r="YK15" s="37"/>
-      <c r="YL15" s="38"/>
-      <c r="YM15" s="36"/>
-      <c r="YN15" s="37"/>
-      <c r="YO15" s="37"/>
-      <c r="YP15" s="37"/>
-      <c r="YQ15" s="37"/>
-      <c r="YR15" s="37"/>
-      <c r="YS15" s="37"/>
-      <c r="YT15" s="37"/>
-      <c r="YU15" s="37"/>
-      <c r="YV15" s="37"/>
-      <c r="YW15" s="37"/>
-      <c r="YX15" s="37"/>
-      <c r="YY15" s="37"/>
-      <c r="YZ15" s="37"/>
-      <c r="ZA15" s="37"/>
-      <c r="ZB15" s="37"/>
-      <c r="ZC15" s="37"/>
-      <c r="ZD15" s="37"/>
-      <c r="ZE15" s="37"/>
-      <c r="ZF15" s="38"/>
-      <c r="ZG15" s="36"/>
-      <c r="ZH15" s="37"/>
-      <c r="ZI15" s="37"/>
-      <c r="ZJ15" s="37"/>
-      <c r="ZK15" s="37"/>
-      <c r="ZL15" s="37"/>
-      <c r="ZM15" s="37"/>
-      <c r="ZN15" s="37"/>
-      <c r="ZO15" s="37"/>
-      <c r="ZP15" s="37"/>
-      <c r="ZQ15" s="37"/>
-      <c r="ZR15" s="37"/>
-      <c r="ZS15" s="37"/>
-      <c r="ZT15" s="37"/>
-      <c r="ZU15" s="37"/>
-      <c r="ZV15" s="37"/>
-      <c r="ZW15" s="37"/>
-      <c r="ZX15" s="37"/>
-      <c r="ZY15" s="37"/>
-      <c r="ZZ15" s="38"/>
-      <c r="AAA15" s="36"/>
-      <c r="AAB15" s="37"/>
-      <c r="AAC15" s="37"/>
-      <c r="AAD15" s="37"/>
-      <c r="AAE15" s="37"/>
-      <c r="AAF15" s="37"/>
-      <c r="AAG15" s="37"/>
-      <c r="AAH15" s="37"/>
-      <c r="AAI15" s="37"/>
-      <c r="AAJ15" s="37"/>
-      <c r="AAK15" s="37"/>
-      <c r="AAL15" s="37"/>
-      <c r="AAM15" s="37"/>
-      <c r="AAN15" s="37"/>
-      <c r="AAO15" s="37"/>
-      <c r="AAP15" s="37"/>
-      <c r="AAQ15" s="37"/>
-      <c r="AAR15" s="37"/>
-      <c r="AAS15" s="37"/>
-      <c r="AAT15" s="38"/>
-      <c r="AAU15" s="36"/>
-      <c r="AAV15" s="37"/>
-      <c r="AAW15" s="37"/>
-      <c r="AAX15" s="37"/>
-      <c r="AAY15" s="37"/>
-      <c r="AAZ15" s="37"/>
-      <c r="ABA15" s="37"/>
-      <c r="ABB15" s="37"/>
-      <c r="ABC15" s="37"/>
-      <c r="ABD15" s="37"/>
-      <c r="ABE15" s="37"/>
-      <c r="ABF15" s="37"/>
-      <c r="ABG15" s="37"/>
-      <c r="ABH15" s="37"/>
-      <c r="ABI15" s="37"/>
-      <c r="ABJ15" s="37"/>
-      <c r="ABK15" s="37"/>
-      <c r="ABL15" s="37"/>
-      <c r="ABM15" s="37"/>
-      <c r="ABN15" s="38"/>
-      <c r="ABO15" s="36"/>
-      <c r="ABP15" s="37"/>
-      <c r="ABQ15" s="37"/>
-      <c r="ABR15" s="37"/>
-      <c r="ABS15" s="37"/>
-      <c r="ABT15" s="37"/>
-      <c r="ABU15" s="37"/>
-      <c r="ABV15" s="37"/>
-      <c r="ABW15" s="37"/>
-      <c r="ABX15" s="37"/>
-      <c r="ABY15" s="37"/>
-      <c r="ABZ15" s="37"/>
-      <c r="ACA15" s="37"/>
-      <c r="ACB15" s="37"/>
-      <c r="ACC15" s="37"/>
-      <c r="ACD15" s="37"/>
-      <c r="ACE15" s="37"/>
-      <c r="ACF15" s="37"/>
-      <c r="ACG15" s="37"/>
-      <c r="ACH15" s="38"/>
-      <c r="ACI15" s="36"/>
-      <c r="ACJ15" s="37"/>
-      <c r="ACK15" s="37"/>
-      <c r="ACL15" s="37"/>
-      <c r="ACM15" s="37"/>
-      <c r="ACN15" s="37"/>
-      <c r="ACO15" s="37"/>
-      <c r="ACP15" s="37"/>
-      <c r="ACQ15" s="37"/>
-      <c r="ACR15" s="37"/>
-      <c r="ACS15" s="37"/>
-      <c r="ACT15" s="37"/>
-      <c r="ACU15" s="37"/>
-      <c r="ACV15" s="37"/>
-      <c r="ACW15" s="37"/>
-      <c r="ACX15" s="37"/>
-      <c r="ACY15" s="37"/>
-      <c r="ACZ15" s="37"/>
-      <c r="ADA15" s="37"/>
-      <c r="ADB15" s="38"/>
-      <c r="ADC15" s="36"/>
-      <c r="ADD15" s="37"/>
-      <c r="ADE15" s="37"/>
-      <c r="ADF15" s="37"/>
-      <c r="ADG15" s="37"/>
-      <c r="ADH15" s="37"/>
-      <c r="ADI15" s="37"/>
-      <c r="ADJ15" s="37"/>
-      <c r="ADK15" s="37"/>
-      <c r="ADL15" s="37"/>
-      <c r="ADM15" s="37"/>
-      <c r="ADN15" s="37"/>
-      <c r="ADO15" s="37"/>
-      <c r="ADP15" s="37"/>
-      <c r="ADQ15" s="37"/>
-      <c r="ADR15" s="37"/>
-      <c r="ADS15" s="37"/>
-      <c r="ADT15" s="37"/>
-      <c r="ADU15" s="37"/>
-      <c r="ADV15" s="38"/>
-      <c r="ADW15" s="36"/>
-      <c r="ADX15" s="37"/>
-      <c r="ADY15" s="37"/>
-      <c r="ADZ15" s="37"/>
-      <c r="AEA15" s="37"/>
-      <c r="AEB15" s="37"/>
-      <c r="AEC15" s="37"/>
-      <c r="AED15" s="37"/>
-      <c r="AEE15" s="37"/>
-      <c r="AEF15" s="37"/>
-      <c r="AEG15" s="37"/>
-      <c r="AEH15" s="37"/>
-      <c r="AEI15" s="37"/>
-      <c r="AEJ15" s="37"/>
-      <c r="AEK15" s="37"/>
-      <c r="AEL15" s="37"/>
-      <c r="AEM15" s="37"/>
-      <c r="AEN15" s="37"/>
-      <c r="AEO15" s="37"/>
-      <c r="AEP15" s="38"/>
-      <c r="AEQ15" s="36"/>
-      <c r="AER15" s="37"/>
-      <c r="AES15" s="37"/>
-      <c r="AET15" s="37"/>
-      <c r="AEU15" s="37"/>
-      <c r="AEV15" s="37"/>
-      <c r="AEW15" s="37"/>
-      <c r="AEX15" s="37"/>
-      <c r="AEY15" s="37"/>
-      <c r="AEZ15" s="37"/>
-      <c r="AFA15" s="37"/>
-      <c r="AFB15" s="37"/>
-      <c r="AFC15" s="37"/>
-      <c r="AFD15" s="37"/>
-      <c r="AFE15" s="37"/>
-      <c r="AFF15" s="37"/>
-      <c r="AFG15" s="37"/>
-      <c r="AFH15" s="37"/>
-      <c r="AFI15" s="37"/>
-      <c r="AFJ15" s="38"/>
-      <c r="AFK15" s="36"/>
-      <c r="AFL15" s="37"/>
-      <c r="AFM15" s="37"/>
-      <c r="AFN15" s="37"/>
-      <c r="AFO15" s="37"/>
-      <c r="AFP15" s="37"/>
-      <c r="AFQ15" s="37"/>
-      <c r="AFR15" s="37"/>
-      <c r="AFS15" s="37"/>
-      <c r="AFT15" s="37"/>
-      <c r="AFU15" s="37"/>
-      <c r="AFV15" s="37"/>
-      <c r="AFW15" s="37"/>
-      <c r="AFX15" s="37"/>
-      <c r="AFY15" s="37"/>
-      <c r="AFZ15" s="37"/>
-      <c r="AGA15" s="37"/>
-      <c r="AGB15" s="37"/>
-      <c r="AGC15" s="37"/>
-      <c r="AGD15" s="38"/>
-      <c r="AGE15" s="36"/>
-      <c r="AGF15" s="37"/>
-      <c r="AGG15" s="37"/>
-      <c r="AGH15" s="37"/>
-      <c r="AGI15" s="37"/>
-      <c r="AGJ15" s="37"/>
-      <c r="AGK15" s="37"/>
-      <c r="AGL15" s="37"/>
-      <c r="AGM15" s="37"/>
-      <c r="AGN15" s="37"/>
-      <c r="AGO15" s="37"/>
-      <c r="AGP15" s="37"/>
-      <c r="AGQ15" s="37"/>
-      <c r="AGR15" s="37"/>
-      <c r="AGS15" s="37"/>
-      <c r="AGT15" s="37"/>
-      <c r="AGU15" s="37"/>
-      <c r="AGV15" s="37"/>
-      <c r="AGW15" s="37"/>
-      <c r="AGX15" s="38"/>
-      <c r="AGY15" s="36"/>
-      <c r="AGZ15" s="37"/>
-      <c r="AHA15" s="37"/>
-      <c r="AHB15" s="37"/>
-      <c r="AHC15" s="37"/>
-      <c r="AHD15" s="37"/>
-      <c r="AHE15" s="37"/>
-      <c r="AHF15" s="37"/>
-      <c r="AHG15" s="37"/>
-      <c r="AHH15" s="37"/>
-      <c r="AHI15" s="37"/>
-      <c r="AHJ15" s="37"/>
-      <c r="AHK15" s="37"/>
-      <c r="AHL15" s="37"/>
-      <c r="AHM15" s="37"/>
-      <c r="AHN15" s="37"/>
-      <c r="AHO15" s="37"/>
-      <c r="AHP15" s="37"/>
-      <c r="AHQ15" s="37"/>
-      <c r="AHR15" s="38"/>
-      <c r="AHS15" s="36"/>
-      <c r="AHT15" s="37"/>
-      <c r="AHU15" s="37"/>
-      <c r="AHV15" s="37"/>
-      <c r="AHW15" s="37"/>
-      <c r="AHX15" s="37"/>
-      <c r="AHY15" s="37"/>
-      <c r="AHZ15" s="37"/>
-      <c r="AIA15" s="37"/>
-      <c r="AIB15" s="37"/>
-      <c r="AIC15" s="37"/>
-      <c r="AID15" s="37"/>
-      <c r="AIE15" s="37"/>
-      <c r="AIF15" s="37"/>
-      <c r="AIG15" s="37"/>
-      <c r="AIH15" s="37"/>
-      <c r="AII15" s="37"/>
-      <c r="AIJ15" s="37"/>
-      <c r="AIK15" s="37"/>
-      <c r="AIL15" s="38"/>
-      <c r="AIM15" s="36"/>
-      <c r="AIN15" s="37"/>
-      <c r="AIO15" s="37"/>
-      <c r="AIP15" s="37"/>
-      <c r="AIQ15" s="37"/>
-      <c r="AIR15" s="37"/>
-      <c r="AIS15" s="37"/>
-      <c r="AIT15" s="37"/>
-      <c r="AIU15" s="37"/>
-      <c r="AIV15" s="37"/>
-      <c r="AIW15" s="37"/>
-      <c r="AIX15" s="37"/>
-      <c r="AIY15" s="37"/>
-      <c r="AIZ15" s="37"/>
-      <c r="AJA15" s="37"/>
-      <c r="AJB15" s="37"/>
-      <c r="AJC15" s="37"/>
-      <c r="AJD15" s="37"/>
-      <c r="AJE15" s="37"/>
-      <c r="AJF15" s="38"/>
-      <c r="AJG15" s="36"/>
-      <c r="AJH15" s="37"/>
-      <c r="AJI15" s="37"/>
-      <c r="AJJ15" s="37"/>
-      <c r="AJK15" s="37"/>
-      <c r="AJL15" s="37"/>
-      <c r="AJM15" s="37"/>
-      <c r="AJN15" s="37"/>
-      <c r="AJO15" s="37"/>
-      <c r="AJP15" s="37"/>
-      <c r="AJQ15" s="37"/>
-      <c r="AJR15" s="37"/>
-      <c r="AJS15" s="37"/>
-      <c r="AJT15" s="37"/>
-      <c r="AJU15" s="37"/>
-      <c r="AJV15" s="37"/>
-      <c r="AJW15" s="37"/>
-      <c r="AJX15" s="37"/>
-      <c r="AJY15" s="37"/>
-      <c r="AJZ15" s="38"/>
-      <c r="AKA15" s="36"/>
-      <c r="AKB15" s="37"/>
-      <c r="AKC15" s="37"/>
-      <c r="AKD15" s="37"/>
-      <c r="AKE15" s="37"/>
-      <c r="AKF15" s="37"/>
-      <c r="AKG15" s="37"/>
-      <c r="AKH15" s="37"/>
-      <c r="AKI15" s="37"/>
-      <c r="AKJ15" s="37"/>
-      <c r="AKK15" s="37"/>
-      <c r="AKL15" s="37"/>
-      <c r="AKM15" s="37"/>
-      <c r="AKN15" s="37"/>
-      <c r="AKO15" s="37"/>
-      <c r="AKP15" s="37"/>
-      <c r="AKQ15" s="37"/>
-      <c r="AKR15" s="37"/>
-      <c r="AKS15" s="37"/>
-      <c r="AKT15" s="38"/>
-      <c r="AKU15" s="36"/>
-      <c r="AKV15" s="37"/>
-      <c r="AKW15" s="37"/>
-      <c r="AKX15" s="37"/>
-      <c r="AKY15" s="37"/>
-      <c r="AKZ15" s="37"/>
-      <c r="ALA15" s="37"/>
-      <c r="ALB15" s="37"/>
-      <c r="ALC15" s="37"/>
-      <c r="ALD15" s="37"/>
-      <c r="ALE15" s="37"/>
-      <c r="ALF15" s="37"/>
-      <c r="ALG15" s="37"/>
-      <c r="ALH15" s="37"/>
-      <c r="ALI15" s="37"/>
-      <c r="ALJ15" s="37"/>
-      <c r="ALK15" s="37"/>
-      <c r="ALL15" s="37"/>
-      <c r="ALM15" s="37"/>
-      <c r="ALN15" s="38"/>
-      <c r="ALO15" s="36"/>
-      <c r="ALP15" s="37"/>
-      <c r="ALQ15" s="37"/>
-      <c r="ALR15" s="37"/>
-      <c r="ALS15" s="37"/>
-      <c r="ALT15" s="37"/>
-      <c r="ALU15" s="37"/>
-      <c r="ALV15" s="37"/>
-      <c r="ALW15" s="37"/>
-      <c r="ALX15" s="37"/>
-      <c r="ALY15" s="37"/>
-      <c r="ALZ15" s="37"/>
-      <c r="AMA15" s="37"/>
-      <c r="AMB15" s="37"/>
-      <c r="AMC15" s="37"/>
-      <c r="AMD15" s="37"/>
-      <c r="AME15" s="37"/>
-      <c r="AMF15" s="37"/>
-      <c r="AMG15" s="37"/>
-      <c r="AMH15" s="38"/>
-      <c r="AMI15" s="36"/>
-      <c r="AMJ15" s="37"/>
-      <c r="AMK15" s="37"/>
-      <c r="AML15" s="37"/>
-      <c r="AMM15" s="37"/>
-      <c r="AMN15" s="37"/>
-      <c r="AMO15" s="37"/>
-      <c r="AMP15" s="37"/>
-      <c r="AMQ15" s="37"/>
-      <c r="AMR15" s="37"/>
-      <c r="AMS15" s="37"/>
-      <c r="AMT15" s="37"/>
-      <c r="AMU15" s="37"/>
-      <c r="AMV15" s="37"/>
-      <c r="AMW15" s="37"/>
-      <c r="AMX15" s="37"/>
-      <c r="AMY15" s="37"/>
-      <c r="AMZ15" s="37"/>
-      <c r="ANA15" s="37"/>
-      <c r="ANB15" s="38"/>
-      <c r="ANC15" s="36"/>
-      <c r="AND15" s="37"/>
-      <c r="ANE15" s="37"/>
-      <c r="ANF15" s="37"/>
-      <c r="ANG15" s="37"/>
-      <c r="ANH15" s="37"/>
-      <c r="ANI15" s="37"/>
-      <c r="ANJ15" s="37"/>
-      <c r="ANK15" s="37"/>
-      <c r="ANL15" s="37"/>
-      <c r="ANM15" s="37"/>
-      <c r="ANN15" s="37"/>
-      <c r="ANO15" s="37"/>
-      <c r="ANP15" s="37"/>
-      <c r="ANQ15" s="37"/>
-      <c r="ANR15" s="37"/>
-      <c r="ANS15" s="37"/>
-      <c r="ANT15" s="37"/>
-      <c r="ANU15" s="37"/>
-      <c r="ANV15" s="38"/>
-      <c r="ANW15" s="36"/>
-      <c r="ANX15" s="37"/>
-      <c r="ANY15" s="37"/>
-      <c r="ANZ15" s="37"/>
-      <c r="AOA15" s="37"/>
-      <c r="AOB15" s="37"/>
-      <c r="AOC15" s="37"/>
-      <c r="AOD15" s="37"/>
-      <c r="AOE15" s="37"/>
-      <c r="AOF15" s="37"/>
-      <c r="AOG15" s="37"/>
-      <c r="AOH15" s="37"/>
-      <c r="AOI15" s="37"/>
-      <c r="AOJ15" s="37"/>
-      <c r="AOK15" s="37"/>
-      <c r="AOL15" s="37"/>
-      <c r="AOM15" s="37"/>
-      <c r="AON15" s="37"/>
-      <c r="AOO15" s="37"/>
-      <c r="AOP15" s="38"/>
+      <c r="SJ15" s="44"/>
+      <c r="SK15" s="44"/>
+      <c r="SL15" s="44"/>
+      <c r="SM15" s="44"/>
+      <c r="SN15" s="44"/>
+      <c r="SO15" s="44"/>
+      <c r="SP15" s="44"/>
+      <c r="SQ15" s="44"/>
+      <c r="SR15" s="44"/>
+      <c r="SS15" s="44"/>
+      <c r="ST15" s="44"/>
+      <c r="SU15" s="44"/>
+      <c r="SV15" s="44"/>
+      <c r="SW15" s="44"/>
+      <c r="SX15" s="44"/>
+      <c r="SY15" s="44"/>
+      <c r="SZ15" s="44"/>
+      <c r="TA15" s="44"/>
+      <c r="TB15" s="45"/>
+      <c r="TC15" s="43"/>
+      <c r="TD15" s="44"/>
+      <c r="TE15" s="44"/>
+      <c r="TF15" s="44"/>
+      <c r="TG15" s="44"/>
+      <c r="TH15" s="44"/>
+      <c r="TI15" s="44"/>
+      <c r="TJ15" s="44"/>
+      <c r="TK15" s="44"/>
+      <c r="TL15" s="44"/>
+      <c r="TM15" s="44"/>
+      <c r="TN15" s="44"/>
+      <c r="TO15" s="44"/>
+      <c r="TP15" s="44"/>
+      <c r="TQ15" s="44"/>
+      <c r="TR15" s="44"/>
+      <c r="TS15" s="44"/>
+      <c r="TT15" s="44"/>
+      <c r="TU15" s="44"/>
+      <c r="TV15" s="45"/>
+      <c r="TW15" s="43"/>
+      <c r="TX15" s="44"/>
+      <c r="TY15" s="44"/>
+      <c r="TZ15" s="44"/>
+      <c r="UA15" s="44"/>
+      <c r="UB15" s="44"/>
+      <c r="UC15" s="44"/>
+      <c r="UD15" s="44"/>
+      <c r="UE15" s="44"/>
+      <c r="UF15" s="44"/>
+      <c r="UG15" s="44"/>
+      <c r="UH15" s="44"/>
+      <c r="UI15" s="44"/>
+      <c r="UJ15" s="44"/>
+      <c r="UK15" s="44"/>
+      <c r="UL15" s="44"/>
+      <c r="UM15" s="44"/>
+      <c r="UN15" s="44"/>
+      <c r="UO15" s="44"/>
+      <c r="UP15" s="45"/>
+      <c r="UQ15" s="43"/>
+      <c r="UR15" s="44"/>
+      <c r="US15" s="44"/>
+      <c r="UT15" s="44"/>
+      <c r="UU15" s="44"/>
+      <c r="UV15" s="44"/>
+      <c r="UW15" s="44"/>
+      <c r="UX15" s="44"/>
+      <c r="UY15" s="44"/>
+      <c r="UZ15" s="44"/>
+      <c r="VA15" s="44"/>
+      <c r="VB15" s="44"/>
+      <c r="VC15" s="44"/>
+      <c r="VD15" s="44"/>
+      <c r="VE15" s="44"/>
+      <c r="VF15" s="44"/>
+      <c r="VG15" s="44"/>
+      <c r="VH15" s="44"/>
+      <c r="VI15" s="44"/>
+      <c r="VJ15" s="45"/>
+      <c r="VK15" s="43"/>
+      <c r="VL15" s="44"/>
+      <c r="VM15" s="44"/>
+      <c r="VN15" s="44"/>
+      <c r="VO15" s="44"/>
+      <c r="VP15" s="44"/>
+      <c r="VQ15" s="44"/>
+      <c r="VR15" s="44"/>
+      <c r="VS15" s="44"/>
+      <c r="VT15" s="44"/>
+      <c r="VU15" s="44"/>
+      <c r="VV15" s="44"/>
+      <c r="VW15" s="44"/>
+      <c r="VX15" s="44"/>
+      <c r="VY15" s="44"/>
+      <c r="VZ15" s="44"/>
+      <c r="WA15" s="44"/>
+      <c r="WB15" s="44"/>
+      <c r="WC15" s="44"/>
+      <c r="WD15" s="45"/>
+      <c r="WE15" s="43"/>
+      <c r="WF15" s="44"/>
+      <c r="WG15" s="44"/>
+      <c r="WH15" s="44"/>
+      <c r="WI15" s="44"/>
+      <c r="WJ15" s="44"/>
+      <c r="WK15" s="44"/>
+      <c r="WL15" s="44"/>
+      <c r="WM15" s="44"/>
+      <c r="WN15" s="44"/>
+      <c r="WO15" s="44"/>
+      <c r="WP15" s="44"/>
+      <c r="WQ15" s="44"/>
+      <c r="WR15" s="44"/>
+      <c r="WS15" s="44"/>
+      <c r="WT15" s="44"/>
+      <c r="WU15" s="44"/>
+      <c r="WV15" s="44"/>
+      <c r="WW15" s="44"/>
+      <c r="WX15" s="45"/>
+      <c r="WY15" s="43"/>
+      <c r="WZ15" s="44"/>
+      <c r="XA15" s="44"/>
+      <c r="XB15" s="44"/>
+      <c r="XC15" s="44"/>
+      <c r="XD15" s="44"/>
+      <c r="XE15" s="44"/>
+      <c r="XF15" s="44"/>
+      <c r="XG15" s="44"/>
+      <c r="XH15" s="44"/>
+      <c r="XI15" s="44"/>
+      <c r="XJ15" s="44"/>
+      <c r="XK15" s="44"/>
+      <c r="XL15" s="44"/>
+      <c r="XM15" s="44"/>
+      <c r="XN15" s="44"/>
+      <c r="XO15" s="44"/>
+      <c r="XP15" s="44"/>
+      <c r="XQ15" s="44"/>
+      <c r="XR15" s="45"/>
+      <c r="XS15" s="43"/>
+      <c r="XT15" s="44"/>
+      <c r="XU15" s="44"/>
+      <c r="XV15" s="44"/>
+      <c r="XW15" s="44"/>
+      <c r="XX15" s="44"/>
+      <c r="XY15" s="44"/>
+      <c r="XZ15" s="44"/>
+      <c r="YA15" s="44"/>
+      <c r="YB15" s="44"/>
+      <c r="YC15" s="44"/>
+      <c r="YD15" s="44"/>
+      <c r="YE15" s="44"/>
+      <c r="YF15" s="44"/>
+      <c r="YG15" s="44"/>
+      <c r="YH15" s="44"/>
+      <c r="YI15" s="44"/>
+      <c r="YJ15" s="44"/>
+      <c r="YK15" s="44"/>
+      <c r="YL15" s="45"/>
+      <c r="YM15" s="43"/>
+      <c r="YN15" s="44"/>
+      <c r="YO15" s="44"/>
+      <c r="YP15" s="44"/>
+      <c r="YQ15" s="44"/>
+      <c r="YR15" s="44"/>
+      <c r="YS15" s="44"/>
+      <c r="YT15" s="44"/>
+      <c r="YU15" s="44"/>
+      <c r="YV15" s="44"/>
+      <c r="YW15" s="44"/>
+      <c r="YX15" s="44"/>
+      <c r="YY15" s="44"/>
+      <c r="YZ15" s="44"/>
+      <c r="ZA15" s="44"/>
+      <c r="ZB15" s="44"/>
+      <c r="ZC15" s="44"/>
+      <c r="ZD15" s="44"/>
+      <c r="ZE15" s="44"/>
+      <c r="ZF15" s="45"/>
+      <c r="ZG15" s="43"/>
+      <c r="ZH15" s="44"/>
+      <c r="ZI15" s="44"/>
+      <c r="ZJ15" s="44"/>
+      <c r="ZK15" s="44"/>
+      <c r="ZL15" s="44"/>
+      <c r="ZM15" s="44"/>
+      <c r="ZN15" s="44"/>
+      <c r="ZO15" s="44"/>
+      <c r="ZP15" s="44"/>
+      <c r="ZQ15" s="44"/>
+      <c r="ZR15" s="44"/>
+      <c r="ZS15" s="44"/>
+      <c r="ZT15" s="44"/>
+      <c r="ZU15" s="44"/>
+      <c r="ZV15" s="44"/>
+      <c r="ZW15" s="44"/>
+      <c r="ZX15" s="44"/>
+      <c r="ZY15" s="44"/>
+      <c r="ZZ15" s="45"/>
+      <c r="AAA15" s="43"/>
+      <c r="AAB15" s="44"/>
+      <c r="AAC15" s="44"/>
+      <c r="AAD15" s="44"/>
+      <c r="AAE15" s="44"/>
+      <c r="AAF15" s="44"/>
+      <c r="AAG15" s="44"/>
+      <c r="AAH15" s="44"/>
+      <c r="AAI15" s="44"/>
+      <c r="AAJ15" s="44"/>
+      <c r="AAK15" s="44"/>
+      <c r="AAL15" s="44"/>
+      <c r="AAM15" s="44"/>
+      <c r="AAN15" s="44"/>
+      <c r="AAO15" s="44"/>
+      <c r="AAP15" s="44"/>
+      <c r="AAQ15" s="44"/>
+      <c r="AAR15" s="44"/>
+      <c r="AAS15" s="44"/>
+      <c r="AAT15" s="45"/>
+      <c r="AAU15" s="43"/>
+      <c r="AAV15" s="44"/>
+      <c r="AAW15" s="44"/>
+      <c r="AAX15" s="44"/>
+      <c r="AAY15" s="44"/>
+      <c r="AAZ15" s="44"/>
+      <c r="ABA15" s="44"/>
+      <c r="ABB15" s="44"/>
+      <c r="ABC15" s="44"/>
+      <c r="ABD15" s="44"/>
+      <c r="ABE15" s="44"/>
+      <c r="ABF15" s="44"/>
+      <c r="ABG15" s="44"/>
+      <c r="ABH15" s="44"/>
+      <c r="ABI15" s="44"/>
+      <c r="ABJ15" s="44"/>
+      <c r="ABK15" s="44"/>
+      <c r="ABL15" s="44"/>
+      <c r="ABM15" s="44"/>
+      <c r="ABN15" s="45"/>
+      <c r="ABO15" s="43"/>
+      <c r="ABP15" s="44"/>
+      <c r="ABQ15" s="44"/>
+      <c r="ABR15" s="44"/>
+      <c r="ABS15" s="44"/>
+      <c r="ABT15" s="44"/>
+      <c r="ABU15" s="44"/>
+      <c r="ABV15" s="44"/>
+      <c r="ABW15" s="44"/>
+      <c r="ABX15" s="44"/>
+      <c r="ABY15" s="44"/>
+      <c r="ABZ15" s="44"/>
+      <c r="ACA15" s="44"/>
+      <c r="ACB15" s="44"/>
+      <c r="ACC15" s="44"/>
+      <c r="ACD15" s="44"/>
+      <c r="ACE15" s="44"/>
+      <c r="ACF15" s="44"/>
+      <c r="ACG15" s="44"/>
+      <c r="ACH15" s="45"/>
+      <c r="ACI15" s="43"/>
+      <c r="ACJ15" s="44"/>
+      <c r="ACK15" s="44"/>
+      <c r="ACL15" s="44"/>
+      <c r="ACM15" s="44"/>
+      <c r="ACN15" s="44"/>
+      <c r="ACO15" s="44"/>
+      <c r="ACP15" s="44"/>
+      <c r="ACQ15" s="44"/>
+      <c r="ACR15" s="44"/>
+      <c r="ACS15" s="44"/>
+      <c r="ACT15" s="44"/>
+      <c r="ACU15" s="44"/>
+      <c r="ACV15" s="44"/>
+      <c r="ACW15" s="44"/>
+      <c r="ACX15" s="44"/>
+      <c r="ACY15" s="44"/>
+      <c r="ACZ15" s="44"/>
+      <c r="ADA15" s="44"/>
+      <c r="ADB15" s="45"/>
+      <c r="ADC15" s="43"/>
+      <c r="ADD15" s="44"/>
+      <c r="ADE15" s="44"/>
+      <c r="ADF15" s="44"/>
+      <c r="ADG15" s="44"/>
+      <c r="ADH15" s="44"/>
+      <c r="ADI15" s="44"/>
+      <c r="ADJ15" s="44"/>
+      <c r="ADK15" s="44"/>
+      <c r="ADL15" s="44"/>
+      <c r="ADM15" s="44"/>
+      <c r="ADN15" s="44"/>
+      <c r="ADO15" s="44"/>
+      <c r="ADP15" s="44"/>
+      <c r="ADQ15" s="44"/>
+      <c r="ADR15" s="44"/>
+      <c r="ADS15" s="44"/>
+      <c r="ADT15" s="44"/>
+      <c r="ADU15" s="44"/>
+      <c r="ADV15" s="45"/>
+      <c r="ADW15" s="43"/>
+      <c r="ADX15" s="44"/>
+      <c r="ADY15" s="44"/>
+      <c r="ADZ15" s="44"/>
+      <c r="AEA15" s="44"/>
+      <c r="AEB15" s="44"/>
+      <c r="AEC15" s="44"/>
+      <c r="AED15" s="44"/>
+      <c r="AEE15" s="44"/>
+      <c r="AEF15" s="44"/>
+      <c r="AEG15" s="44"/>
+      <c r="AEH15" s="44"/>
+      <c r="AEI15" s="44"/>
+      <c r="AEJ15" s="44"/>
+      <c r="AEK15" s="44"/>
+      <c r="AEL15" s="44"/>
+      <c r="AEM15" s="44"/>
+      <c r="AEN15" s="44"/>
+      <c r="AEO15" s="44"/>
+      <c r="AEP15" s="45"/>
+      <c r="AEQ15" s="43"/>
+      <c r="AER15" s="44"/>
+      <c r="AES15" s="44"/>
+      <c r="AET15" s="44"/>
+      <c r="AEU15" s="44"/>
+      <c r="AEV15" s="44"/>
+      <c r="AEW15" s="44"/>
+      <c r="AEX15" s="44"/>
+      <c r="AEY15" s="44"/>
+      <c r="AEZ15" s="44"/>
+      <c r="AFA15" s="44"/>
+      <c r="AFB15" s="44"/>
+      <c r="AFC15" s="44"/>
+      <c r="AFD15" s="44"/>
+      <c r="AFE15" s="44"/>
+      <c r="AFF15" s="44"/>
+      <c r="AFG15" s="44"/>
+      <c r="AFH15" s="44"/>
+      <c r="AFI15" s="44"/>
+      <c r="AFJ15" s="45"/>
+      <c r="AFK15" s="43"/>
+      <c r="AFL15" s="44"/>
+      <c r="AFM15" s="44"/>
+      <c r="AFN15" s="44"/>
+      <c r="AFO15" s="44"/>
+      <c r="AFP15" s="44"/>
+      <c r="AFQ15" s="44"/>
+      <c r="AFR15" s="44"/>
+      <c r="AFS15" s="44"/>
+      <c r="AFT15" s="44"/>
+      <c r="AFU15" s="44"/>
+      <c r="AFV15" s="44"/>
+      <c r="AFW15" s="44"/>
+      <c r="AFX15" s="44"/>
+      <c r="AFY15" s="44"/>
+      <c r="AFZ15" s="44"/>
+      <c r="AGA15" s="44"/>
+      <c r="AGB15" s="44"/>
+      <c r="AGC15" s="44"/>
+      <c r="AGD15" s="45"/>
+      <c r="AGE15" s="43"/>
+      <c r="AGF15" s="44"/>
+      <c r="AGG15" s="44"/>
+      <c r="AGH15" s="44"/>
+      <c r="AGI15" s="44"/>
+      <c r="AGJ15" s="44"/>
+      <c r="AGK15" s="44"/>
+      <c r="AGL15" s="44"/>
+      <c r="AGM15" s="44"/>
+      <c r="AGN15" s="44"/>
+      <c r="AGO15" s="44"/>
+      <c r="AGP15" s="44"/>
+      <c r="AGQ15" s="44"/>
+      <c r="AGR15" s="44"/>
+      <c r="AGS15" s="44"/>
+      <c r="AGT15" s="44"/>
+      <c r="AGU15" s="44"/>
+      <c r="AGV15" s="44"/>
+      <c r="AGW15" s="44"/>
+      <c r="AGX15" s="45"/>
+      <c r="AGY15" s="43"/>
+      <c r="AGZ15" s="44"/>
+      <c r="AHA15" s="44"/>
+      <c r="AHB15" s="44"/>
+      <c r="AHC15" s="44"/>
+      <c r="AHD15" s="44"/>
+      <c r="AHE15" s="44"/>
+      <c r="AHF15" s="44"/>
+      <c r="AHG15" s="44"/>
+      <c r="AHH15" s="44"/>
+      <c r="AHI15" s="44"/>
+      <c r="AHJ15" s="44"/>
+      <c r="AHK15" s="44"/>
+      <c r="AHL15" s="44"/>
+      <c r="AHM15" s="44"/>
+      <c r="AHN15" s="44"/>
+      <c r="AHO15" s="44"/>
+      <c r="AHP15" s="44"/>
+      <c r="AHQ15" s="44"/>
+      <c r="AHR15" s="45"/>
+      <c r="AHS15" s="43"/>
+      <c r="AHT15" s="44"/>
+      <c r="AHU15" s="44"/>
+      <c r="AHV15" s="44"/>
+      <c r="AHW15" s="44"/>
+      <c r="AHX15" s="44"/>
+      <c r="AHY15" s="44"/>
+      <c r="AHZ15" s="44"/>
+      <c r="AIA15" s="44"/>
+      <c r="AIB15" s="44"/>
+      <c r="AIC15" s="44"/>
+      <c r="AID15" s="44"/>
+      <c r="AIE15" s="44"/>
+      <c r="AIF15" s="44"/>
+      <c r="AIG15" s="44"/>
+      <c r="AIH15" s="44"/>
+      <c r="AII15" s="44"/>
+      <c r="AIJ15" s="44"/>
+      <c r="AIK15" s="44"/>
+      <c r="AIL15" s="45"/>
+      <c r="AIM15" s="43"/>
+      <c r="AIN15" s="44"/>
+      <c r="AIO15" s="44"/>
+      <c r="AIP15" s="44"/>
+      <c r="AIQ15" s="44"/>
+      <c r="AIR15" s="44"/>
+      <c r="AIS15" s="44"/>
+      <c r="AIT15" s="44"/>
+      <c r="AIU15" s="44"/>
+      <c r="AIV15" s="44"/>
+      <c r="AIW15" s="44"/>
+      <c r="AIX15" s="44"/>
+      <c r="AIY15" s="44"/>
+      <c r="AIZ15" s="44"/>
+      <c r="AJA15" s="44"/>
+      <c r="AJB15" s="44"/>
+      <c r="AJC15" s="44"/>
+      <c r="AJD15" s="44"/>
+      <c r="AJE15" s="44"/>
+      <c r="AJF15" s="45"/>
+      <c r="AJG15" s="43"/>
+      <c r="AJH15" s="44"/>
+      <c r="AJI15" s="44"/>
+      <c r="AJJ15" s="44"/>
+      <c r="AJK15" s="44"/>
+      <c r="AJL15" s="44"/>
+      <c r="AJM15" s="44"/>
+      <c r="AJN15" s="44"/>
+      <c r="AJO15" s="44"/>
+      <c r="AJP15" s="44"/>
+      <c r="AJQ15" s="44"/>
+      <c r="AJR15" s="44"/>
+      <c r="AJS15" s="44"/>
+      <c r="AJT15" s="44"/>
+      <c r="AJU15" s="44"/>
+      <c r="AJV15" s="44"/>
+      <c r="AJW15" s="44"/>
+      <c r="AJX15" s="44"/>
+      <c r="AJY15" s="44"/>
+      <c r="AJZ15" s="45"/>
+      <c r="AKA15" s="43"/>
+      <c r="AKB15" s="44"/>
+      <c r="AKC15" s="44"/>
+      <c r="AKD15" s="44"/>
+      <c r="AKE15" s="44"/>
+      <c r="AKF15" s="44"/>
+      <c r="AKG15" s="44"/>
+      <c r="AKH15" s="44"/>
+      <c r="AKI15" s="44"/>
+      <c r="AKJ15" s="44"/>
+      <c r="AKK15" s="44"/>
+      <c r="AKL15" s="44"/>
+      <c r="AKM15" s="44"/>
+      <c r="AKN15" s="44"/>
+      <c r="AKO15" s="44"/>
+      <c r="AKP15" s="44"/>
+      <c r="AKQ15" s="44"/>
+      <c r="AKR15" s="44"/>
+      <c r="AKS15" s="44"/>
+      <c r="AKT15" s="45"/>
+      <c r="AKU15" s="43"/>
+      <c r="AKV15" s="44"/>
+      <c r="AKW15" s="44"/>
+      <c r="AKX15" s="44"/>
+      <c r="AKY15" s="44"/>
+      <c r="AKZ15" s="44"/>
+      <c r="ALA15" s="44"/>
+      <c r="ALB15" s="44"/>
+      <c r="ALC15" s="44"/>
+      <c r="ALD15" s="44"/>
+      <c r="ALE15" s="44"/>
+      <c r="ALF15" s="44"/>
+      <c r="ALG15" s="44"/>
+      <c r="ALH15" s="44"/>
+      <c r="ALI15" s="44"/>
+      <c r="ALJ15" s="44"/>
+      <c r="ALK15" s="44"/>
+      <c r="ALL15" s="44"/>
+      <c r="ALM15" s="44"/>
+      <c r="ALN15" s="45"/>
+      <c r="ALO15" s="43"/>
+      <c r="ALP15" s="44"/>
+      <c r="ALQ15" s="44"/>
+      <c r="ALR15" s="44"/>
+      <c r="ALS15" s="44"/>
+      <c r="ALT15" s="44"/>
+      <c r="ALU15" s="44"/>
+      <c r="ALV15" s="44"/>
+      <c r="ALW15" s="44"/>
+      <c r="ALX15" s="44"/>
+      <c r="ALY15" s="44"/>
+      <c r="ALZ15" s="44"/>
+      <c r="AMA15" s="44"/>
+      <c r="AMB15" s="44"/>
+      <c r="AMC15" s="44"/>
+      <c r="AMD15" s="44"/>
+      <c r="AME15" s="44"/>
+      <c r="AMF15" s="44"/>
+      <c r="AMG15" s="44"/>
+      <c r="AMH15" s="45"/>
+      <c r="AMI15" s="43"/>
+      <c r="AMJ15" s="44"/>
+      <c r="AMK15" s="44"/>
+      <c r="AML15" s="44"/>
+      <c r="AMM15" s="44"/>
+      <c r="AMN15" s="44"/>
+      <c r="AMO15" s="44"/>
+      <c r="AMP15" s="44"/>
+      <c r="AMQ15" s="44"/>
+      <c r="AMR15" s="44"/>
+      <c r="AMS15" s="44"/>
+      <c r="AMT15" s="44"/>
+      <c r="AMU15" s="44"/>
+      <c r="AMV15" s="44"/>
+      <c r="AMW15" s="44"/>
+      <c r="AMX15" s="44"/>
+      <c r="AMY15" s="44"/>
+      <c r="AMZ15" s="44"/>
+      <c r="ANA15" s="44"/>
+      <c r="ANB15" s="45"/>
+      <c r="ANC15" s="43"/>
+      <c r="AND15" s="44"/>
+      <c r="ANE15" s="44"/>
+      <c r="ANF15" s="44"/>
+      <c r="ANG15" s="44"/>
+      <c r="ANH15" s="44"/>
+      <c r="ANI15" s="44"/>
+      <c r="ANJ15" s="44"/>
+      <c r="ANK15" s="44"/>
+      <c r="ANL15" s="44"/>
+      <c r="ANM15" s="44"/>
+      <c r="ANN15" s="44"/>
+      <c r="ANO15" s="44"/>
+      <c r="ANP15" s="44"/>
+      <c r="ANQ15" s="44"/>
+      <c r="ANR15" s="44"/>
+      <c r="ANS15" s="44"/>
+      <c r="ANT15" s="44"/>
+      <c r="ANU15" s="44"/>
+      <c r="ANV15" s="45"/>
+      <c r="ANW15" s="43"/>
+      <c r="ANX15" s="44"/>
+      <c r="ANY15" s="44"/>
+      <c r="ANZ15" s="44"/>
+      <c r="AOA15" s="44"/>
+      <c r="AOB15" s="44"/>
+      <c r="AOC15" s="44"/>
+      <c r="AOD15" s="44"/>
+      <c r="AOE15" s="44"/>
+      <c r="AOF15" s="44"/>
+      <c r="AOG15" s="44"/>
+      <c r="AOH15" s="44"/>
+      <c r="AOI15" s="44"/>
+      <c r="AOJ15" s="44"/>
+      <c r="AOK15" s="44"/>
+      <c r="AOL15" s="44"/>
+      <c r="AOM15" s="44"/>
+      <c r="AON15" s="44"/>
+      <c r="AOO15" s="44"/>
+      <c r="AOP15" s="45"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -10983,39 +11064,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
-      <c r="K17" s="55"/>
-      <c r="L17" s="55"/>
-      <c r="M17" s="55"/>
-      <c r="N17" s="56"/>
-      <c r="Q17" s="60" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="58"/>
+      <c r="J17" s="58"/>
+      <c r="K17" s="58"/>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="59"/>
+      <c r="Q17" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="61"/>
-      <c r="S17" s="61"/>
-      <c r="T17" s="61"/>
-      <c r="U17" s="61"/>
-      <c r="V17" s="61"/>
-      <c r="W17" s="62"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="47"/>
+      <c r="W17" s="48"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="68" t="s">
+      <c r="Z17" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" s="69"/>
-      <c r="AB17" s="69"/>
-      <c r="AC17" s="69"/>
-      <c r="AD17" s="69"/>
-      <c r="AE17" s="69"/>
-      <c r="AF17" s="70"/>
+      <c r="AA17" s="36"/>
+      <c r="AB17" s="36"/>
+      <c r="AC17" s="36"/>
+      <c r="AD17" s="36"/>
+      <c r="AE17" s="36"/>
+      <c r="AF17" s="37"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -11134,42 +11215,42 @@
       <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="41" t="s">
+      <c r="E18" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="43"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="66"/>
+      <c r="I18" s="66"/>
+      <c r="J18" s="66"/>
+      <c r="K18" s="66"/>
+      <c r="L18" s="66"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="63" t="s">
+      <c r="R18" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="63"/>
-      <c r="T18" s="63"/>
-      <c r="U18" s="63"/>
-      <c r="V18" s="63"/>
-      <c r="W18" s="64"/>
+      <c r="S18" s="38"/>
+      <c r="T18" s="38"/>
+      <c r="U18" s="38"/>
+      <c r="V18" s="38"/>
+      <c r="W18" s="39"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="63" t="s">
+      <c r="AA18" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="AB18" s="63"/>
-      <c r="AC18" s="63"/>
-      <c r="AD18" s="63"/>
-      <c r="AE18" s="63"/>
-      <c r="AF18" s="64"/>
+      <c r="AB18" s="38"/>
+      <c r="AC18" s="38"/>
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="39"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -11288,42 +11369,42 @@
       <c r="D19" s="20">
         <v>0</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="34"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34"/>
-      <c r="N19" s="35"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="62"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="47" t="s">
+      <c r="R19" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="48"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="33"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="47" t="s">
+      <c r="AA19" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="48"/>
+      <c r="AB19" s="33"/>
+      <c r="AC19" s="33"/>
+      <c r="AD19" s="33"/>
+      <c r="AE19" s="33"/>
+      <c r="AF19" s="34"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -11427,42 +11508,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="E20" s="44" t="s">
+      <c r="E20" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="45"/>
-      <c r="I20" s="45"/>
-      <c r="J20" s="45"/>
-      <c r="K20" s="45"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="45"/>
-      <c r="N20" s="46"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="69"/>
+      <c r="K20" s="69"/>
+      <c r="L20" s="69"/>
+      <c r="M20" s="69"/>
+      <c r="N20" s="70"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="47" t="s">
+      <c r="R20" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="48"/>
+      <c r="S20" s="33"/>
+      <c r="T20" s="33"/>
+      <c r="U20" s="33"/>
+      <c r="V20" s="33"/>
+      <c r="W20" s="34"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="47" t="s">
+      <c r="AA20" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="48"/>
+      <c r="AB20" s="33"/>
+      <c r="AC20" s="33"/>
+      <c r="AD20" s="33"/>
+      <c r="AE20" s="33"/>
+      <c r="AF20" s="34"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -11568,42 +11649,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="39" t="s">
+      <c r="E21" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39"/>
-      <c r="M21" s="39"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="47" t="s">
+      <c r="R21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="48"/>
+      <c r="S21" s="33"/>
+      <c r="T21" s="33"/>
+      <c r="U21" s="33"/>
+      <c r="V21" s="33"/>
+      <c r="W21" s="34"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="47" t="s">
+      <c r="AA21" s="33" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="48"/>
+      <c r="AB21" s="33"/>
+      <c r="AC21" s="33"/>
+      <c r="AD21" s="33"/>
+      <c r="AE21" s="33"/>
+      <c r="AF21" s="34"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -11709,40 +11790,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="40"/>
-      <c r="F22" s="40"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="40"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="40"/>
-      <c r="M22" s="40"/>
+      <c r="E22" s="64"/>
+      <c r="F22" s="64"/>
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64"/>
+      <c r="K22" s="64"/>
+      <c r="L22" s="64"/>
+      <c r="M22" s="64"/>
       <c r="N22" s="17"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="47" t="s">
+      <c r="R22" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="48"/>
+      <c r="S22" s="33"/>
+      <c r="T22" s="33"/>
+      <c r="U22" s="33"/>
+      <c r="V22" s="33"/>
+      <c r="W22" s="34"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="47" t="s">
+      <c r="AA22" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="48"/>
+      <c r="AB22" s="33"/>
+      <c r="AC22" s="33"/>
+      <c r="AD22" s="33"/>
+      <c r="AE22" s="33"/>
+      <c r="AF22" s="34"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -11861,27 +11942,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="47" t="s">
+      <c r="R23" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="48"/>
+      <c r="S23" s="33"/>
+      <c r="T23" s="33"/>
+      <c r="U23" s="33"/>
+      <c r="V23" s="33"/>
+      <c r="W23" s="34"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="14">
         <v>5</v>
       </c>
-      <c r="AA23" s="66" t="s">
+      <c r="AA23" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="66"/>
-      <c r="AC23" s="66"/>
-      <c r="AD23" s="66"/>
-      <c r="AE23" s="66"/>
-      <c r="AF23" s="67"/>
+      <c r="AB23" s="40"/>
+      <c r="AC23" s="40"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="41"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -12000,14 +12081,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="47" t="s">
+      <c r="R24" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="48"/>
+      <c r="S24" s="33"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="33"/>
+      <c r="W24" s="34"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -12129,14 +12210,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="47" t="s">
+      <c r="R25" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="48"/>
+      <c r="S25" s="33"/>
+      <c r="T25" s="33"/>
+      <c r="U25" s="33"/>
+      <c r="V25" s="33"/>
+      <c r="W25" s="34"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -12258,14 +12339,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="47" t="s">
+      <c r="R26" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="48"/>
+      <c r="S26" s="33"/>
+      <c r="T26" s="33"/>
+      <c r="U26" s="33"/>
+      <c r="V26" s="33"/>
+      <c r="W26" s="34"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -12387,14 +12468,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="47" t="s">
+      <c r="R27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="48"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="33"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="34"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -12503,14 +12584,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="47" t="s">
+      <c r="R28" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="48"/>
+      <c r="S28" s="33"/>
+      <c r="T28" s="33"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="34"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -12619,14 +12700,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="47" t="s">
+      <c r="R29" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="48"/>
+      <c r="S29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="34"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -12735,14 +12816,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="47" t="s">
+      <c r="R30" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="48"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="34"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -12851,14 +12932,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="47" t="s">
+      <c r="R31" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="48"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="34"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -12967,14 +13048,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="47" t="s">
+      <c r="R32" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="48"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
+      <c r="V32" s="33"/>
+      <c r="W32" s="34"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -13080,14 +13161,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="47" t="s">
+      <c r="R33" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="48"/>
+      <c r="S33" s="33"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
+      <c r="V33" s="33"/>
+      <c r="W33" s="34"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -13193,14 +13274,14 @@
       <c r="Q34" s="14">
         <v>16</v>
       </c>
-      <c r="R34" s="66" t="s">
+      <c r="R34" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="67"/>
+      <c r="S34" s="40"/>
+      <c r="T34" s="40"/>
+      <c r="U34" s="40"/>
+      <c r="V34" s="40"/>
+      <c r="W34" s="41"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -33619,36 +33700,66 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="65"/>
-      <c r="S1048576" s="65"/>
-      <c r="T1048576" s="65"/>
-      <c r="U1048576" s="65"/>
-      <c r="V1048576" s="65"/>
-      <c r="W1048576" s="65"/>
+      <c r="R1048576" s="42"/>
+      <c r="S1048576" s="42"/>
+      <c r="T1048576" s="42"/>
+      <c r="U1048576" s="42"/>
+      <c r="V1048576" s="42"/>
+      <c r="W1048576" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="E19:N19"/>
+    <mergeCell ref="ME15:MX15"/>
+    <mergeCell ref="E21:M22"/>
+    <mergeCell ref="DS15:EL15"/>
+    <mergeCell ref="E18:N18"/>
+    <mergeCell ref="AQ15:BJ15"/>
+    <mergeCell ref="BK15:CD15"/>
+    <mergeCell ref="CE15:CX15"/>
+    <mergeCell ref="CY15:DR15"/>
+    <mergeCell ref="E20:N20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="R21:W21"/>
+    <mergeCell ref="II15:JB15"/>
+    <mergeCell ref="JC15:JV15"/>
+    <mergeCell ref="JW15:KP15"/>
+    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="ANW15:AOP15"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="AGE15:AGX15"/>
+    <mergeCell ref="AGY15:AHR15"/>
+    <mergeCell ref="AHS15:AIL15"/>
+    <mergeCell ref="AIM15:AJF15"/>
+    <mergeCell ref="AJG15:AJZ15"/>
+    <mergeCell ref="AKA15:AKT15"/>
+    <mergeCell ref="ABO15:ACH15"/>
+    <mergeCell ref="ACI15:ADB15"/>
+    <mergeCell ref="ADC15:ADV15"/>
+    <mergeCell ref="ADW15:AEP15"/>
+    <mergeCell ref="AEQ15:AFJ15"/>
+    <mergeCell ref="AFK15:AGD15"/>
+    <mergeCell ref="WY15:XR15"/>
+    <mergeCell ref="XS15:YL15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
     <mergeCell ref="WE15:WX15"/>
     <mergeCell ref="NS15:OL15"/>
     <mergeCell ref="Q17:W17"/>
@@ -33665,57 +33776,27 @@
     <mergeCell ref="QU15:RN15"/>
     <mergeCell ref="RO15:SH15"/>
     <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="ANW15:AOP15"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="AGE15:AGX15"/>
-    <mergeCell ref="AGY15:AHR15"/>
-    <mergeCell ref="AHS15:AIL15"/>
-    <mergeCell ref="AIM15:AJF15"/>
-    <mergeCell ref="AJG15:AJZ15"/>
-    <mergeCell ref="AKA15:AKT15"/>
-    <mergeCell ref="ABO15:ACH15"/>
-    <mergeCell ref="ACI15:ADB15"/>
-    <mergeCell ref="ADC15:ADV15"/>
-    <mergeCell ref="ADW15:AEP15"/>
-    <mergeCell ref="AEQ15:AFJ15"/>
-    <mergeCell ref="AFK15:AGD15"/>
-    <mergeCell ref="WY15:XR15"/>
-    <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="E19:N19"/>
-    <mergeCell ref="ME15:MX15"/>
-    <mergeCell ref="E21:M22"/>
-    <mergeCell ref="DS15:EL15"/>
-    <mergeCell ref="E18:N18"/>
-    <mergeCell ref="AQ15:BJ15"/>
-    <mergeCell ref="BK15:CD15"/>
-    <mergeCell ref="CE15:CX15"/>
-    <mergeCell ref="CY15:DR15"/>
-    <mergeCell ref="E20:N20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="R21:W21"/>
-    <mergeCell ref="II15:JB15"/>
-    <mergeCell ref="JC15:JV15"/>
-    <mergeCell ref="JW15:KP15"/>
-    <mergeCell ref="KQ15:LJ15"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
@@ -1021,34 +1021,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1058,57 +1040,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1135,8 +1066,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1442,125 +1442,131 @@
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="QK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="IL2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="PU21" sqref="PU21"/>
+      <selection pane="bottomRight" activeCell="JE10" sqref="JE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="5"/>
     <col min="2" max="2" width="13.5" style="5" customWidth="1"/>
-    <col min="3" max="439" width="4" style="5"/>
+    <col min="3" max="255" width="4" style="5"/>
+    <col min="256" max="256" width="4" style="5" customWidth="1"/>
+    <col min="257" max="439" width="4" style="5"/>
     <col min="440" max="440" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="441" max="16384" width="4" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1082" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="C1" s="52" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54" t="s">
+      <c r="C1" s="50" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
-      <c r="O1" s="55"/>
-      <c r="P1" s="55"/>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="56"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="53"/>
+      <c r="Q1" s="53"/>
+      <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="AI2" s="71"/>
-      <c r="AJ2" s="71"/>
-      <c r="AM2" s="71"/>
-      <c r="AN2" s="71"/>
-      <c r="AO2" s="71"/>
-      <c r="AS2" s="71"/>
-      <c r="AT2" s="71"/>
-      <c r="AU2" s="71"/>
-      <c r="AV2" s="71"/>
-      <c r="AW2" s="71"/>
-      <c r="AX2" s="71"/>
-      <c r="AY2" s="71"/>
-      <c r="AZ2" s="71"/>
-      <c r="BA2" s="71"/>
-      <c r="BD2" s="71"/>
-      <c r="BE2" s="71"/>
-      <c r="BF2" s="71"/>
-      <c r="BG2" s="71"/>
-      <c r="BH2" s="71"/>
-      <c r="BI2" s="71"/>
-      <c r="BJ2" s="71"/>
-      <c r="BK2" s="71"/>
-      <c r="DK2" s="71"/>
-      <c r="DL2" s="71"/>
-      <c r="DM2" s="71"/>
-      <c r="DN2" s="71"/>
-      <c r="DO2" s="71"/>
-      <c r="DP2" s="71"/>
-      <c r="DT2" s="71"/>
-      <c r="DU2" s="71"/>
-      <c r="DV2" s="71"/>
-      <c r="DW2" s="71"/>
-      <c r="DX2" s="71"/>
-      <c r="DY2" s="71"/>
-      <c r="DZ2" s="71"/>
-      <c r="EA2" s="71"/>
-      <c r="EB2" s="71"/>
-      <c r="EC2" s="71"/>
-      <c r="ED2" s="71"/>
-      <c r="EE2" s="71"/>
-      <c r="EF2" s="71"/>
-      <c r="EG2" s="71"/>
-      <c r="EH2" s="71"/>
-      <c r="EI2" s="71"/>
-      <c r="EJ2" s="71"/>
-      <c r="EK2" s="71"/>
-      <c r="EL2" s="71"/>
-      <c r="EM2" s="71"/>
-      <c r="EN2" s="71"/>
-      <c r="EO2" s="71"/>
-      <c r="EP2" s="71"/>
-      <c r="EQ2" s="71"/>
-      <c r="ER2" s="71"/>
-      <c r="ES2" s="71"/>
-      <c r="ET2" s="71"/>
-      <c r="EU2" s="71"/>
-      <c r="FX2" s="71"/>
-      <c r="FY2" s="71"/>
-      <c r="FZ2" s="71"/>
-      <c r="GA2" s="71"/>
-      <c r="GG2" s="71"/>
-      <c r="GH2" s="71"/>
-      <c r="JL2" s="71"/>
-      <c r="JM2" s="71"/>
-      <c r="JN2" s="71"/>
-      <c r="NT2" s="71"/>
-      <c r="NU2" s="71"/>
-      <c r="NV2" s="71"/>
-      <c r="NW2" s="71"/>
-      <c r="PW2" s="71"/>
-      <c r="PX2" s="71"/>
-      <c r="PY2" s="71"/>
-      <c r="PZ2" s="71"/>
-      <c r="QA2" s="71"/>
-      <c r="QB2" s="71"/>
-      <c r="QC2" s="71"/>
-      <c r="QD2" s="71"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="33"/>
+      <c r="AX2" s="33"/>
+      <c r="AY2" s="33"/>
+      <c r="AZ2" s="33"/>
+      <c r="BA2" s="33"/>
+      <c r="BD2" s="33"/>
+      <c r="BE2" s="33"/>
+      <c r="BF2" s="33"/>
+      <c r="BG2" s="33"/>
+      <c r="BH2" s="33"/>
+      <c r="BI2" s="33"/>
+      <c r="BJ2" s="33"/>
+      <c r="BK2" s="33"/>
+      <c r="DK2" s="33"/>
+      <c r="DL2" s="33"/>
+      <c r="DM2" s="33"/>
+      <c r="DN2" s="33"/>
+      <c r="DO2" s="33"/>
+      <c r="DP2" s="33"/>
+      <c r="DT2" s="33"/>
+      <c r="DU2" s="33"/>
+      <c r="DV2" s="33"/>
+      <c r="DW2" s="33"/>
+      <c r="DX2" s="33"/>
+      <c r="DY2" s="33"/>
+      <c r="DZ2" s="33"/>
+      <c r="EA2" s="33"/>
+      <c r="EB2" s="33"/>
+      <c r="EC2" s="33"/>
+      <c r="ED2" s="33"/>
+      <c r="EE2" s="33"/>
+      <c r="EF2" s="33"/>
+      <c r="EG2" s="33"/>
+      <c r="EH2" s="33"/>
+      <c r="EI2" s="33"/>
+      <c r="EJ2" s="33"/>
+      <c r="EK2" s="33"/>
+      <c r="EL2" s="33"/>
+      <c r="EM2" s="33"/>
+      <c r="EN2" s="33"/>
+      <c r="EO2" s="33"/>
+      <c r="EP2" s="33"/>
+      <c r="EQ2" s="33"/>
+      <c r="ER2" s="33"/>
+      <c r="ES2" s="33"/>
+      <c r="ET2" s="33"/>
+      <c r="EU2" s="33"/>
+      <c r="FX2" s="33"/>
+      <c r="FY2" s="33"/>
+      <c r="FZ2" s="33"/>
+      <c r="GA2" s="33"/>
+      <c r="GG2" s="33"/>
+      <c r="GH2" s="33"/>
+      <c r="IV2" s="33"/>
+      <c r="IW2" s="33"/>
+      <c r="IX2" s="33"/>
+      <c r="IY2" s="33"/>
+      <c r="JL2" s="33"/>
+      <c r="JM2" s="33"/>
+      <c r="JN2" s="33"/>
+      <c r="NT2" s="33"/>
+      <c r="NU2" s="33"/>
+      <c r="NV2" s="33"/>
+      <c r="NW2" s="33"/>
+      <c r="PW2" s="33"/>
+      <c r="PX2" s="33"/>
+      <c r="PY2" s="33"/>
+      <c r="PZ2" s="33"/>
+      <c r="QA2" s="33"/>
+      <c r="QB2" s="33"/>
+      <c r="QC2" s="33"/>
+      <c r="QD2" s="33"/>
     </row>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="58" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="18"/>
@@ -1729,7 +1735,7 @@
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
-      <c r="B4" s="50"/>
+      <c r="B4" s="59"/>
       <c r="C4" s="18"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
@@ -1930,7 +1936,7 @@
     </row>
     <row r="5" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="18"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
@@ -2173,7 +2179,7 @@
     </row>
     <row r="6" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5"/>
-      <c r="B6" s="50"/>
+      <c r="B6" s="59"/>
       <c r="C6" s="18"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
@@ -2449,6 +2455,12 @@
       <c r="ID6" s="26">
         <v>13</v>
       </c>
+      <c r="IX6" s="26">
+        <v>15</v>
+      </c>
+      <c r="IY6" s="26">
+        <v>15</v>
+      </c>
       <c r="JP6" s="26">
         <v>6</v>
       </c>
@@ -2476,7 +2488,7 @@
     </row>
     <row r="7" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5"/>
-      <c r="B7" s="50"/>
+      <c r="B7" s="59"/>
       <c r="C7" s="18"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
@@ -2654,6 +2666,12 @@
       <c r="ID7" s="26">
         <v>13</v>
       </c>
+      <c r="IX7" s="26">
+        <v>15</v>
+      </c>
+      <c r="IY7" s="26">
+        <v>15</v>
+      </c>
       <c r="OJ7" s="26">
         <v>6</v>
       </c>
@@ -2663,7 +2681,7 @@
     </row>
     <row r="8" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="59"/>
       <c r="C8" s="18"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -2851,12 +2869,6 @@
       <c r="GI8" s="29">
         <v>0</v>
       </c>
-      <c r="IV8" s="26">
-        <v>15</v>
-      </c>
-      <c r="IW8" s="26">
-        <v>15</v>
-      </c>
       <c r="KI8" s="29">
         <v>0</v>
       </c>
@@ -2956,7 +2968,7 @@
     </row>
     <row r="9" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5"/>
-      <c r="B9" s="50"/>
+      <c r="B9" s="59"/>
       <c r="C9" s="18"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -3166,12 +3178,6 @@
       <c r="GA9" s="26">
         <v>16</v>
       </c>
-      <c r="IV9" s="26">
-        <v>15</v>
-      </c>
-      <c r="IW9" s="26">
-        <v>15</v>
-      </c>
       <c r="JL9" s="3"/>
       <c r="KA9" s="26">
         <v>12</v>
@@ -3302,7 +3308,7 @@
     </row>
     <row r="10" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5"/>
-      <c r="B10" s="50"/>
+      <c r="B10" s="59"/>
       <c r="C10" s="18"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -3514,7 +3520,7 @@
     </row>
     <row r="11" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5"/>
-      <c r="B11" s="50"/>
+      <c r="B11" s="59"/>
       <c r="C11" s="18"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -3819,7 +3825,7 @@
     </row>
     <row r="12" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5"/>
-      <c r="B12" s="50"/>
+      <c r="B12" s="59"/>
       <c r="C12" s="18"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -4358,7 +4364,7 @@
     </row>
     <row r="13" spans="1:1082" s="9" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="51"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="27">
         <v>0</v>
       </c>
@@ -8847,1138 +8853,1138 @@
       <c r="B15" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C15" s="44" t="s">
+      <c r="C15" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-      <c r="S15" s="44"/>
-      <c r="T15" s="44"/>
-      <c r="U15" s="44"/>
-      <c r="V15" s="45"/>
-      <c r="W15" s="43" t="s">
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="V15" s="39"/>
+      <c r="W15" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="X15" s="44"/>
-      <c r="Y15" s="44"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="44"/>
-      <c r="AB15" s="44"/>
-      <c r="AC15" s="44"/>
-      <c r="AD15" s="44"/>
-      <c r="AE15" s="44"/>
-      <c r="AF15" s="44"/>
-      <c r="AG15" s="44"/>
-      <c r="AH15" s="44"/>
-      <c r="AI15" s="44"/>
-      <c r="AJ15" s="44"/>
-      <c r="AK15" s="44"/>
-      <c r="AL15" s="44"/>
-      <c r="AM15" s="44"/>
-      <c r="AN15" s="44"/>
-      <c r="AO15" s="44"/>
-      <c r="AP15" s="45"/>
-      <c r="AQ15" s="44" t="s">
+      <c r="X15" s="38"/>
+      <c r="Y15" s="38"/>
+      <c r="Z15" s="38"/>
+      <c r="AA15" s="38"/>
+      <c r="AB15" s="38"/>
+      <c r="AC15" s="38"/>
+      <c r="AD15" s="38"/>
+      <c r="AE15" s="38"/>
+      <c r="AF15" s="38"/>
+      <c r="AG15" s="38"/>
+      <c r="AH15" s="38"/>
+      <c r="AI15" s="38"/>
+      <c r="AJ15" s="38"/>
+      <c r="AK15" s="38"/>
+      <c r="AL15" s="38"/>
+      <c r="AM15" s="38"/>
+      <c r="AN15" s="38"/>
+      <c r="AO15" s="38"/>
+      <c r="AP15" s="39"/>
+      <c r="AQ15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="AR15" s="44"/>
-      <c r="AS15" s="44"/>
-      <c r="AT15" s="44"/>
-      <c r="AU15" s="44"/>
-      <c r="AV15" s="44"/>
-      <c r="AW15" s="44"/>
-      <c r="AX15" s="44"/>
-      <c r="AY15" s="44"/>
-      <c r="AZ15" s="44"/>
-      <c r="BA15" s="44"/>
-      <c r="BB15" s="44"/>
-      <c r="BC15" s="44"/>
-      <c r="BD15" s="44"/>
-      <c r="BE15" s="44"/>
-      <c r="BF15" s="44"/>
-      <c r="BG15" s="44"/>
-      <c r="BH15" s="44"/>
-      <c r="BI15" s="44"/>
-      <c r="BJ15" s="45"/>
-      <c r="BK15" s="43" t="s">
+      <c r="AR15" s="38"/>
+      <c r="AS15" s="38"/>
+      <c r="AT15" s="38"/>
+      <c r="AU15" s="38"/>
+      <c r="AV15" s="38"/>
+      <c r="AW15" s="38"/>
+      <c r="AX15" s="38"/>
+      <c r="AY15" s="38"/>
+      <c r="AZ15" s="38"/>
+      <c r="BA15" s="38"/>
+      <c r="BB15" s="38"/>
+      <c r="BC15" s="38"/>
+      <c r="BD15" s="38"/>
+      <c r="BE15" s="38"/>
+      <c r="BF15" s="38"/>
+      <c r="BG15" s="38"/>
+      <c r="BH15" s="38"/>
+      <c r="BI15" s="38"/>
+      <c r="BJ15" s="39"/>
+      <c r="BK15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="BL15" s="44"/>
-      <c r="BM15" s="44"/>
-      <c r="BN15" s="44"/>
-      <c r="BO15" s="44"/>
-      <c r="BP15" s="44"/>
-      <c r="BQ15" s="44"/>
-      <c r="BR15" s="44"/>
-      <c r="BS15" s="44"/>
-      <c r="BT15" s="44"/>
-      <c r="BU15" s="44"/>
-      <c r="BV15" s="44"/>
-      <c r="BW15" s="44"/>
-      <c r="BX15" s="44"/>
-      <c r="BY15" s="44"/>
-      <c r="BZ15" s="44"/>
-      <c r="CA15" s="44"/>
-      <c r="CB15" s="44"/>
-      <c r="CC15" s="44"/>
-      <c r="CD15" s="45"/>
-      <c r="CE15" s="44" t="s">
+      <c r="BL15" s="38"/>
+      <c r="BM15" s="38"/>
+      <c r="BN15" s="38"/>
+      <c r="BO15" s="38"/>
+      <c r="BP15" s="38"/>
+      <c r="BQ15" s="38"/>
+      <c r="BR15" s="38"/>
+      <c r="BS15" s="38"/>
+      <c r="BT15" s="38"/>
+      <c r="BU15" s="38"/>
+      <c r="BV15" s="38"/>
+      <c r="BW15" s="38"/>
+      <c r="BX15" s="38"/>
+      <c r="BY15" s="38"/>
+      <c r="BZ15" s="38"/>
+      <c r="CA15" s="38"/>
+      <c r="CB15" s="38"/>
+      <c r="CC15" s="38"/>
+      <c r="CD15" s="39"/>
+      <c r="CE15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="CF15" s="44"/>
-      <c r="CG15" s="44"/>
-      <c r="CH15" s="44"/>
-      <c r="CI15" s="44"/>
-      <c r="CJ15" s="44"/>
-      <c r="CK15" s="44"/>
-      <c r="CL15" s="44"/>
-      <c r="CM15" s="44"/>
-      <c r="CN15" s="44"/>
-      <c r="CO15" s="44"/>
-      <c r="CP15" s="44"/>
-      <c r="CQ15" s="44"/>
-      <c r="CR15" s="44"/>
-      <c r="CS15" s="44"/>
-      <c r="CT15" s="44"/>
-      <c r="CU15" s="44"/>
-      <c r="CV15" s="44"/>
-      <c r="CW15" s="44"/>
-      <c r="CX15" s="45"/>
-      <c r="CY15" s="43" t="s">
+      <c r="CF15" s="38"/>
+      <c r="CG15" s="38"/>
+      <c r="CH15" s="38"/>
+      <c r="CI15" s="38"/>
+      <c r="CJ15" s="38"/>
+      <c r="CK15" s="38"/>
+      <c r="CL15" s="38"/>
+      <c r="CM15" s="38"/>
+      <c r="CN15" s="38"/>
+      <c r="CO15" s="38"/>
+      <c r="CP15" s="38"/>
+      <c r="CQ15" s="38"/>
+      <c r="CR15" s="38"/>
+      <c r="CS15" s="38"/>
+      <c r="CT15" s="38"/>
+      <c r="CU15" s="38"/>
+      <c r="CV15" s="38"/>
+      <c r="CW15" s="38"/>
+      <c r="CX15" s="39"/>
+      <c r="CY15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="CZ15" s="44"/>
-      <c r="DA15" s="44"/>
-      <c r="DB15" s="44"/>
-      <c r="DC15" s="44"/>
-      <c r="DD15" s="44"/>
-      <c r="DE15" s="44"/>
-      <c r="DF15" s="44"/>
-      <c r="DG15" s="44"/>
-      <c r="DH15" s="44"/>
-      <c r="DI15" s="44"/>
-      <c r="DJ15" s="44"/>
-      <c r="DK15" s="44"/>
-      <c r="DL15" s="44"/>
-      <c r="DM15" s="44"/>
-      <c r="DN15" s="44"/>
-      <c r="DO15" s="44"/>
-      <c r="DP15" s="44"/>
-      <c r="DQ15" s="44"/>
-      <c r="DR15" s="45"/>
-      <c r="DS15" s="44" t="s">
+      <c r="CZ15" s="38"/>
+      <c r="DA15" s="38"/>
+      <c r="DB15" s="38"/>
+      <c r="DC15" s="38"/>
+      <c r="DD15" s="38"/>
+      <c r="DE15" s="38"/>
+      <c r="DF15" s="38"/>
+      <c r="DG15" s="38"/>
+      <c r="DH15" s="38"/>
+      <c r="DI15" s="38"/>
+      <c r="DJ15" s="38"/>
+      <c r="DK15" s="38"/>
+      <c r="DL15" s="38"/>
+      <c r="DM15" s="38"/>
+      <c r="DN15" s="38"/>
+      <c r="DO15" s="38"/>
+      <c r="DP15" s="38"/>
+      <c r="DQ15" s="38"/>
+      <c r="DR15" s="39"/>
+      <c r="DS15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="DT15" s="44"/>
-      <c r="DU15" s="44"/>
-      <c r="DV15" s="44"/>
-      <c r="DW15" s="44"/>
-      <c r="DX15" s="44"/>
-      <c r="DY15" s="44"/>
-      <c r="DZ15" s="44"/>
-      <c r="EA15" s="44"/>
-      <c r="EB15" s="44"/>
-      <c r="EC15" s="44"/>
-      <c r="ED15" s="44"/>
-      <c r="EE15" s="44"/>
-      <c r="EF15" s="44"/>
-      <c r="EG15" s="44"/>
-      <c r="EH15" s="44"/>
-      <c r="EI15" s="44"/>
-      <c r="EJ15" s="44"/>
-      <c r="EK15" s="44"/>
-      <c r="EL15" s="45"/>
-      <c r="EM15" s="43" t="s">
+      <c r="DT15" s="38"/>
+      <c r="DU15" s="38"/>
+      <c r="DV15" s="38"/>
+      <c r="DW15" s="38"/>
+      <c r="DX15" s="38"/>
+      <c r="DY15" s="38"/>
+      <c r="DZ15" s="38"/>
+      <c r="EA15" s="38"/>
+      <c r="EB15" s="38"/>
+      <c r="EC15" s="38"/>
+      <c r="ED15" s="38"/>
+      <c r="EE15" s="38"/>
+      <c r="EF15" s="38"/>
+      <c r="EG15" s="38"/>
+      <c r="EH15" s="38"/>
+      <c r="EI15" s="38"/>
+      <c r="EJ15" s="38"/>
+      <c r="EK15" s="38"/>
+      <c r="EL15" s="39"/>
+      <c r="EM15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="EN15" s="44"/>
-      <c r="EO15" s="44"/>
-      <c r="EP15" s="44"/>
-      <c r="EQ15" s="44"/>
-      <c r="ER15" s="44"/>
-      <c r="ES15" s="44"/>
-      <c r="ET15" s="44"/>
-      <c r="EU15" s="44"/>
-      <c r="EV15" s="44"/>
-      <c r="EW15" s="44"/>
-      <c r="EX15" s="44"/>
-      <c r="EY15" s="44"/>
-      <c r="EZ15" s="44"/>
-      <c r="FA15" s="44"/>
-      <c r="FB15" s="44"/>
-      <c r="FC15" s="44"/>
-      <c r="FD15" s="44"/>
-      <c r="FE15" s="44"/>
-      <c r="FF15" s="45"/>
-      <c r="FG15" s="44" t="s">
+      <c r="EN15" s="38"/>
+      <c r="EO15" s="38"/>
+      <c r="EP15" s="38"/>
+      <c r="EQ15" s="38"/>
+      <c r="ER15" s="38"/>
+      <c r="ES15" s="38"/>
+      <c r="ET15" s="38"/>
+      <c r="EU15" s="38"/>
+      <c r="EV15" s="38"/>
+      <c r="EW15" s="38"/>
+      <c r="EX15" s="38"/>
+      <c r="EY15" s="38"/>
+      <c r="EZ15" s="38"/>
+      <c r="FA15" s="38"/>
+      <c r="FB15" s="38"/>
+      <c r="FC15" s="38"/>
+      <c r="FD15" s="38"/>
+      <c r="FE15" s="38"/>
+      <c r="FF15" s="39"/>
+      <c r="FG15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="FH15" s="44"/>
-      <c r="FI15" s="44"/>
-      <c r="FJ15" s="44"/>
-      <c r="FK15" s="44"/>
-      <c r="FL15" s="44"/>
-      <c r="FM15" s="44"/>
-      <c r="FN15" s="44"/>
-      <c r="FO15" s="44"/>
-      <c r="FP15" s="44"/>
-      <c r="FQ15" s="44"/>
-      <c r="FR15" s="44"/>
-      <c r="FS15" s="44"/>
-      <c r="FT15" s="44"/>
-      <c r="FU15" s="44"/>
-      <c r="FV15" s="44"/>
-      <c r="FW15" s="44"/>
-      <c r="FX15" s="44"/>
-      <c r="FY15" s="44"/>
-      <c r="FZ15" s="45"/>
-      <c r="GA15" s="43" t="s">
+      <c r="FH15" s="38"/>
+      <c r="FI15" s="38"/>
+      <c r="FJ15" s="38"/>
+      <c r="FK15" s="38"/>
+      <c r="FL15" s="38"/>
+      <c r="FM15" s="38"/>
+      <c r="FN15" s="38"/>
+      <c r="FO15" s="38"/>
+      <c r="FP15" s="38"/>
+      <c r="FQ15" s="38"/>
+      <c r="FR15" s="38"/>
+      <c r="FS15" s="38"/>
+      <c r="FT15" s="38"/>
+      <c r="FU15" s="38"/>
+      <c r="FV15" s="38"/>
+      <c r="FW15" s="38"/>
+      <c r="FX15" s="38"/>
+      <c r="FY15" s="38"/>
+      <c r="FZ15" s="39"/>
+      <c r="GA15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="GB15" s="44"/>
-      <c r="GC15" s="44"/>
-      <c r="GD15" s="44"/>
-      <c r="GE15" s="44"/>
-      <c r="GF15" s="44"/>
-      <c r="GG15" s="44"/>
-      <c r="GH15" s="44"/>
-      <c r="GI15" s="44"/>
-      <c r="GJ15" s="44"/>
-      <c r="GK15" s="44"/>
-      <c r="GL15" s="44"/>
-      <c r="GM15" s="44"/>
-      <c r="GN15" s="44"/>
-      <c r="GO15" s="44"/>
-      <c r="GP15" s="44"/>
-      <c r="GQ15" s="44"/>
-      <c r="GR15" s="44"/>
-      <c r="GS15" s="44"/>
-      <c r="GT15" s="45"/>
-      <c r="GU15" s="44" t="s">
+      <c r="GB15" s="38"/>
+      <c r="GC15" s="38"/>
+      <c r="GD15" s="38"/>
+      <c r="GE15" s="38"/>
+      <c r="GF15" s="38"/>
+      <c r="GG15" s="38"/>
+      <c r="GH15" s="38"/>
+      <c r="GI15" s="38"/>
+      <c r="GJ15" s="38"/>
+      <c r="GK15" s="38"/>
+      <c r="GL15" s="38"/>
+      <c r="GM15" s="38"/>
+      <c r="GN15" s="38"/>
+      <c r="GO15" s="38"/>
+      <c r="GP15" s="38"/>
+      <c r="GQ15" s="38"/>
+      <c r="GR15" s="38"/>
+      <c r="GS15" s="38"/>
+      <c r="GT15" s="39"/>
+      <c r="GU15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="GV15" s="44"/>
-      <c r="GW15" s="44"/>
-      <c r="GX15" s="44"/>
-      <c r="GY15" s="44"/>
-      <c r="GZ15" s="44"/>
-      <c r="HA15" s="44"/>
-      <c r="HB15" s="44"/>
-      <c r="HC15" s="44"/>
-      <c r="HD15" s="44"/>
-      <c r="HE15" s="44"/>
-      <c r="HF15" s="44"/>
-      <c r="HG15" s="44"/>
-      <c r="HH15" s="44"/>
-      <c r="HI15" s="44"/>
-      <c r="HJ15" s="44"/>
-      <c r="HK15" s="44"/>
-      <c r="HL15" s="44"/>
-      <c r="HM15" s="44"/>
-      <c r="HN15" s="45"/>
-      <c r="HO15" s="43" t="s">
+      <c r="GV15" s="38"/>
+      <c r="GW15" s="38"/>
+      <c r="GX15" s="38"/>
+      <c r="GY15" s="38"/>
+      <c r="GZ15" s="38"/>
+      <c r="HA15" s="38"/>
+      <c r="HB15" s="38"/>
+      <c r="HC15" s="38"/>
+      <c r="HD15" s="38"/>
+      <c r="HE15" s="38"/>
+      <c r="HF15" s="38"/>
+      <c r="HG15" s="38"/>
+      <c r="HH15" s="38"/>
+      <c r="HI15" s="38"/>
+      <c r="HJ15" s="38"/>
+      <c r="HK15" s="38"/>
+      <c r="HL15" s="38"/>
+      <c r="HM15" s="38"/>
+      <c r="HN15" s="39"/>
+      <c r="HO15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="HP15" s="44"/>
-      <c r="HQ15" s="44"/>
-      <c r="HR15" s="44"/>
-      <c r="HS15" s="44"/>
-      <c r="HT15" s="44"/>
-      <c r="HU15" s="44"/>
-      <c r="HV15" s="44"/>
-      <c r="HW15" s="44"/>
-      <c r="HX15" s="44"/>
-      <c r="HY15" s="44"/>
-      <c r="HZ15" s="44"/>
-      <c r="IA15" s="44"/>
-      <c r="IB15" s="44"/>
-      <c r="IC15" s="44"/>
-      <c r="ID15" s="44"/>
-      <c r="IE15" s="44"/>
-      <c r="IF15" s="44"/>
-      <c r="IG15" s="44"/>
-      <c r="IH15" s="45"/>
-      <c r="II15" s="44" t="s">
+      <c r="HP15" s="38"/>
+      <c r="HQ15" s="38"/>
+      <c r="HR15" s="38"/>
+      <c r="HS15" s="38"/>
+      <c r="HT15" s="38"/>
+      <c r="HU15" s="38"/>
+      <c r="HV15" s="38"/>
+      <c r="HW15" s="38"/>
+      <c r="HX15" s="38"/>
+      <c r="HY15" s="38"/>
+      <c r="HZ15" s="38"/>
+      <c r="IA15" s="38"/>
+      <c r="IB15" s="38"/>
+      <c r="IC15" s="38"/>
+      <c r="ID15" s="38"/>
+      <c r="IE15" s="38"/>
+      <c r="IF15" s="38"/>
+      <c r="IG15" s="38"/>
+      <c r="IH15" s="39"/>
+      <c r="II15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="IJ15" s="44"/>
-      <c r="IK15" s="44"/>
-      <c r="IL15" s="44"/>
-      <c r="IM15" s="44"/>
-      <c r="IN15" s="44"/>
-      <c r="IO15" s="44"/>
-      <c r="IP15" s="44"/>
-      <c r="IQ15" s="44"/>
-      <c r="IR15" s="44"/>
-      <c r="IS15" s="44"/>
-      <c r="IT15" s="44"/>
-      <c r="IU15" s="44"/>
-      <c r="IV15" s="44"/>
-      <c r="IW15" s="44"/>
-      <c r="IX15" s="44"/>
-      <c r="IY15" s="44"/>
-      <c r="IZ15" s="44"/>
-      <c r="JA15" s="44"/>
-      <c r="JB15" s="45"/>
-      <c r="JC15" s="43" t="s">
+      <c r="IJ15" s="38"/>
+      <c r="IK15" s="38"/>
+      <c r="IL15" s="38"/>
+      <c r="IM15" s="38"/>
+      <c r="IN15" s="38"/>
+      <c r="IO15" s="38"/>
+      <c r="IP15" s="38"/>
+      <c r="IQ15" s="38"/>
+      <c r="IR15" s="38"/>
+      <c r="IS15" s="38"/>
+      <c r="IT15" s="38"/>
+      <c r="IU15" s="38"/>
+      <c r="IV15" s="38"/>
+      <c r="IW15" s="38"/>
+      <c r="IX15" s="38"/>
+      <c r="IY15" s="38"/>
+      <c r="IZ15" s="38"/>
+      <c r="JA15" s="38"/>
+      <c r="JB15" s="39"/>
+      <c r="JC15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="JD15" s="44"/>
-      <c r="JE15" s="44"/>
-      <c r="JF15" s="44"/>
-      <c r="JG15" s="44"/>
-      <c r="JH15" s="44"/>
-      <c r="JI15" s="44"/>
-      <c r="JJ15" s="44"/>
-      <c r="JK15" s="44"/>
-      <c r="JL15" s="44"/>
-      <c r="JM15" s="44"/>
-      <c r="JN15" s="44"/>
-      <c r="JO15" s="44"/>
-      <c r="JP15" s="44"/>
-      <c r="JQ15" s="44"/>
-      <c r="JR15" s="44"/>
-      <c r="JS15" s="44"/>
-      <c r="JT15" s="44"/>
-      <c r="JU15" s="44"/>
-      <c r="JV15" s="45"/>
-      <c r="JW15" s="44" t="s">
+      <c r="JD15" s="38"/>
+      <c r="JE15" s="38"/>
+      <c r="JF15" s="38"/>
+      <c r="JG15" s="38"/>
+      <c r="JH15" s="38"/>
+      <c r="JI15" s="38"/>
+      <c r="JJ15" s="38"/>
+      <c r="JK15" s="38"/>
+      <c r="JL15" s="38"/>
+      <c r="JM15" s="38"/>
+      <c r="JN15" s="38"/>
+      <c r="JO15" s="38"/>
+      <c r="JP15" s="38"/>
+      <c r="JQ15" s="38"/>
+      <c r="JR15" s="38"/>
+      <c r="JS15" s="38"/>
+      <c r="JT15" s="38"/>
+      <c r="JU15" s="38"/>
+      <c r="JV15" s="39"/>
+      <c r="JW15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="JX15" s="44"/>
-      <c r="JY15" s="44"/>
-      <c r="JZ15" s="44"/>
-      <c r="KA15" s="44"/>
-      <c r="KB15" s="44"/>
-      <c r="KC15" s="44"/>
-      <c r="KD15" s="44"/>
-      <c r="KE15" s="44"/>
-      <c r="KF15" s="44"/>
-      <c r="KG15" s="44"/>
-      <c r="KH15" s="44"/>
-      <c r="KI15" s="44"/>
-      <c r="KJ15" s="44"/>
-      <c r="KK15" s="44"/>
-      <c r="KL15" s="44"/>
-      <c r="KM15" s="44"/>
-      <c r="KN15" s="44"/>
-      <c r="KO15" s="44"/>
-      <c r="KP15" s="45"/>
-      <c r="KQ15" s="43" t="s">
+      <c r="JX15" s="38"/>
+      <c r="JY15" s="38"/>
+      <c r="JZ15" s="38"/>
+      <c r="KA15" s="38"/>
+      <c r="KB15" s="38"/>
+      <c r="KC15" s="38"/>
+      <c r="KD15" s="38"/>
+      <c r="KE15" s="38"/>
+      <c r="KF15" s="38"/>
+      <c r="KG15" s="38"/>
+      <c r="KH15" s="38"/>
+      <c r="KI15" s="38"/>
+      <c r="KJ15" s="38"/>
+      <c r="KK15" s="38"/>
+      <c r="KL15" s="38"/>
+      <c r="KM15" s="38"/>
+      <c r="KN15" s="38"/>
+      <c r="KO15" s="38"/>
+      <c r="KP15" s="39"/>
+      <c r="KQ15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="KR15" s="44"/>
-      <c r="KS15" s="44"/>
-      <c r="KT15" s="44"/>
-      <c r="KU15" s="44"/>
-      <c r="KV15" s="44"/>
-      <c r="KW15" s="44"/>
-      <c r="KX15" s="44"/>
-      <c r="KY15" s="44"/>
-      <c r="KZ15" s="44"/>
-      <c r="LA15" s="44"/>
-      <c r="LB15" s="44"/>
-      <c r="LC15" s="44"/>
-      <c r="LD15" s="44"/>
-      <c r="LE15" s="44"/>
-      <c r="LF15" s="44"/>
-      <c r="LG15" s="44"/>
-      <c r="LH15" s="44"/>
-      <c r="LI15" s="44"/>
-      <c r="LJ15" s="45"/>
-      <c r="LK15" s="44" t="s">
+      <c r="KR15" s="38"/>
+      <c r="KS15" s="38"/>
+      <c r="KT15" s="38"/>
+      <c r="KU15" s="38"/>
+      <c r="KV15" s="38"/>
+      <c r="KW15" s="38"/>
+      <c r="KX15" s="38"/>
+      <c r="KY15" s="38"/>
+      <c r="KZ15" s="38"/>
+      <c r="LA15" s="38"/>
+      <c r="LB15" s="38"/>
+      <c r="LC15" s="38"/>
+      <c r="LD15" s="38"/>
+      <c r="LE15" s="38"/>
+      <c r="LF15" s="38"/>
+      <c r="LG15" s="38"/>
+      <c r="LH15" s="38"/>
+      <c r="LI15" s="38"/>
+      <c r="LJ15" s="39"/>
+      <c r="LK15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="LL15" s="44"/>
-      <c r="LM15" s="44"/>
-      <c r="LN15" s="44"/>
-      <c r="LO15" s="44"/>
-      <c r="LP15" s="44"/>
-      <c r="LQ15" s="44"/>
-      <c r="LR15" s="44"/>
-      <c r="LS15" s="44"/>
-      <c r="LT15" s="44"/>
-      <c r="LU15" s="44"/>
-      <c r="LV15" s="44"/>
-      <c r="LW15" s="44"/>
-      <c r="LX15" s="44"/>
-      <c r="LY15" s="44"/>
-      <c r="LZ15" s="44"/>
-      <c r="MA15" s="44"/>
-      <c r="MB15" s="44"/>
-      <c r="MC15" s="44"/>
-      <c r="MD15" s="45"/>
-      <c r="ME15" s="43" t="s">
+      <c r="LL15" s="38"/>
+      <c r="LM15" s="38"/>
+      <c r="LN15" s="38"/>
+      <c r="LO15" s="38"/>
+      <c r="LP15" s="38"/>
+      <c r="LQ15" s="38"/>
+      <c r="LR15" s="38"/>
+      <c r="LS15" s="38"/>
+      <c r="LT15" s="38"/>
+      <c r="LU15" s="38"/>
+      <c r="LV15" s="38"/>
+      <c r="LW15" s="38"/>
+      <c r="LX15" s="38"/>
+      <c r="LY15" s="38"/>
+      <c r="LZ15" s="38"/>
+      <c r="MA15" s="38"/>
+      <c r="MB15" s="38"/>
+      <c r="MC15" s="38"/>
+      <c r="MD15" s="39"/>
+      <c r="ME15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="MF15" s="44"/>
-      <c r="MG15" s="44"/>
-      <c r="MH15" s="44"/>
-      <c r="MI15" s="44"/>
-      <c r="MJ15" s="44"/>
-      <c r="MK15" s="44"/>
-      <c r="ML15" s="44"/>
-      <c r="MM15" s="44"/>
-      <c r="MN15" s="44"/>
-      <c r="MO15" s="44"/>
-      <c r="MP15" s="44"/>
-      <c r="MQ15" s="44"/>
-      <c r="MR15" s="44"/>
-      <c r="MS15" s="44"/>
-      <c r="MT15" s="44"/>
-      <c r="MU15" s="44"/>
-      <c r="MV15" s="44"/>
-      <c r="MW15" s="44"/>
-      <c r="MX15" s="45"/>
-      <c r="MY15" s="44" t="s">
+      <c r="MF15" s="38"/>
+      <c r="MG15" s="38"/>
+      <c r="MH15" s="38"/>
+      <c r="MI15" s="38"/>
+      <c r="MJ15" s="38"/>
+      <c r="MK15" s="38"/>
+      <c r="ML15" s="38"/>
+      <c r="MM15" s="38"/>
+      <c r="MN15" s="38"/>
+      <c r="MO15" s="38"/>
+      <c r="MP15" s="38"/>
+      <c r="MQ15" s="38"/>
+      <c r="MR15" s="38"/>
+      <c r="MS15" s="38"/>
+      <c r="MT15" s="38"/>
+      <c r="MU15" s="38"/>
+      <c r="MV15" s="38"/>
+      <c r="MW15" s="38"/>
+      <c r="MX15" s="39"/>
+      <c r="MY15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="MZ15" s="44"/>
-      <c r="NA15" s="44"/>
-      <c r="NB15" s="44"/>
-      <c r="NC15" s="44"/>
-      <c r="ND15" s="44"/>
-      <c r="NE15" s="44"/>
-      <c r="NF15" s="44"/>
-      <c r="NG15" s="44"/>
-      <c r="NH15" s="44"/>
-      <c r="NI15" s="44"/>
-      <c r="NJ15" s="44"/>
-      <c r="NK15" s="44"/>
-      <c r="NL15" s="44"/>
-      <c r="NM15" s="44"/>
-      <c r="NN15" s="44"/>
-      <c r="NO15" s="44"/>
-      <c r="NP15" s="44"/>
-      <c r="NQ15" s="44"/>
-      <c r="NR15" s="45"/>
-      <c r="NS15" s="43" t="s">
+      <c r="MZ15" s="38"/>
+      <c r="NA15" s="38"/>
+      <c r="NB15" s="38"/>
+      <c r="NC15" s="38"/>
+      <c r="ND15" s="38"/>
+      <c r="NE15" s="38"/>
+      <c r="NF15" s="38"/>
+      <c r="NG15" s="38"/>
+      <c r="NH15" s="38"/>
+      <c r="NI15" s="38"/>
+      <c r="NJ15" s="38"/>
+      <c r="NK15" s="38"/>
+      <c r="NL15" s="38"/>
+      <c r="NM15" s="38"/>
+      <c r="NN15" s="38"/>
+      <c r="NO15" s="38"/>
+      <c r="NP15" s="38"/>
+      <c r="NQ15" s="38"/>
+      <c r="NR15" s="39"/>
+      <c r="NS15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="NT15" s="44"/>
-      <c r="NU15" s="44"/>
-      <c r="NV15" s="44"/>
-      <c r="NW15" s="44"/>
-      <c r="NX15" s="44"/>
-      <c r="NY15" s="44"/>
-      <c r="NZ15" s="44"/>
-      <c r="OA15" s="44"/>
-      <c r="OB15" s="44"/>
-      <c r="OC15" s="44"/>
-      <c r="OD15" s="44"/>
-      <c r="OE15" s="44"/>
-      <c r="OF15" s="44"/>
-      <c r="OG15" s="44"/>
-      <c r="OH15" s="44"/>
-      <c r="OI15" s="44"/>
-      <c r="OJ15" s="44"/>
-      <c r="OK15" s="44"/>
-      <c r="OL15" s="45"/>
-      <c r="OM15" s="44" t="s">
+      <c r="NT15" s="38"/>
+      <c r="NU15" s="38"/>
+      <c r="NV15" s="38"/>
+      <c r="NW15" s="38"/>
+      <c r="NX15" s="38"/>
+      <c r="NY15" s="38"/>
+      <c r="NZ15" s="38"/>
+      <c r="OA15" s="38"/>
+      <c r="OB15" s="38"/>
+      <c r="OC15" s="38"/>
+      <c r="OD15" s="38"/>
+      <c r="OE15" s="38"/>
+      <c r="OF15" s="38"/>
+      <c r="OG15" s="38"/>
+      <c r="OH15" s="38"/>
+      <c r="OI15" s="38"/>
+      <c r="OJ15" s="38"/>
+      <c r="OK15" s="38"/>
+      <c r="OL15" s="39"/>
+      <c r="OM15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="ON15" s="44"/>
-      <c r="OO15" s="44"/>
-      <c r="OP15" s="44"/>
-      <c r="OQ15" s="44"/>
-      <c r="OR15" s="44"/>
-      <c r="OS15" s="44"/>
-      <c r="OT15" s="44"/>
-      <c r="OU15" s="44"/>
-      <c r="OV15" s="44"/>
-      <c r="OW15" s="44"/>
-      <c r="OX15" s="44"/>
-      <c r="OY15" s="44"/>
-      <c r="OZ15" s="44"/>
-      <c r="PA15" s="44"/>
-      <c r="PB15" s="44"/>
-      <c r="PC15" s="44"/>
-      <c r="PD15" s="44"/>
-      <c r="PE15" s="44"/>
-      <c r="PF15" s="45"/>
-      <c r="PG15" s="43" t="s">
+      <c r="ON15" s="38"/>
+      <c r="OO15" s="38"/>
+      <c r="OP15" s="38"/>
+      <c r="OQ15" s="38"/>
+      <c r="OR15" s="38"/>
+      <c r="OS15" s="38"/>
+      <c r="OT15" s="38"/>
+      <c r="OU15" s="38"/>
+      <c r="OV15" s="38"/>
+      <c r="OW15" s="38"/>
+      <c r="OX15" s="38"/>
+      <c r="OY15" s="38"/>
+      <c r="OZ15" s="38"/>
+      <c r="PA15" s="38"/>
+      <c r="PB15" s="38"/>
+      <c r="PC15" s="38"/>
+      <c r="PD15" s="38"/>
+      <c r="PE15" s="38"/>
+      <c r="PF15" s="39"/>
+      <c r="PG15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="PH15" s="44"/>
-      <c r="PI15" s="44"/>
-      <c r="PJ15" s="44"/>
-      <c r="PK15" s="44"/>
-      <c r="PL15" s="44"/>
-      <c r="PM15" s="44"/>
-      <c r="PN15" s="44"/>
-      <c r="PO15" s="44"/>
-      <c r="PP15" s="44"/>
-      <c r="PQ15" s="44"/>
-      <c r="PR15" s="44"/>
-      <c r="PS15" s="44"/>
-      <c r="PT15" s="44"/>
-      <c r="PU15" s="44"/>
-      <c r="PV15" s="44"/>
-      <c r="PW15" s="44"/>
-      <c r="PX15" s="44"/>
-      <c r="PY15" s="44"/>
-      <c r="PZ15" s="45"/>
-      <c r="QA15" s="44" t="s">
+      <c r="PH15" s="38"/>
+      <c r="PI15" s="38"/>
+      <c r="PJ15" s="38"/>
+      <c r="PK15" s="38"/>
+      <c r="PL15" s="38"/>
+      <c r="PM15" s="38"/>
+      <c r="PN15" s="38"/>
+      <c r="PO15" s="38"/>
+      <c r="PP15" s="38"/>
+      <c r="PQ15" s="38"/>
+      <c r="PR15" s="38"/>
+      <c r="PS15" s="38"/>
+      <c r="PT15" s="38"/>
+      <c r="PU15" s="38"/>
+      <c r="PV15" s="38"/>
+      <c r="PW15" s="38"/>
+      <c r="PX15" s="38"/>
+      <c r="PY15" s="38"/>
+      <c r="PZ15" s="39"/>
+      <c r="QA15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="QB15" s="44"/>
-      <c r="QC15" s="44"/>
-      <c r="QD15" s="44"/>
-      <c r="QE15" s="44"/>
-      <c r="QF15" s="44"/>
-      <c r="QG15" s="44"/>
-      <c r="QH15" s="44"/>
-      <c r="QI15" s="44"/>
-      <c r="QJ15" s="44"/>
-      <c r="QK15" s="44"/>
-      <c r="QL15" s="44"/>
-      <c r="QM15" s="44"/>
-      <c r="QN15" s="44"/>
-      <c r="QO15" s="44"/>
-      <c r="QP15" s="44"/>
-      <c r="QQ15" s="44"/>
-      <c r="QR15" s="44"/>
-      <c r="QS15" s="44"/>
-      <c r="QT15" s="45"/>
-      <c r="QU15" s="43" t="s">
+      <c r="QB15" s="38"/>
+      <c r="QC15" s="38"/>
+      <c r="QD15" s="38"/>
+      <c r="QE15" s="38"/>
+      <c r="QF15" s="38"/>
+      <c r="QG15" s="38"/>
+      <c r="QH15" s="38"/>
+      <c r="QI15" s="38"/>
+      <c r="QJ15" s="38"/>
+      <c r="QK15" s="38"/>
+      <c r="QL15" s="38"/>
+      <c r="QM15" s="38"/>
+      <c r="QN15" s="38"/>
+      <c r="QO15" s="38"/>
+      <c r="QP15" s="38"/>
+      <c r="QQ15" s="38"/>
+      <c r="QR15" s="38"/>
+      <c r="QS15" s="38"/>
+      <c r="QT15" s="39"/>
+      <c r="QU15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="QV15" s="44"/>
-      <c r="QW15" s="44"/>
-      <c r="QX15" s="44"/>
-      <c r="QY15" s="44"/>
-      <c r="QZ15" s="44"/>
-      <c r="RA15" s="44"/>
-      <c r="RB15" s="44"/>
-      <c r="RC15" s="44"/>
-      <c r="RD15" s="44"/>
-      <c r="RE15" s="44"/>
-      <c r="RF15" s="44"/>
-      <c r="RG15" s="44"/>
-      <c r="RH15" s="44"/>
-      <c r="RI15" s="44"/>
-      <c r="RJ15" s="44"/>
-      <c r="RK15" s="44"/>
-      <c r="RL15" s="44"/>
-      <c r="RM15" s="44"/>
-      <c r="RN15" s="45"/>
-      <c r="RO15" s="44" t="s">
+      <c r="QV15" s="38"/>
+      <c r="QW15" s="38"/>
+      <c r="QX15" s="38"/>
+      <c r="QY15" s="38"/>
+      <c r="QZ15" s="38"/>
+      <c r="RA15" s="38"/>
+      <c r="RB15" s="38"/>
+      <c r="RC15" s="38"/>
+      <c r="RD15" s="38"/>
+      <c r="RE15" s="38"/>
+      <c r="RF15" s="38"/>
+      <c r="RG15" s="38"/>
+      <c r="RH15" s="38"/>
+      <c r="RI15" s="38"/>
+      <c r="RJ15" s="38"/>
+      <c r="RK15" s="38"/>
+      <c r="RL15" s="38"/>
+      <c r="RM15" s="38"/>
+      <c r="RN15" s="39"/>
+      <c r="RO15" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="RP15" s="44"/>
-      <c r="RQ15" s="44"/>
-      <c r="RR15" s="44"/>
-      <c r="RS15" s="44"/>
-      <c r="RT15" s="44"/>
-      <c r="RU15" s="44"/>
-      <c r="RV15" s="44"/>
-      <c r="RW15" s="44"/>
-      <c r="RX15" s="44"/>
-      <c r="RY15" s="44"/>
-      <c r="RZ15" s="44"/>
-      <c r="SA15" s="44"/>
-      <c r="SB15" s="44"/>
-      <c r="SC15" s="44"/>
-      <c r="SD15" s="44"/>
-      <c r="SE15" s="44"/>
-      <c r="SF15" s="44"/>
-      <c r="SG15" s="44"/>
-      <c r="SH15" s="45"/>
-      <c r="SI15" s="43" t="s">
+      <c r="RP15" s="38"/>
+      <c r="RQ15" s="38"/>
+      <c r="RR15" s="38"/>
+      <c r="RS15" s="38"/>
+      <c r="RT15" s="38"/>
+      <c r="RU15" s="38"/>
+      <c r="RV15" s="38"/>
+      <c r="RW15" s="38"/>
+      <c r="RX15" s="38"/>
+      <c r="RY15" s="38"/>
+      <c r="RZ15" s="38"/>
+      <c r="SA15" s="38"/>
+      <c r="SB15" s="38"/>
+      <c r="SC15" s="38"/>
+      <c r="SD15" s="38"/>
+      <c r="SE15" s="38"/>
+      <c r="SF15" s="38"/>
+      <c r="SG15" s="38"/>
+      <c r="SH15" s="39"/>
+      <c r="SI15" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="SJ15" s="44"/>
-      <c r="SK15" s="44"/>
-      <c r="SL15" s="44"/>
-      <c r="SM15" s="44"/>
-      <c r="SN15" s="44"/>
-      <c r="SO15" s="44"/>
-      <c r="SP15" s="44"/>
-      <c r="SQ15" s="44"/>
-      <c r="SR15" s="44"/>
-      <c r="SS15" s="44"/>
-      <c r="ST15" s="44"/>
-      <c r="SU15" s="44"/>
-      <c r="SV15" s="44"/>
-      <c r="SW15" s="44"/>
-      <c r="SX15" s="44"/>
-      <c r="SY15" s="44"/>
-      <c r="SZ15" s="44"/>
-      <c r="TA15" s="44"/>
-      <c r="TB15" s="45"/>
-      <c r="TC15" s="43"/>
-      <c r="TD15" s="44"/>
-      <c r="TE15" s="44"/>
-      <c r="TF15" s="44"/>
-      <c r="TG15" s="44"/>
-      <c r="TH15" s="44"/>
-      <c r="TI15" s="44"/>
-      <c r="TJ15" s="44"/>
-      <c r="TK15" s="44"/>
-      <c r="TL15" s="44"/>
-      <c r="TM15" s="44"/>
-      <c r="TN15" s="44"/>
-      <c r="TO15" s="44"/>
-      <c r="TP15" s="44"/>
-      <c r="TQ15" s="44"/>
-      <c r="TR15" s="44"/>
-      <c r="TS15" s="44"/>
-      <c r="TT15" s="44"/>
-      <c r="TU15" s="44"/>
-      <c r="TV15" s="45"/>
-      <c r="TW15" s="43"/>
-      <c r="TX15" s="44"/>
-      <c r="TY15" s="44"/>
-      <c r="TZ15" s="44"/>
-      <c r="UA15" s="44"/>
-      <c r="UB15" s="44"/>
-      <c r="UC15" s="44"/>
-      <c r="UD15" s="44"/>
-      <c r="UE15" s="44"/>
-      <c r="UF15" s="44"/>
-      <c r="UG15" s="44"/>
-      <c r="UH15" s="44"/>
-      <c r="UI15" s="44"/>
-      <c r="UJ15" s="44"/>
-      <c r="UK15" s="44"/>
-      <c r="UL15" s="44"/>
-      <c r="UM15" s="44"/>
-      <c r="UN15" s="44"/>
-      <c r="UO15" s="44"/>
-      <c r="UP15" s="45"/>
-      <c r="UQ15" s="43"/>
-      <c r="UR15" s="44"/>
-      <c r="US15" s="44"/>
-      <c r="UT15" s="44"/>
-      <c r="UU15" s="44"/>
-      <c r="UV15" s="44"/>
-      <c r="UW15" s="44"/>
-      <c r="UX15" s="44"/>
-      <c r="UY15" s="44"/>
-      <c r="UZ15" s="44"/>
-      <c r="VA15" s="44"/>
-      <c r="VB15" s="44"/>
-      <c r="VC15" s="44"/>
-      <c r="VD15" s="44"/>
-      <c r="VE15" s="44"/>
-      <c r="VF15" s="44"/>
-      <c r="VG15" s="44"/>
-      <c r="VH15" s="44"/>
-      <c r="VI15" s="44"/>
-      <c r="VJ15" s="45"/>
-      <c r="VK15" s="43"/>
-      <c r="VL15" s="44"/>
-      <c r="VM15" s="44"/>
-      <c r="VN15" s="44"/>
-      <c r="VO15" s="44"/>
-      <c r="VP15" s="44"/>
-      <c r="VQ15" s="44"/>
-      <c r="VR15" s="44"/>
-      <c r="VS15" s="44"/>
-      <c r="VT15" s="44"/>
-      <c r="VU15" s="44"/>
-      <c r="VV15" s="44"/>
-      <c r="VW15" s="44"/>
-      <c r="VX15" s="44"/>
-      <c r="VY15" s="44"/>
-      <c r="VZ15" s="44"/>
-      <c r="WA15" s="44"/>
-      <c r="WB15" s="44"/>
-      <c r="WC15" s="44"/>
-      <c r="WD15" s="45"/>
-      <c r="WE15" s="43"/>
-      <c r="WF15" s="44"/>
-      <c r="WG15" s="44"/>
-      <c r="WH15" s="44"/>
-      <c r="WI15" s="44"/>
-      <c r="WJ15" s="44"/>
-      <c r="WK15" s="44"/>
-      <c r="WL15" s="44"/>
-      <c r="WM15" s="44"/>
-      <c r="WN15" s="44"/>
-      <c r="WO15" s="44"/>
-      <c r="WP15" s="44"/>
-      <c r="WQ15" s="44"/>
-      <c r="WR15" s="44"/>
-      <c r="WS15" s="44"/>
-      <c r="WT15" s="44"/>
-      <c r="WU15" s="44"/>
-      <c r="WV15" s="44"/>
-      <c r="WW15" s="44"/>
-      <c r="WX15" s="45"/>
-      <c r="WY15" s="43"/>
-      <c r="WZ15" s="44"/>
-      <c r="XA15" s="44"/>
-      <c r="XB15" s="44"/>
-      <c r="XC15" s="44"/>
-      <c r="XD15" s="44"/>
-      <c r="XE15" s="44"/>
-      <c r="XF15" s="44"/>
-      <c r="XG15" s="44"/>
-      <c r="XH15" s="44"/>
-      <c r="XI15" s="44"/>
-      <c r="XJ15" s="44"/>
-      <c r="XK15" s="44"/>
-      <c r="XL15" s="44"/>
-      <c r="XM15" s="44"/>
-      <c r="XN15" s="44"/>
-      <c r="XO15" s="44"/>
-      <c r="XP15" s="44"/>
-      <c r="XQ15" s="44"/>
-      <c r="XR15" s="45"/>
-      <c r="XS15" s="43"/>
-      <c r="XT15" s="44"/>
-      <c r="XU15" s="44"/>
-      <c r="XV15" s="44"/>
-      <c r="XW15" s="44"/>
-      <c r="XX15" s="44"/>
-      <c r="XY15" s="44"/>
-      <c r="XZ15" s="44"/>
-      <c r="YA15" s="44"/>
-      <c r="YB15" s="44"/>
-      <c r="YC15" s="44"/>
-      <c r="YD15" s="44"/>
-      <c r="YE15" s="44"/>
-      <c r="YF15" s="44"/>
-      <c r="YG15" s="44"/>
-      <c r="YH15" s="44"/>
-      <c r="YI15" s="44"/>
-      <c r="YJ15" s="44"/>
-      <c r="YK15" s="44"/>
-      <c r="YL15" s="45"/>
-      <c r="YM15" s="43"/>
-      <c r="YN15" s="44"/>
-      <c r="YO15" s="44"/>
-      <c r="YP15" s="44"/>
-      <c r="YQ15" s="44"/>
-      <c r="YR15" s="44"/>
-      <c r="YS15" s="44"/>
-      <c r="YT15" s="44"/>
-      <c r="YU15" s="44"/>
-      <c r="YV15" s="44"/>
-      <c r="YW15" s="44"/>
-      <c r="YX15" s="44"/>
-      <c r="YY15" s="44"/>
-      <c r="YZ15" s="44"/>
-      <c r="ZA15" s="44"/>
-      <c r="ZB15" s="44"/>
-      <c r="ZC15" s="44"/>
-      <c r="ZD15" s="44"/>
-      <c r="ZE15" s="44"/>
-      <c r="ZF15" s="45"/>
-      <c r="ZG15" s="43"/>
-      <c r="ZH15" s="44"/>
-      <c r="ZI15" s="44"/>
-      <c r="ZJ15" s="44"/>
-      <c r="ZK15" s="44"/>
-      <c r="ZL15" s="44"/>
-      <c r="ZM15" s="44"/>
-      <c r="ZN15" s="44"/>
-      <c r="ZO15" s="44"/>
-      <c r="ZP15" s="44"/>
-      <c r="ZQ15" s="44"/>
-      <c r="ZR15" s="44"/>
-      <c r="ZS15" s="44"/>
-      <c r="ZT15" s="44"/>
-      <c r="ZU15" s="44"/>
-      <c r="ZV15" s="44"/>
-      <c r="ZW15" s="44"/>
-      <c r="ZX15" s="44"/>
-      <c r="ZY15" s="44"/>
-      <c r="ZZ15" s="45"/>
-      <c r="AAA15" s="43"/>
-      <c r="AAB15" s="44"/>
-      <c r="AAC15" s="44"/>
-      <c r="AAD15" s="44"/>
-      <c r="AAE15" s="44"/>
-      <c r="AAF15" s="44"/>
-      <c r="AAG15" s="44"/>
-      <c r="AAH15" s="44"/>
-      <c r="AAI15" s="44"/>
-      <c r="AAJ15" s="44"/>
-      <c r="AAK15" s="44"/>
-      <c r="AAL15" s="44"/>
-      <c r="AAM15" s="44"/>
-      <c r="AAN15" s="44"/>
-      <c r="AAO15" s="44"/>
-      <c r="AAP15" s="44"/>
-      <c r="AAQ15" s="44"/>
-      <c r="AAR15" s="44"/>
-      <c r="AAS15" s="44"/>
-      <c r="AAT15" s="45"/>
-      <c r="AAU15" s="43"/>
-      <c r="AAV15" s="44"/>
-      <c r="AAW15" s="44"/>
-      <c r="AAX15" s="44"/>
-      <c r="AAY15" s="44"/>
-      <c r="AAZ15" s="44"/>
-      <c r="ABA15" s="44"/>
-      <c r="ABB15" s="44"/>
-      <c r="ABC15" s="44"/>
-      <c r="ABD15" s="44"/>
-      <c r="ABE15" s="44"/>
-      <c r="ABF15" s="44"/>
-      <c r="ABG15" s="44"/>
-      <c r="ABH15" s="44"/>
-      <c r="ABI15" s="44"/>
-      <c r="ABJ15" s="44"/>
-      <c r="ABK15" s="44"/>
-      <c r="ABL15" s="44"/>
-      <c r="ABM15" s="44"/>
-      <c r="ABN15" s="45"/>
-      <c r="ABO15" s="43"/>
-      <c r="ABP15" s="44"/>
-      <c r="ABQ15" s="44"/>
-      <c r="ABR15" s="44"/>
-      <c r="ABS15" s="44"/>
-      <c r="ABT15" s="44"/>
-      <c r="ABU15" s="44"/>
-      <c r="ABV15" s="44"/>
-      <c r="ABW15" s="44"/>
-      <c r="ABX15" s="44"/>
-      <c r="ABY15" s="44"/>
-      <c r="ABZ15" s="44"/>
-      <c r="ACA15" s="44"/>
-      <c r="ACB15" s="44"/>
-      <c r="ACC15" s="44"/>
-      <c r="ACD15" s="44"/>
-      <c r="ACE15" s="44"/>
-      <c r="ACF15" s="44"/>
-      <c r="ACG15" s="44"/>
-      <c r="ACH15" s="45"/>
-      <c r="ACI15" s="43"/>
-      <c r="ACJ15" s="44"/>
-      <c r="ACK15" s="44"/>
-      <c r="ACL15" s="44"/>
-      <c r="ACM15" s="44"/>
-      <c r="ACN15" s="44"/>
-      <c r="ACO15" s="44"/>
-      <c r="ACP15" s="44"/>
-      <c r="ACQ15" s="44"/>
-      <c r="ACR15" s="44"/>
-      <c r="ACS15" s="44"/>
-      <c r="ACT15" s="44"/>
-      <c r="ACU15" s="44"/>
-      <c r="ACV15" s="44"/>
-      <c r="ACW15" s="44"/>
-      <c r="ACX15" s="44"/>
-      <c r="ACY15" s="44"/>
-      <c r="ACZ15" s="44"/>
-      <c r="ADA15" s="44"/>
-      <c r="ADB15" s="45"/>
-      <c r="ADC15" s="43"/>
-      <c r="ADD15" s="44"/>
-      <c r="ADE15" s="44"/>
-      <c r="ADF15" s="44"/>
-      <c r="ADG15" s="44"/>
-      <c r="ADH15" s="44"/>
-      <c r="ADI15" s="44"/>
-      <c r="ADJ15" s="44"/>
-      <c r="ADK15" s="44"/>
-      <c r="ADL15" s="44"/>
-      <c r="ADM15" s="44"/>
-      <c r="ADN15" s="44"/>
-      <c r="ADO15" s="44"/>
-      <c r="ADP15" s="44"/>
-      <c r="ADQ15" s="44"/>
-      <c r="ADR15" s="44"/>
-      <c r="ADS15" s="44"/>
-      <c r="ADT15" s="44"/>
-      <c r="ADU15" s="44"/>
-      <c r="ADV15" s="45"/>
-      <c r="ADW15" s="43"/>
-      <c r="ADX15" s="44"/>
-      <c r="ADY15" s="44"/>
-      <c r="ADZ15" s="44"/>
-      <c r="AEA15" s="44"/>
-      <c r="AEB15" s="44"/>
-      <c r="AEC15" s="44"/>
-      <c r="AED15" s="44"/>
-      <c r="AEE15" s="44"/>
-      <c r="AEF15" s="44"/>
-      <c r="AEG15" s="44"/>
-      <c r="AEH15" s="44"/>
-      <c r="AEI15" s="44"/>
-      <c r="AEJ15" s="44"/>
-      <c r="AEK15" s="44"/>
-      <c r="AEL15" s="44"/>
-      <c r="AEM15" s="44"/>
-      <c r="AEN15" s="44"/>
-      <c r="AEO15" s="44"/>
-      <c r="AEP15" s="45"/>
-      <c r="AEQ15" s="43"/>
-      <c r="AER15" s="44"/>
-      <c r="AES15" s="44"/>
-      <c r="AET15" s="44"/>
-      <c r="AEU15" s="44"/>
-      <c r="AEV15" s="44"/>
-      <c r="AEW15" s="44"/>
-      <c r="AEX15" s="44"/>
-      <c r="AEY15" s="44"/>
-      <c r="AEZ15" s="44"/>
-      <c r="AFA15" s="44"/>
-      <c r="AFB15" s="44"/>
-      <c r="AFC15" s="44"/>
-      <c r="AFD15" s="44"/>
-      <c r="AFE15" s="44"/>
-      <c r="AFF15" s="44"/>
-      <c r="AFG15" s="44"/>
-      <c r="AFH15" s="44"/>
-      <c r="AFI15" s="44"/>
-      <c r="AFJ15" s="45"/>
-      <c r="AFK15" s="43"/>
-      <c r="AFL15" s="44"/>
-      <c r="AFM15" s="44"/>
-      <c r="AFN15" s="44"/>
-      <c r="AFO15" s="44"/>
-      <c r="AFP15" s="44"/>
-      <c r="AFQ15" s="44"/>
-      <c r="AFR15" s="44"/>
-      <c r="AFS15" s="44"/>
-      <c r="AFT15" s="44"/>
-      <c r="AFU15" s="44"/>
-      <c r="AFV15" s="44"/>
-      <c r="AFW15" s="44"/>
-      <c r="AFX15" s="44"/>
-      <c r="AFY15" s="44"/>
-      <c r="AFZ15" s="44"/>
-      <c r="AGA15" s="44"/>
-      <c r="AGB15" s="44"/>
-      <c r="AGC15" s="44"/>
-      <c r="AGD15" s="45"/>
-      <c r="AGE15" s="43"/>
-      <c r="AGF15" s="44"/>
-      <c r="AGG15" s="44"/>
-      <c r="AGH15" s="44"/>
-      <c r="AGI15" s="44"/>
-      <c r="AGJ15" s="44"/>
-      <c r="AGK15" s="44"/>
-      <c r="AGL15" s="44"/>
-      <c r="AGM15" s="44"/>
-      <c r="AGN15" s="44"/>
-      <c r="AGO15" s="44"/>
-      <c r="AGP15" s="44"/>
-      <c r="AGQ15" s="44"/>
-      <c r="AGR15" s="44"/>
-      <c r="AGS15" s="44"/>
-      <c r="AGT15" s="44"/>
-      <c r="AGU15" s="44"/>
-      <c r="AGV15" s="44"/>
-      <c r="AGW15" s="44"/>
-      <c r="AGX15" s="45"/>
-      <c r="AGY15" s="43"/>
-      <c r="AGZ15" s="44"/>
-      <c r="AHA15" s="44"/>
-      <c r="AHB15" s="44"/>
-      <c r="AHC15" s="44"/>
-      <c r="AHD15" s="44"/>
-      <c r="AHE15" s="44"/>
-      <c r="AHF15" s="44"/>
-      <c r="AHG15" s="44"/>
-      <c r="AHH15" s="44"/>
-      <c r="AHI15" s="44"/>
-      <c r="AHJ15" s="44"/>
-      <c r="AHK15" s="44"/>
-      <c r="AHL15" s="44"/>
-      <c r="AHM15" s="44"/>
-      <c r="AHN15" s="44"/>
-      <c r="AHO15" s="44"/>
-      <c r="AHP15" s="44"/>
-      <c r="AHQ15" s="44"/>
-      <c r="AHR15" s="45"/>
-      <c r="AHS15" s="43"/>
-      <c r="AHT15" s="44"/>
-      <c r="AHU15" s="44"/>
-      <c r="AHV15" s="44"/>
-      <c r="AHW15" s="44"/>
-      <c r="AHX15" s="44"/>
-      <c r="AHY15" s="44"/>
-      <c r="AHZ15" s="44"/>
-      <c r="AIA15" s="44"/>
-      <c r="AIB15" s="44"/>
-      <c r="AIC15" s="44"/>
-      <c r="AID15" s="44"/>
-      <c r="AIE15" s="44"/>
-      <c r="AIF15" s="44"/>
-      <c r="AIG15" s="44"/>
-      <c r="AIH15" s="44"/>
-      <c r="AII15" s="44"/>
-      <c r="AIJ15" s="44"/>
-      <c r="AIK15" s="44"/>
-      <c r="AIL15" s="45"/>
-      <c r="AIM15" s="43"/>
-      <c r="AIN15" s="44"/>
-      <c r="AIO15" s="44"/>
-      <c r="AIP15" s="44"/>
-      <c r="AIQ15" s="44"/>
-      <c r="AIR15" s="44"/>
-      <c r="AIS15" s="44"/>
-      <c r="AIT15" s="44"/>
-      <c r="AIU15" s="44"/>
-      <c r="AIV15" s="44"/>
-      <c r="AIW15" s="44"/>
-      <c r="AIX15" s="44"/>
-      <c r="AIY15" s="44"/>
-      <c r="AIZ15" s="44"/>
-      <c r="AJA15" s="44"/>
-      <c r="AJB15" s="44"/>
-      <c r="AJC15" s="44"/>
-      <c r="AJD15" s="44"/>
-      <c r="AJE15" s="44"/>
-      <c r="AJF15" s="45"/>
-      <c r="AJG15" s="43"/>
-      <c r="AJH15" s="44"/>
-      <c r="AJI15" s="44"/>
-      <c r="AJJ15" s="44"/>
-      <c r="AJK15" s="44"/>
-      <c r="AJL15" s="44"/>
-      <c r="AJM15" s="44"/>
-      <c r="AJN15" s="44"/>
-      <c r="AJO15" s="44"/>
-      <c r="AJP15" s="44"/>
-      <c r="AJQ15" s="44"/>
-      <c r="AJR15" s="44"/>
-      <c r="AJS15" s="44"/>
-      <c r="AJT15" s="44"/>
-      <c r="AJU15" s="44"/>
-      <c r="AJV15" s="44"/>
-      <c r="AJW15" s="44"/>
-      <c r="AJX15" s="44"/>
-      <c r="AJY15" s="44"/>
-      <c r="AJZ15" s="45"/>
-      <c r="AKA15" s="43"/>
-      <c r="AKB15" s="44"/>
-      <c r="AKC15" s="44"/>
-      <c r="AKD15" s="44"/>
-      <c r="AKE15" s="44"/>
-      <c r="AKF15" s="44"/>
-      <c r="AKG15" s="44"/>
-      <c r="AKH15" s="44"/>
-      <c r="AKI15" s="44"/>
-      <c r="AKJ15" s="44"/>
-      <c r="AKK15" s="44"/>
-      <c r="AKL15" s="44"/>
-      <c r="AKM15" s="44"/>
-      <c r="AKN15" s="44"/>
-      <c r="AKO15" s="44"/>
-      <c r="AKP15" s="44"/>
-      <c r="AKQ15" s="44"/>
-      <c r="AKR15" s="44"/>
-      <c r="AKS15" s="44"/>
-      <c r="AKT15" s="45"/>
-      <c r="AKU15" s="43"/>
-      <c r="AKV15" s="44"/>
-      <c r="AKW15" s="44"/>
-      <c r="AKX15" s="44"/>
-      <c r="AKY15" s="44"/>
-      <c r="AKZ15" s="44"/>
-      <c r="ALA15" s="44"/>
-      <c r="ALB15" s="44"/>
-      <c r="ALC15" s="44"/>
-      <c r="ALD15" s="44"/>
-      <c r="ALE15" s="44"/>
-      <c r="ALF15" s="44"/>
-      <c r="ALG15" s="44"/>
-      <c r="ALH15" s="44"/>
-      <c r="ALI15" s="44"/>
-      <c r="ALJ15" s="44"/>
-      <c r="ALK15" s="44"/>
-      <c r="ALL15" s="44"/>
-      <c r="ALM15" s="44"/>
-      <c r="ALN15" s="45"/>
-      <c r="ALO15" s="43"/>
-      <c r="ALP15" s="44"/>
-      <c r="ALQ15" s="44"/>
-      <c r="ALR15" s="44"/>
-      <c r="ALS15" s="44"/>
-      <c r="ALT15" s="44"/>
-      <c r="ALU15" s="44"/>
-      <c r="ALV15" s="44"/>
-      <c r="ALW15" s="44"/>
-      <c r="ALX15" s="44"/>
-      <c r="ALY15" s="44"/>
-      <c r="ALZ15" s="44"/>
-      <c r="AMA15" s="44"/>
-      <c r="AMB15" s="44"/>
-      <c r="AMC15" s="44"/>
-      <c r="AMD15" s="44"/>
-      <c r="AME15" s="44"/>
-      <c r="AMF15" s="44"/>
-      <c r="AMG15" s="44"/>
-      <c r="AMH15" s="45"/>
-      <c r="AMI15" s="43"/>
-      <c r="AMJ15" s="44"/>
-      <c r="AMK15" s="44"/>
-      <c r="AML15" s="44"/>
-      <c r="AMM15" s="44"/>
-      <c r="AMN15" s="44"/>
-      <c r="AMO15" s="44"/>
-      <c r="AMP15" s="44"/>
-      <c r="AMQ15" s="44"/>
-      <c r="AMR15" s="44"/>
-      <c r="AMS15" s="44"/>
-      <c r="AMT15" s="44"/>
-      <c r="AMU15" s="44"/>
-      <c r="AMV15" s="44"/>
-      <c r="AMW15" s="44"/>
-      <c r="AMX15" s="44"/>
-      <c r="AMY15" s="44"/>
-      <c r="AMZ15" s="44"/>
-      <c r="ANA15" s="44"/>
-      <c r="ANB15" s="45"/>
-      <c r="ANC15" s="43"/>
-      <c r="AND15" s="44"/>
-      <c r="ANE15" s="44"/>
-      <c r="ANF15" s="44"/>
-      <c r="ANG15" s="44"/>
-      <c r="ANH15" s="44"/>
-      <c r="ANI15" s="44"/>
-      <c r="ANJ15" s="44"/>
-      <c r="ANK15" s="44"/>
-      <c r="ANL15" s="44"/>
-      <c r="ANM15" s="44"/>
-      <c r="ANN15" s="44"/>
-      <c r="ANO15" s="44"/>
-      <c r="ANP15" s="44"/>
-      <c r="ANQ15" s="44"/>
-      <c r="ANR15" s="44"/>
-      <c r="ANS15" s="44"/>
-      <c r="ANT15" s="44"/>
-      <c r="ANU15" s="44"/>
-      <c r="ANV15" s="45"/>
-      <c r="ANW15" s="43"/>
-      <c r="ANX15" s="44"/>
-      <c r="ANY15" s="44"/>
-      <c r="ANZ15" s="44"/>
-      <c r="AOA15" s="44"/>
-      <c r="AOB15" s="44"/>
-      <c r="AOC15" s="44"/>
-      <c r="AOD15" s="44"/>
-      <c r="AOE15" s="44"/>
-      <c r="AOF15" s="44"/>
-      <c r="AOG15" s="44"/>
-      <c r="AOH15" s="44"/>
-      <c r="AOI15" s="44"/>
-      <c r="AOJ15" s="44"/>
-      <c r="AOK15" s="44"/>
-      <c r="AOL15" s="44"/>
-      <c r="AOM15" s="44"/>
-      <c r="AON15" s="44"/>
-      <c r="AOO15" s="44"/>
-      <c r="AOP15" s="45"/>
+      <c r="SJ15" s="38"/>
+      <c r="SK15" s="38"/>
+      <c r="SL15" s="38"/>
+      <c r="SM15" s="38"/>
+      <c r="SN15" s="38"/>
+      <c r="SO15" s="38"/>
+      <c r="SP15" s="38"/>
+      <c r="SQ15" s="38"/>
+      <c r="SR15" s="38"/>
+      <c r="SS15" s="38"/>
+      <c r="ST15" s="38"/>
+      <c r="SU15" s="38"/>
+      <c r="SV15" s="38"/>
+      <c r="SW15" s="38"/>
+      <c r="SX15" s="38"/>
+      <c r="SY15" s="38"/>
+      <c r="SZ15" s="38"/>
+      <c r="TA15" s="38"/>
+      <c r="TB15" s="39"/>
+      <c r="TC15" s="37"/>
+      <c r="TD15" s="38"/>
+      <c r="TE15" s="38"/>
+      <c r="TF15" s="38"/>
+      <c r="TG15" s="38"/>
+      <c r="TH15" s="38"/>
+      <c r="TI15" s="38"/>
+      <c r="TJ15" s="38"/>
+      <c r="TK15" s="38"/>
+      <c r="TL15" s="38"/>
+      <c r="TM15" s="38"/>
+      <c r="TN15" s="38"/>
+      <c r="TO15" s="38"/>
+      <c r="TP15" s="38"/>
+      <c r="TQ15" s="38"/>
+      <c r="TR15" s="38"/>
+      <c r="TS15" s="38"/>
+      <c r="TT15" s="38"/>
+      <c r="TU15" s="38"/>
+      <c r="TV15" s="39"/>
+      <c r="TW15" s="37"/>
+      <c r="TX15" s="38"/>
+      <c r="TY15" s="38"/>
+      <c r="TZ15" s="38"/>
+      <c r="UA15" s="38"/>
+      <c r="UB15" s="38"/>
+      <c r="UC15" s="38"/>
+      <c r="UD15" s="38"/>
+      <c r="UE15" s="38"/>
+      <c r="UF15" s="38"/>
+      <c r="UG15" s="38"/>
+      <c r="UH15" s="38"/>
+      <c r="UI15" s="38"/>
+      <c r="UJ15" s="38"/>
+      <c r="UK15" s="38"/>
+      <c r="UL15" s="38"/>
+      <c r="UM15" s="38"/>
+      <c r="UN15" s="38"/>
+      <c r="UO15" s="38"/>
+      <c r="UP15" s="39"/>
+      <c r="UQ15" s="37"/>
+      <c r="UR15" s="38"/>
+      <c r="US15" s="38"/>
+      <c r="UT15" s="38"/>
+      <c r="UU15" s="38"/>
+      <c r="UV15" s="38"/>
+      <c r="UW15" s="38"/>
+      <c r="UX15" s="38"/>
+      <c r="UY15" s="38"/>
+      <c r="UZ15" s="38"/>
+      <c r="VA15" s="38"/>
+      <c r="VB15" s="38"/>
+      <c r="VC15" s="38"/>
+      <c r="VD15" s="38"/>
+      <c r="VE15" s="38"/>
+      <c r="VF15" s="38"/>
+      <c r="VG15" s="38"/>
+      <c r="VH15" s="38"/>
+      <c r="VI15" s="38"/>
+      <c r="VJ15" s="39"/>
+      <c r="VK15" s="37"/>
+      <c r="VL15" s="38"/>
+      <c r="VM15" s="38"/>
+      <c r="VN15" s="38"/>
+      <c r="VO15" s="38"/>
+      <c r="VP15" s="38"/>
+      <c r="VQ15" s="38"/>
+      <c r="VR15" s="38"/>
+      <c r="VS15" s="38"/>
+      <c r="VT15" s="38"/>
+      <c r="VU15" s="38"/>
+      <c r="VV15" s="38"/>
+      <c r="VW15" s="38"/>
+      <c r="VX15" s="38"/>
+      <c r="VY15" s="38"/>
+      <c r="VZ15" s="38"/>
+      <c r="WA15" s="38"/>
+      <c r="WB15" s="38"/>
+      <c r="WC15" s="38"/>
+      <c r="WD15" s="39"/>
+      <c r="WE15" s="37"/>
+      <c r="WF15" s="38"/>
+      <c r="WG15" s="38"/>
+      <c r="WH15" s="38"/>
+      <c r="WI15" s="38"/>
+      <c r="WJ15" s="38"/>
+      <c r="WK15" s="38"/>
+      <c r="WL15" s="38"/>
+      <c r="WM15" s="38"/>
+      <c r="WN15" s="38"/>
+      <c r="WO15" s="38"/>
+      <c r="WP15" s="38"/>
+      <c r="WQ15" s="38"/>
+      <c r="WR15" s="38"/>
+      <c r="WS15" s="38"/>
+      <c r="WT15" s="38"/>
+      <c r="WU15" s="38"/>
+      <c r="WV15" s="38"/>
+      <c r="WW15" s="38"/>
+      <c r="WX15" s="39"/>
+      <c r="WY15" s="37"/>
+      <c r="WZ15" s="38"/>
+      <c r="XA15" s="38"/>
+      <c r="XB15" s="38"/>
+      <c r="XC15" s="38"/>
+      <c r="XD15" s="38"/>
+      <c r="XE15" s="38"/>
+      <c r="XF15" s="38"/>
+      <c r="XG15" s="38"/>
+      <c r="XH15" s="38"/>
+      <c r="XI15" s="38"/>
+      <c r="XJ15" s="38"/>
+      <c r="XK15" s="38"/>
+      <c r="XL15" s="38"/>
+      <c r="XM15" s="38"/>
+      <c r="XN15" s="38"/>
+      <c r="XO15" s="38"/>
+      <c r="XP15" s="38"/>
+      <c r="XQ15" s="38"/>
+      <c r="XR15" s="39"/>
+      <c r="XS15" s="37"/>
+      <c r="XT15" s="38"/>
+      <c r="XU15" s="38"/>
+      <c r="XV15" s="38"/>
+      <c r="XW15" s="38"/>
+      <c r="XX15" s="38"/>
+      <c r="XY15" s="38"/>
+      <c r="XZ15" s="38"/>
+      <c r="YA15" s="38"/>
+      <c r="YB15" s="38"/>
+      <c r="YC15" s="38"/>
+      <c r="YD15" s="38"/>
+      <c r="YE15" s="38"/>
+      <c r="YF15" s="38"/>
+      <c r="YG15" s="38"/>
+      <c r="YH15" s="38"/>
+      <c r="YI15" s="38"/>
+      <c r="YJ15" s="38"/>
+      <c r="YK15" s="38"/>
+      <c r="YL15" s="39"/>
+      <c r="YM15" s="37"/>
+      <c r="YN15" s="38"/>
+      <c r="YO15" s="38"/>
+      <c r="YP15" s="38"/>
+      <c r="YQ15" s="38"/>
+      <c r="YR15" s="38"/>
+      <c r="YS15" s="38"/>
+      <c r="YT15" s="38"/>
+      <c r="YU15" s="38"/>
+      <c r="YV15" s="38"/>
+      <c r="YW15" s="38"/>
+      <c r="YX15" s="38"/>
+      <c r="YY15" s="38"/>
+      <c r="YZ15" s="38"/>
+      <c r="ZA15" s="38"/>
+      <c r="ZB15" s="38"/>
+      <c r="ZC15" s="38"/>
+      <c r="ZD15" s="38"/>
+      <c r="ZE15" s="38"/>
+      <c r="ZF15" s="39"/>
+      <c r="ZG15" s="37"/>
+      <c r="ZH15" s="38"/>
+      <c r="ZI15" s="38"/>
+      <c r="ZJ15" s="38"/>
+      <c r="ZK15" s="38"/>
+      <c r="ZL15" s="38"/>
+      <c r="ZM15" s="38"/>
+      <c r="ZN15" s="38"/>
+      <c r="ZO15" s="38"/>
+      <c r="ZP15" s="38"/>
+      <c r="ZQ15" s="38"/>
+      <c r="ZR15" s="38"/>
+      <c r="ZS15" s="38"/>
+      <c r="ZT15" s="38"/>
+      <c r="ZU15" s="38"/>
+      <c r="ZV15" s="38"/>
+      <c r="ZW15" s="38"/>
+      <c r="ZX15" s="38"/>
+      <c r="ZY15" s="38"/>
+      <c r="ZZ15" s="39"/>
+      <c r="AAA15" s="37"/>
+      <c r="AAB15" s="38"/>
+      <c r="AAC15" s="38"/>
+      <c r="AAD15" s="38"/>
+      <c r="AAE15" s="38"/>
+      <c r="AAF15" s="38"/>
+      <c r="AAG15" s="38"/>
+      <c r="AAH15" s="38"/>
+      <c r="AAI15" s="38"/>
+      <c r="AAJ15" s="38"/>
+      <c r="AAK15" s="38"/>
+      <c r="AAL15" s="38"/>
+      <c r="AAM15" s="38"/>
+      <c r="AAN15" s="38"/>
+      <c r="AAO15" s="38"/>
+      <c r="AAP15" s="38"/>
+      <c r="AAQ15" s="38"/>
+      <c r="AAR15" s="38"/>
+      <c r="AAS15" s="38"/>
+      <c r="AAT15" s="39"/>
+      <c r="AAU15" s="37"/>
+      <c r="AAV15" s="38"/>
+      <c r="AAW15" s="38"/>
+      <c r="AAX15" s="38"/>
+      <c r="AAY15" s="38"/>
+      <c r="AAZ15" s="38"/>
+      <c r="ABA15" s="38"/>
+      <c r="ABB15" s="38"/>
+      <c r="ABC15" s="38"/>
+      <c r="ABD15" s="38"/>
+      <c r="ABE15" s="38"/>
+      <c r="ABF15" s="38"/>
+      <c r="ABG15" s="38"/>
+      <c r="ABH15" s="38"/>
+      <c r="ABI15" s="38"/>
+      <c r="ABJ15" s="38"/>
+      <c r="ABK15" s="38"/>
+      <c r="ABL15" s="38"/>
+      <c r="ABM15" s="38"/>
+      <c r="ABN15" s="39"/>
+      <c r="ABO15" s="37"/>
+      <c r="ABP15" s="38"/>
+      <c r="ABQ15" s="38"/>
+      <c r="ABR15" s="38"/>
+      <c r="ABS15" s="38"/>
+      <c r="ABT15" s="38"/>
+      <c r="ABU15" s="38"/>
+      <c r="ABV15" s="38"/>
+      <c r="ABW15" s="38"/>
+      <c r="ABX15" s="38"/>
+      <c r="ABY15" s="38"/>
+      <c r="ABZ15" s="38"/>
+      <c r="ACA15" s="38"/>
+      <c r="ACB15" s="38"/>
+      <c r="ACC15" s="38"/>
+      <c r="ACD15" s="38"/>
+      <c r="ACE15" s="38"/>
+      <c r="ACF15" s="38"/>
+      <c r="ACG15" s="38"/>
+      <c r="ACH15" s="39"/>
+      <c r="ACI15" s="37"/>
+      <c r="ACJ15" s="38"/>
+      <c r="ACK15" s="38"/>
+      <c r="ACL15" s="38"/>
+      <c r="ACM15" s="38"/>
+      <c r="ACN15" s="38"/>
+      <c r="ACO15" s="38"/>
+      <c r="ACP15" s="38"/>
+      <c r="ACQ15" s="38"/>
+      <c r="ACR15" s="38"/>
+      <c r="ACS15" s="38"/>
+      <c r="ACT15" s="38"/>
+      <c r="ACU15" s="38"/>
+      <c r="ACV15" s="38"/>
+      <c r="ACW15" s="38"/>
+      <c r="ACX15" s="38"/>
+      <c r="ACY15" s="38"/>
+      <c r="ACZ15" s="38"/>
+      <c r="ADA15" s="38"/>
+      <c r="ADB15" s="39"/>
+      <c r="ADC15" s="37"/>
+      <c r="ADD15" s="38"/>
+      <c r="ADE15" s="38"/>
+      <c r="ADF15" s="38"/>
+      <c r="ADG15" s="38"/>
+      <c r="ADH15" s="38"/>
+      <c r="ADI15" s="38"/>
+      <c r="ADJ15" s="38"/>
+      <c r="ADK15" s="38"/>
+      <c r="ADL15" s="38"/>
+      <c r="ADM15" s="38"/>
+      <c r="ADN15" s="38"/>
+      <c r="ADO15" s="38"/>
+      <c r="ADP15" s="38"/>
+      <c r="ADQ15" s="38"/>
+      <c r="ADR15" s="38"/>
+      <c r="ADS15" s="38"/>
+      <c r="ADT15" s="38"/>
+      <c r="ADU15" s="38"/>
+      <c r="ADV15" s="39"/>
+      <c r="ADW15" s="37"/>
+      <c r="ADX15" s="38"/>
+      <c r="ADY15" s="38"/>
+      <c r="ADZ15" s="38"/>
+      <c r="AEA15" s="38"/>
+      <c r="AEB15" s="38"/>
+      <c r="AEC15" s="38"/>
+      <c r="AED15" s="38"/>
+      <c r="AEE15" s="38"/>
+      <c r="AEF15" s="38"/>
+      <c r="AEG15" s="38"/>
+      <c r="AEH15" s="38"/>
+      <c r="AEI15" s="38"/>
+      <c r="AEJ15" s="38"/>
+      <c r="AEK15" s="38"/>
+      <c r="AEL15" s="38"/>
+      <c r="AEM15" s="38"/>
+      <c r="AEN15" s="38"/>
+      <c r="AEO15" s="38"/>
+      <c r="AEP15" s="39"/>
+      <c r="AEQ15" s="37"/>
+      <c r="AER15" s="38"/>
+      <c r="AES15" s="38"/>
+      <c r="AET15" s="38"/>
+      <c r="AEU15" s="38"/>
+      <c r="AEV15" s="38"/>
+      <c r="AEW15" s="38"/>
+      <c r="AEX15" s="38"/>
+      <c r="AEY15" s="38"/>
+      <c r="AEZ15" s="38"/>
+      <c r="AFA15" s="38"/>
+      <c r="AFB15" s="38"/>
+      <c r="AFC15" s="38"/>
+      <c r="AFD15" s="38"/>
+      <c r="AFE15" s="38"/>
+      <c r="AFF15" s="38"/>
+      <c r="AFG15" s="38"/>
+      <c r="AFH15" s="38"/>
+      <c r="AFI15" s="38"/>
+      <c r="AFJ15" s="39"/>
+      <c r="AFK15" s="37"/>
+      <c r="AFL15" s="38"/>
+      <c r="AFM15" s="38"/>
+      <c r="AFN15" s="38"/>
+      <c r="AFO15" s="38"/>
+      <c r="AFP15" s="38"/>
+      <c r="AFQ15" s="38"/>
+      <c r="AFR15" s="38"/>
+      <c r="AFS15" s="38"/>
+      <c r="AFT15" s="38"/>
+      <c r="AFU15" s="38"/>
+      <c r="AFV15" s="38"/>
+      <c r="AFW15" s="38"/>
+      <c r="AFX15" s="38"/>
+      <c r="AFY15" s="38"/>
+      <c r="AFZ15" s="38"/>
+      <c r="AGA15" s="38"/>
+      <c r="AGB15" s="38"/>
+      <c r="AGC15" s="38"/>
+      <c r="AGD15" s="39"/>
+      <c r="AGE15" s="37"/>
+      <c r="AGF15" s="38"/>
+      <c r="AGG15" s="38"/>
+      <c r="AGH15" s="38"/>
+      <c r="AGI15" s="38"/>
+      <c r="AGJ15" s="38"/>
+      <c r="AGK15" s="38"/>
+      <c r="AGL15" s="38"/>
+      <c r="AGM15" s="38"/>
+      <c r="AGN15" s="38"/>
+      <c r="AGO15" s="38"/>
+      <c r="AGP15" s="38"/>
+      <c r="AGQ15" s="38"/>
+      <c r="AGR15" s="38"/>
+      <c r="AGS15" s="38"/>
+      <c r="AGT15" s="38"/>
+      <c r="AGU15" s="38"/>
+      <c r="AGV15" s="38"/>
+      <c r="AGW15" s="38"/>
+      <c r="AGX15" s="39"/>
+      <c r="AGY15" s="37"/>
+      <c r="AGZ15" s="38"/>
+      <c r="AHA15" s="38"/>
+      <c r="AHB15" s="38"/>
+      <c r="AHC15" s="38"/>
+      <c r="AHD15" s="38"/>
+      <c r="AHE15" s="38"/>
+      <c r="AHF15" s="38"/>
+      <c r="AHG15" s="38"/>
+      <c r="AHH15" s="38"/>
+      <c r="AHI15" s="38"/>
+      <c r="AHJ15" s="38"/>
+      <c r="AHK15" s="38"/>
+      <c r="AHL15" s="38"/>
+      <c r="AHM15" s="38"/>
+      <c r="AHN15" s="38"/>
+      <c r="AHO15" s="38"/>
+      <c r="AHP15" s="38"/>
+      <c r="AHQ15" s="38"/>
+      <c r="AHR15" s="39"/>
+      <c r="AHS15" s="37"/>
+      <c r="AHT15" s="38"/>
+      <c r="AHU15" s="38"/>
+      <c r="AHV15" s="38"/>
+      <c r="AHW15" s="38"/>
+      <c r="AHX15" s="38"/>
+      <c r="AHY15" s="38"/>
+      <c r="AHZ15" s="38"/>
+      <c r="AIA15" s="38"/>
+      <c r="AIB15" s="38"/>
+      <c r="AIC15" s="38"/>
+      <c r="AID15" s="38"/>
+      <c r="AIE15" s="38"/>
+      <c r="AIF15" s="38"/>
+      <c r="AIG15" s="38"/>
+      <c r="AIH15" s="38"/>
+      <c r="AII15" s="38"/>
+      <c r="AIJ15" s="38"/>
+      <c r="AIK15" s="38"/>
+      <c r="AIL15" s="39"/>
+      <c r="AIM15" s="37"/>
+      <c r="AIN15" s="38"/>
+      <c r="AIO15" s="38"/>
+      <c r="AIP15" s="38"/>
+      <c r="AIQ15" s="38"/>
+      <c r="AIR15" s="38"/>
+      <c r="AIS15" s="38"/>
+      <c r="AIT15" s="38"/>
+      <c r="AIU15" s="38"/>
+      <c r="AIV15" s="38"/>
+      <c r="AIW15" s="38"/>
+      <c r="AIX15" s="38"/>
+      <c r="AIY15" s="38"/>
+      <c r="AIZ15" s="38"/>
+      <c r="AJA15" s="38"/>
+      <c r="AJB15" s="38"/>
+      <c r="AJC15" s="38"/>
+      <c r="AJD15" s="38"/>
+      <c r="AJE15" s="38"/>
+      <c r="AJF15" s="39"/>
+      <c r="AJG15" s="37"/>
+      <c r="AJH15" s="38"/>
+      <c r="AJI15" s="38"/>
+      <c r="AJJ15" s="38"/>
+      <c r="AJK15" s="38"/>
+      <c r="AJL15" s="38"/>
+      <c r="AJM15" s="38"/>
+      <c r="AJN15" s="38"/>
+      <c r="AJO15" s="38"/>
+      <c r="AJP15" s="38"/>
+      <c r="AJQ15" s="38"/>
+      <c r="AJR15" s="38"/>
+      <c r="AJS15" s="38"/>
+      <c r="AJT15" s="38"/>
+      <c r="AJU15" s="38"/>
+      <c r="AJV15" s="38"/>
+      <c r="AJW15" s="38"/>
+      <c r="AJX15" s="38"/>
+      <c r="AJY15" s="38"/>
+      <c r="AJZ15" s="39"/>
+      <c r="AKA15" s="37"/>
+      <c r="AKB15" s="38"/>
+      <c r="AKC15" s="38"/>
+      <c r="AKD15" s="38"/>
+      <c r="AKE15" s="38"/>
+      <c r="AKF15" s="38"/>
+      <c r="AKG15" s="38"/>
+      <c r="AKH15" s="38"/>
+      <c r="AKI15" s="38"/>
+      <c r="AKJ15" s="38"/>
+      <c r="AKK15" s="38"/>
+      <c r="AKL15" s="38"/>
+      <c r="AKM15" s="38"/>
+      <c r="AKN15" s="38"/>
+      <c r="AKO15" s="38"/>
+      <c r="AKP15" s="38"/>
+      <c r="AKQ15" s="38"/>
+      <c r="AKR15" s="38"/>
+      <c r="AKS15" s="38"/>
+      <c r="AKT15" s="39"/>
+      <c r="AKU15" s="37"/>
+      <c r="AKV15" s="38"/>
+      <c r="AKW15" s="38"/>
+      <c r="AKX15" s="38"/>
+      <c r="AKY15" s="38"/>
+      <c r="AKZ15" s="38"/>
+      <c r="ALA15" s="38"/>
+      <c r="ALB15" s="38"/>
+      <c r="ALC15" s="38"/>
+      <c r="ALD15" s="38"/>
+      <c r="ALE15" s="38"/>
+      <c r="ALF15" s="38"/>
+      <c r="ALG15" s="38"/>
+      <c r="ALH15" s="38"/>
+      <c r="ALI15" s="38"/>
+      <c r="ALJ15" s="38"/>
+      <c r="ALK15" s="38"/>
+      <c r="ALL15" s="38"/>
+      <c r="ALM15" s="38"/>
+      <c r="ALN15" s="39"/>
+      <c r="ALO15" s="37"/>
+      <c r="ALP15" s="38"/>
+      <c r="ALQ15" s="38"/>
+      <c r="ALR15" s="38"/>
+      <c r="ALS15" s="38"/>
+      <c r="ALT15" s="38"/>
+      <c r="ALU15" s="38"/>
+      <c r="ALV15" s="38"/>
+      <c r="ALW15" s="38"/>
+      <c r="ALX15" s="38"/>
+      <c r="ALY15" s="38"/>
+      <c r="ALZ15" s="38"/>
+      <c r="AMA15" s="38"/>
+      <c r="AMB15" s="38"/>
+      <c r="AMC15" s="38"/>
+      <c r="AMD15" s="38"/>
+      <c r="AME15" s="38"/>
+      <c r="AMF15" s="38"/>
+      <c r="AMG15" s="38"/>
+      <c r="AMH15" s="39"/>
+      <c r="AMI15" s="37"/>
+      <c r="AMJ15" s="38"/>
+      <c r="AMK15" s="38"/>
+      <c r="AML15" s="38"/>
+      <c r="AMM15" s="38"/>
+      <c r="AMN15" s="38"/>
+      <c r="AMO15" s="38"/>
+      <c r="AMP15" s="38"/>
+      <c r="AMQ15" s="38"/>
+      <c r="AMR15" s="38"/>
+      <c r="AMS15" s="38"/>
+      <c r="AMT15" s="38"/>
+      <c r="AMU15" s="38"/>
+      <c r="AMV15" s="38"/>
+      <c r="AMW15" s="38"/>
+      <c r="AMX15" s="38"/>
+      <c r="AMY15" s="38"/>
+      <c r="AMZ15" s="38"/>
+      <c r="ANA15" s="38"/>
+      <c r="ANB15" s="39"/>
+      <c r="ANC15" s="37"/>
+      <c r="AND15" s="38"/>
+      <c r="ANE15" s="38"/>
+      <c r="ANF15" s="38"/>
+      <c r="ANG15" s="38"/>
+      <c r="ANH15" s="38"/>
+      <c r="ANI15" s="38"/>
+      <c r="ANJ15" s="38"/>
+      <c r="ANK15" s="38"/>
+      <c r="ANL15" s="38"/>
+      <c r="ANM15" s="38"/>
+      <c r="ANN15" s="38"/>
+      <c r="ANO15" s="38"/>
+      <c r="ANP15" s="38"/>
+      <c r="ANQ15" s="38"/>
+      <c r="ANR15" s="38"/>
+      <c r="ANS15" s="38"/>
+      <c r="ANT15" s="38"/>
+      <c r="ANU15" s="38"/>
+      <c r="ANV15" s="39"/>
+      <c r="ANW15" s="37"/>
+      <c r="ANX15" s="38"/>
+      <c r="ANY15" s="38"/>
+      <c r="ANZ15" s="38"/>
+      <c r="AOA15" s="38"/>
+      <c r="AOB15" s="38"/>
+      <c r="AOC15" s="38"/>
+      <c r="AOD15" s="38"/>
+      <c r="AOE15" s="38"/>
+      <c r="AOF15" s="38"/>
+      <c r="AOG15" s="38"/>
+      <c r="AOH15" s="38"/>
+      <c r="AOI15" s="38"/>
+      <c r="AOJ15" s="38"/>
+      <c r="AOK15" s="38"/>
+      <c r="AOL15" s="38"/>
+      <c r="AOM15" s="38"/>
+      <c r="AON15" s="38"/>
+      <c r="AOO15" s="38"/>
+      <c r="AOP15" s="39"/>
     </row>
     <row r="16" spans="1:1082" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="11"/>
@@ -11064,39 +11070,39 @@
       <c r="AOP16" s="7"/>
     </row>
     <row r="17" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="G17" s="58"/>
-      <c r="H17" s="58"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="58"/>
-      <c r="K17" s="58"/>
-      <c r="L17" s="58"/>
-      <c r="M17" s="58"/>
-      <c r="N17" s="59"/>
-      <c r="Q17" s="46" t="s">
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+      <c r="K17" s="56"/>
+      <c r="L17" s="56"/>
+      <c r="M17" s="56"/>
+      <c r="N17" s="57"/>
+      <c r="Q17" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="47"/>
-      <c r="W17" s="48"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="62"/>
+      <c r="U17" s="62"/>
+      <c r="V17" s="62"/>
+      <c r="W17" s="63"/>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
-      <c r="Z17" s="35" t="s">
+      <c r="Z17" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="AA17" s="36"/>
-      <c r="AB17" s="36"/>
-      <c r="AC17" s="36"/>
-      <c r="AD17" s="36"/>
-      <c r="AE17" s="36"/>
-      <c r="AF17" s="37"/>
+      <c r="AA17" s="70"/>
+      <c r="AB17" s="70"/>
+      <c r="AC17" s="70"/>
+      <c r="AD17" s="70"/>
+      <c r="AE17" s="70"/>
+      <c r="AF17" s="71"/>
       <c r="AQ17" s="6"/>
       <c r="AR17" s="6"/>
       <c r="AS17" s="6"/>
@@ -11215,42 +11221,42 @@
       <c r="D18" s="21">
         <v>0</v>
       </c>
-      <c r="E18" s="65" t="s">
+      <c r="E18" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
-      <c r="H18" s="66"/>
-      <c r="I18" s="66"/>
-      <c r="J18" s="66"/>
-      <c r="K18" s="66"/>
-      <c r="L18" s="66"/>
-      <c r="M18" s="66"/>
-      <c r="N18" s="67"/>
+      <c r="F18" s="43"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="43"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="43"/>
+      <c r="N18" s="44"/>
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="38" t="s">
+      <c r="R18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="S18" s="38"/>
-      <c r="T18" s="38"/>
-      <c r="U18" s="38"/>
-      <c r="V18" s="38"/>
-      <c r="W18" s="39"/>
+      <c r="S18" s="64"/>
+      <c r="T18" s="64"/>
+      <c r="U18" s="64"/>
+      <c r="V18" s="64"/>
+      <c r="W18" s="65"/>
       <c r="X18" s="13"/>
       <c r="Y18" s="13"/>
       <c r="Z18" s="4">
         <v>0</v>
       </c>
-      <c r="AA18" s="38" t="s">
+      <c r="AA18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="38"/>
-      <c r="AD18" s="38"/>
-      <c r="AE18" s="38"/>
-      <c r="AF18" s="39"/>
+      <c r="AB18" s="64"/>
+      <c r="AC18" s="64"/>
+      <c r="AD18" s="64"/>
+      <c r="AE18" s="64"/>
+      <c r="AF18" s="65"/>
       <c r="AQ18" s="6"/>
       <c r="AR18" s="6"/>
       <c r="AS18" s="6"/>
@@ -11369,42 +11375,42 @@
       <c r="D19" s="20">
         <v>0</v>
       </c>
-      <c r="E19" s="60" t="s">
+      <c r="E19" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="61"/>
-      <c r="L19" s="61"/>
-      <c r="M19" s="61"/>
-      <c r="N19" s="62"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="35"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35"/>
+      <c r="N19" s="36"/>
       <c r="Q19" s="2">
         <v>1</v>
       </c>
-      <c r="R19" s="33" t="s">
+      <c r="R19" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="33"/>
-      <c r="U19" s="33"/>
-      <c r="V19" s="33"/>
-      <c r="W19" s="34"/>
+      <c r="S19" s="48"/>
+      <c r="T19" s="48"/>
+      <c r="U19" s="48"/>
+      <c r="V19" s="48"/>
+      <c r="W19" s="49"/>
       <c r="X19" s="13"/>
       <c r="Y19" s="13"/>
       <c r="Z19" s="2">
         <v>1</v>
       </c>
-      <c r="AA19" s="33" t="s">
+      <c r="AA19" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="AB19" s="33"/>
-      <c r="AC19" s="33"/>
-      <c r="AD19" s="33"/>
-      <c r="AE19" s="33"/>
-      <c r="AF19" s="34"/>
+      <c r="AB19" s="48"/>
+      <c r="AC19" s="48"/>
+      <c r="AD19" s="48"/>
+      <c r="AE19" s="48"/>
+      <c r="AF19" s="49"/>
       <c r="AQ19" s="6"/>
       <c r="AR19" s="6"/>
       <c r="AS19" s="6"/>
@@ -11508,42 +11514,42 @@
     </row>
     <row r="20" spans="2:155" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="D20" s="15"/>
-      <c r="E20" s="68" t="s">
+      <c r="E20" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="69"/>
-      <c r="K20" s="69"/>
-      <c r="L20" s="69"/>
-      <c r="M20" s="69"/>
-      <c r="N20" s="70"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="46"/>
+      <c r="L20" s="46"/>
+      <c r="M20" s="46"/>
+      <c r="N20" s="47"/>
       <c r="Q20" s="2">
         <v>2</v>
       </c>
-      <c r="R20" s="33" t="s">
+      <c r="R20" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="33"/>
-      <c r="U20" s="33"/>
-      <c r="V20" s="33"/>
-      <c r="W20" s="34"/>
+      <c r="S20" s="48"/>
+      <c r="T20" s="48"/>
+      <c r="U20" s="48"/>
+      <c r="V20" s="48"/>
+      <c r="W20" s="49"/>
       <c r="X20" s="13"/>
       <c r="Y20" s="13"/>
       <c r="Z20" s="4">
         <v>2</v>
       </c>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AB20" s="33"/>
-      <c r="AC20" s="33"/>
-      <c r="AD20" s="33"/>
-      <c r="AE20" s="33"/>
-      <c r="AF20" s="34"/>
+      <c r="AB20" s="48"/>
+      <c r="AC20" s="48"/>
+      <c r="AD20" s="48"/>
+      <c r="AE20" s="48"/>
+      <c r="AF20" s="49"/>
       <c r="AQ20" s="6"/>
       <c r="AR20" s="6"/>
       <c r="AS20" s="6"/>
@@ -11649,42 +11655,42 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="63" t="s">
+      <c r="E21" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="63"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40"/>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40"/>
+      <c r="M21" s="40"/>
       <c r="N21" s="16"/>
       <c r="Q21" s="2">
         <v>3</v>
       </c>
-      <c r="R21" s="33" t="s">
+      <c r="R21" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="33"/>
-      <c r="W21" s="34"/>
+      <c r="S21" s="48"/>
+      <c r="T21" s="48"/>
+      <c r="U21" s="48"/>
+      <c r="V21" s="48"/>
+      <c r="W21" s="49"/>
       <c r="X21" s="13"/>
       <c r="Y21" s="13"/>
       <c r="Z21" s="2">
         <v>3</v>
       </c>
-      <c r="AA21" s="33" t="s">
+      <c r="AA21" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AB21" s="33"/>
-      <c r="AC21" s="33"/>
-      <c r="AD21" s="33"/>
-      <c r="AE21" s="33"/>
-      <c r="AF21" s="34"/>
+      <c r="AB21" s="48"/>
+      <c r="AC21" s="48"/>
+      <c r="AD21" s="48"/>
+      <c r="AE21" s="48"/>
+      <c r="AF21" s="49"/>
       <c r="AQ21" s="6"/>
       <c r="AR21" s="6"/>
       <c r="AS21" s="6"/>
@@ -11790,40 +11796,40 @@
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="64"/>
-      <c r="F22" s="64"/>
-      <c r="G22" s="64"/>
-      <c r="H22" s="64"/>
-      <c r="I22" s="64"/>
-      <c r="J22" s="64"/>
-      <c r="K22" s="64"/>
-      <c r="L22" s="64"/>
-      <c r="M22" s="64"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="41"/>
       <c r="N22" s="17"/>
       <c r="Q22" s="2">
         <v>4</v>
       </c>
-      <c r="R22" s="33" t="s">
+      <c r="R22" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="S22" s="33"/>
-      <c r="T22" s="33"/>
-      <c r="U22" s="33"/>
-      <c r="V22" s="33"/>
-      <c r="W22" s="34"/>
+      <c r="S22" s="48"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="48"/>
+      <c r="V22" s="48"/>
+      <c r="W22" s="49"/>
       <c r="X22" s="13"/>
       <c r="Y22" s="13"/>
       <c r="Z22" s="4">
         <v>4</v>
       </c>
-      <c r="AA22" s="33" t="s">
+      <c r="AA22" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="AB22" s="33"/>
-      <c r="AC22" s="33"/>
-      <c r="AD22" s="33"/>
-      <c r="AE22" s="33"/>
-      <c r="AF22" s="34"/>
+      <c r="AB22" s="48"/>
+      <c r="AC22" s="48"/>
+      <c r="AD22" s="48"/>
+      <c r="AE22" s="48"/>
+      <c r="AF22" s="49"/>
       <c r="AQ22" s="6"/>
       <c r="AR22" s="6"/>
       <c r="AS22" s="6"/>
@@ -11942,27 +11948,27 @@
       <c r="Q23" s="2">
         <v>5</v>
       </c>
-      <c r="R23" s="33" t="s">
+      <c r="R23" s="48" t="s">
         <v>11</v>
       </c>
-      <c r="S23" s="33"/>
-      <c r="T23" s="33"/>
-      <c r="U23" s="33"/>
-      <c r="V23" s="33"/>
-      <c r="W23" s="34"/>
+      <c r="S23" s="48"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="48"/>
+      <c r="V23" s="48"/>
+      <c r="W23" s="49"/>
       <c r="X23" s="13"/>
       <c r="Y23" s="13"/>
       <c r="Z23" s="14">
         <v>5</v>
       </c>
-      <c r="AA23" s="40" t="s">
+      <c r="AA23" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="AB23" s="40"/>
-      <c r="AC23" s="40"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="41"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="68"/>
       <c r="AQ23" s="6"/>
       <c r="AR23" s="6"/>
       <c r="AS23" s="6"/>
@@ -12081,14 +12087,14 @@
       <c r="Q24" s="2">
         <v>6</v>
       </c>
-      <c r="R24" s="33" t="s">
+      <c r="R24" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="S24" s="33"/>
-      <c r="T24" s="33"/>
-      <c r="U24" s="33"/>
-      <c r="V24" s="33"/>
-      <c r="W24" s="34"/>
+      <c r="S24" s="48"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="48"/>
+      <c r="V24" s="48"/>
+      <c r="W24" s="49"/>
       <c r="X24" s="13"/>
       <c r="Y24" s="13"/>
       <c r="Z24" s="13"/>
@@ -12210,14 +12216,14 @@
       <c r="Q25" s="2">
         <v>7</v>
       </c>
-      <c r="R25" s="33" t="s">
+      <c r="R25" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="S25" s="33"/>
-      <c r="T25" s="33"/>
-      <c r="U25" s="33"/>
-      <c r="V25" s="33"/>
-      <c r="W25" s="34"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="48"/>
+      <c r="U25" s="48"/>
+      <c r="V25" s="48"/>
+      <c r="W25" s="49"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13"/>
       <c r="Z25" s="13"/>
@@ -12339,14 +12345,14 @@
       <c r="Q26" s="2">
         <v>8</v>
       </c>
-      <c r="R26" s="33" t="s">
+      <c r="R26" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="S26" s="33"/>
-      <c r="T26" s="33"/>
-      <c r="U26" s="33"/>
-      <c r="V26" s="33"/>
-      <c r="W26" s="34"/>
+      <c r="S26" s="48"/>
+      <c r="T26" s="48"/>
+      <c r="U26" s="48"/>
+      <c r="V26" s="48"/>
+      <c r="W26" s="49"/>
       <c r="X26" s="13"/>
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
@@ -12468,14 +12474,14 @@
       <c r="Q27" s="2">
         <v>9</v>
       </c>
-      <c r="R27" s="33" t="s">
+      <c r="R27" s="48" t="s">
         <v>15</v>
       </c>
-      <c r="S27" s="33"/>
-      <c r="T27" s="33"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="34"/>
+      <c r="S27" s="48"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="48"/>
+      <c r="V27" s="48"/>
+      <c r="W27" s="49"/>
       <c r="X27" s="13"/>
       <c r="Y27" s="13"/>
       <c r="Z27" s="13"/>
@@ -12584,14 +12590,14 @@
       <c r="Q28" s="2">
         <v>10</v>
       </c>
-      <c r="R28" s="33" t="s">
+      <c r="R28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="S28" s="33"/>
-      <c r="T28" s="33"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="34"/>
+      <c r="S28" s="48"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="48"/>
+      <c r="V28" s="48"/>
+      <c r="W28" s="49"/>
       <c r="X28" s="13"/>
       <c r="Y28" s="13"/>
       <c r="Z28" s="13"/>
@@ -12700,14 +12706,14 @@
       <c r="Q29" s="2">
         <v>11</v>
       </c>
-      <c r="R29" s="33" t="s">
+      <c r="R29" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="33"/>
-      <c r="W29" s="34"/>
+      <c r="S29" s="48"/>
+      <c r="T29" s="48"/>
+      <c r="U29" s="48"/>
+      <c r="V29" s="48"/>
+      <c r="W29" s="49"/>
       <c r="X29" s="13"/>
       <c r="Y29" s="13"/>
       <c r="Z29" s="13"/>
@@ -12816,14 +12822,14 @@
       <c r="Q30" s="2">
         <v>12</v>
       </c>
-      <c r="R30" s="33" t="s">
+      <c r="R30" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="S30" s="33"/>
-      <c r="T30" s="33"/>
-      <c r="U30" s="33"/>
-      <c r="V30" s="33"/>
-      <c r="W30" s="34"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="49"/>
       <c r="X30" s="13"/>
       <c r="Y30" s="13"/>
       <c r="Z30" s="13"/>
@@ -12932,14 +12938,14 @@
       <c r="Q31" s="2">
         <v>13</v>
       </c>
-      <c r="R31" s="33" t="s">
+      <c r="R31" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="S31" s="33"/>
-      <c r="T31" s="33"/>
-      <c r="U31" s="33"/>
-      <c r="V31" s="33"/>
-      <c r="W31" s="34"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="49"/>
       <c r="X31" s="13"/>
       <c r="Y31" s="13"/>
       <c r="Z31" s="13"/>
@@ -13048,14 +13054,14 @@
       <c r="Q32" s="2">
         <v>14</v>
       </c>
-      <c r="R32" s="33" t="s">
+      <c r="R32" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="S32" s="33"/>
-      <c r="T32" s="33"/>
-      <c r="U32" s="33"/>
-      <c r="V32" s="33"/>
-      <c r="W32" s="34"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="49"/>
       <c r="AQ32" s="6"/>
       <c r="AR32" s="6"/>
       <c r="AS32" s="6"/>
@@ -13161,14 +13167,14 @@
       <c r="Q33" s="2">
         <v>15</v>
       </c>
-      <c r="R33" s="33" t="s">
+      <c r="R33" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="S33" s="33"/>
-      <c r="T33" s="33"/>
-      <c r="U33" s="33"/>
-      <c r="V33" s="33"/>
-      <c r="W33" s="34"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="49"/>
       <c r="AQ33" s="6"/>
       <c r="AR33" s="6"/>
       <c r="AS33" s="6"/>
@@ -13274,14 +13280,14 @@
       <c r="Q34" s="14">
         <v>16</v>
       </c>
-      <c r="R34" s="40" t="s">
+      <c r="R34" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="S34" s="40"/>
-      <c r="T34" s="40"/>
-      <c r="U34" s="40"/>
-      <c r="V34" s="40"/>
-      <c r="W34" s="41"/>
+      <c r="S34" s="67"/>
+      <c r="T34" s="67"/>
+      <c r="U34" s="67"/>
+      <c r="V34" s="67"/>
+      <c r="W34" s="68"/>
       <c r="AQ34" s="6"/>
       <c r="AR34" s="6"/>
       <c r="AS34" s="6"/>
@@ -33700,15 +33706,87 @@
       <c r="EL233" s="6"/>
     </row>
     <row r="1048576" spans="18:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="R1048576" s="42"/>
-      <c r="S1048576" s="42"/>
-      <c r="T1048576" s="42"/>
-      <c r="U1048576" s="42"/>
-      <c r="V1048576" s="42"/>
-      <c r="W1048576" s="42"/>
+      <c r="R1048576" s="66"/>
+      <c r="S1048576" s="66"/>
+      <c r="T1048576" s="66"/>
+      <c r="U1048576" s="66"/>
+      <c r="V1048576" s="66"/>
+      <c r="W1048576" s="66"/>
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="R22:W22"/>
+    <mergeCell ref="R29:W29"/>
+    <mergeCell ref="R30:W30"/>
+    <mergeCell ref="R31:W31"/>
+    <mergeCell ref="Z17:AF17"/>
+    <mergeCell ref="AA18:AF18"/>
+    <mergeCell ref="AA19:AF19"/>
+    <mergeCell ref="AA20:AF20"/>
+    <mergeCell ref="AA21:AF21"/>
+    <mergeCell ref="AA22:AF22"/>
+    <mergeCell ref="AA23:AF23"/>
+    <mergeCell ref="R32:W32"/>
+    <mergeCell ref="R33:W33"/>
+    <mergeCell ref="R1048576:W1048576"/>
+    <mergeCell ref="R34:W34"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="R24:W24"/>
+    <mergeCell ref="R25:W25"/>
+    <mergeCell ref="R26:W26"/>
+    <mergeCell ref="R27:W27"/>
+    <mergeCell ref="R28:W28"/>
+    <mergeCell ref="WE15:WX15"/>
+    <mergeCell ref="NS15:OL15"/>
+    <mergeCell ref="Q17:W17"/>
+    <mergeCell ref="R18:W18"/>
+    <mergeCell ref="R19:W19"/>
+    <mergeCell ref="SI15:TB15"/>
+    <mergeCell ref="TC15:TV15"/>
+    <mergeCell ref="TW15:UP15"/>
+    <mergeCell ref="UQ15:VJ15"/>
+    <mergeCell ref="VK15:WD15"/>
+    <mergeCell ref="OM15:PF15"/>
+    <mergeCell ref="PG15:PZ15"/>
+    <mergeCell ref="QA15:QT15"/>
+    <mergeCell ref="QU15:RN15"/>
+    <mergeCell ref="RO15:SH15"/>
+    <mergeCell ref="MY15:NR15"/>
+    <mergeCell ref="AKU15:ALN15"/>
+    <mergeCell ref="ALO15:AMH15"/>
+    <mergeCell ref="AMI15:ANB15"/>
+    <mergeCell ref="ANC15:ANV15"/>
+    <mergeCell ref="YM15:ZF15"/>
+    <mergeCell ref="ZG15:ZZ15"/>
+    <mergeCell ref="AAA15:AAT15"/>
+    <mergeCell ref="AAU15:ABN15"/>
+    <mergeCell ref="ANW15:AOP15"/>
+    <mergeCell ref="B3:B13"/>
+    <mergeCell ref="AGE15:AGX15"/>
+    <mergeCell ref="AGY15:AHR15"/>
+    <mergeCell ref="AHS15:AIL15"/>
+    <mergeCell ref="AIM15:AJF15"/>
+    <mergeCell ref="AJG15:AJZ15"/>
+    <mergeCell ref="AKA15:AKT15"/>
+    <mergeCell ref="ABO15:ACH15"/>
+    <mergeCell ref="ACI15:ADB15"/>
+    <mergeCell ref="ADC15:ADV15"/>
+    <mergeCell ref="ADW15:AEP15"/>
+    <mergeCell ref="AEQ15:AFJ15"/>
+    <mergeCell ref="AFK15:AGD15"/>
+    <mergeCell ref="WY15:XR15"/>
+    <mergeCell ref="XS15:YL15"/>
+    <mergeCell ref="LK15:MD15"/>
+    <mergeCell ref="EM15:FF15"/>
+    <mergeCell ref="FG15:FZ15"/>
+    <mergeCell ref="GA15:GT15"/>
+    <mergeCell ref="GU15:HN15"/>
+    <mergeCell ref="HO15:IH15"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:R1"/>
+    <mergeCell ref="C15:V15"/>
+    <mergeCell ref="D17:N17"/>
+    <mergeCell ref="W15:AP15"/>
     <mergeCell ref="E19:N19"/>
     <mergeCell ref="ME15:MX15"/>
     <mergeCell ref="E21:M22"/>
@@ -33725,78 +33803,6 @@
     <mergeCell ref="JC15:JV15"/>
     <mergeCell ref="JW15:KP15"/>
     <mergeCell ref="KQ15:LJ15"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="I1:R1"/>
-    <mergeCell ref="C15:V15"/>
-    <mergeCell ref="D17:N17"/>
-    <mergeCell ref="W15:AP15"/>
-    <mergeCell ref="LK15:MD15"/>
-    <mergeCell ref="EM15:FF15"/>
-    <mergeCell ref="FG15:FZ15"/>
-    <mergeCell ref="GA15:GT15"/>
-    <mergeCell ref="GU15:HN15"/>
-    <mergeCell ref="HO15:IH15"/>
-    <mergeCell ref="ANW15:AOP15"/>
-    <mergeCell ref="B3:B13"/>
-    <mergeCell ref="AGE15:AGX15"/>
-    <mergeCell ref="AGY15:AHR15"/>
-    <mergeCell ref="AHS15:AIL15"/>
-    <mergeCell ref="AIM15:AJF15"/>
-    <mergeCell ref="AJG15:AJZ15"/>
-    <mergeCell ref="AKA15:AKT15"/>
-    <mergeCell ref="ABO15:ACH15"/>
-    <mergeCell ref="ACI15:ADB15"/>
-    <mergeCell ref="ADC15:ADV15"/>
-    <mergeCell ref="ADW15:AEP15"/>
-    <mergeCell ref="AEQ15:AFJ15"/>
-    <mergeCell ref="AFK15:AGD15"/>
-    <mergeCell ref="WY15:XR15"/>
-    <mergeCell ref="XS15:YL15"/>
-    <mergeCell ref="AKU15:ALN15"/>
-    <mergeCell ref="ALO15:AMH15"/>
-    <mergeCell ref="AMI15:ANB15"/>
-    <mergeCell ref="ANC15:ANV15"/>
-    <mergeCell ref="YM15:ZF15"/>
-    <mergeCell ref="ZG15:ZZ15"/>
-    <mergeCell ref="AAA15:AAT15"/>
-    <mergeCell ref="AAU15:ABN15"/>
-    <mergeCell ref="WE15:WX15"/>
-    <mergeCell ref="NS15:OL15"/>
-    <mergeCell ref="Q17:W17"/>
-    <mergeCell ref="R18:W18"/>
-    <mergeCell ref="R19:W19"/>
-    <mergeCell ref="SI15:TB15"/>
-    <mergeCell ref="TC15:TV15"/>
-    <mergeCell ref="TW15:UP15"/>
-    <mergeCell ref="UQ15:VJ15"/>
-    <mergeCell ref="VK15:WD15"/>
-    <mergeCell ref="OM15:PF15"/>
-    <mergeCell ref="PG15:PZ15"/>
-    <mergeCell ref="QA15:QT15"/>
-    <mergeCell ref="QU15:RN15"/>
-    <mergeCell ref="RO15:SH15"/>
-    <mergeCell ref="MY15:NR15"/>
-    <mergeCell ref="R32:W32"/>
-    <mergeCell ref="R33:W33"/>
-    <mergeCell ref="R1048576:W1048576"/>
-    <mergeCell ref="R34:W34"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="R24:W24"/>
-    <mergeCell ref="R25:W25"/>
-    <mergeCell ref="R26:W26"/>
-    <mergeCell ref="R27:W27"/>
-    <mergeCell ref="R28:W28"/>
-    <mergeCell ref="R22:W22"/>
-    <mergeCell ref="R29:W29"/>
-    <mergeCell ref="R30:W30"/>
-    <mergeCell ref="R31:W31"/>
-    <mergeCell ref="Z17:AF17"/>
-    <mergeCell ref="AA18:AF18"/>
-    <mergeCell ref="AA19:AF19"/>
-    <mergeCell ref="AA20:AF20"/>
-    <mergeCell ref="AA21:AF21"/>
-    <mergeCell ref="AA22:AF22"/>
-    <mergeCell ref="AA23:AF23"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
+++ b/外部データ/ステージデザイン/ステージデザイン_forest.xlsx
@@ -1442,19 +1442,17 @@
   <dimension ref="A1:AOP1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="IL2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="PN2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="JE10" sqref="JE10"/>
+      <selection pane="bottomRight" activeCell="QD5" sqref="QD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="23.25" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" style="5"/>
     <col min="2" max="2" width="13.5" style="5" customWidth="1"/>
-    <col min="3" max="255" width="4" style="5"/>
-    <col min="256" max="256" width="4" style="5" customWidth="1"/>
-    <col min="257" max="439" width="4" style="5"/>
+    <col min="3" max="439" width="4" style="5"/>
     <col min="440" max="440" width="4.5" style="5" bestFit="1" customWidth="1"/>
     <col min="441" max="16384" width="4" style="5"/>
   </cols>
@@ -1482,13 +1480,50 @@
       <c r="R1" s="54"/>
     </row>
     <row r="2" spans="1:1082" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
       <c r="AI2" s="33"/>
       <c r="AJ2" s="33"/>
-      <c r="AM2" s="33"/>
-      <c r="AN2" s="33"/>
-      <c r="AO2" s="33"/>
-      <c r="AS2" s="33"/>
-      <c r="AT2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
       <c r="AU2" s="33"/>
       <c r="AV2" s="33"/>
       <c r="AW2" s="33"/>
@@ -1496,7 +1531,9 @@
       <c r="AY2" s="33"/>
       <c r="AZ2" s="33"/>
       <c r="BA2" s="33"/>
-      <c r="BD2" s="33"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
       <c r="BE2" s="33"/>
       <c r="BF2" s="33"/>
       <c r="BG2" s="33"/>
@@ -1504,65 +1541,445 @@
       <c r="BI2" s="33"/>
       <c r="BJ2" s="33"/>
       <c r="BK2" s="33"/>
-      <c r="DK2" s="33"/>
-      <c r="DL2" s="33"/>
-      <c r="DM2" s="33"/>
-      <c r="DN2" s="33"/>
-      <c r="DO2" s="33"/>
-      <c r="DP2" s="33"/>
-      <c r="DT2" s="33"/>
-      <c r="DU2" s="33"/>
-      <c r="DV2" s="33"/>
-      <c r="DW2" s="33"/>
-      <c r="DX2" s="33"/>
-      <c r="DY2" s="33"/>
-      <c r="DZ2" s="33"/>
-      <c r="EA2" s="33"/>
-      <c r="EB2" s="33"/>
-      <c r="EC2" s="33"/>
-      <c r="ED2" s="33"/>
-      <c r="EE2" s="33"/>
-      <c r="EF2" s="33"/>
-      <c r="EG2" s="33"/>
-      <c r="EH2" s="33"/>
-      <c r="EI2" s="33"/>
-      <c r="EJ2" s="33"/>
-      <c r="EK2" s="33"/>
-      <c r="EL2" s="33"/>
-      <c r="EM2" s="33"/>
-      <c r="EN2" s="33"/>
-      <c r="EO2" s="33"/>
-      <c r="EP2" s="33"/>
-      <c r="EQ2" s="33"/>
-      <c r="ER2" s="33"/>
-      <c r="ES2" s="33"/>
-      <c r="ET2" s="33"/>
-      <c r="EU2" s="33"/>
-      <c r="FX2" s="33"/>
-      <c r="FY2" s="33"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="6"/>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="6"/>
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="6"/>
+      <c r="CM2" s="6"/>
+      <c r="CN2" s="6"/>
+      <c r="CO2" s="6"/>
+      <c r="CP2" s="6"/>
+      <c r="CQ2" s="6"/>
+      <c r="CR2" s="6"/>
+      <c r="CS2" s="6"/>
+      <c r="CT2" s="6"/>
+      <c r="CU2" s="6"/>
+      <c r="CV2" s="33"/>
+      <c r="CW2" s="33"/>
+      <c r="CX2" s="6"/>
+      <c r="CY2" s="6"/>
+      <c r="CZ2" s="6"/>
+      <c r="DA2" s="6"/>
+      <c r="DB2" s="6"/>
+      <c r="DC2" s="6"/>
+      <c r="DD2" s="6"/>
+      <c r="DE2" s="6"/>
+      <c r="DF2" s="6"/>
+      <c r="DG2" s="6"/>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="6"/>
+      <c r="DJ2" s="6"/>
+      <c r="DK2" s="6"/>
+      <c r="DL2" s="6"/>
+      <c r="DM2" s="6"/>
+      <c r="DN2" s="6"/>
+      <c r="DO2" s="6"/>
+      <c r="DP2" s="6"/>
+      <c r="DQ2" s="6"/>
+      <c r="DR2" s="6"/>
+      <c r="DS2" s="6"/>
+      <c r="DT2" s="6"/>
+      <c r="DU2" s="6"/>
+      <c r="DV2" s="6"/>
+      <c r="DW2" s="6"/>
+      <c r="DX2" s="6"/>
+      <c r="DY2" s="6"/>
+      <c r="DZ2" s="6"/>
+      <c r="EA2" s="6"/>
+      <c r="EB2" s="6"/>
+      <c r="EC2" s="6"/>
+      <c r="ED2" s="6"/>
+      <c r="EE2" s="6"/>
+      <c r="EF2" s="6"/>
+      <c r="EG2" s="6"/>
+      <c r="EH2" s="6"/>
+      <c r="EI2" s="6"/>
+      <c r="EJ2" s="6"/>
+      <c r="EK2" s="6"/>
+      <c r="EL2" s="6"/>
+      <c r="EM2" s="6"/>
+      <c r="EN2" s="6"/>
+      <c r="EO2" s="6"/>
+      <c r="EP2" s="6"/>
+      <c r="EQ2" s="6"/>
+      <c r="ER2" s="6"/>
+      <c r="ES2" s="6"/>
+      <c r="ET2" s="6"/>
+      <c r="EU2" s="6"/>
+      <c r="EV2" s="6"/>
+      <c r="EW2" s="6"/>
+      <c r="EX2" s="6"/>
+      <c r="EY2" s="6"/>
+      <c r="EZ2" s="6"/>
+      <c r="FA2" s="6"/>
+      <c r="FB2" s="6"/>
+      <c r="FC2" s="6"/>
+      <c r="FD2" s="6"/>
+      <c r="FE2" s="6"/>
+      <c r="FF2" s="6"/>
+      <c r="FG2" s="6"/>
+      <c r="FH2" s="6"/>
+      <c r="FI2" s="6"/>
+      <c r="FJ2" s="6"/>
+      <c r="FK2" s="6"/>
+      <c r="FL2" s="6"/>
+      <c r="FM2" s="6"/>
+      <c r="FN2" s="6"/>
+      <c r="FO2" s="6"/>
+      <c r="FP2" s="6"/>
+      <c r="FQ2" s="6"/>
+      <c r="FR2" s="6"/>
+      <c r="FS2" s="6"/>
+      <c r="FT2" s="6"/>
+      <c r="FU2" s="6"/>
+      <c r="FV2" s="6"/>
+      <c r="FW2" s="6"/>
+      <c r="FX2" s="6"/>
+      <c r="FY2" s="6"/>
       <c r="FZ2" s="33"/>
       <c r="GA2" s="33"/>
-      <c r="GG2" s="33"/>
-      <c r="GH2" s="33"/>
+      <c r="GB2" s="6"/>
+      <c r="GC2" s="6"/>
+      <c r="GD2" s="6"/>
+      <c r="GE2" s="6"/>
+      <c r="GF2" s="6"/>
+      <c r="GG2" s="6"/>
+      <c r="GH2" s="6"/>
+      <c r="GI2" s="6"/>
+      <c r="GJ2" s="6"/>
+      <c r="GK2" s="6"/>
+      <c r="GL2" s="6"/>
+      <c r="GM2" s="6"/>
+      <c r="GN2" s="33"/>
+      <c r="GO2" s="33"/>
+      <c r="GP2" s="33"/>
+      <c r="GQ2" s="33"/>
+      <c r="GR2" s="33"/>
+      <c r="GS2" s="33"/>
+      <c r="GT2" s="33"/>
+      <c r="GU2" s="33"/>
+      <c r="GV2" s="6"/>
+      <c r="GW2" s="6"/>
+      <c r="GX2" s="6"/>
+      <c r="GY2" s="6"/>
+      <c r="GZ2" s="6"/>
+      <c r="HA2" s="6"/>
+      <c r="HB2" s="6"/>
+      <c r="HC2" s="6"/>
+      <c r="HD2" s="6"/>
+      <c r="HE2" s="6"/>
+      <c r="HF2" s="6"/>
+      <c r="HG2" s="6"/>
+      <c r="HH2" s="6"/>
+      <c r="HI2" s="6"/>
+      <c r="HJ2" s="6"/>
+      <c r="HK2" s="6"/>
+      <c r="HL2" s="6"/>
+      <c r="HM2" s="6"/>
+      <c r="HN2" s="6"/>
+      <c r="HO2" s="6"/>
+      <c r="HP2" s="6"/>
+      <c r="HQ2" s="6"/>
+      <c r="HR2" s="6"/>
+      <c r="HS2" s="6"/>
+      <c r="HT2" s="6"/>
+      <c r="HU2" s="6"/>
+      <c r="HV2" s="6"/>
+      <c r="HW2" s="6"/>
+      <c r="HX2" s="6"/>
+      <c r="HY2" s="6"/>
+      <c r="HZ2" s="6"/>
+      <c r="IA2" s="6"/>
+      <c r="IB2" s="6"/>
+      <c r="IC2" s="6"/>
+      <c r="ID2" s="6"/>
+      <c r="IE2" s="6"/>
+      <c r="IF2" s="6"/>
+      <c r="IG2" s="6"/>
+      <c r="IH2" s="6"/>
+      <c r="II2" s="6"/>
+      <c r="IJ2" s="6"/>
+      <c r="IK2" s="6"/>
+      <c r="IL2" s="6"/>
+      <c r="IM2" s="6"/>
+      <c r="IN2" s="6"/>
+      <c r="IO2" s="6"/>
+      <c r="IP2" s="6"/>
+      <c r="IQ2" s="6"/>
+      <c r="IR2" s="6"/>
+      <c r="IS2" s="6"/>
+      <c r="IT2" s="6"/>
+      <c r="IU2" s="6"/>
       <c r="IV2" s="33"/>
       <c r="IW2" s="33"/>
       <c r="IX2" s="33"/>
       <c r="IY2" s="33"/>
-      <c r="JL2" s="33"/>
-      <c r="JM2" s="33"/>
-      <c r="JN2" s="33"/>
+      <c r="IZ2" s="6"/>
+      <c r="JA2" s="6"/>
+      <c r="JB2" s="6"/>
+      <c r="JC2" s="6"/>
+      <c r="JD2" s="6"/>
+      <c r="JE2" s="6"/>
+      <c r="JF2" s="6"/>
+      <c r="JG2" s="6"/>
+      <c r="JH2" s="6"/>
+      <c r="JI2" s="6"/>
+      <c r="JJ2" s="6"/>
+      <c r="JK2" s="6"/>
+      <c r="JL2" s="6"/>
+      <c r="JM2" s="6"/>
+      <c r="JN2" s="6"/>
+      <c r="JO2" s="6"/>
+      <c r="JP2" s="6"/>
+      <c r="JQ2" s="6"/>
+      <c r="JR2" s="6"/>
+      <c r="JS2" s="6"/>
+      <c r="JT2" s="6"/>
+      <c r="JU2" s="6"/>
+      <c r="JV2" s="6"/>
+      <c r="JW2" s="6"/>
+      <c r="JX2" s="6"/>
+      <c r="JY2" s="6"/>
+      <c r="JZ2" s="6"/>
+      <c r="KA2" s="6"/>
+      <c r="KB2" s="6"/>
+      <c r="KC2" s="6"/>
+      <c r="KD2" s="6"/>
+      <c r="KE2" s="6"/>
+      <c r="KF2" s="6"/>
+      <c r="KG2" s="6"/>
+      <c r="KH2" s="6"/>
+      <c r="KI2" s="6"/>
+      <c r="KJ2" s="6"/>
+      <c r="KK2" s="6"/>
+      <c r="KL2" s="6"/>
+      <c r="KM2" s="6"/>
+      <c r="KN2" s="6"/>
+      <c r="KO2" s="6"/>
+      <c r="KP2" s="6"/>
+      <c r="KQ2" s="6"/>
+      <c r="KR2" s="6"/>
+      <c r="KS2" s="6"/>
+      <c r="KT2" s="6"/>
+      <c r="KU2" s="6"/>
+      <c r="KV2" s="6"/>
+      <c r="KW2" s="6"/>
+      <c r="KX2" s="6"/>
+      <c r="KY2" s="6"/>
+      <c r="KZ2" s="6"/>
+      <c r="LA2" s="6"/>
+      <c r="LB2" s="6"/>
+      <c r="LC2" s="6"/>
+      <c r="LD2" s="6"/>
+      <c r="LE2" s="6"/>
+      <c r="LF2" s="6"/>
+      <c r="LG2" s="6"/>
+      <c r="LH2" s="6"/>
+      <c r="LI2" s="6"/>
+      <c r="LJ2" s="6"/>
+      <c r="LK2" s="6"/>
+      <c r="LL2" s="6"/>
+      <c r="LM2" s="6"/>
+      <c r="LN2" s="6"/>
+      <c r="LO2" s="6"/>
+      <c r="LP2" s="6"/>
+      <c r="LQ2" s="6"/>
+      <c r="LR2" s="6"/>
+      <c r="LS2" s="6"/>
+      <c r="LT2" s="6"/>
+      <c r="LU2" s="6"/>
+      <c r="LV2" s="6"/>
+      <c r="LW2" s="6"/>
+      <c r="LX2" s="6"/>
+      <c r="LY2" s="6"/>
+      <c r="LZ2" s="6"/>
+      <c r="MA2" s="6"/>
+      <c r="MB2" s="6"/>
+      <c r="MC2" s="6"/>
+      <c r="MD2" s="6"/>
+      <c r="ME2" s="6"/>
+      <c r="MF2" s="6"/>
+      <c r="MG2" s="6"/>
+      <c r="MH2" s="6"/>
+      <c r="MI2" s="6"/>
+      <c r="MJ2" s="6"/>
+      <c r="MK2" s="6"/>
+      <c r="ML2" s="6"/>
+      <c r="MM2" s="6"/>
+      <c r="MN2" s="6"/>
+      <c r="MO2" s="6"/>
+      <c r="MP2" s="6"/>
+      <c r="MQ2" s="6"/>
+      <c r="MR2" s="6"/>
+      <c r="MS2" s="6"/>
+      <c r="MT2" s="6"/>
+      <c r="MU2" s="6"/>
+      <c r="MV2" s="6"/>
+      <c r="MW2" s="6"/>
+      <c r="MX2" s="6"/>
+      <c r="MY2" s="6"/>
+      <c r="MZ2" s="6"/>
+      <c r="NA2" s="6"/>
+      <c r="NB2" s="6"/>
+      <c r="NC2" s="6"/>
+      <c r="ND2" s="6"/>
+      <c r="NE2" s="6"/>
+      <c r="NF2" s="6"/>
+      <c r="NG2" s="6"/>
+      <c r="NH2" s="6"/>
+      <c r="NI2" s="6"/>
+      <c r="NJ2" s="6"/>
+      <c r="NK2" s="6"/>
+      <c r="NL2" s="6"/>
+      <c r="NM2" s="6"/>
+      <c r="NN2" s="6"/>
+      <c r="NO2" s="33"/>
+      <c r="NP2" s="33"/>
+      <c r="NQ2" s="6"/>
+      <c r="NR2" s="6"/>
+      <c r="NS2" s="33"/>
       <c r="NT2" s="33"/>
-      <c r="NU2" s="33"/>
-      <c r="NV2" s="33"/>
-      <c r="NW2" s="33"/>
-      <c r="PW2" s="33"/>
-      <c r="PX2" s="33"/>
+      <c r="NU2" s="6"/>
+      <c r="NV2" s="6"/>
+      <c r="NW2" s="6"/>
+      <c r="NX2" s="6"/>
+      <c r="NY2" s="6"/>
+      <c r="NZ2" s="6"/>
+      <c r="OA2" s="6"/>
+      <c r="OB2" s="6"/>
+      <c r="OC2" s="6"/>
+      <c r="OD2" s="6"/>
+      <c r="OE2" s="6"/>
+      <c r="OF2" s="6"/>
+      <c r="OG2" s="6"/>
+      <c r="OH2" s="6"/>
+      <c r="OI2" s="6"/>
+      <c r="OJ2" s="6"/>
+      <c r="OK2" s="6"/>
+      <c r="OL2" s="6"/>
+      <c r="OM2" s="6"/>
+      <c r="ON2" s="6"/>
+      <c r="OO2" s="6"/>
+      <c r="OP2" s="6"/>
+      <c r="OQ2" s="6"/>
+      <c r="OR2" s="6"/>
+      <c r="OS2" s="6"/>
+      <c r="OT2" s="6"/>
+      <c r="OU2" s="6"/>
+      <c r="OV2" s="6"/>
+      <c r="OW2" s="6"/>
+      <c r="OX2" s="6"/>
+      <c r="OY2" s="6"/>
+      <c r="OZ2" s="6"/>
+      <c r="PA2" s="6"/>
+      <c r="PB2" s="6"/>
+      <c r="PC2" s="6"/>
+      <c r="PD2" s="6"/>
+      <c r="PE2" s="6"/>
+      <c r="PF2" s="6"/>
+      <c r="PG2" s="6"/>
+      <c r="PH2" s="6"/>
+      <c r="PI2" s="6"/>
+      <c r="PJ2" s="6"/>
+      <c r="PK2" s="6"/>
+      <c r="PL2" s="6"/>
+      <c r="PM2" s="6"/>
+      <c r="PN2" s="6"/>
+      <c r="PO2" s="6"/>
+      <c r="PP2" s="6"/>
+      <c r="PQ2" s="6"/>
+      <c r="PR2" s="6"/>
+      <c r="PS2" s="6"/>
+      <c r="PT2" s="6"/>
+      <c r="PU2" s="6"/>
+      <c r="PV2" s="6"/>
+      <c r="PW2" s="6"/>
+      <c r="PX2" s="6"/>
       <c r="PY2" s="33"/>
       <c r="PZ2" s="33"/>
-      <c r="QA2" s="33"/>
+      <c r="QA2" s="6"/>
       <c r="QB2" s="33"/>
       <c r="QC2" s="33"/>
-      <c r="QD2" s="33"/>
+      <c r="QD2" s="6"/>
+      <c r="QE2" s="6"/>
+      <c r="QF2" s="6"/>
+      <c r="QG2" s="6"/>
+      <c r="QH2" s="6"/>
+      <c r="QI2" s="6"/>
+      <c r="QJ2" s="6"/>
+      <c r="QK2" s="6"/>
+      <c r="QL2" s="6"/>
+      <c r="QM2" s="6"/>
+      <c r="QN2" s="6"/>
+      <c r="QO2" s="6"/>
+      <c r="QP2" s="6"/>
+      <c r="QQ2" s="6"/>
+      <c r="QR2" s="6"/>
+      <c r="QS2" s="6"/>
+      <c r="QT2" s="6"/>
+      <c r="QU2" s="6"/>
+      <c r="QV2" s="6"/>
+      <c r="QW2" s="6"/>
+      <c r="QX2" s="6"/>
+      <c r="QY2" s="6"/>
+      <c r="QZ2" s="6"/>
+      <c r="RA2" s="6"/>
+      <c r="RB2" s="6"/>
+      <c r="RC2" s="6"/>
+      <c r="RD2" s="6"/>
+      <c r="RE2" s="6"/>
+      <c r="RF2" s="6"/>
+      <c r="RG2" s="6"/>
+      <c r="RH2" s="6"/>
+      <c r="RI2" s="6"/>
+      <c r="RJ2" s="6"/>
+      <c r="RK2" s="6"/>
+      <c r="RL2" s="6"/>
+      <c r="RM2" s="6"/>
+      <c r="RN2" s="6"/>
+      <c r="RO2" s="6"/>
+      <c r="RP2" s="6"/>
+      <c r="RQ2" s="6"/>
+      <c r="RR2" s="6"/>
+      <c r="RS2" s="6"/>
+      <c r="RT2" s="6"/>
+      <c r="RU2" s="6"/>
+      <c r="RV2" s="6"/>
+      <c r="RW2" s="6"/>
+      <c r="RX2" s="6"/>
+      <c r="RY2" s="6"/>
+      <c r="RZ2" s="6"/>
+      <c r="SA2" s="6"/>
+      <c r="SB2" s="6"/>
+      <c r="SC2" s="6"/>
+      <c r="SD2" s="6"/>
+      <c r="SE2" s="6"/>
+      <c r="SF2" s="6"/>
+      <c r="SG2" s="6"/>
+      <c r="SH2" s="6"/>
     </row>
     <row r="3" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5"/>
@@ -1590,8 +2007,6 @@
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="3"/>
       <c r="Z3" s="3"/>
       <c r="AA3" s="3"/>
       <c r="AB3" s="3"/>
@@ -1732,6 +2147,12 @@
         <v>16</v>
       </c>
       <c r="FE3" s="3"/>
+      <c r="PY3" s="26">
+        <v>6</v>
+      </c>
+      <c r="PZ3" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:1082" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5"/>
@@ -1757,12 +2178,6 @@
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
       <c r="W4" s="3"/>
-      <c r="X4" s="26">
-        <v>13</v>
-      </c>
-      <c r="Y4" s="26">
-        <v>13</v>
-      </c>
       <c r="Z4" s="3"/>
       <c r="AA4" s="3"/>
       <c r="AB4" s="3"/>
@@ -1927,10 +2342,22 @@
       <c r="IJ4" s="26">
         <v>6</v>
       </c>
+      <c r="NO4" s="26">
+        <v>15</v>
+      </c>
+      <c r="NP4" s="26">
+        <v>15</v>
+      </c>
       <c r="OQ4" s="26">
         <v>6</v>
       </c>
       <c r="OR4" s="26">
+        <v>6</v>
+      </c>
+      <c r="PY4" s="26">
+        <v>6</v>
+      </c>
+      <c r="PZ4" s="26">
         <v>6</v>
       </c>
     </row>
@@ -1966,12 +2393,8 @@
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
       <c r="W5" s="3"/>
-      <c r="X5" s="26">
-        <v>13</v>
-      </c>
-      <c r="Y5" s="26">
-        <v>13</v>
-      </c>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="3"/>
       <c r="Z5" s="3"/>
       <c r="AA5" s="3"/>
       <c r="AB5" s="3"/>
@@ -2134,6 +2557,30 @@
       <c r="FY5" s="26">
         <v>15</v>
       </c>
+      <c r="GN5" s="29">
+        <v>0</v>
+      </c>
+      <c r="GO5" s="29">
+        <v>0</v>
+      </c>
+      <c r="GP5" s="29">
+        <v>0</v>
+      </c>
+      <c r="GQ5" s="29">
+        <v>0</v>
+      </c>
+      <c r="GR5" s="29">
+        <v>0</v>
+      </c>
+      <c r="GS5" s="29">
+        <v>0</v>
+      </c>
+      <c r="GT5" s="29">
+        <v>0</v>
+      </c>
+      <c r="GU5" s="29">
+        <v>0</v>
+      </c>
       <c r="HD5" s="26">
         <v>12</v>
       </c>
@@ -2146,6 +2593,12 @@
       <c r="IJ5" s="26">
         <v>6</v>
       </c>
+      <c r="IX5" s="26">
+        <v>15</v>
+      </c>
+      <c r="IY5" s="26">
+        <v>15</v>
+      </c>
       <c r="JP5" s="26">
         <v>6</v>
       </c>
@@ -2158,22 +2611,16 @@
       <c r="MF5" s="26">
         <v>6</v>
       </c>
-      <c r="NS5" s="26">
+      <c r="NO5" s="26">
         <v>15</v>
       </c>
-      <c r="NT5" s="26">
+      <c r="NP5" s="26">
         <v>15</v>
       </c>
       <c r="OQ5" s="26">
         <v>6</v>
       </c>
       <c r="OR5" s="26">
-        <v>6</v>
-      </c>
-      <c r="QB5" s="26">
-        <v>6</v>
-      </c>
-      <c r="QC5" s="26">
         <v>6</v>
       </c>
     </row>
@@ -2186,48 +2633,66 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="29">
-        <v>0</v>
-      </c>
-      <c r="J6" s="29">
-        <v>0</v>
-      </c>
-      <c r="K6" s="29">
-        <v>0</v>
-      </c>
-      <c r="L6" s="29">
-        <v>0</v>
-      </c>
-      <c r="M6" s="29">
-        <v>0</v>
-      </c>
-      <c r="N6" s="29">
-        <v>0</v>
-      </c>
       <c r="O6" s="3"/>
       <c r="P6" s="3"/>
       <c r="Q6" s="3"/>
       <c r="R6" s="3"/>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
-      <c r="X6" s="3"/>
-      <c r="Y6" s="3"/>
-      <c r="Z6" s="3"/>
-      <c r="AA6" s="3"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
-      <c r="AD6" s="3"/>
-      <c r="AE6" s="3"/>
-      <c r="AF6" s="3"/>
-      <c r="AG6" s="3"/>
-      <c r="AH6" s="3"/>
-      <c r="AI6" s="3"/>
-      <c r="AJ6" s="3"/>
-      <c r="AK6" s="3"/>
-      <c r="AL6" s="3"/>
+      <c r="U6" s="29">
+        <v>0</v>
+      </c>
+      <c r="V6" s="29">
+        <v>0</v>
+      </c>
+      <c r="W6" s="29">
+        <v>0</v>
+      </c>
+      <c r="X6" s="29">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="29">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="29">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="29">
+        <v>0</v>
+      </c>
       <c r="AM6" s="3"/>
       <c r="AN6" s="3"/>
       <c r="AO6" s="3"/>
@@ -2279,12 +2744,8 @@
       <c r="CA6" s="3"/>
       <c r="CB6" s="3"/>
       <c r="CC6" s="3"/>
-      <c r="CD6" s="26">
-        <v>15</v>
-      </c>
-      <c r="CE6" s="26">
-        <v>15</v>
-      </c>
+      <c r="CD6" s="26"/>
+      <c r="CE6" s="26"/>
       <c r="CF6" s="3"/>
       <c r="CG6" s="3"/>
       <c r="CH6" s="3"/>
@@ -2425,30 +2886,6 @@
       <c r="FY6" s="26">
         <v>15</v>
       </c>
-      <c r="GN6" s="29">
-        <v>0</v>
-      </c>
-      <c r="GO6" s="29">
-        <v>0</v>
-      </c>
-      <c r="GP6" s="29">
-        <v>0</v>
-      </c>
-      <c r="GQ6" s="29">
-        <v>0</v>
-      </c>
-      <c r="GR6" s="29">
-        <v>0</v>
-      </c>
-      <c r="GS6" s="29">
-        <v>0</v>
-      </c>
-      <c r="GT6" s="29">
-        <v>0</v>
-      </c>
-      <c r="GU6" s="29">
-        <v>0</v>
-      </c>
       <c r="IC6" s="26">
         <v>13</v>
       </c>
@@ -2471,18 +2908,6 @@
         <v>6</v>
       </c>
       <c r="MF6" s="26">
-        <v>6</v>
-      </c>
-      <c r="NS6" s="26">
-        <v>15</v>
-      </c>
-      <c r="NT6" s="26">
-        <v>15</v>
-      </c>
-      <c r="QB6" s="26">
-        <v>6</v>
-      </c>
-      <c r="QC6" s="26">
         <v>6</v>
       </c>
     </row>
@@ -2507,59 +2932,11 @@
       <c r="R7" s="3"/>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
-      <c r="U7" s="29">
-        <v>0</v>
-      </c>
-      <c r="V7" s="29">
-        <v>0</v>
-      </c>
-      <c r="W7" s="29">
-        <v>0</v>
-      </c>
-      <c r="X7" s="29">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="29">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AD7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AG7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AH7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AI7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AK7" s="29">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="29">
-        <v>0</v>
+      <c r="X7" s="26">
+        <v>13</v>
+      </c>
+      <c r="Y7" s="26">
+        <v>13</v>
       </c>
       <c r="AM7" s="3"/>
       <c r="AN7" s="3"/>
@@ -2569,23 +2946,6 @@
       <c r="AR7" s="3"/>
       <c r="AS7" s="3"/>
       <c r="AT7" s="3"/>
-      <c r="AU7" s="3"/>
-      <c r="AV7" s="3"/>
-      <c r="AW7" s="3"/>
-      <c r="AX7" s="3"/>
-      <c r="AY7" s="3"/>
-      <c r="AZ7" s="3"/>
-      <c r="BA7" s="3"/>
-      <c r="BB7" s="3"/>
-      <c r="BC7" s="3"/>
-      <c r="BD7" s="3"/>
-      <c r="BE7" s="3"/>
-      <c r="BF7" s="3"/>
-      <c r="BG7" s="3"/>
-      <c r="BH7" s="3"/>
-      <c r="BI7" s="3"/>
-      <c r="BJ7" s="3"/>
-      <c r="BK7" s="3"/>
       <c r="BL7" s="3"/>
       <c r="BM7" s="3"/>
       <c r="BN7" s="3"/>
@@ -2604,12 +2964,8 @@
       <c r="CA7" s="3"/>
       <c r="CB7" s="3"/>
       <c r="CC7" s="3"/>
-      <c r="CD7" s="26">
-        <v>15</v>
-      </c>
-      <c r="CE7" s="26">
-        <v>15</v>
-      </c>
+      <c r="CD7" s="26"/>
+      <c r="CE7" s="26"/>
       <c r="CF7" s="3"/>
       <c r="CG7" s="3"/>
       <c r="CH7" s="3"/>
@@ -2666,12 +3022,6 @@
       <c r="ID7" s="26">
         <v>13</v>
       </c>
-      <c r="IX7" s="26">
-        <v>15</v>
-      </c>
-      <c r="IY7" s="26">
-        <v>15</v>
-      </c>
       <c r="OJ7" s="26">
         <v>6</v>
       </c>
@@ -2688,12 +3038,24 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
+      <c r="I8" s="29">
+        <v>0</v>
+      </c>
+      <c r="J8" s="29">
+        <v>0</v>
+      </c>
+      <c r="K8" s="29">
+        <v>0</v>
+      </c>
+      <c r="L8" s="29">
+        <v>0</v>
+      </c>
+      <c r="M8" s="29">
+        <v>0</v>
+      </c>
+      <c r="N8" s="29">
+        <v>0</v>
+      </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3"/>
       <c r="Q8" s="3"/>
@@ -2703,8 +3065,12 @@
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
       <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
+      <c r="X8" s="26">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="26">
+        <v>13</v>
+      </c>
       <c r="Z8" s="3"/>
       <c r="AA8" s="3"/>
       <c r="AB8" s="3"/>
@@ -2726,23 +3092,51 @@
       <c r="AR8" s="3"/>
       <c r="AS8" s="3"/>
       <c r="AT8" s="3"/>
-      <c r="AU8" s="3"/>
-      <c r="AV8" s="3"/>
-      <c r="AW8" s="3"/>
-      <c r="AX8" s="3"/>
-      <c r="AY8" s="3"/>
-      <c r="AZ8" s="3"/>
-      <c r="BA8" s="3"/>
+      <c r="AU8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AY8" s="29">
+        <v>0</v>
+      </c>
+      <c r="AZ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="29">
+        <v>0</v>
+      </c>
       <c r="BB8" s="3"/>
       <c r="BC8" s="3"/>
       <c r="BD8" s="3"/>
-      <c r="BE8" s="3"/>
-      <c r="BF8" s="3"/>
-      <c r="BG8" s="3"/>
-      <c r="BH8" s="3"/>
-      <c r="BI8" s="3"/>
-      <c r="BJ8" s="3"/>
-      <c r="BK8" s="3"/>
+      <c r="BE8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BF8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BG8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BH8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BI8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BJ8" s="29">
+        <v>0</v>
+      </c>
+      <c r="BK8" s="29">
+        <v>0</v>
+      </c>
       <c r="BL8" s="3"/>
       <c r="BM8" s="3"/>
       <c r="BN8" s="3"/>
@@ -3013,51 +3407,6 @@
       <c r="AR9" s="3"/>
       <c r="AS9" s="3"/>
       <c r="AT9" s="3"/>
-      <c r="AU9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AV9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AW9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AY9" s="29">
-        <v>0</v>
-      </c>
-      <c r="AZ9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BA9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BB9" s="3"/>
-      <c r="BC9" s="3"/>
-      <c r="BD9" s="3"/>
-      <c r="BE9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BF9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BG9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BH9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BI9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BJ9" s="29">
-        <v>0</v>
-      </c>
-      <c r="BK9" s="29">
-        <v>0</v>
-      </c>
       <c r="BL9" s="3"/>
       <c r="BM9" s="3"/>
       <c r="BN9" s="3"/>
@@ -3172,12 +3521,8 @@
       <c r="FR9" s="29">
         <v>0</v>
       </c>
-      <c r="FZ9" s="26">
-        <v>16</v>
-      </c>
-      <c r="GA9" s="26">
-        <v>16</v>
-      </c>
+      <c r="FZ9" s="26"/>
+      <c r="GA9" s="26"/>
       <c r="JL9" s="3"/>
       <c r="KA9" s="26">
         <v>12</v>
@@ -3388,12 +3733,8 @@
       <c r="CR10" s="3"/>
       <c r="CS10" s="3"/>
       <c r="CT10" s="3"/>
-      <c r="CV10" s="26">
-        <v>17</v>
-      </c>
-      <c r="CW10" s="26">
-        <v>17</v>
-      </c>
+      <c r="CV10" s="3"/>
+      <c r="CW10" s="3"/>
       <c r="CX10" s="3"/>
       <c r="CY10" s="3"/>
       <c r="CZ10" s="3"/>
@@ -3454,12 +3795,8 @@
       <c r="FC10" s="3"/>
       <c r="FD10" s="3"/>
       <c r="FE10" s="3"/>
-      <c r="FZ10" s="26">
-        <v>16</v>
-      </c>
-      <c r="GA10" s="26">
-        <v>16</v>
-      </c>
+      <c r="FZ10" s="26"/>
+      <c r="GA10" s="26"/>
       <c r="GF10" s="3"/>
       <c r="GG10" s="3"/>
       <c r="GH10" s="3"/>
@@ -3638,12 +3975,8 @@
       <c r="CS11" s="3"/>
       <c r="CT11" s="3"/>
       <c r="CU11" s="3"/>
-      <c r="CV11" s="26">
-        <v>17</v>
-      </c>
-      <c r="CW11" s="26">
-        <v>17</v>
-      </c>
+      <c r="CV11" s="3"/>
+      <c r="CW11" s="3"/>
       <c r="CX11" s="3"/>
       <c r="CY11" s="3"/>
       <c r="CZ11" s="3"/>
